--- a/기사데이터/토스/엑셀파일/news(토스, 2022.03.16~2022.03.31).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2022.03.16~2022.03.31).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2955,2507 +2955,6 @@
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>2022.03.23.</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>토스뱅크 성장세 무섭네…출범 5개월 만에 235만 고객 돌파</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/076/0003844604?sid=101</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>토스뱅크가 출범 5개월 만에 235만 고객을 넘어섰다. '연 2%' 금리(세전)의 '토스뱅크통장'의 가입 고객 수도 200만 명을 돌파했다. 23일 토스뱅크에 따르면 이달 21일 기준 토스뱅크를 가입·이용하는 고객은 총 235만2202명으로 나타났다. 지난해 10월 5일 영업을 시작한 이후 167일 만이다. 토스뱅크 이용 고객 가운데 토스뱅크통장을 개설한 고객은 205만5255명이었다. 이들 중 83.2%가 토스뱅크통장을 실제로 사용하고 있는 고객으로 나타났다. 토스뱅크통장 고객은 1인당 평균 831만 원을 맡기고 사용했다. 토스뱅크통장 고객이 200만 명을 넘어서며 수신액도 17조 원을 돌파했다. 출범과 동시에 토스뱅크통장 하나만을 운영하며 고객 편의성을 강화한 덕분이라고 토스뱅크 측은 설명했다. 토스뱅크는 최근 국내 은행 최초로 수시입출금 통장에 매일 이자를 지급하는 '지금 이자받기' 서비스를 출시했다. 기존 월복리에서 일복리 효과가 더해지며 이른바 '짠테크' 효과를 누리는 고객들까지 더해지는 추세다. 일주일 만에 약 87만8053명의 고객들이 서비스를 이용했다. 토스뱅크통장에 가입한 고객의 연령대도 고루 분포했다. 30대 고객이 26.9%로 가장 많았다. 20대(24.8%), 40대(24.4%)가 뒤를 이었다. 50대 이상의 경우 6명 중 1명 꼴(17.2%)로, 10대(6.7%)보다 많은 비중을 차지했다.토스뱅크는 앞서 2차례 선제적인 유상증자 단행을 통해 총 8500억 원의 자본금을 확충하며, 건전성도 강화했다.토스뱅크 관계자는 "지금까지 토스뱅크가 고객 중심으로 금융을 이해하고, 상품을 선보이며, 지속적으로 성장할 수 있었던 배경에는 고객들이 있었다"며 "초기 여신 영업 한계를 극복한 만큼 다양한 고객 중심의 서비스를 통해 계속 성장해 나가고자 한다"고 밝혔다. ▶ 무료로 보는 오늘의 운세- Copyrightsⓒ 스포츠조선(http://sports.chosun.com/), 무단 전재 및 재배포 금지</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2022.03.16.</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>[비즈&amp;] 르노삼성, 삼성 떼고 '르노코리아자동차' 새출발 外</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/422/0000532859?sid=101</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>이번 시간은 경제계 뉴스를 알아보는 비즈&amp; 시간입니다.오늘은 어떤 소식들이 있는지 살펴보겠습니다.▶ 르노삼성, 삼성 떼고 '르노코리아자동차' 새출발르노삼성차가 회사명에서 '삼성'을 빼고 '르노코리아 자동차'로 사명을 바꿉니다. 한국 시장에 뿌리를 둔 기업으로서의 정체성과,  한국 시장에 더욱 집중하겠다는 뜻을 담았다고 설명했는데요. 르노 삼성차는 앞으로 새 사명 아래 국내 시장에서 친환경차 라인업을 강화할 방침입니다.▶ 토스뱅크, 은행 최초로 매일 이자 즉시 지급토스뱅크가 은행 최초로 매일 이자를 지급하는 서비스를 시작했습니다. 토스뱅크 통장 보유 고객이면 누구나 버튼 한 번으로 매일 한 번씩 이자를 받을 수 있고, 언제든지 출금할 수 있습니다. 만약 1억원을 예치했다면, 매일 세전 기준으로 5,400원 정도를 이자로 받게 됩니다.▶ 풀무원·파리바게뜨, 대체육 샌드위치·버거 출시파리바게뜨가 풀무원과 손을 잡고, 두부와 식물성 대체육이 들어간 샌드위치와 버거, 샐러드를 선보입니다. 이는 건강과 환경을 위한 식문화를 제안하는 '그린 페어' 캠페인의 일환으로, 다음달 30일까지 전국의 파리바게뜨 매장에서 만나보실 수 있습니다.▶ 현대차, 사회 문제 해결 스타트업에 2억원 지원현대차그룹과 현대차 정몽구 재단이 사회적 문제를 해결하는 스타트업을 모집합니다. 'H-온드림 스타트업 그라운드' 사업의 일환으로, 모두 28팀의 기업을 선발해 지원합니다. 팀별로 기본 2천만원에서 최대 2억원까지 제공됩니다.▶ 케이뱅크, 목표 금액 모으면 호텔 숙박권 증정케이뱅크가 호텔 안다즈, 소피텔과 함께, 숙박권을 증정하는 '100일 호캉스 챌린지'를 진행합니다. 케이뱅크의 목돈 모으기 상품 '챌린지박스'에 가입해, 다음달 14일까지 목표액을 모으면 추첨으로 숙박권과 식사권 등 경품을 받을 수 있는데요.이벤트에 참여하려면 챌린지박스를 도전 기간 100일, 목표액 200만원 이상으로 설정하면 됩니다.연합뉴스TV 기사문의 및 제보 : 카톡/라인 jebo23</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>2022.03.18.</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>토스뱅크, '지금 이자 받기' 출시 이틀 만에 66억원 이자 지급</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011069939?sid=101</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스]이주혜 기자 = 토스뱅크가 국내 은행 최초로 선보인 '지금 이자 받기 서비스'로 고객들이 받은 이자가 출시 이틀 만에 66억원을 돌파했다고 18일 밝혔다.토스뱅크에 따르면 이날 오전 9시까지 고객들이 받아간 이자 금액은 총 66억5576만원이다. 고객 41만여명이 '지금 이자받기' 서비스를 이용했으며, 평균 이자 수령 금액은 약 1만6200원으로 나타났다.토스뱅크는 16일부터 '토스뱅크통장'을 보유한 고객을 대상으로 매일 한 번씩 고객들이 원할 때 즉시 이자를 받을 수 있는 서비스를 제공하고 있다. '토스뱅크통장'은 세전 연 2% 이자(1억원 초과시 0.1% 금리 적용)를 지급하는 수시입출금 통장이다. 고객은 '지금 이자 받기' 클릭 한 번으로 매월 한 차례 지급되던 이자를 매일 통장으로 받게 된다. 토스뱅크 관계자는 "출시 이틀 만에 41만명의 고객이 서비스를 이용했다는 것에서 '고객 경험의 혁신'이 이뤄지고 있음을 체감하고 있다"며 "고객 중심의 금융으로 한발 더 나아갈 수 있도록 노력하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>2022.03.28.</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>DGB대구은행, 전세대출 금리 인하ㆍ취급제한 해제</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002270629?sid=101</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>시중은행에 이어 지방은행인 DGB대구은행도 5개월 만에 전세자금 대출 문턱을 낮추고 금리를 내리는 등 대출 세일에 나섰다.   DGB대구은행은 전세자금대출 금리를 인하하고 작년 10월부터 시행한 취급 제한도 해제한다고 28일 밝혔다.   이에 따라 DGB대구은행의 전세자금대출은 잔금일과 전입일 중 빠른 날로부터 3개월 이내 대출 신청이 가능해졌다. 또, 부부합산 1주택자에 대한 비대면 전세자금대출 취급제한이 해제됐으며, 전세계약 갱신 계약서상 임차보증금의 80% 이내에서 대출이 허용된다.   특히 지난 25일부터는 전세자금대출 신규 취급분에 대해 1000억 원 한도로 금리도 내렸다. 대상 상품은 DGB전세자금대출, DGB 파워(POWER) 전세보증대출, 무방문전세자금대출 등 3종이다. 이달 22일 기준 우대금리 적용 시 DGB전세자금대출 최저금리는 3.06%(3개월 변동), 무방문전세자금대출(모바일)의 최저금리는 3.21%(3개월 변동)가 적용된다.   아울러 주택담보대출 취급기준을 개정하여 최장만기일을 기존 35년에서 40년으로 변경, 가계의 상환 부담을 완화할 예정이다.   DGB대구은행은 영업점 방문 없이 공인인증서와 휴대폰만 있으면 복잡한 서류제출 없이도 모바일로 쉽게 대출이 가능한 대출 시스템을 구비하고 있으며, 담비나 뱅크몰 등의 비대면 플랫폼에 입점해 고객 편의성을 높였다. 또한 토스, 카카오페이, 핀다 등 다양한 업종의 디지털 플랫폼과 제휴를 맺고 있으며, 특화된 비대면 전용 대출 라인업으로 선택권을 넓히고 있다.   이와 함께 DGB대구은행과 거래하는 사업체 임직원들의 대출 금리를 우대해주는 ‘DGB NEW절친기업 대출 우대금리 이벤트’도 실시하고 있다. 오는 6월말까지 한시적으로 실시하는 본 우대 이벤트는 사전 조사를 통해 선정된 업체에 종사하는 직원이 IM직장인간편신용대출 신청 시 우대금리 0.3%p를 적용하여 주는 것으로 총 한도 1000억원으로 운용된다.   임성훈 은행장은 “5개월 만에 대출 문턱을 낮추는 것만큼 취급기준 완화 및 우대금리 이벤트를 통해 실수요자에게 적극적인 지원을 하겠다”고 밝히면서 “금리 인하와 고객 니즈에 맞는 다양한 상품구비로 고객의 편의성을 향상시켜 나가겠다”는 뜻을 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>2022.03.23.</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>‘연 2%’ 토스뱅크 통장에 17조원 모였다… 케뱅도 넘어서</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000801445?sid=101</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>‘무조건 연 2%’ 금리를 내세운 인터넷전문은행 토스뱅크 통장에 17조원에 달하는 금액이 모인 것으로 나타났다. 출범한 지 다섯 달 만에 수신액 규모 면에서 1호 인터넷은행 케이뱅크를 앞지르게 된 것이다.23일 은행권에 따르면, 3월 현재 토스뱅크의 수신액은 17조원을 넘어섰다. 수신액으로만 보면 케이뱅크보다 큰 규모다. 지난달 말 기준 케이뱅크와 카카오뱅크의 수신 잔액은 각각 11조6900억원, 32조5287억원으로 집계됐다.서울 강남구 토스뱅크 본사의 모습. /연합뉴스        이 중 은행·인터넷전문은행·증권사 등 여타 금융기관에서 몰린 수신액의 비중이 85%에 달한다. 한 은행권 관계자는 “한동안 이어진 저금리 기조에 은행 예·적금 상품에 대한 선호도가 낮은 편이었다”며 “토스뱅크가 전에 없던 형태의 연 2%의 금리를 주는 수시입출식 통장을 선보이면서 토스뱅크로의 자금 이탈 현상이 벌어진 것 같다”고 말했다.고객 수는 235만2202명으로 집계됐다. 1인당 평균 831만원을 토스뱅크 통장에 맡기고 사용했으며, 이들은 월평균 3만7200원의 이자를 지급받았다. 가입자 연령대는 30대가 26.9%로 가장 많았고, ▲20대(24.8%) ▲40대(24.4%) ▲50대(17.2%) ▲10대(6.7%) 순으로 나타났다.앞서 토스뱅크는 지난해 10월 출범한 지 9일 만에 가계대출 총량 규제에 가로막혀 대출 영업을 중단했다가 올해 1월 1일 재개했다. 이 때문에 여신액은 현재 인터넷은행 3사 중 가장 작은 규모를 기록하고 있다. 토스뱅크의 여신 잔액은 2조5000억원가량인데, 카카오뱅크와 케이뱅크는 지난달 말 기준 각각 25조8980억원과 7조4900억원을 기록했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2022.03.24.</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>이원덕 우리은행장 취임…고객 중심 현장 경영 나서</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004677752?sid=101</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>"고객의, 고객에 의한, 고객을 위한 우리은행""네이버페이 토스 등 앞질러가고 있어"우리은행은 24일 서울 중구 본점에서 '신임 이원덕 은행장 취임식'을 진행했다. 이원덕 은행장은 고객 중심 경영의 포부를 밝혔다. (사진 = 우리은행)우리은행은 24일 정기 주주총회를 열고 이원덕 신임 우리은행장의 취임을 확정했다. 이 행장은 1962년생으로 1990년 우리은행에 입사했다. 전략기획팀 수석부부장, 우리은행 미래전략부장(영업본부장), 미래전략단장(상무), 우리금융지주 전략부문 부사장, 수석 부사장 등을 역임했다. 이 행장은 이날 중구 본점에서 열린 취임식에서 "완전 민영화는 위대한 은행으로 도약하기 위한 우리 여정의 새로운 출발점으로, 더 크고 높은 영광의 역사를 펼쳐나가자"고 밝혔다. 고객 중심의 경영을 강조했다. 그는 "위대한 은행은 얼마나 많은 고객으로부터, 얼마나 많은 사랑을 받느냐에 의해 결정된다"며 "고객의, 고객에 의한, 고객을 위한 우리은행은 당연한 것"이라고 말했다. 플랫폼과의 경쟁에도 적극적으로 나서야 한다고 주문했다. 그는 "4차 산업혁명의 본질은 경계의 붕괴다. 보호 산업이었던 금융의 경계도 허물어지고 있다"며 "지급결제 업무만 보더라도 네이버페이, 토스, 삼성페이가 우리를 훨씬 앞질러 가고 있다"고 말했다.이 행장은 "우리는 이러한 변화에 한발 먼저 나아가야 한다"라며 "기존 은행뿐만 아니라 거대 플랫폼, IT기업들과 경쟁하기 위해 테크놀로지와 플랫폼에 모든 역량과 자원을 집중하겠다"고 강조했다.이 행장은 취임식을 마치고 서울 우리은행 수유동금융센터 등을 찾아 현장 의견을 들었다. 수유동금융센터는 방문고객 수가 전국에서 가장 많은 지점이다. 신임 행장을 맞이한 우리은행은 본부 지원조직을 축소하고, 영업 총괄 및 외환 등 현장 영업 담당 등 영업 부문 조직을 강화할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2022.03.16.</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>토스뱅크, 매일 접속하면 매일 이자 준다…'일복리 효과'</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004674515?sid=101</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>사진=연합뉴스인터넷전문은행 토스뱅크가 은행권 최초로 매일 이자를 지급하는 서비스를 16일 선보였다.'토스뱅크 통장' 가입자가 스마트폰 앱에서 '지금 이자 받기'를 누르면 매일 한 번씩, 즉시 이자를 받을 수 있다. 이 상품은 1억원까지는 연 2%, 1억원 초과분에는 연 0.1% 금리를 적용하는 수시입출금 통장이다. 1억원을 예치했을 때 하루치 이자는 약 5400원이다.토스뱅크에 매일 접속해 이자를 받는다면 일복리 효과를 누릴 수 있다. '지금 이자 받기' 기능을 이용하지 않으면 이전 방식대로 매월 세 번째 토요일에 이자가 지급된다.토스뱅크 관계자는 "이번 시도는 '왜 은행은 한 달에 한 번, 은행이 정한 날짜에만 이자를 줄까'라는 고객 관점의 물음에서 시작했다"며 "공급자 중심의 금융을 고객 중심으로 바꿔 나가는 계기가 됐으면 한다"고 했다.가입자들이 토스 앱에 더 자주 들어오도록 유인하는 효과도 노린 것으로 보인다. 토스 회원은 지난달 기준 2100만명 선이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>2022.03.22.</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>주민등록등본 등 전자증명서 신청…토스에서 한 번에</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000660846?sid=101</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>공인인정서 없이도 발급…앱에 이어 모바일·PC서도 서비스 개시토스가 이용자의 사용 편의성을 높인 '토스 주민센터' 웹 홈페이지를 오픈한다고 22일 밝혔다.토스주민센터 관련 이미지 [사진=토스]기존 토스 애플리케이션(앱)에서 이용하던 '토스 주민센터'를 PC와 모바일 웹에서도 사용할 수 있게 됐다. 주민등록등본, 건강보험자격득실확인서 등 자주쓰는 전자증명서를 손쉽게 신청할 수 있다.예로, 주민등록등본 발급이 필요한 경우 토스 주민센터 홈페이지에 접속해 시·도, 시·군·구의 정보만 선택하면 QR코드가 생성된다. 화면상의 QR코드를 휴대폰 카메라로 인식하면 토스 앱이 실행되고 등본 발급을 완료할 수 있다. 발급된 증명서는 따로 저장하거나 필요 기관으로 바로 보내면 된다. 별도의 공동인증서 인증 없이 토스인증서 만으로 사용할 수 있다.토스 앱에 있는 토스 주민센터에서는 더 다양한 서비스를 경험할 수 있다. 메뉴는 크게 ▲증명서 떼기 ▲생활요금·세금 내기 ▲내 공공 알림으로 구성돼 있다. 현재 총 61종의 전자증명서를 조회·발급할 수 있고, 통신비와 아파트 관리비 등 생활요금도 결제할 수 있다. 토스 앱을 실행한 후 전체메뉴에서 토스 주민센터에 들어가 신청하면 된다.박홍비 토스 프로덕트오너는 "토스 앱 하나로 다양한 전자증명서를 발급할 수 있던 기존 서비스에 PC나 모바일 웹을 통해서도 이용할 수 있도록 접근성을 대폭 향상 시켰다"며 "더 많은 증명서를 홈페이지에서 신청하고 바로 출력할 수 있는 서비스도 곧 선보이게 될 것"이라고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>2022.03.23.</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>토스뱅크 벌써 235만명 돌파… "6초에 1명 가입"</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002726064?sid=101</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>토스뱅크가 출범 5개월 만에 235만 고객을 넘어섰다. '연 2%' 금리 혜택을 제공하는 '토스뱅크 통장' 가입 고객 수도 200만 명을 돌파했다고 23일 밝혔다.토스뱅크에 따르면 이달 21일 기준 토스뱅크를 가입·이용하는 고객은 총 235만2202명으로 나타났다. 지난해 10월5일 영업을 시작한 이후 167일 만이다. 대출한도 조회부터 대출 실행, 연 2% 금리(세전) 혜택을 제공하는 토스뱅크통장, 즉시 캐시백 혜택 체크카드 등 다양한 서비스가 인기를 끌었다.이는 6초에 1명, 1분 당 약 10명이 토스뱅크의 신규 고객이 된 셈이다. 지난해 10월14일은 하루에만 23만여 명의 고객이 토스뱅크를 찾았다. 이날은 출범 직후 제한적 영업을 이어오던 토스뱅크가 대고객 오픈을 결정한 날이었다. 일평균 가입고객은 약 1만4000명에 달한다. 토스뱅크 이용 고객 가운데 토스뱅크통장을 개설한 고객은 205만5255명이었다. 이들 중 83.2%가 토스뱅크통장을 실제로 사용하고 있는 고객으로 나타났다. 이른바 '실사용 고객'으로 계좌에 '1원 이상' 잔고를 보유하고 있으며, 이체·송금 등 다양한 뱅킹서비스를 이용하는 고객이다. 토스뱅크통장 고객은 1인당 평균 831만원을 맡기고 사용했다. 실질 고객 수만큼 수신 규모도 급증했다. 토스뱅크통장 고객이 200만명을 넘어서며 수신액도 17조원을 돌파했다.은행, 인터넷전문은행, 증권사에서만 수신액의 85% 가량이 몰리며 전 금융권에서 고객들의 발길이 이어진 영향이란 분석이다.출범 당시부터 하나만 운영하던 토스뱅크통장의 높은 활용성과 소비자 효용이 높다는 점이 고객들의 이목을 끌었다는 설명이다.  토스뱅크는 앞서 2차례 선제적인 유상증자 단행을 통해 총 8500억원의 자본금을 확충하는 등 건전성도 강화했다. 토스뱅크 관계자는 "현재 대출영업의 안정적인 성장과 함께 자산운용을 통해 안정적인 수익을 거둠으로써 고객들께 혜택으로 돌려드리고 있다"고 말했다.토스뱅크통장을 보유한 고객들은 월 평균 3만7200원의 이자를 받았다. 토스뱅크는 최근 국내 은행 최초로 수시입출금 통장에 매일 이자를 지급하는 '지금 이자받기' 서비스를 출시한 바 있다. 일주일 만에 약 87만8053명의 고객들이 서비스를 이용했다. 토스뱅크통장에 가입한 고객의 연령대는 다양했다. 30대 고객이 26.9%로 가장 많았고 20대(24.8%), 40대(24.4%)가 소폭의 차이를 보이며 다음을 차지했다. 50대 이상의 경우 6명 중 1명 꼴(17.2%)로, 10대(6.7%)보다 많은 비중을 차지했다.토스뱅크 관계자는 "지금까지 토스뱅크가 고객 중심으로 금융을 이해하고, 상품을 선보이며 지속적으로 성장할 수 있었던 배경에는 고객들이 있었다"며 "초기 여신 영업 한계를 극복한 만큼 다양한 고객 중심의 서비스를 통해 계속 성장해 나가고자 한다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2022.03.19.</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>'차별화된 서비스'로 국내 대표 투자사들이 점찍은 스타트업은?</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005060529?sid=101</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>먼슬리키친 230억 규모 시리즈B 투자 완료 업라이즈, 새로운 자산관리 기업 성장 기대 코딩교육 팀스파르타 매출 전년比 500%↑DS자산운용, KTB네트워크 등 국내 대표 벤처캐피탈(VC)들이 투자한 스타트업이 잭팟을 터트리며 이들이 최근 투자한 업체에 대한 관심이 높아지고 있다. DS자산운용은 우아한형제들과 직방, 마켓컬리 등에 투자했다. 펄어비스에 70억원을 투자해 243억원을 회수하며 투자수익률 247.73%를 기록했다. KTB네트워크도 비바리퍼블리카(토스), 스타일쉐어 등에 투자하며 호실적을 거뒀다.디지털 외식플랫폼 '먼키'를 운영하는 먼슬리키친은 230억원 규모의 시리즈B 투자를 완료했다. 기존 재무적 투자자인 DS자산운용과 전략적 투자자인 휴맥스가 시리즈A에 이어 후속 투자했고, 신한벤처투자가 신규 투자자로 참여했다. 먼키는 모든 외식업자들이 누릴 수 있는 스마트 외식솔루션을 개발한다는 측면에서 투자자들의 관심을 샀다.DS자산운용 관계자는 "외식산업은 매우 구태연한 운영 형태를 보이는 등 디지털화, 스마트화가 덜 된 산업"이라며 "먼키가 문제점을 해결해나간다면 탁월한 플랫폼이 될 수 있을 것"이라고 밝혔다.먼키 애플리케이션투자와 자산관리의 대중화라는 비전을 갖추고 설립된 핀테크 기업 업라이즈는 240억원 규모의 시리즈C 라운드 투자금을 유치했다. 업라이즈는 디지털 자산 재테크 '헤이비트'와 글로벌 ETF 자동투자 서비스 '이루다투자'를 서비스하고 있다.이번 투자는 KTB네트워크의 리드로 캡스톤파트너스, 서울투자파트너스 등이 새로운 투자자로 합류했으며, 기존 투자자인 카카오벤처스가 참여했다. 디지털 자산의 제도권 진입과 로보어드바이저의 대중화가 이뤄지고 있어 업라이즈의 성장을 기대했다.임동현 KTB네트워크 전무는 "업라이즈는 디지털 자산(헤이비트)의 수익성과 전통 제도권 금융(이루다투자)의 확장성을 결합해 기존의 자산 운용의 한계를 극복하고, 새로운 자산관리 기업으로 성장할 것으로 기대한다"고 밝혔다.코딩 교육 서비스를 운영하는 팀스파르타는 KB인베스트먼트, DS자산운용, 스마일게이트인베스트먼트 등으로부터 130억원 규모의 시리즈A 투자를 유치했다.팀스파르타는 2019년 4월 '스파르타코딩클럽'을 시작으로 꾸준히 순이익을 내며 개발자 양성 부트캠프 '항해99', 직장인 창업 부트캠프 '{창}'을 운영하고 있다. 지난해 매출액은 105억원으로 2020년(21억원) 대비 500% 이상 증가했다.이지애 KB인베스트먼트 상무는 "단편적인 코딩 교육 기업이 아닌 4차 산업 전반에 걸쳐 더 큰 역할을 기여하고자 하는 비전에 매료됐다"며 "앞으로 팀스파르타가 해나갈 일들이 더욱 기대된다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>2022.03.16.</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>토스뱅크 “매일 이자 받으세요”..출금도 언제든 OK</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005167779?sid=101</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>‘지금 이자 받기’ 누루면, 통장으로 바로 이자 입금[이데일리 전선형 기자]토스뱅크가 국내 은행 최초로 고객들에게 매일 이자를 지급한다. 토스뱅크는 매일 한 번씩 고객들이 원할 때 즉시 이자를 받을 수 있도록 ‘지금이자받기’ 기능을 추가했다고 16일 밝혔다. 대상은 ‘토스뱅크통장’을 보유한 고객이며, 고객이 ‘지금 이자 받기’ 클릭하면 매월 한 차례 지급되던 이자를 매일 통장으로 받을 수 있다. 예를들어 1억원을 예치한 고객의 경우 매일 세전 약 5400원 상당의 이자를 출금하는 경험을 누릴 수 있게 된다. 쌓인 이자가 최소 1원 이상일 경우 받을 수 있고, 출금도 고객이 원하면 언제든 가능하다. 토스뱅크통장은 세전 연 2% 이자를 지급하는 수시입출금 통장으로, 최대 한도 1억원까지 해당 금리를 적용한다(1억 원 초과시 0.1% 금리 적용). 매일 이자받기를 통해 ‘업그레이드’된 토스뱅크통장은 매일 남은 잔액을 기준으로 이자가 쌓이는 ‘일 복리’ 구조를 고객들에게 제공한다. 고객들의 경우 돈을 많이 보관할수록, 또 이자를 매일 받을수록 유리하다. 이로써 연 2%(세전)의 높은 금리 혜택은 더욱 강화될 전망이다.‘지금 이자받기’를 클릭하지 않은 고객은 이전과 마찬가지로 쌓인 이자를 매월 세 번째 토요일에 일할 계산해 받게 된다. 토스뱅크는 올 연말까지 ‘지금 이자받기’ 서비스를 운영하며 안정화 과정을 거친 후, 이를 상시화 할 계획이다.토스뱅크 관계자는 “그동안 고객들은 은행이 정한 날짜에 이자를 받는 것만 생각했지, 매일 받을 수 있는 것은 생각할 수 없었다”며 “기획과 개발에만 수 개월을 쏟아부은 결과가 공급자 중심의 금융을 고객 중심으로 바꾸어 나가는 계기가 됐으면 한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>2022.03.18.</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>가상자산시장 판 커지나…카뱅 “코인 성장하면 뱅킹과 연결”</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005169843?sid=101</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>[IBFC 2022]윤호영 카카오뱅크 대표, 디지털 금융 강조현재 코인 사업 없지만, 향후 2030고객 코인+뱅킹 주시“변화하지 않으면 토태될 것…변화시킬 금융 분야 많아”전문가 “금융혁신 꺾으면 안 돼…윤석열정부 비전 기대”[이데일리 최훈길 전선형 서대웅 기자] “(코인이) 플랫폼으로 어느 정도 성장해 삶에 들어온다면 반드시 빠른 속도로 뱅킹(은행)과 연결 시켜주는 역할을 기술적으로 해야 한다고 생각합니다. (지금은 코인 시장을) 지켜보고 있습니다.” 윤호영 카카오뱅크(323410) 대표는 ‘가상자산(코인) 분야로 진출할 계획이 있나’는 질문에 이같이 답했다. 윤 대표는 “현재는 라이선스(은행업 인가) 안에서 가상자산 규제가 마련돼 있지 않다”며 코인시장 진출에 선을 그으면서도, 코인 시장 성장세에 따라 향후에 진출할 가능성을 부인하지는 않았다.  윤호영 카카오뱅크 대표가 18일 제주 서귀포시 해비치호텔앤드리조트에서 이데일리 주최로 열린 ‘제11회 국제 비즈니스·금융 콘퍼런스(IBFC)’에서 디지털 금융을 강조했다. (사진=방인권 기자)“2030에게 가상자산은 삶…코인 시장 지켜보고 있어”윤 대표는 18일 제주 서귀포시 해비치호텔앤드리조트에서 이데일리 주최로 열린 ‘제11회 국제 비즈니스·금융 콘퍼런스(IBFC)’ 랩업세션 ‘디지털 금융시대 혁신과 어떻게?’에서 이같이 말했다. 고객 수가 1799만명(작년 기준)에 달하는 인터넷 전문은행인 카카오뱅크가 코인 시장에 진출하면 시장 판도가 달라질 수밖에 없다. 윤 대표가 코인 시장을 유심히 지켜보는 것은 MZ세대 움직임이 심상치 않아서다. 윤 대표는 “이미 2030은 가상자산 경험이 있고, 매일 트레이딩(거래) 하는 분도 많다. 그분들한텐 가상자산이 삶이 됐다”며 “(카카오뱅크는) 삶을 뱅킹으로 지원해야겠다는 생각을 갖고 있다”고 전했다. 금융위원회 산하 금융정보분석원(FIU)에 따르면 코인 계정이 있는 이용자는 1525만명(이하 작년  기준)에 달한다. 이들 상당수는 2030 세대다. 가상자산 사업자의 일 평균 거래 규모는 11조3000억원를 기록했다. 신한은행, K뱅크, NH농협은행, 전북은행이 5대 거래소(업비트·빗썸·코인원·코빗·고팍스)와 실명계좌 제휴를 했을뿐, 코인과 연계한 상품을 직접 만든 은행은 없다. 최근 토스의 가상자산시장 진출설이 제기됐지만 토스는 “사실무근”이라고 선을 그었다.  윤 대표는 아직 현실화하지는 않았지만 곧 도래할 디지털 금융 변화를 주시했다. 윤 대표는 “지금까지 금융은 금융인더스터리(산업)의 전문성을 가지고 끌고 왔다. 고객들이 찾아오게 했는데 이제는 어려울 것”이라며 “이제는 (금융이) 변화돼 있는 삶 속에 스며들지 않으면 도태될 것”이라고 단언했다. 이어 “디지털 라이프의 서브(제공자)로서 철저하게 유저 라이프에 맞춰지는 금융이 돼야 금융이 발전할 것”이라고 내다봤다. 박수용 서강대 컴퓨터공학과 교수(사진 왼쪽부터), 윤호영 카카오뱅크 대표, 오정근 건국대 금융IT학과 교수가 18일 제주 서귀포시 해비치호텔앤드리조트에서 열린 ‘제11회 국제 비즈니스·금융 콘퍼런스(IBFC)’ 랩업세션에서 ‘디지털 금융시대 혁신과 어떻게?’ 주제로 토론을 하고 있다. ‘데이터 전쟁, 금융의 미래’ 주제로 열린 ‘제11회 국제 비즈니스·금융 콘퍼런스(IBFC)’는 금융의 영역으로 빠르게 진출하며 새 시장을 형성하고 있는 신규 기술과 서비스들의 현 주소를 진단하고 기존 금융산업과의 상생 방안은 무엇인지 논의하기 위해 마련됐다. (사진=이영훈 기자)카카오뱅크를 비롯한 인터넷 은행들의 차별화 전략도 과제다. 윤 대표는 이 과제의 해법도 고객에서 찾았다. 그는 “혁신이라는 것은 ‘많은 유저들이 기존 레거시(전통적) 행태를 버리고 새로운 것을 선택해 새로운 것이 노멀(일반화)이 되는 것’이다. 더 많은 유저가 더 많이 쓰는 게 혁신”이라며 “혁신의 판단 주체는 사업자도 정부도 아니고 유저”라고 말했다. 그는 ‘카드사·시중은행도 마이데이터에 진출하는 상황에서 인터넷은행만의 매력이 떨어졌다’는 지적에 대해선 “아직 금융은 변화시켜야 할 레거시(전통)가 굉장히 많은 분야”라고 답했다. 이어 “더 많은 유저가 더 많이 쓰게 하는 방향의 투자가 경쟁력과 차별성”이라며 “기술 기반 유저들의 니즈를 해결하는 게 가장 중요한 경쟁력이자 전략”이라고 지적했다. “새정부서는 한국이 디지털 주도권 쥐고 가야”보험 시장 변화도 윤 대표의 관심사 중 하나다. 윤 대표는 안철경 보험연구원장이 보험시장 전망에 대해 묻자 “젊은 사람들은 가처분 소득이 줄어들면서 미래를 위해 투자하는 보험에 관심이 없다”며 “보험은 기본적으로 리스크 풀링(리스크를 하나로 모아서 큰 충격을 피하기) 전략이 너무 올드하다”고도 꼬집었다. 윤 대표는 “미니 보험들이 디지털화될 필요가 있다”며 “여행자 보험, 부모님을 위한 피싱(사기) 보험들이 우리 삶 속에서 스며들어야 한다”고 말했다. 이어 “디지털을 통해 전체적으로 사업비를 낮춰야 한다”며 “리스크를 산출한 다음에 사업비를 적용해 디지털로 판매해야 서바이벌(생존)할 수 있다”고 지적했다. 윤 대표는 이같은 디지털 변화에 맞춰 정부의 인력 구성도 변화하는 게 필요하다고 밝혔다. 자연계 출신 기술 인력을 확대해야 한다는 것이다. 그는 “카카오뱅크는 기술 인력이 전체의 40%가 넘는다”며 “앞으로 규제를 만드는 정부도 기술 관점을 갖고 있는 분들이 절반 정도가 됐으면 한다. 그렇게 되면 산업 진흥과 규제가 유기적으로 변화·성장할 것”이라고 전망했다. 박수용 서강대 컴퓨터공학과 교수(사진 왼쪽부터), 윤호영 카카오뱅크 대표, 오정근 건국대 금융IT학과 교수. (사진=이영훈 기자)참석한 전문가들도 디지털 금융 시대에 맞춤형 규제가 돼야 한다고 입을 모았다. 오정근 건국대 금융IT학과 교수는 “정부가 불공정 문제, 소비자보호 문제를 중시하되, 플랫폼 혁신을 꺾으면 안 된다”며 “그렇게 될 경우 우리나라가 세계적 금융산업에서 낙후될 것”이라고 경고했다. 오 교수는 “그동안 정부는 은행들에 사상자산 관련 모든 책임을 물었다”며 “새 정부에서는 은행이 겁이 나서 가상자산거래소에 실명계좌 개설을 안 하는 문제를 풀어줘야 한다”고 지적했다. 실명 거래가 불가능한 19개 코인마켓거래업자 중에서 ‘원화거래소’가 추가로 나와야 한다는 지적이다.    박수용 한국블록체인학회장(서강대 컴퓨터공학과 교수)은 “(윤석열 당선인의) 새 정부에서는 가상자산위원회를 만들어 한국이 선도적으로 나갈 수 있는 발판을 만들어야 한다”며 “가상자산 전담기구를 통해 디지털 세상의 주도권을 쥐고 가길 바란다”고 당부했다. 박 회장은 “15~16년 전에 로봇 소프트웨어를 연구했을 당시 덴마크의 보건복지부는 노인과 친구가 되는 로봇에 대한 고령화 연구를 했다”며 “새 정부에서 각 부처가 어떻게 디지털 세상을 선점할 수 있는지 고민하고 미래를 끌어가는 비전을 만들어야 할 것”이라고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>2022.03.22.</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>소상공인 대출 노리는 인뱅, 약일까 독일까</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000006965?sid=101</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>인뱅 3사, 연이어 소상공인 대출시장 노크핵심 가계대출 성장세 둔화…불가피한 선택소상공인 대출 위한 해결 과제는 산적인터넷전문은행들이 새로운 대출시장에 진출하기 시작했다. 그동안 외면해오던 소상공인 대출시장이 새로운 무대다. 업계에서는 인터넷전문은행들의 소상공인 대출시장 진출은 생존을 위한 필수전략이라고 평가한다. 그동안 집중해오던 개인신용대출은 현재 여건상 예년과 같은 성장세를 담보하기 힘든 상황이어서다. 본격적으로 순익을 내기 시작한 인터넷전문은행들이 성장성을 이어가기 위해서는 상대적으로 규제가 약한 소상공인 대출 시장에 진출할 수 밖에 없다는 분석이다.다만 인터넷전문은행들의 소상공인 대출 시장 진출이 밝은 미래만 담보하기는 어려울 것이란 분석도 나온다. 코로나19로 인해 소상공인들의 자금수요는 늘어난 것이 사실이지만, 빚을 갚을 수 있는 여력이 부족한 소상공인들도 동시에 늘어나고 있어서다. 18일 서울 중구 을지로 케이뱅크 사옥에서 서호성 케이뱅크 행장(오른쪽)과 이상훈 신용보증재단중앙회 회장이 개인사업자 대출 출시를 위한 업무협약을 체결한 이후 기념사진을 촬영하고 있다. /사진=케이뱅크 제공인뱅, 연이어 소상공인 대출 노크22일 은행업계에 따르면 국내 1호 인터넷 전문은행인 케이뱅크는 전날 신용보증재단중앙회와 함께 소상공인 금융지원을 위한 업무협약을 체결했다.두 기관은 이번 업무협약을 바탕으로 대출 신청부터 입금까지 원스톱으로 가능한 개인사업자(소상공인) 대출 출시에 힘을 모으기로 했다. 케이뱅크는 현재 관련 대출상품 출시를 위한 시스템 작업 막바지에 돌입했고, 테스트 절차를 거친 뒤 조만간 출시한다는 계획이다.카카오뱅크도 올해 소상공인 대출시장 진출을 선언했다. 윤호영 카카오뱅크 대표이사는 지난달 15일 기자간담회를 열고 "비대면 혁신이 늦었던 개인사업자(소상공인) 부문에서 카카오뱅크의 역량을 집중할 것"이라며 "별도의 조직을 꾸려 하반기중 상품을 출시할 계획"이라고 밝혔다.막내 토스뱅크는 이미 지난달 소상공인 대출 시장에 진출했다. 소상공인 대출의 핵심인 보증재단의 보증 대출상품은 아직 출시하지 못했지만 은행 스스로 소상공인 차주의 상환능력을 평가하는 신용평가모델을 만들어 무담보, 무보증으로 대출이 가능한 상품을 내놨다.왜 소상공인 대출일까인터넷전문은행들이 소상공인들에게 대출을 해주겠다고 한 배경은 금융규제가 가장 영향이 크다는 분석이다.일단 지난해 금융당국이 인터넷전문은행에게 전체 가계신용대출 중 일정부분(20% 이상)을 중·저신용자 대출로 채울 것을 주문한 상황이다. 가계신용대출은 그동안 인터넷전문은행들을 먹여살리던 핵심 영업망이었다. 그런데 금융당국이 이 대출중 리스크가 높아 부실가능성이 큰 중·저신용자 대출로 채우라고 한 것이다.인터넷전문은행 입장에서는 이들에게 고신용자 대비 높은 금리로 대출을 해줄 수는 있지만, 부실화에 대한 우려를 거둘 수 없다. 아울러 비중을 맞춰야 하니 고신용자에 대한 대출을 적극 늘리기도 어려운 상황이다. 여기에 더해 금융당국의 가계부채총량관리로 인해 연간 늘릴 수 있는 가계대출의 총액은 한정돼 있다. 시중은행에 비해 모수가 되는 전년도 대출잔액이 적은 인터넷전문은행은 금융당국이 내건 4~5%보다 더 많이 가계대출을 늘릴 수 있다고는 하지만 적극적으로 나서기도 어렵다. 상황이 이렇다보니 소상공인 대출을 인터넷전문은행에게 성장을 위한 마지막 디딤돌이 됐다는 분석이다. 소상공인 대출의 경우 통상 중소기업대출로 구분된다. 가계부채 규제 적용 대상이 아니라는 얘기다.게다가 코로나19로 인해 자금난에 빠진 소상공인들이 많아 자금수요가 많다. 실제 지난해 말 KB금융연구소는 '2021년 KB 자영업 보고서'를 통해 소상공인 72%는 앞으로 대출을 받을 의향이 있다는 조사 결과를 내놓은 바 있다.이들이 원하는 대출 규모는 5000만원~1억원 가량으로 집계됐다. 아울러 토스뱅크가 소상공인 대출을 출시한지 한달여만에 1100억원이 넘는 대출이 나간 것도 소상공인들의 대출 수요가 많다는 것을 의미한다. 업계 관계자는 "인터넷전문은행이 출범한 이후 사실 가계신용대출이 인터넷전문은행을 먹여살렸다"며 "대표적인 상품이 마이너스 통장, 비상금 대출 등이라는 점만 봐도 알 수 있다"고 설명했다.그는 "현재 전 금융권에서 가계신용대출을 늘리기 어려운 상황"이라며 "대기업과 중소기업과의 거래에는 모든 거래가 비대면으로 이뤄지는 인터넷전문은행이 공략하기 어려운 측면이 있지만, 소상공인들은 충분히 접근할 수 있을 것"이라고 전망했다. 인뱅에 약일까 독일까문제는 소상공인들의 상황이 그렇게 녹록지 않다는 것이다. 코로나19가 장기화 되면서 소상공인들의 대출 수요는 여전하지만, 동시에 매출 감소 등으로 소상공인들이 부채를 갚아나갈 여력이 부족할 것이란 이유에서다.당장 금융당국이 중소기업과 소상공인에 대한 대출만기 연장, 이자상환 유예 정책을 연장한 것 역시 소상공인들이 빚을 감내할 만큼 형편이 좋지 않다는 것을 의미한다. 당장 한국은행에 따르면 지난해 2월까지 은행들이 개인사업자 혹은 소상공인에게 내어준 대출잔액은 427조8000억원에 달한다.게다가 이중 120조 가량은 금융당국이 2020년 내놓은 만기연장, 이자상환유예 등의 금융 혜택을 받은 것으로 분석된다. 소상공인 대출중 4분의 1가량은 현재 부실채권으로 분류되지는 않았지만, 부실률이 높은 대출이라는 얘기다. 코로나19 오미크론 변이 확산세가 정점에 다달은 이후 방역당국등이 소상공인에게 가장 큰 타격이 됐던 사회적 거리두기를 완화한다고 하더라도 소상공인들의 상황이 당장 나아지지 않을 가능성도 높다.윤석열 대통령 당선인이 코로나19 금융지원을 연장하겠다는 공약을 내 건 이유도 피해 회복에는 상당기간 시간이 소요될 것이란 판단 때문이라는게 은행권의 시각이다. 금융당국도 이를 우려해 주요 시중은행들에게 대출 부실화의 완충장치 역할을 하는 충당금을 대거 쌓을것을 주문하기도 했다. 은행 관계자는 "상품출시 초기에는 연체 등 부실률이 극히 낮지만 시간이 지날수록 부실률은 높아진다"며 "현재 소상공인들의 상황을 고려하면 정교한 신용평가모델을 구축했다는 확신이 있어야 하지만 지금 당장 이를 검증하기는 어렵다"고 설명했다.소상공인 대출의 부실률을 낮춰 줄 수 있는 보증부 대출 상품을 즉각 인터넷전문은행이 출시하기 쉽지 않다는 것 역시 문제다.통상 소상공인 대출은 지역 신용보증재단 등 보증재단의 보증을 담보로 하는 대출이 많다. 지역 보증기관에서 보증을 서주는 만큼 은행은 리스크를 낮출 수 있어 가장 은행들은 소상공인 대출 취급시 보증부 대출 상품을 우선적으로 검토한다. 다만 이를 위해서는 은행과 보증기관과의 협약이 이뤄져야 하고 이를 위한 전산시스템 등이 마련돼야 한다. 당장 보증부 대출상품을 인터넷전문은행이 취급하지 못하는 이유다. 은행 관계자는 "보증기관 대출을 받기 전에 서류심사, 현장실사, 보증승인 등의 절차 등을 거치는데 모두 보증기관의 인력이 직접 투입돼야 한다"며 "보증기관에서 자료를 은행에 넘겨주면 대출이 진행되지만 은행과 보증기관과의 협약도 필요하고, 은행의 현장실사도 있어야 한다"고 밝혔다. 인터넷전문은행이 출시하기에는 해결해야 할 과제들이 있다는 설명이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>2022.03.24.</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>한국전자인증, 토스와 본인확인서비스 총판 계약</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005173794?sid=101</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>"본인확인서비스 업무제휴로 인증서비스 확대"[이데일리 양지윤 기자] 한국전자인증(041460)은 금융 플랫폼 토스를 운영하는 비바리퍼블리카와 본인확인서비스 총판 계약을 체결하고 사업협력을 강화한다고 24일 밝혔다.이번 총판 계약으로 한국전자인증은 본인 확인이 필요한 모든 사업분야에 서비스를 공급하게 된다. 본인확인은 2200만명이 사용하고 있는 토스앱 내 간편인증을 통해 이용할 수 있는 게 특징이다. 한국전자인증 글로벌 인증센터의 중계서버를 이용, 안정적이고 보안이 강화된 본인확인서비스를 제공받을 수 있게 된다. 이용기관은 한국전자인증 중계서비스를 통해 간편인증 과 본인확인서비스를 연동 가능한 기술을 제공받게 된다. 구축에 필요한 시간과 비용을 효과적으로 줄일 수 있다는 게 회사 측 설명이다.한국전자인증은 지난 2020년 5월부터 토스인증서비스 유일의 공식총판사로서 13개 제휴파트너사와 간편인증서비스를 시작했다. 은행, 보험사, 렌트카, 전자계약서비스, 공공기관 등 약 21개 이용기관에 토스인증 중계서비스와 기술지원을 제공하고 있다. 작년 하반기부터는 마이데이터 통합인증, 본인확인서비스를 새롭게 추가하고 다양한 영역에 서비스를 제공하고 있다. 배완직 한국전자인증 솔루션 사업본부장은 “토스와 사업 협력으로 본인확인 시장을 선도하고 새로운 협력 파트너 모집 및 영업 기회 발굴을 더욱 확대할 것“이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>2022.03.20.</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>[금융포커스] 토스뱅크 ‘하루 단위 복리’ 돌풍… 전통 은행 “우린 안 해”</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000800738?sid=101</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>연 2% 금리의 토스뱅크 통장에 1월 1일 5000만원을 넣은 A씨와 B씨가 있다. A씨는 1년 내내 매일 ‘지금 이자 받기’ 버튼을 눌렀고, B씨는 그대로 뒀다. 같은 해 12월 31일, A씨의 통장 잔액은 5085만6287원. 5085만390원이 된 B씨보다 약 5897원의 이자를 더 벌었다.인터넷전문은행 토스뱅크가 ‘하루 단위 복리’ 효과를 내는 기능을 입출금통장에 추가했다. 비록 커피 한 잔 값 차이이긴 하지만, 여전히 낮은 은행권의 수신 금리 수준에 젊은 세대의 ‘짠테크’(짜다+재테크) 바람 등이 겹쳐져 호응을 얻고 있다.20일 은행권에 따르면 토스뱅크는 최근 이자를 매일 지급하는 기능을 선보였다. 수시입출식 통장인 토스뱅크 통장을 보유하면 누구나 ‘지금 이자 받기’ 버튼을 눌러 원할 때 이자를 받을 수 있다. 매일 해당 버튼을 누르면, 원금에다 이자를 더하고 다음날 그 금액에다 다시 이자가 붙는 ‘일 복리’ 효과를 볼 수 있다.토스뱅크 앱(애플리케이션). /연합뉴스  ‘일 복리’ 첫 실험, “커피 값 더 버네” 호평        일 복리 구조가 되면 얼마를 더 벌 수 있을까. 앞서 살펴봤듯이 5000만원 예치 시 해당 기능을 이용하면 1년 뒤 약 6000원의 이득을 더 볼 수 있다는 계산이 나온다. 1000만원을 넣어뒀다면 가만히 연 2% 금리의 토스뱅크 통장에 넣어둔 사람의 경우 1년 뒤 1017만179원이, 해당 기능을 이용한 사람의 경우 1017만5533원이 된다. 5354원 차이다.다만 토스뱅크의 경우 예치 금액이 1억원이 넘어가는 금액부터는 연 0.1%를 적용하기 때문에, 1억원 초과 금액 예치 시 일 복리 효과가 비교적 미미하다. 1년 뒤 그냥 뒀을 때보다 1000원가량 정도가 더 붙는 수준이다.은행권에서 일 복리 형태로, 소비자가 원할 때 이자를 받을 수 있도록 수신 상품을 구현한 것은 처음이다. 토스뱅크 내부에 따르면, 해당 기능을 구현하는 데 기획부터 개발까지 약 3개월이 걸렸다. ‘이자 주권’을 소비자에게 돌려줘야 한다는 아이디어에서 비롯됐다고 한다. 전통 은행의 경우, 정기 예·적금 만기 시 혹은 매달 특정 일 등 은행이 지정한 날짜에만 이자를 받을 수 있다.전통 은행들의 예·적금 상품을 살펴보면, 원금에 대해 정해진 이자만 계산되는 ‘단리’ 상품이 대부분이다. 복리가 적용된다고 하더라도 ‘월 복리’ 구조다. 이마저도 전체 예·적금 상품들 중 월 복리 상품은 10개 남짓에 불과하다.소비자들의 호응도 좋은 편이다. 출시 이틀 만인 18일 오전 9시까지 41만여명이 해당 서비스를 이용했고, 받아 간 이자 금액은 총 66억5576만원에 달했다. 토스뱅크 관계자는 “처음 이 아이디어가 나왔을 때 효용에 대한 고민이 가장 큰 걸림돌이었다”며 “그런데 생각했던 것보다 이용률이 높게 집계돼 놀랐다”고 분위기를 전했다.그래픽=이은현  회의적인 전통 은행들 “니즈 미미하고 비용도 부담”        전통 시중은행은 일 복리 구조의 수신 상품 출시에 대해 그간 ‘못 한 게 아니라, 안 한 것’이라는 입장이다. 정산이나 개발 문제는 생각보다 간단히 해결할 수 있는데, 일 복리 구조에 대한 고객의 니즈가 미미할 거라 본다는 반응이다. 또 인터넷 은행과 수신 잔액 규모가 수백 배 차이 나는 대형 은행의 입장에선 일 복리 제공으로 인한 추가 이자 지급 비용이 부담스러울 수 있다.한 시중은행 관계자는 “개인의 입장에서 따지고 보면 결국 이자 차이가 그리 크지 않을 텐데, 소비자들이 매일 버튼을 누르는 수고를 감수할지, 그게 또 다른 불편이 되지는 않을지 의문”이라며 “고객 접점 채널이 다양한 전통 은행과 달리, 인터넷 은행은 애플리케이션(앱) 하나에 사활을 걸어야 하니 앱 방문량을 늘리기 위해 이런 전략을 쓴 게 아니겠느냐”라고 평가했다.토스뱅크가 일 복리로 인한 이자 추가 지급 여력을 유지할 수 있을지 회의적으로 바라보는 시선도 있었다. 또 다른 은행 관계자는 “토스뱅크는 앞서 연 2% 금리라는 혜택을 들고나왔다가 결국엔 1억원 이상 예치금에 대해 연 0.1%로 다시 이자율을 조정한 적 있는데, 유사한 정책 수정이 이번 서비스에서도 반복될 수 있다”며 “정말 특별한 재주가 있어 이자를 많이 줄 만큼 운용을 잘하는 부분이 있지 않은 이상, 일 복리 서비스 유지는 어려울 것 같다고 생각한다”고 예상했다.이에 대해 토스뱅크 측은 “내부 추산 결과 비용적인 측면에서 부담은 크지 않은 반면, 소비자 혜택은 큰 것으로 판단했다”며 “연말까지 서비스를 운용해 추이를 살펴본 뒤 ‘일 복리’ 기능을 상시화할지를 결정할 예정”이라고 설명했다.토스뱅크의 '지금 이자 받기' 기능.        하지만 은행권 일각에선 시장의 반응을 좀 더 지켜보자는 위기감도 형성된 분위기다. 한 은행 관계자는 “10년 전 신한은행에서 한때 사라졌던 ‘월 복리 예·적금’을 내놓으면서 예상치 못하게 인기몰이를 한 적 있는데 이후 여타 은행의 월 복리 상품 출시가 잇따랐다”며 “토스뱅크의 일 복리 서비스 출시가 마치 당시를 떠올리게 한다”고 말했다.한동안 저금리가 유지됨에 따라 은행권의 예·적금 상품이 시장의 외면을 받았는데, 요즘은 분위기가 달라지고 있다. 주식 등 투자 시장으로 빠져나갔던 자금이 최근 금리가 슬금슬금 오르면서 은행으로 다시 유입되는 추세가 감지되고 있기 때문이다.한국은행이 발표한 ‘1월 통화 및 유동성’ 통계에 따르면, 2년 미만 정기 예·적금은 전달보다 22조7000억원 늘었는데, 이는 관련 통계 작성 이후 최대 증가 폭이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>2022.03.22.</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>토스, PC에서도 등·초본 신청할 수 있는 '토스 주민센터' 열어</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013064244?sid=101</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>[토스 제공=연합뉴스]    (서울=연합뉴스) 한혜원 기자 = 토스는 그간 모바일 앱으로만 제공하던 '토스 주민센터'를 PC에서도 이용할 수 있도록 웹 페이지를 열었다고 22일 밝혔다.     이용자는 토스 주민센터를 통해 주민등록등본, 건강보험자격득실확인서, 코로나19 예방접종 증명서 등 전자증명서를 신청할 수 있다.     예를 들어 주민등록등본 발급이 필요하다면 토스 주민센터 홈페이지에 접속해 시·도, 시·군·구 정보를 선택하면 QR코드가 생성된다.     QR코드를 휴대전화 카메라로 인식하면 토스 앱이 실행되고 등본 발급이 완료된다.     발급된 증명서는 저장하거나 필요 기관으로 바로 보내면 된다.     토스 주민센터는 공동인증서 없이 토스 인증서만으로 사용할 수 있다.     박홍비 토스 프로덕트 오너는 "토스 앱 하나로 다양한 전자증명서를 발급할 수 있던 기존 서비스에 PC나 모바일 웹을 통해서도 이용할 수 있도록 접근성을 높였다"며 "더 많은 증명서로 확대할 것"이라고 밝혔다.     hye1@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>2022.03.17.</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>토스증권, 국내 최초 '실시간' 해외주식 소수점 거래 시작</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000278869?sid=101</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>토스증권은 오는 4월부터 국내 증권사 중 처음으로 '실시간' 해외 소수점 거래 서비스를 시작한다고 오늘(17일) 밝혔습니다..대상은 토스증권에서 제공하는 2,700여개의 미국 주식과 상장지수펀드(ETF)와 상장지수증권(ETN)이며, 1000원부터 투자금액을 입력해 구매할 수 있습니다. 아마존, 구글(알파벳) 등 1주 당 가격이 높은 주식들에 소액 분산투자가 가능해져, 2030 투자자 및 해외투자를 망설였던 고객들의 투자 접근성이 확대될 것으로 보인다고 회사 측은 설명했습니다.토스증권 관계자는 "기존 해외 소수점 거래의 구조적인 문제와 고객 불편을 해소하면서 투자자들에게 가장 빠른 소수점 거래 서비스를 선보일 수 있게 되었다"며 "해외 소수점 투자로 더 많은 투자자들이 미국의 우량 주식을 손쉽게 경험하고, 나아가 해외투자가 대중화될 수 있기를 기대한다"고 말했습니다. 한편 토스증권은 지난 해 12월 해외주식 서비스를 시작하고 3개월 만에 100만명 이상의 투자자를 모으며 빠르게 성장하고 있습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>2022.03.29.</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>공공 사이트 민간인증 11종으로 확대...하나은행·드림인증 추가</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002251963?sid=105</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>공공 웹사이트에서 이용가능한 민간인증서가 11종으로 확대돼, 국민 선택의 폭이 더 넓어졌다.행정안전부는 공공 웹사이트에 적용하는 민간 간편인증에 하나은행과 드림인증 인증서를 추가하기로 하기 위해 두 업체와 업무협약을 체결했다고 29일 밝혔다.이번 협약체결은 하나은행, 드림인증의 인증서비스가 과학기술정보통신부로부터 '전자서명인증업무 운영기준' 준수 사실을 평가·인정받음에 따른 것이다.행정안전부(사진=뉴스1)행안부와 하나은행·드림인증은 국민이 공공 웹사이트에서 간편인증 서비스를 보다 안전하고 편리하게 이용할 수 있도록 상호협력하기로 합의했다.이에 따라, 공공 누리집에서 이용가능한 민간 간편인증은 지난해까지 ▲카카오 ▲KB국민은행 ▲네이버 ▲삼성패스 ▲신한은행 ▲통신사패스 ▲페이코 7종이었으나, 올해 ▲토스 ▲뱅크샐러드 ▲하나은행, ▲드림인증이 추가돼 11종으로 확대된다.행안부는 지난해 국민 생활과 밀접한 홈택스, 정부24, 국민비서, 복지로, 나이스 등 55개 공공 누리집에 민간 간편인증을 신속하게 적용한데 이어, 올해에는 110개(누적) 이상의 공공 누리집에 간편인증을 확산하여 국민들이 다양한 디지털정부서비스를 보다 쉽고 편리하게 이용할 수 있도록 개선할 예정이다.또한, 하반기에는 현재 시범발급 중인 모바일 운전면허증을 통해서도 정부24 등 공공 누리집을 이용할 수 있도록 할 계획이다.이상민 행정안전부 디지털안전정책과장은 "디지털정부서비스를 편리하고 안전하게 이용할 수 있도록 공공분야에서의 간편인증 확산에 더욱 속도를 높여 나가겠다"면서 "급변하는 기술환경에 맞추어 디지털정부의 다양한 분야에서 민간과의 협력을 확대해 나갈 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>2022.03.24.</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>알체라, 2021년 매출 100억원 쾌거…AI안면인식 부문 6배 성장</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002121341?sid=105</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>[디지털데일리 박세아 기자] 영상인식 인공지능(이하 AI) 기업 알체라가 2021년 매출액 100억원을 달성했다고 24일 밝혔다.    알체라가 금융감독원 전자공시시스템(DART)을 통해 공시한 지난해 매출 실적은 100억원으로 전년 약 46억원의 2배가 넘었다. 이는 역대 최대 매출액이다.   부문별로는 AI 안면인식 사업 매출이 약 65억원으로 전년의 약 10억원의 6배 이상으로 확대됐다. 알체라는 외교부, 인천국제공항 등 공공기관과의 사업을 통해 AI 안면인식 기술 신뢰를 쌓은 것이 신한카드, 토스뱅크, 토스증권 등 금융권 사업으로 이어져 매출이 증대한 것으로 분석했다.    지난해 데이터사이언스 사업 매출액은 약 23억원으로 전년 16억원에 비해 50%가량 신장됐다. 삼성, 현대모비스, SK텔레콤 등 대기업들의 AI 도로자율주행, 안면인식 AI 성능향상 DB 학습 용역 등을 수행하면서 매출이 늘었다.    매출액 증대를 위한 연구개발 투자와 마케팅에 집중하면서 영업이익 적자폭은 약 60억 원 확대됐다. 알체라는 글로벌 시장 진출을 위해 기업 규모를 확장하면서 인건비, 연구개발 및 마케팅비 등이 가파르게 증가한 때문으로 분석했다.    알체라는 올해 실적 개선을 위해 향후 서비스형 소프트웨어(이하 SaaS) 모델 사업에 주력할 계획이다. SaaS 모델은 구축형 사업에 비해 적은 비용으로 더 많은 고객에게 향상된 서비스를 제공할 수 있는 시스템이다. 알체라의 대표적 SaaS 모델은 산불 조기감지 AI 솔루션인 파이어스카우트(FireScout)다.   알체라는 현재 미국 소노마카운티에 해당 솔루션을 적용 중으로, 미국 캘리포니아의 전력회사인 'PG&amp;E'와 캘리포니아 산림보호 및 화재예방국, 미국 최대 산불 감시카메라 회사 'ALERT Wildfire'와 협업 중이다. 알체라는 기후변화로 인해 전 세계적으로 증가하고 있는 산불의 조기감지를 위해 솔루션을 널리 보급할 계획이며 이에 맞춰 올해부터 SaaS 모델의 본격적인 성장이 가능하다고 보고 있다.    알체라는 이외에도 영상인식 AI 기술을 활용한 디지털 헬스케어 사업 등 고부가가치 신사업을 육성해 매출과 영업이익 두 마리 토끼를 모두 잡겠다는 복안을 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>2022.03.18.</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>[중기소식]에이스침대, '웨딩페스타' 프로모션 등</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011069831?sid=101</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스] 에이스침대 '웨딩페스타' 프로모션. (이미지=에이스침대 제공) 2022.03.18. photo@newsis.com[서울=뉴시스] 배민욱 기자 = 18일 중소기업계 소식.▲에이스침대는 18일부터 4월30일까지 예비부부를 위한 멤버십 서비스인 '에이스 웨딩멤버스'에 가입한 고객을 대상으로 추첨을 통해 LG가전을 증정하는 '웨딩페스타' 프로모션을 진행한다. 이번 웨딩페스타 프로모션을 통해 300만원 이상 제품을 구매한 웨딩멤버스 회원에게 추첨을 통해 신혼살림 장만에 도움이 되는 LG베스트샵 인기 생활가전을 경품으로 증정한다.▲에스티유니타스의 공무원 시험 전문 브랜드 '공단기'는 3월 신학기를 기념해 매일 수험생에게 교재 지원금을 지급하는 이벤트를 준비했다. 이번 이벤트는 18일부터 열흘간 진행된다. 신규 가입자 중 매일 오후 10시 무작위로 당첨된 22명은 2만2000캐시를 지급받는다. 한 사람당 2회까지 신청할 수 있다. 당첨 시 추가 신청은 제한된다.  ▲유진로봇이 만드는 아이클레보는 20일 네이버 봄 특집 올데이 라이브 방송을 통해 오후 2시부터 1시간 동안 '봄맞이 필수가전' 로봇청소기 특가 행사를 진행한다. 이번 봄맞이 특집 방송에서는 아이클레보 대표 상품 중 하나인 G10 제품을 정가보다 4만원 할인된 가격에 구매할 수 있다. 여기에 스토어찜, 소식받기 쿠폰 중복 할인도 가능하다.▲콘텐츠커머스 기업 아이콘차이나는 올해 더우인(抖音)을 활용해 국내 기업들의 콘텐츠커머스를 지원한다. 아이콘차이나는 국내 기업들이 중국시장에 성공적으로 진출할 수 있도록 브랜딩부터 마케팅, 세일즈까지 일련의 과정을 종합적으로 지원한다. 이번 계약을 통해 아이콘차이나는 향후 중국 현지에서 국내 기업들이 더우인 내 브랜딩과 이커머스를 동시에 이뤄낼 수 있도록 브랜드를 최적화한다.▲한우자산플랫폼 '뱅카우'는 한우 시장가의 5개년을 해석하는 리포트를 발표했다. 송아지 가격은 지난해 1월과 12월처럼 겨울철에 가장 낮은 가격대를 기록했지만 6월과 9월에 다다를수록 높은 금액대가 형성됐다. 성체 가격은 12월과 3월에 최저점에 도달했으나 7월과 9월에 최고점을 탈환했다. 유동적인 한우 성체와 송아지의 가격대는 계절적 특징을 지닌다는 것이 뱅카우의 설명이다.▲종합 아티스트 IP(지식재산권) 플랫폼 원더월은 온·오프라인 공연 서비스 '원더월 스테이지-옥스 투 원더(Wonderwall Stage - AUX TO WONDER) Vol.1'을 선보이고 18일부터 티켓 판매를 개시한다. 토일, 릴러말즈, 수퍼비, 호미들, 언에듀케이티드 키드 등이 참여한다. 이번 공연을 시작으로 원더월과 협업한 국내·외 아티스트를 포함해 다양한 아티스트들의 무대를 선보일 예정이다.▲원티드랩이 코딩 테스트 대회 '쇼미더코드'를 연다. 쇼미더코드는 개발자 채용 시 필수 관문인 코딩 테스트를 사전에 진행해 실제 채용 전형에서 해당 단계를 생략 또는 간소화할 수 있도록 하기 위해 기획됐다. 이번 대회는 토스, 요기요, 번개장터, 와디즈, 채널코퍼레이션 등 17개 기업이 참여한다. 신청은 31일까지 원티드랩 공식 홈페이지의 이벤트 탭에서 할 수 있다. ▲인테이크는 푸덱스 재팬 2022(FOODEX JAPAN 2022·푸덱스)에서 자사의 이노센트 베지볼과 비건만두 제품이 좋은 평가를 받았다고 전했다. 올해로 47회를 맞은 푸덱스는 전세계 식음료 트렌드를 엿볼 수 있는 아시아 최대 규모의 일본 식품 박람회다. 인테이크는 푸덱스 공식 참가 업체로 자사 비건 식품인 이노센트 베지볼과 비건만두를 일본인 바이어를 비롯해 세계 각국 관람객들에게 선보였다.▲친환경 음식물처리기 스마트카라가 tvN 예능 '어쩌다 사장2'에 등장했다. 지난 17일 방영된 '어쩌다 사장2' 5화에는 장사 마감 후 음식물쓰레기 처리를 위해 '스마트카라 400'을 사용하는 모습이 방송됐다. 출연자들은 장사 마감 후 처치가 곤란한 음식물쓰레기를 처리하는 과정에서 '스마트카라 400'을 사용했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>2022.03.28.</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>토스증권, 출범 1년 만에 고객 420만명 확보</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000798296?sid=101</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>지난해 3월 출범한 토스증권이 1주년을 맞았다. 출범 1년 만에 420만명의 고객과 230만명의 월간활성이용자(MAU)를 확보했다고 28일 밝혔다. 토스증권에 따르면 출범 1년 만에 420만명 고객 확보는 국내 증권업계를 넘어 전세계 금융투자 역사에서도 유래를 찾을 수 없는 기록이다. 토스증권은 출범 석 달 만에 350만 신규 계좌가 개설됐는데, 이는 미국의 주식거래 플랫폼 로빈후드가 2년여 만에 달성한 수치다.MAU는 출범 이래 꾸준히 200만명을 웃돌며 월 평균 230만 명을 기록하고 있다. 이는 국내 증권사 상위 5개사에 필적하는 수준이다. 이같은 성장의 중심에는 MZ세대 투자자들이 있다. 토스증권의 2030 고객은 260만명으로 전체 고객의 약 65%를 차지한다. ▲투자자 누구나 쉽고 편리하게 이용할 수 있는 UI/UX와 ▲투자자의 시각에서 해석한 맞춤형 서비스들은 MZ세대와 초보 투자자들의 이목을 끌며 국내 주식투자 인구 중 적은 비중을 차지해 온 30대 이하 젊은 투자 층의 주식투자 참여를 한층 끌어올렸다.토스증권이 지난 해 7월 선보인 '주식선물하기' 서비스는 투자자끼리 주식을 주고 받을 수 있는 서비스다. 기존 증권사의 ‘타인계좌주식대체’를 이해하기 쉬운 표현으로 재해석하고 간편하게 서비스를 설계했다. 기존에 존재했던 증권 서비스지만 고객들의 높은 관심을 받으며 출시 1주일만에 1만 건 이상의 선물하기가 이뤄졌다.‘커뮤니티’는 토스증권만의 특징적인 서비스 중 하나로, 투자자 간 의견 교류의 장을 제공하며 건전한 투자 문화를 만들어가고 있다. 실제 주주와 잠재투자자를 뱃지로 구분해 투자자 의견의 신뢰도를 높이고 기존의 주식 커뮤니티와 차별화했다. 이 서비스는 주식 투자자 중 상당수가 객관적인 정보 외에도 지인, 주식 커뮤니티 등을 통해 주관적인 정보를 참고한다는 점을 착안해 기획됐다.‘토스증권 데일리' 콘텐츠는 애널리스트가 직접 고객과 소통하며 초보 투자자들의 성장을 이끌고 있다. 애널리스트들은 매일 시장에서 발생한 이슈들을 추려 투자자들의 시각에서 이해하기 쉽게 정리한다. 어렵고 낯설게 느껴질 수 있는 전문용어들은 쉽게 풀어 쓴다. 댓글을 통해 투자자와 소통하며 콘텐츠에 대한 의견과 주제를 제안 받기도 한다. 토스증권 콘텐츠는 투자자들의 높은 호응 속에 구독자 수 50만 명 돌파를 눈앞에 두고 있다.토스증권은 다음달 업계 최초로 선보이는 '실시간' 해외주식 소수점 거래 서비스 출시를 앞두고 있다. 토스증권 관계자는 "기존 증권사들이 고객들의 소수점 주문을 1일 1회 등 일정 주기로 모아 온주(1주)로 거래하는 기존의 방식은 그 구조상 실시간 매매가 어려웠다"며 "토스증권 실시간 방식은 주문 즉시 체결되기 때문에 투자자들은 1주 단위로 거래할 때와 이질감 없는 소수점 거래를 경험할 수 있다"고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2022.03.16.</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>아버지의 머리에서 태어난 아테나[박희숙의 명화로 보는 신화](6)</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/033/0000043822?sid=103</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>[주간경향] 우리는 평생 땅에 집착한다. 작게는 집이지만 크게는 영토다. 영토가 넓으면 자원이 풍부할 것이고, 사람 사는 환경도 다를 것이다. 영토에 집착하는 지도자는 전쟁을 통해 영토 확장에 나선다. 국가의 힘을 보여주고 자신의 권력도 강하게 하기 위해서다.‘제우스의 머리에서 무장한 채 태어난 아테나’(17세기경, 캔버스에 유채, 프랑스 베르사유 트리아농궁 소장)러시아와 우크라이나 전쟁도 그런 이유다. 그리스 신화에서 전쟁의 신은 아테나 여신이다.아테나 여신(로마는 미네르바)은 그리스 올림포스 12신 중의 하나로 지혜, 전쟁, 기술, 요리, 직물 등을 관장한다. 아테나 여신은 그리스 아테네의 수호신으로 도시 이름이 그에게서 나왔고, 그에게 바쳐진 것이 아테네의 파르테논신전이다.아테나는 제우스와 첫 번째 아내 메티스 사이에서 태어난 딸이다. 제우스와 메티스의 결혼식 때 크로노스의 어머니 가이아가 제우스에게 불길한 예언을 한다. 메티스가 딸을 낳으면 그 딸은 아버지와 동등한 능력을 지니게 될 것이고, 아들을 낳으면 아버지보다 강력하게 자라 제우스를 몰아내고 왕좌를 차지할 것이라고 했다. 이에 놀란 제우스는 메티스가 임신하자 그를 통째로 삼켜버린다. 아이는 제우스 몸에서 계속 자라났고, 제우스는 참을 수 없는 두통에 시달린다. 대장장이신 헤파이토스가 도끼로 제우스의 이마를 찍어 머리를 열었다. 그 속에는 이미 어른이 된 아테나 여신이 무장한 채 튀어나왔다. 제우스는 메티스를 삼킨 덕분에 그가 지닌 지혜도 획득해 강력한 왕이 됐다.아테나 여신의 탄생을 그린 작품이 르네 앙투안 우아스(1645~1710)의 ‘제우스의 머리에서 무장한 채 태어난 아테나’다. 화면 중앙 제우스가 왼손으로 턱을 받치고 앉아 있다. 구름 위에 앉아 있는 모습은 그가 제우스임을 나타낸다. 발밑에 독수리가 제우스를 상징하고 있기 때문이다. 뒤에 도끼를 들고 있는 사람이 대장장이신 헤파이토스다.제우스의 머리 위에 갑옷과 투구를 쓴 여인이 아테나다. 전통적으로 아테나 여신은 투구와 갑옷을 입고 창과 방패를 든 모습을 하고 있다. 제우스 머리 위에 있는 건 그가 제우스 머리에서 태어났다는 의미다.아테나의 모습에 모든 사람들이 놀라고 있다. 제우스 발밑에 푸른색을 펼치고 있는 사람이 아틀라스다. 아틀라스는 제우스의 벌을 받아 하늘을 어깨에 떠받치고 있다.평화를 위해 싸운다는 이념을 가진 아테나 여신은 전쟁터에 나가면 용맹한 전사로 돌변했다. 다윗과 골리앗의 싸움이지만, 아테나 여신의 깃발이 우크라이나에 빛이 돼줄 것이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2022.03.22.</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>박상진 네이버파이낸셜 대표 "간편결제 압도적 1위 굳힌다"</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000796227?sid=101</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>[CEO포커스] "외연 확장에 주목… 금융 소외계층·MZ세대 잡는다"박상진 네이버파이낸셜 대표/사진=네이버파이낸셜박상진 네이버 CFO(최고재무책임자)가 네이버파이낸셜의 새로운 수장이 됐다. 그는 올해를 ‘압도적 1위’를 향한 원년으로 삼고 외연 확대, 씬파일러(금융이력부족자)를 위한 혁신서비스 강화에 집중할 예정이다.네이버파이낸셜은 지난 14일 이사회를 열고 신임 대표이사로 박상진 네이버 CFO를 맞이했다. 1972년생인 그는 연세대 응용통계학과를 졸업, 고려대 경영대학원 석사를 마쳤다. 1997년 삼성SDS에 입사한 뒤 1999년 네이버로 옮겨 경영기획팀장, 재무기획실장, 재무기획 담당이사, CFO를 지냈다. 자타공인 네이버의 ‘재무통’이다.재무 분야에 대한 풍부한 경험과 역량 덕에 국내외 투자, 사업 라인업 확장 등을 추진해 네이버 성장과 글로벌 진출을 이끈 인물로 평가받는다.박상진 대표는 취임사를 통해 “올해 더욱 압도적인 1위 간편결제사업자로 견고함을 다지면서 외연을 확장하고, 금융 소외계층과 MZ(밀레니얼+Z세대)세대 등 금융 수요를 충족시키기 위한 혁신서비스 확대를 강화해 나가고자 한다”며 “그동안의 경험과 네트워크를 통해 네이버파이낸셜의 성장에 최선의 노력을 다하겠다”고 말했다.네이버의 오랜 살림살이를 담당한 그의 지휘 아래 네이버파이낸셜 성장세는 더욱 탄력을 받을 것으로 보인다. 특히 네이버 내부에서 네이버파이낸셜의 입지는 점점 두드러지고 있다. 네이버 사업보고서에 따르면 지난해 네이버파이낸셜의 매출은 전년동기 대비 48.4% 증가한 1조453억원에 달했다. 네이버페이 결제액은 글로벌 가맹점 신규 추가 등에 힘입어 10조9000억원을 돌파했다.포용금융의 일환으로 선보인 온라인 소상공인(SME) 대상 ‘스마트스토어 사업자 대출’도 호응을 얻고 있다. 2020년 12월 출시된 ‘스마트스토어 사업자 대출’은 온라인 사업자를 위한 업계 최초의 무담보 신용대출이다. 온라인 사업자는 일정 기간 동안 금융 이력이 없어 대출이 불가하거나 고금리로만 대출을 받을 수밖에 없는 문제점이 있었다. 시장 반응은 긍정적이다. 지난해말 기준 대출 누적 취급액은 1300억원을 넘겼다.취임 후 그의 첫 번째 과제는 후불결제 시장 입지 강화가 될 예정이다. 네이버파이낸셜, 카카오페이에 이어 이달 중 토스와 NHN페이코까지 후불결제 시장 진출 계획을 밝히면서 경쟁은 더욱 심화될 것으로 보인다.네이버파이낸셜 관계자는 “앞으로 신임 대표를 중심으로 사용자의 모든 생활결제 동선에 네이버페이를 연결하는 서비스 확장을 지속하고 사업자대출, 빠른정산,후불결제 등 혁신적 금융서비스를 더욱 강화해 금융사들과의 다양하고 혁신적인 협력모델을 구축할 예정”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>2022.03.21.</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>토스뱅크 이어 케이뱅크도 개인사업자 대출 진출</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004806227?sid=101</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>[파이낸셜뉴스]  케이뱅크 서호성 행장(오른쪽)이 지난 18일 서울 중구 케이뱅크 본사에서 신용보증재단중앙회 이상훈 회장과 개인사업자 대출 출시를 위한 업무협약을 체결 후 기념 촬영을 하고 있다. 케이뱅크 제공케이뱅크가 여신 포트폴리오를 확장해 개인사업자 대출을 시작으로 기업대출 시장에 나선다. 지난 2월 이 시장에 진출한 토스뱅크에 이어 인터넷은행으론 두 번째다.   케이뱅크는 지난 18일 서울 중구 케이뱅크 사옥에서 서호성 행장과 이상훈 신용보증재단중앙회 회장 등 주요 관계자들이 참석한 가운데 비대면 금융지원 강화 및 소상공인 금융지원을 위한 업무협약(MOU)을 체결했다고 21일 밝혔다.   케이뱅크와 신보중앙회는 비대면으로 개인사업자에 대한 평가 및 대출 신청부터 입금까지 원스톱으로 가능하도록 통합전자보증시스템 및 비대면 보증 시스템 구축·운영에 적극 협력하기로 했다. .   이번 협약은 케이뱅크가 출시 예정인 개인사업자 대출 상품의 사실상 마무리 단계다. 케이뱅크와 신보중앙회는 2020년 6월 '비대면보증 도입을 위한 중앙회-인터넷전문은행 포괄 MOU' 이후 상품 출시를 위해 업무를 진행해왔다. 현재 시스템 작업 막바지 과정에 돌입했으며 테스트 절차를 거쳐 출시 예정이다.   케이뱅크 서호성 행장은 "코로나19 상황이 장기화되며 개인사업자 분들의 편리한 대출 수요가 높다는 점에서 100% 비대면 대출 상품 출시를 준비하게 됐다"며 "개인사업자 고객의 부담을 덜어드릴 수 있도록 더욱 편리한 상품을 구현해 선보이겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2022.03.18.</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>마케팅 동의 강제해 놓고…지적하니 슬그머니 바꾼 '토스뱅크'</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000664222?sid=101</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>대출한도 조회시 '마케팅 수신' 일괄 동의 요구금융당국 "문제 소지 있어… 고의성 여부 검토"토스뱅크 "단순 실수… 동의 철회 조치 완료"토스뱅크 캡처.토스뱅크가 대출한도 조회 서비스를 제공하면서 고객에게 '광고성 정보 수신'에 대한 일괄 동의를 요구한 것으로 파악됐다. 금융회사가 서비스 제공을 빌미로 필수 정보가 아닌 선택 정보에 대해 동의를 강제하는 것은 엄연한 위법이다.18일 금융권에 따르면, 토스뱅크는 최근 대출한도 조회 서비스를 제공하면서 고객에게 ‘광고성 정보 수신 동의'를 강제했다. 고객이 대출 한도 조회 서비스를 이용하려면 개인정보 수집 등에 '일괄 동의'해야 하는데, 여기에 '광고성 정보 수신 동의'도 포함시켜 놨던 것. 고객이 이를 거부하려 해도 별도 메뉴가 없어 서비스를 이용하려는 고객은 울며 겨자 먹기식으로 광고성 정보도 받게 될 수밖에 없었다. 고객이 문제제기를 했지만 토스뱅크는 별 문제가 없다는 답변을 내놨다. 토스뱅크는 "(일괄) 동의가 먼저 진행되지 않으면 해당 서비스 이용이 어려운 것이 맞다"며 "다만, 추후 언제든지 마케팅 알림을 앱에서 끌 수 있다"고 답했다. 토스뱅크 대출한도 조회 서비스 이용시 고객은 '광고성 정보의 수신 동의란'을 확인할 수 있지만, 개별 선택은 불가능하고 일괄 동의만 선택할 수 있다. 토스뱅크 캡처하지만 선택동의 항목을 강제해 놓는 것 자체가 위법이라 토스뱅크의 해명은 부적절하다는 지적이 나온다. 현행 개인정보법은 "서비스 이용에 필요한 최소한의 개인정보 이외의 정보를 제공하지 아니한다는 이유로, 서비스 제공을 거부해서는 안 된다"고 규정하고 있다. 신용정보법 역시 "누구든지 전자적 전송매체를 이용하여 영리목적의 광고성 정보를 전송하려면 그 수신자의 명시적인 사전 동의를 받아야 한다"고 적시했다.토스(비바리버블리카)의 부적절한 행위는 이번이 처음이 아니다. 앞서 토스뱅크의 관계사인 토스도 지난해 12월에 마이데이터 서비스를 시행하면서, 고객이 연결하고 싶은 금융기관을 선택하는 대신 일괄 연결하도록 해 물의를 빚었다.  금융권 관계자는 "다들 몰라서 위반을 안 하는 게 아니고, 해서는 안 되니까 안 하는 것"이라며 "비슷한 류의 문제가 계속 발생하는 것은 문제가 있다"고 지적했다. 금융당국은 향후 검사 등을 통해 해당 문제를 들여다볼 방침이다. 금융당국 관계자는 "필수 정보가 아닌 선택 정보에 대한 고객의 선택권을 제한하는 것은 문제의 소지가 있다"며 "고의성 여부 등에 따라 과태료 부과 대상이 될 수 있다"고 말했다. 토스뱅크 관계자는 "고의성은 없었으며 그래픽 개선 작업에서 이뤄진 단순 실수였다"며 "10일 고객 민원 발생 후 즉각 시정조치를 했고, 당시 동의를 선택한 10명의 고객을 상대로 동의 철회 조치를 완료했다"고 해명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2022.03.22.</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>토뱅 이어 케뱅도 참전...기업대출 시장 경쟁 가속화</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002587103?sid=101</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>케뱅, 신보중앙회와 관련 시스템 구축토뱅 1160억원 대출...카뱅도 하반기시중은행, 규제 피해 기업대출 박차왼쪽부터 카카오뱅크, 케이뱅크, 토스뱅크 애플리케이션 아이콘 ⓒ 각 사 제공[데일리안 = 이호연 기자] 대출 영역을 넓히고 있는 인터넷전문은행들이 기업대출 시장에 출사표를 던졌다. 토스뱅크에 이어 케이뱅크가 개인사업자 대출 출시의 고삐를 죄면서, 기업대출에서 시중은행과 치열한 경쟁을 펼칠 전망이다. 카카오뱅크도 올해 하반기 개인사업자 대출을 선보일 계획이다.22일 금융권에 따르면 케이뱅크는 최근 개인사업자 대출 출시 막바지 단계에 돌입했다. 케이뱅크는 지난 18일 신용보증재단중앙회(신보중앙회)와 비대면 금융지원 강화 및 소상공인 금융지원을 위한 업무협약(MOU)을 체결했다.양사는 이를 통해 개인사업자에 대한 평가 및 대출 신청부터 입금까지 비대면·원스톱으로 가능토록 통합전자보증시스템과 비대면 보증 시스템을 구축할 예정이다. 케이뱅크와 신보중앙회는 2020년 6월부터 포괄적 MOU를 맺고 상품 출시를 위해 지속적으로 협력을 진행해왔다.케이뱅크는 시스템 작업을 마무리 한 뒤 테스트 절차를 거쳐 내달 개인사업자 상품을 출시할 방침이다. 케이뱅크 앱을 통해서 최대 한도 3000만원이내에서 대출을 신청할 수 있다.토스뱅크는 이보다 앞서 개인사업자 대출 상품을 내놓았다. 토스뱅크는 지난달 인터넷전문은행 최초로 무보증·무담보 ‘토스뱅크 사장님 대출’을 출시했다. 자체 개발한 신용평가모형(CSS)에 소상공인에 특화된 심사기준을 반영해, 개인 시용에 따라 한도를 부여하도록 했다.해당 상품은 최대 1억원 한도로 최저금리는 3.42%수준이다. 출시 한 달만에 대출 잔액 1160억원을 돌파, 꾸준히 가입자를 확보하는 중이다. 토스뱅크는 소득 증빙이 어려운 사업자나 온라인 업체를 운영하는 개인사업자로도 대출을 확대하겠다는 방침이다.카카오뱅크도 올해 하반기를 목표로 개인사업자 대상 소호(SOHO) 대출을 준비중이다. 신용대출만으로 한계를 느낀 인터넷은행이 기업대출로 영토를 확장함에 따라 시중은행과 2라운드 공방이 예상된다. 은행권은 지난해 금융당국이 가계대출 총량 증가율을 4~5%대로 관리하자 상대적으로 규제가 적은 기업대출로 눈을 돌려 고객 확보에 공을 들이고 있다.한은에 따르면 올해 2월 말 기준 은행권 가계대출 잔액은 1060조1000억원으로 전월 대비 1000억원 줄어들었다. 3개월 연속 감소세를 이어가는 중이다. 반면 기업대출(1085조3000억원)은 같은 기간 6조3000억원 늘어나 두 달 연속 증가했다. 4대 은행(KB, 신한, 하나, 우리)은 1분기 실적발표 컨퍼런스 콜에서 올해 기업대출을 전년 대비 4~8% 정도 늘리겠다고 공언한 상태다.단, 기업대출 경쟁이 심해질수록 리스크 관리 이슈가 더욱 부각될 전망이다. 본격적인 금리상승기와 맞물리며 이자상환 부담이 우려, 소상공인 대출이 ‘부실화’ 될 가능성이 높기 때문이다. 국내 5대 은행은 이미 소상공인 금융지원으로 납기가 연장된 대출과 유예된 이자 총액만 139조5000억원에 달한다. 인터넷은행은 당초 설립 목표에 맞춰 중저신용자의 대출 비중을 확대하려 하는데, 이 역시 각별한 건전성 관리가 뒷받침돼야 한다는 지적이다.업계 관계자는 “우량한 차주를 걸러 잠재 부실 위험을 덜기 위해서는 결국 신용평가모형의 완성도가 중요하다”며 “인터넷은행 3사는 자체 신용평가모형의 정교화를 통해 공격적인 기업대출에 나설 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>2022.03.23.</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>[기업] 토스뱅크, 출범 5개월여 만에 고객 235만 명 돌파</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/052/0001717058?sid=101</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>인터넷 전문은행 토스뱅크가 출범 5개월여 만에 235만 명이 넘는 고객을 유치했습니다.토스뱅크가 지난해 10월 5일 출범한 뒤 167일이 지난 21일 기준 가입자 수는 235만2천202명으로, 하루 평균 가입 고객은 1만4천 명이었습니다.토스뱅크 고객은 1인당 평균 831만 원을 맡겼고 토스뱅크의 전체 수신액은 17조 원에 달한 것으로 집계됐습니다.※ '당신의 제보가 뉴스가 됩니다'[카카오톡] YTN 검색해 채널 추가[전화] 02-398-8585[메일] social@ytn.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>2022.03.30.</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>삼성 계열 금융 서비스 한 곳으로 모은다</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002252213?sid=105</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>삼성 금융 플랫폼 출범 예고...카드 주축으로 생명·화재·증권 참여이르면 다음달 중으로 삼성 금융 계열사들의 서비스가 원스톱으로 제공될 예정이다.30일 관련 업계에 따르면, 삼성카드를 비롯해 삼성 금융 계열사(삼성생명·삼성화재·삼성증권)의 서비스를 한 곳으로 모은 플랫폼이 구축되고 있다.관계자는 "삼성카드에서 사업을 이끌고 있으며 알려진 것처럼 '모니모'로 이름이 될 지 아니면 바뀌게 될 지 정해지진 않았다"며 "원 애플리케이션(앱)으로 삼성 금융 서비스를 이용할 수 있게 될 것"이라고 설명했다.(사진=이미지투데이)2021년 4월 삼성카드는 시스템 운영 및 구축을 맡고 ▲삼성화재(174억원) ▲삼성생명(143억원) ▲삼성증권(74억원) 등이 자금을 공동 부담해 이 같은 플랫폼을 만들겠다는 계획을 공시한 바 있다.삼성 금융 플랫폼을 업계가 주목하고 있는 것은 삼성 금융 계열사에 가입한 고객 수가 빅테크(네이버·카카오)에 버금가기 때문이다.금융경제연구소의 최근 보고서에 따르면 4개 삼성 금융 계열사의 가입자 수는 중복을 포함해 약 2천만명이다. 네이버페이는 1천600만명, 카카오페이는 2천만명, 토스는 1천200만명 수준이다.특히 삼성 갤럭시 스마트폰에서 쓸 수 있는 '삼성페이' 고객이 이 앱에 한번에 유입된다면 빅테크를 뛰어넘는 금융 플랫폼이 될 수 있다고 업계 관계자들은 관측하고 있다.핀테크 업계 관계자는 "삼성페이 이용자에게 삼성 금융 플랫폼을 쓸 경우 다양한 혜택을 제공한다면 초기 고객 확보 효과는 매우 클 것"이라며 "성공한다면 대량의 결제와 금융 데이터를 삼성이 얻게 될 것"이라고 진단했다.다만 삼성 금융 플랫폼이 기존 금융사들의 원 앱 전략과 동일할 경우 크게 성공하긴 어렵다고 본다. 이미 오픈뱅킹이 시작됐고 마이데이터(본인 신용정보 관리업) 사업자들이 나온 상황에서, 송금·자산 조회·가입 만으로 삼성 금융 플랫폼을 선택할 이유가 없다는 것이다.토스뿐만 아니고 많은 은행들이 '생활 플랫폼'을 표방하며 금융과 직접적인 연관이 없는 서비스를 붙이고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>2022.03.17.</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>음원·송아지 지분 사고 AI가 종목 찍어주고…활짝 핀 핀테크 스타트업</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/024/0000073826?sid=101</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>[K스타트업 업계 지도] (6)핀테크‘메기’에서 ‘고래’로.지난해 상장한 카카오뱅크를 두고 하는 말이다.  카카오뱅크는 시중은행의 혁신을 촉진하는 메기 역할을 할 것으로 기대됐다. 결과는 예상을 뛰어넘었다. 창립 4년 만에 시중은행 시가총액을 넘어서며 업계 1위 ‘빅테크’로 자리매김했다. 이후 금융에 기술을 접목한 스타트업 ‘핀테크’ 시대가 펼쳐졌다. 비트코인 등 암호화폐 열풍으로 두나무, K뱅크가 약진했고 ‘MZ세대의 은행’ 토스뱅크도 화려하게 출범했다. 그간 금융업은 정부 규제가 까다로워 가장 혁신이 더딘 산업으로 꼽혔다. 그러나 이제는 시중은행이 빅테크와의 경쟁을 두고 ‘기울어진 운동장’이라고 할 정도로 핀테크 스타트업이 전방위로 활약하고 있다. 올해는 소비자에게 개인정보 자기결정권을 돌려주는 ‘마이데이터’ 서비스가 본격화되며 핀테크 스타트업 간 경쟁이 더욱 치열해질 전망이다. 국내 주요 핀테크 스타트업은 어떤 곳들이 있을까. 음원 저작권 투자 플랫폼 ‘뮤직카우’ 화면. 거래량, 투자 시세 차트 같은 투자 정보도 확인 가능하다. (뮤직카우 캡처)  ▶대출 비교부터 조각 투자까지 ▷뮤직카우, 누적 회원 100만명 돌파 지난해 1월 설립된 ‘베스트핀’은 온·오프라인 연계 담보대출 비교 플랫폼 ‘담비’를 운영한다. 국내 대출 시장은 5대 시중은행(우리, KB, 신한, 하나, 농협)이 주택담보대출에서 82%, 가계신용대출에서 73%를 차지하고 있다(2020년 3월 기준). 담비는 이들 금융기관 방문 없이도 원스톱으로 주택담보대출과 전세자금대출의 금리 비교, 대출 실행을 받을 수 있도록 했다. 또한, 금융기관이 지정한 대출 상담사가 고객이 원하는 시간과 장소에 맞춰 방문해 대출 절차를 완료할 수 있는 ‘찾아가는 서비스’도 제공한다. 향후 2금융권과도 제휴해 사업자대출, 신용대출로도 사업 영역을 넓히고, 보험·신용카드 등과 연계할 수 있는 상품도 개발한다는 계획이다. ‘고위드’는 스타트업 전문은행이다. 실리콘밸리 지역 스타트업에 전문적인 금융 서비스를 제공하는 미국의 실리콘밸리은행(SVB)이 롤모델이다. 국내 최초의 스타트업 법인 신용카드를 선보인 지 1년여 만에 3000여개 고객사를 확보하는 등 스타트업 대상 금융 서비스에 주력하고 있다. 지출경비관리·현금흐름 서비스 등 스타트업 비용관리에 최적화된 서비스도 제공한다. 고위드는 향후 법인 신용카드 사업에서 획득한 스타트업 재무 데이터를 기반으로 IT 기기 구독 서비스, 대출 등 스타트업 성장을 극대화하는 다양한 B2B(기업 간) 금융 서비스로 확장해나갈 계획이다.차이코퍼레이션(이하 ‘차이’)은 티몬 창업자인 신현성 대표가 설립했다. 게임 요소를 입힌 선불형 체크카드 ‘차이카드’와 B2B 결제 플랫폼 ‘아임포트’를 운영한다. 2019년 6월 출시한 차이카드는 결제 시 제공되는 ‘번개’ 아이템과 게임처럼 번개를 차감해 할인받는 ‘부스트’로 MZ세대 이용자를 늘려가고 있다. 지난 2월에는 차이 체크카드 할인과 캐시백 혜택을 늘린 PLCC(상업자표시신용카드) ‘차이 신용카드’ 출시 소식도 알렸다. 아임포트는 현재 크림, 나이키코리아, 오늘의집, 젠틀몬스터 등 국내외 2200여개 업체에 적용됐다. 차이는 지난해 말 소프트뱅크벤처스 등으로부터 유치한 530억원 규모 투자금을 바탕으로 해외 진출에 드라이브를 건다는 계획이다. ‘뮤직카우’는 음악 저작권료 참여 청구권 투자 플랫폼이다. 과거 투자 대상이 아니었던 음악 저작권료 시장 문호를 개인에게 활짝 열어줬다. 2018년 출범 당시 첫해 회원 수 9996명, 누적 거래액 10억여원이었던 이 플랫폼은 최근 누적 회원 수 100만명을 넘어섰다. 성공 비결은 금융에 기술을 접목한 것. 뮤직카우는 과거 저작권료 데이터를 바탕으로 저작권료 예측 시스템을 자체 개발했다. 이를 활용해 미래 저작권료 누적 수익을 현재 적정 가치로 환산했다. 그리고 이 권리를 작게 분할해 주식처럼 거래할 수 있도록 금융 상품으로 만들었다. 뮤직카우가 개척한 ‘조각 투자’ 시장은 이후 ‘뱅카우(한우)’ ‘카사코리아(부동산)’ ‘아트투게더’ ‘테사(이상 미술품)’ 등으로 이어졌다. ‘크래프트테크놀로지스’는 국내 인공지능 기반 ETF 최초로 뉴욕거래소 상장에 성공한 핀테크 스타트업이다. (크래프트테크놀로지스 제공)    ▶인공지능(AI) 자산관리 ▷금융권도 개인도 ‘로보어드바이저’ 열풍 과거 고액 자산가 정도가 아니면 꿈도 못 꿨을 ‘개인 자산관리’가 이제는 일상이 된 모습이다. 인공지능(AI) 기반의 ‘로보어드바이저(RA)’가 대중화된 덕분이다. 로보어드바이저 핀테크 스타트업이 내놓는 서비스들은 빅데이터 분석을 기반으로 개인 투자 성향과 투자 목적에 맞는 포트폴리오를 추천해준다.김영빈 대표가 2018년 설립한 ‘파운트’가 대표적이다. 파운트는 세계적인 투자자 짐 로저스가 엔젤 투자자 겸 투자 고문으로 참여하고 있는 것으로도 잘 알려진 스타트업이다. 파운트가 자체 개발한 AI가 글로벌 주식, 채권, 원자재 등 다양한 자산에 분산 투자를 할 수 있도록 돕는다. 현재 파운트가 관리 중인 자산 총액(AUM)은 1조원을 훌쩍 넘어섰다. 올해 2월 기준 AUM이 1조3570억원 수준으로 전년(8227억원) 대비 65% 증가하는 가파른 상승세를 보이는 중이다.디셈버앤컴퍼니가 운영하는 ‘핀트’는 소액 투자 수요에 힘입어 몸집을 키웠다. 핀트에서는 최소 운용금 20만원만 있으면 앱으로 쉽고 간편하게 로보어드바이저 기반 투자를 경험할 수 있다. 아직 목돈 투자가 부담스러운 대학생이나 사회초년생을 위한 적립식 투자 서비스 ‘꾸준히 목표 달성’, ‘꾸준히 차곡차곡’과 같은 서비스가 관심을 받으며 회원 수가 크게 늘었다. 2019년 서비스를 시작한 이후 3년 만인 올해 누적 회원 수가 70만명을 넘어섰다.최초의 모바일 자산관리 앱 ‘에임’도 빼놓을 수 없다. ‘씨티그룹 최초 한국인 퀀트 애널리스트’로 유명한 이지혜 대표가 2015년 창업했다. 이 대표는 월가에서의 경험을 토대로 AI 자산관리 알고리즘 ‘에스더’를 개발했다. 전 세계 77개국 1만2700여개의 글로벌 ETF에 분산 투자해 리스크를 최소화하는 방식으로 운용된다. 올해 2월 기준 회원 수는 100만명, 누적 계약금액은 7300억원에 달한다.개인을 넘어 기존 금융사를 대상으로 투자 자문이나 AI 솔루션 설계를 해주는 로보어드바이저 스타트업도 많다. 2016년 설립한 ‘크래프트테크놀로지스(이하 크래프트)’가 대표적이다. 누적 투자 유치액으로만 따지면 모든 로보어드바이저 스타트업 중 가장 많다. 현재까지 2100억원이 넘는 투자를 유치했다. 특히 올해 1월 손정의 회장이 이끄는 소프트뱅크그룹으로부터 1750억원 투자를 유치, ‘쿠팡에 이은 소뱅의 두 번째 한국 기업 투자’로 주목받았다.크래프트는 로보어드바이저를 기반으로 상장지수펀드(ETF)를 운용하는 서비스를 제공한다. 국내 기업 중 처음으로 미국 뉴욕증권거래소(NYSE)에 100% AI가 운용하는 ETF를 상장시켰다. 미국 대형주 모멘텀 ETF인 ‘AMOM(티커명)’, 미국 대형 고배당주를 담은 ‘HDIV’ 등 총 4종의 액티브 ETF가 상장돼 있다. 특히 AMOM은 지난해 테슬라의 주가 흐름을 정확하게 예측해내며 ‘테슬라 족집게’로 전 세계 투자자로부터 주목받은 바 있다.‘쿼터백그룹’ 역시 개인 자산관리보다 금융 상품 설계로 더 유명한 스타트업이다. 로보어드바이저 업계에서는 ‘맏형’ 격이다. 자체 AI 알고리즘 ‘큐비스(QBIS)’는 금융위원회와 코스콤이 주관하는 ‘로보어드바이저 테스트 베드’를 최초로 통과했다. 현재는 은행과 보험사를 포함한 20여개 기관에 금융 서비스를 제공하고 있다. 투자금을 직접 운용하거나 주식·ETF 등을 포함한 펀드도 운용한다. 한국투자증권과 함께 선보인 랩어카운트 상품 ‘테마로테이션랩’, 키움투자자산운용과 협업한 ‘키움쿼터백EMP글로벌로보어드바이저펀드’ 등이 유명하다. 천영록 대표가 이끄는 ‘불리오’도 비슷하다. 키움투자자산운용과 손잡고 내놓은 ‘키움불리오글로벌멀티에셋EMP펀드’가 대표 상품이다. 1900여개 미국 상장 ETF 데이터를 분석해 30여개 ETF에 분산 투자하는 상품으로, 최근 2년 수익률이 11%대로 선전하고 있다. 로보어드바이저 서비스에 대한 대중 관심이 커지면서 유명 연예인을 광고 모델로 발탁하는 일도 적잖다. ‘핀트’는 배우 전지현을, ‘파운트’는 배우 변요한을 각각 광고 모델로 투입한 바 있다. (각 사 제공)  ▶핀테크 솔루션 지원 ▷핀테크를 만들어주는 핀테크 기업 하나의 핀테크 서비스가 탄생하기 위해서는 수많은 기술과 인프라가 뒷받침돼야 한다. 데이터 수집·분석부터 시작해 인증, 프로그램 설계 등 셀 수도 없다. 핀테크 서비스를 제공할 수 있도록 기술·인프라와 솔루션을 제공하는 스타트업이 꽤 있는 이유다. 말하자면 ‘핀테크 기업을 만드는 핀테크 기업’인 셈이다.‘쿠콘’은 금융사나 핀테크 스타트업들이 금융·공공 데이터들을 보다 쉽고 편리하게 쓸 수 있도록 도와주는 ‘프로그램 인터페이스(API)’를 제공한다. 쿠콘은 국내 500여개 금융·공공기관의 데이터는 물론 해외 40여개 국가 2000여개 금융기관의 데이터를 수집한다. 현재 수많은 금융사와 핀테크 기업이 쿠콘 API를 쓴다. ‘대출 상품 비교 서비스’를 예로 들면 카카오페이, 토스, 핀다 같은 기업들이 쿠콘 API를 활용해 서비스를 제공한다. 최근에는 당근마켓 자회사 당근페이의 간편송금과 결제 서비스 구축을 지원하기도 했다. ‘아데나소프트웨어’는 전 세계 외환마진거래(FX)와 지급결제 업체를 대상으로 자체 개발한 금융 거래 소프트웨어를 판매·공급한다. 매출은 대부분 해외에서 발생한다. 영국, 스위스 등 글로벌 외환 유동성공급자(LP) 업체와 해외 외환선물사들이 주요 거래처다. 단순히 프로그램 판매에 그쳤던 기존 업체들과 달리 거래량에 비례해 수수료를 받는 식으로 수익 구조를 짰다. 지난해에는 암호화폐 투자 정보 플랫폼 ‘코인니스’를 인수하며, 가상자산 시장으로 영역을 확장했다. 블록체인 핀테크 스타트업 ‘아이콘루프’는 블록체인 분산신원(DID) 기술로 금융권과 협력을 확대하고 있다. DID 기술은 한 번 인증된 신원정보를 사용자 스마트폰에 암호화해 저장했다, 개인정보 제출이 필요할 때 쓸 수 있도록 하는 인증 방식이다. 아이콘루프는 지난 2020년 신한은행과 협력해 금융권에서 사용되는 DID 서비스를 국내 최초로 상용화했다. 아이콘루프는 최근 대선 관련 이슈로 세간의 관심을 받기도 했다. 아이콘루프가 기술 개발에 참여한 암호화폐 ‘아이콘(ICX)’이 ‘윤석열 테마코인’으로 분류되며 가격이 ‘껑충’ 뛰면서다. 윤 대통령 당선인이 지난해 12월 친필 서명이 담긴 방명록을 NFT로 발행했는데, 여기에 아이콘 블록체인을 기반으로 하는 NFT 마켓플레이스 ‘크래프트’가 활용된 바 있다.인터뷰 | 이근주 한국핀테크산업협회장(한국간편결제진흥원장) “전금법 개정·망 분리 규제 완화에 속도 내야”  한국핀테크산업협회는 국내 최대 규모의 ‘핀테크 네트워크 기관’이다. 카카오페이, 네이버파이낸셜, 토스 같은 빅테크 기업을 비롯해 약 500개 핀테크 기업이 회원사로 있다. 올해 2월 신임 협회장으로 선임된 이근주 한국간편결제진흥원장으로부터 국내 핀테크 산업의 현주소에 대해 물었다. Q 국내 핀테크 산업 수준, 글로벌과 비교하면 어느 정도 수준에 와 있을까. A 기술력 자체는 세계 최고 수준이다. 하지만 핀테크 역량은 단순히 기술력에 비례하는 것은 아니다. 금융업 자체가 ‘규제 산업’이다 보니, 규제 수준이 결국 한 나라의 핀테크 수준을 좌우한다. 정부에서 핀테크 관련 규제를 완화하려는 의지는 분명 있다고 본다. 다만 그 논의가 생각보다 더디다. 여러 규제 완화를 위한 ‘전자금융거래법 개정안’이 발의돼 있기는 하지만 지지부진한 상황이다.   Q 핀테크 스타트업이 체감하는 주요 규제에는 무엇이 있을까.   A ‘망 분리 의무 규제’가 대표적이다. 망 분리는 해킹 방지를 위해 내부 업무망과 외부 인터넷망을 분리하도록 하는 규제다. 망이 분리돼 있다 보니 인터넷에 뛰어난 개발 소프트웨어나 개발 코드가 풀려 있는데도 개발자들이 제대로 활용하지 못하는 실정이다. 요즘처럼 재택근무가 일상화된 근무 환경에도 안 맞다. 가뜩이나 개발자 구하기가 하늘의 별 따기인데, 망 분리에 한계를 느낀 개발자들이 핀테크 업계를 떠나는 경우가 워낙 많다. Q 핀테크 규제 문제를 해결하기 위해 어떤 노력이 필요할까. A ‘소통 채널의 활성화’가 최우선 돼야 한다. 기존 금융권인 ‘빅뱅크’, 그리고 관계부처와 의견 조율을 통해 핀테크 관련 규제를 완화해나갈 수 있다. 여기서 중요한 것은 ‘중소 핀테크 전용 소통 채널’이 꼭 필요하다는 점이다. 현재 빅뱅크와 빅테크 위주로 구성된 금융위 ‘디지털금융협의회’만으로는 중소 핀테크 목소리가 소외될 수밖에 없다. ‘빅테크 상황에만 입각해 규제 수준이 굳어져버리면 중소 핀테크는 살아남을 수 없다’는 위기의식과 불안감이 업계 전반에 퍼져 있다. Q 규제 완화뿐 아니라 육성 정책도 중요할 텐데. A 핀테크 육성과 관련해 최근 ‘핫’한 키워드는 두 가지다. 첫째는 ‘해외 진출’이다. 코로나 팬데믹 시대에 발맞춰 글로벌 시장에 진출할 수 있는 환경과 시스템을 마련해야 한다. 둘째는 ‘블록체인’이다. 블록체인은 차세대 핵심 기술로, 이미 블록체인 기반 핀테크 서비스가 많이 나오고 있다. 암호화폐 시장을 둘러싼 논란과는 별개로, 블록체인 기술과 관련 산업을 적극 육성할 필요가 있다.[본 기사는 매경이코노미 제2150호 (2022.03.16~2022.03.15일자) 기사입니다]</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>2022.03.16.</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>'세계의 공장’ 중국발 공급대란 우려…5.5% 성장 목표도 ‘빨간불’</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005168434?sid=101</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>아시아~미국, 컨테이너 운송 요금 1년전 3배도로 통제·검사 요구 등 운반트럭 운행 차질모건스탠리 등 中올해 성장률 전망치 하향[베이징=이데일리 신정은 특파원] ‘세계의 공장’ 중국에서 코로나19 확산으로 공급망 차질 우려가 커지고 있다. 각 도시가 셧다운에 돌입하면서 공장 가동이 중단되고 물류 운송에 차질이 생겼다. 중국의 경제성장률 목표인 ‘5.5% 성장’에도 빨간불이 켜졌다.대만 신베이시의 폭스콘 본사 사옥 (사진=AFP)중국 일부 항구에서는 이미 선박들의 대기시간이 길어지며 컨테이너 운임이 오르기 시작했다. 16일 뉴욕타임스에 따르면 지난 11일 기준 아시아에서 미국 서부해안으로 한 컨테이너를 운송하는데 드는 비용은 1만6353달러(한화 약 2023만원)로, 일주일 전보다 1% 올랐다.화물 예약 플랫폼인 프레이토스(Freightos)에 따르면 해당 노선의 컨테이너 운송 요금은 1년 전보다 거의 3배 상승했다. 2년 전보다는 12배나 올랐다.중국은 지난해 여름 코로나19와 전력난으로 물류대란을 겪은 이후 선적 지연을 막기 위해 항구를 폐쇄한 채 가동하고 있다. 직원들이 항구 내에서 생활하며 작업할 수 있게끔 한 것이다. 지난해 6월 주요 수출항구인 광둥성 선전시 옌톈항은 당국이 코로나19 확산으로 방역을 강화하면서 국제컨테이너터미널에 선박이 정박할 때까지 대기하는 기간은 평균 0.5일에서 16일로 늘어나기도 했다.하지만 문제는 화물이 항구까지 가는 게 쉽지 않다는 것이다. 트럭 통행 제한으로 항구에 있는 선박들의 출발이 최소 12시간 지연되고 있는 것으로 전해진다. 공급망 분석 회사인 에버스트림 애널리틱스의 줄리 거데먼 대표는 “대기 시간이 조만간 2주로 늘어날 것”이라고 예상했다. 상하이 근교의 도시들은 고속도로 출구를 폐쇄하거나 운전자들에게 코로나19 핵산(PCR) 테스트 음성 결과를 요구하고 있다. 이로 인해 공장들의 주요 부품을 운반하는 트럭의 줄이 길어지며 물류에 차질을 빚고 있는 것이다.상하이 뿐 아니라 광둥성, 지린성 등 코로나19 확산이 심각한 지역은 통제식 관리에 돌입했다. 선전과 상하이 등은 모두 항구를 끼고 있다. 이곳에 자리잡고 있는 기업들의 생산에도 차질이 빚어지고 있다. 애플 부품공급사 폭스콘은 선전의 공장 가동을 당분간 중단하고 해당 물량을 다른 공장으로 보냈다. 중국 상하이 인근 타이창항. (사진=신정은 특파원)중국 자동차 산업의 중심지인 지린성의 창춘에서는 토요타자동차 등 5개 자동차 생산공장의 조업이 전면 중단됐다.중국의 코로나19 상황이 지속될 경우 경제에 미치는 영향도 커질 것으로 보인다. 중국 정부는 올해 5.5% 안팎의 국내총생산(GDP) 성장률을 달성하겠다고 공언한 상태다. 그러나 시장의 컨센서스는 5.2% 수준에 불과하다. 코로나19 재확산 뿐 아니라 우크라이나 사태 장기화, 중국 부동산 시장 침체 등으로 중국 경제는 불안한 상황이다.루 팅 노무라의 중국 수석 이코노미스트는 “지난 일주일 동안 중국 내 코로나 상황은 놀라운 속도로 악화했고, 중국 경제는 다시 심각한 타격을 입을 수 있다”며 “시장의 컨센서스는 너무 낙관적”이라고 지적했다. 노무라는 중국의 올해 경제성장률 전망치를 4.3%로 제시했다. 미국 투자은행 모건스탠리는 중국 정부가 경제보다 코로나19 방역에 우선순위를 두고 있다면서 지난 14일(현지시간) 올해 1분기 중국 경제성장률 예상치를 0.6%에서 0%로 낮췄다. 또 모건스탠리는 중국의 올해 연간 경제성장률 예상치도 5.3%에서 5.1%로 하향 조정했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>2022.03.30.</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>보이스피싱 의심될 땐…은행 전화번호 진위 확인 서비스 개시</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003137430?sid=101</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>[경향신문] 은행연합회가 31일부터 제공하는 ‘은행 전화번호 진위확인 서비스’ 화면.  은행연합회 제공보이스피싱 피해를 예방하기 위한 은행 전화번호 확인 서비스가 시행된다.은행연합회는 30일 문자메시지나 전화가 보이스피싱으로 의심될 경우, 발신 번호가 실제 은행에서 사용하는 전화번호인지 확인해 볼 수 있는 ‘은행 전화번호 진위 확인 서비스’를 31일부터 제공한다고 밝혔다.은행연합회와 19개 은행은 은행을 사칭한 보이스피싱 및 메신저피싱 피해를 예방하기 위해 이 같은 서비스를 도입했다. 산업·농협·신한·우리·한국스탠다드차타드·하나·기업·국민·한국씨티·수협·대구·부산·광주·제주·전북·경남은행과 케이뱅크·카카오뱅크·토스뱅크가 참여한다.은행 소비자는 은행연합회 홈페이지 또는 은행연합회 소비자포털에 접속해 ‘은행 전화번호 진위 확인’ 메뉴로 들어간 뒤, 조회를 원하는 은행을 선택하고 의심스러운 발신 번호를 기입하면 된다. PC와 모바일에서 모두 이용할 수 있고, 회원 가입이나 로그인이 필요없다. 발신 번호가 실제 은행 번호일 경우 ‘맞다’는 확인 메시지와 함께 ‘신종사기수법 등 예상치 못한 피해 예방을 위해 내용이 의심스러울 경우 해당 은행에 진위 여부를 확인하라’는 문구가 나온다. 실제 은행 번호가 아닐 경우엔 ‘아니다’라는 메시지와 함께 주의하라는 문구가 나온다.은행연합회는 “최근 가짜 저금리 대출상품, 생계자금 지원과 같이 은행을 사칭하는 대출 빙자형 보이스피싱이 급증하고 있어 금융소비자의 각별한 주의가 요구된다”며 “이 서비스를 이용하면 보이스피싱 예방에 큰 효과가 있을 것으로 기대한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>2022.03.30.</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>[비즈&amp;] 삼성, 미국 유전자 치료제 개발 벤처기업에 투자 外</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/422/0000534995?sid=101</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>경제계 소식 알아보는 비즈&amp; 시간입니다. 오늘은 어떤 소식들이 있는지 살펴보겠습니다.▶ 삼성, 미국 유전자 치료제 개발 벤처기업에 투자 삼성물산과 삼성바이오로직스가 미국 유전자 치료제 개발사 '재규어 진테라피'에 투자합니다. 이는 삼성물산과 삼성바이오로직스가 차세대 바이오 벤처기업 투자를 위해 지난해 조성한 1,500억원 규모 펀드의 첫 투자입니다. 재규어 진 테라피는 내년 특정 유전자 관련 자폐증, 1형 당뇨병 관련 신약의 임상 착수를 계획하고 있습니다.▶ 쏘카, 1인용 구독상품 출시…평일 전국 차량 무제한승차공유 플랫폼 쏘카가 1인용 구독상품 '평일 무제한형'을 출시했습니다. 평일에 전국 4,000여개 쏘카존에 배치된 차량을 이용할 수 있는 상품으로 외근직 직장인, 1인 사업자 등을 겨냥한 상품입니다. 소카는 "장기대여가 부담스러운 사람을 비롯해 다양한 사람들을 겨냥한 상품"이라고 설명했습니다.▶ 샘표, '캔 김치' 미국·유럽 판매…"해외 공략" 샘표가 캔 김치인 '김치 오리지널'과 '볶음김치'의 미국과 유럽 판매에 나섰습니다. 샘표는 "한국에서 먹는 맛 그대로 김치를 즐기고 싶은 해외 소비자를 위한 상품"이며 "순식물성 콩 발효 에센스 연두로 맛을 내 채식 지향인도 부담 없이 즐길 수 있다"고 소개했습니다.▶ 현대백화점, 더현대닷컴에 ESG 전문관 개장 현대백화점이 공식 온라인몰 '더현대닷컴'에 지속가능성을 갖춘 상품들만 모은 ESG 전문 편집매장 '리.그린'을 엽니다. '리.그린'에서는 패션·화장품 등 120여개 브랜드의 상품이 판매됩니다. 현대백화점은 자체 운영기준으로 재활용 원단을 사용하거나, 동물복지 실현, 비건 인증 제품 등을 선별했다고 설명했습니다.▶ 토스 후불 결제 서비스…19세 이상, 월 30만원 한도핀테크 기업 '토스'가 만 19세 이상 사용자에게 후불 결제 서비스를 시작합니다. 청년, 주부 등에게 소액 신용 결제 기회를 제공하는 서비스로 자동납부 계좌를 등록하고 심사를 거쳐 이용할 수 있습니다. 월 결제 한도는 최대 30만원으로 서비스 수수료나 이자는 부과되지 않습니다.연합뉴스TV 기사문의 및 제보 : 카톡/라인 jebo23</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>2022.03.24.</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>JB금융, 큰 글씨로 간편하게…UX·UI 전면 개편</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004939233?sid=101</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>◆ 디지털금융 ◆ 김기홍 회장 JB금융그룹은 각 계열사 모바일 앱을 개선하고 핀테크와 협업해 디지털 혁신을 추진한다.우선 JB금융은 그룹 사용자 경험(UX)·사용자 인터페이스(UI)를 전면 개편해 사용자 편의성을 극대화할 계획이다. 전형적인 은행 모바일뱅킹 앱에서 탈피해 철저하게 '고객 중심 경험 개선'을 위한 UX와 UI로 탈바꿈하면서 개편을 완료했다.전북은행의 새로운 개인뱅킹 'JB뱅크'는 편리하고 안전한 인증 서비스와 사용자 중심 맞춤화 서비스, 큰 글씨 서비스 등을 제공해 고객 편의성을 확대한다. 또 전북은행만의 차별화된 인증 서비스인 'JB모바일 인증서'도 도입해 간편 비밀번호 6자리와 패턴과 바이오를 결합한 뒤 사용 가능하도록 했다. 새롭게 개편된 JB뱅크의 메인 화면에서는 고객 대표 계좌와 카드 잔액, 결제대금을 직관적으로 확인할 수 있도록 했다. 반복적으로 여러 이체를 원하는 고객은 '다건 이체' 기능을 사용할 수 있고, 채널별 상품 가입 절차를 통합하는 등 기존 이용 고객 니즈를 반영해 비대면 서비스 커버리지도 넓혔다.JB금융의 또 다른 계열사인 광주은행은 '기업스마트뱅킹'을 전면 개편했다. 광주은행 기업스마트뱅킹에서 새로 도입한 '모바일 승인·결재 서비스'를 통해 기업 실무진은 인터넷 뱅킹에서 결재를 요청하면 결재권자가 모바일에서 내용을 확인하고 결재할 수 있다. 또 '기업금융현황' 메뉴에서는 기업의 은행거래 현황을 한눈에 파악하고, 예금·대출·카드 이용 현황을 통해 과거 변동 추이도 확인할 수 있다.JB금융은 또 빅테크·핀테크와 협업 체계를 구축해 JB그룹 자체 디지털 생태계를 조성한다는 계획이다. 우선 광주은행은 광주과학기술원(GIST)과 인공지능 산업 육성을 위해 협업하기로 했다. 또 토스와 디지털 금융·마케팅 활성화를 위한 업무협약도 맺은 상태다. 전북은행은 카카오엔터프라이즈와 데이터·인공지능을 활용하기 위한 방안을 함께 연구할 계획이다. 이외에도 네이버파이낸셜, 카카오뱅크, 한국신용데이터 등과도 협업을 통해 디지털 금융 서비스 등을 확대해 나갈 예정이다.JB금융그룹은 국내 금융그룹 최초로 통합 빅데이터 플랫폼도 오픈했다. 클라우드 기술에 기반한 '데이터 허브'에서 인공지능(AI)과 빅데이터 기술을 활용해 고객 맞춤형 서비스를 제공할 방침이다. 메타버스와 관련한 사업 영역도 확장한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>2022.03.16.</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>1억 넣으면 하루 5400원씩…토스뱅크, 매일 이자 지급한다</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/448/0000354021?sid=101</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>인터넷 전문은행 토스뱅크가 은행권 최초로 고객에게 매일 이자를 지급하는 서비스를 시작했다. 토스뱅크는 16일부터 매일 한 번씩 고객들이 원할 때 즉시 이자를 받을 수 있도록 한다고 밝혔다.토스뱅크 통장을 보유한 고객이라면 누구나 '지금 이자 받기' 버튼을 클릭해 이자를 받을 수 있다. 쌓인 이자가 최소 1원 이상일 경우 가능하며, 출금도 언제든지 가능하다.토스뱅크 통장은 세전 기준 연 2%(최대 한도 1억원, 초과분은 연 0.1% 금리 적용) 이자를 지급하는 수시입출금 통장으로 매일 남은 잔액을 기준으로 이자가 쌓이는 '일 복리' 구조다. 1억원을 예치하면 하루에 약 5400원(세전 기준) 상당의 이자를 받을 수 있다.토스뱅크 관계자는 "그동안 고객들은 은행이 정한 날짜에 이자를 받는 것만 생각했지, 매일 받을 수 있는 것은 생각할 수 없었다"며 "공급자 중심의 금융을 고객 중심으로 바꾸어 나가는 계기가 됐으면 한다"고 밝혔다.'지금 이자받기'를 클릭하지 않은 고객은 이전과 마찬가지로 쌓인 이자를 매월 세 번째 토요일에 일할 계산해 받게 된다.토스뱅크는 올해 연말까지 서비스를 운영하며 서비스 안정화 작업을 진행한 뒤 이를 상시화할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>2022.03.21.</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>"숨은 우량고객 찾아라"…카드·핀테크도 신용평가 '업그레이드'</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004676315?sid=101</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>대출 문턱 높았던 개인사업자신용평가시장 '최대 격전지'로신한카드, 상권 성장성 등 활용8퍼센트, 스마트폰 사용 분석도서울 강북구에서 요식업을 하는 박모씨는 개인 신용점수를 바탕으로 대출심사를 받았을 때 한도가 2300만원에 그쳤다. 하지만 신한카드가 고객 재방문율, 소속 상권의 성장성 등을 활용해 박씨의 미래 현금흐름을 추정한 후 상환 여력을 재평가하자 대출한도가 3200만원으로 늘어났다.신용평가모형(CSS) 고도화를 통해 신용점수는 낮지만 상환능력과 의지가 높은 ‘숨어 있는 우량고객’을 찾기 위한 경쟁에 신용카드사와 핀테크 업체들도 적극 뛰어들고 있다. 금융거래 이력이 부족해 ‘신파일러(thin filer)’로 불리는 사회초년생, 자영업자, 주부, 학생 등이 대출 승인율이 높아지거나 한도와 금리 등 조건이 개선되는 혜택을 받고 있다.신한카드와 KB국민카드, 비씨카드는 각각 개인사업자 신용평가(CB) 시장에 뛰어들었다. 카드 가맹점 정보, 매출 정보 등을 활용해 대출 심사를 한다. 직장인에 비해 소득이 일정하지 않다는 등의 이유로 대출 문턱이 높았던 ‘사장님’들이 혜택을 볼 전망이다. 소상공인 매출관리 플랫폼 캐시노트와 손잡은 카카오뱅크, 중소기업 CB사에서 보폭을 확대 중인 한국평가데이터도 이 시장에 뛰어들었다. 토스도 플랫폼 기업들과의 협업을 통해 CB 시장 진출을 추진 중인 것으로 알려졌다.비금융 정보를 활용하는 1호 개인 CB사인 크레파스솔루션의 김민정 대표는 “앱이나 웹 기록 같은 ‘디지털 흔적’ 빅데이터를 갖고 행동의 일관성, 안정성, 꼼꼼함 같은 소비자 성향을 파악해 신용점수를 매기고 있다”고 말했다. 가령 캘린더를 주기적으로 잘 관리하는지, 직전 1주일 대비 최근 3일간 사용 패턴 변화가 어떤지 등 여러 지표를 바탕으로 개인의 ‘성실성’을 가늠해 볼 수 있다는 설명이다.소액 대출의 경우 경제력 못지않게 ‘갚으려는 의지’가 중요하다고 판단해 이 같은 지표를 개발했다. 김 대표는 “금융정보를 바탕으로 한 신용점수와 결합해 활용하면 같은 6등급 중에서도 ‘성실한 6등급’을 찾아 더 혜택을 줄 수 있다”고 말했다. 2020년 신용정보법 개정으로 CB업 칸막이가 사라지고 진입 문턱이 낮아지면서 앞으로 더 다양한 CB 사업자가 나올 것으로 보인다.온라인투자연계금융(P2P 금융) 업체들은 CSS 고도화에 적극적이다. 8퍼센트는 모바일 대출 신청자의 스마트폰 사용 시간대, 유의미한 통화 상대방 수, 계약 시 클릭 정확도 등 400여 개의 데이터를 활용하고 있다. 피플펀드는 대출 상담자의 목소리 높낮이와 특정 질문에 대한 반응 음성·행동 패턴 등이 부실 고객을 가려내는 데 유의미한 지표가 될 수 있다고 보고 관련 기술을 개발 중이다. 피플펀드에 따르면 2금융권 대출을 보유하다가 자사 중금리 대출로 갈아탄 고객들이 평균적으로 금리 4.5%포인트 인하와 한도 1255만원 증액 효과를 봤다.물론 나이스신용평가, KCB 등에서 제공하는 신용점수가 여전히 주된 대출 평가 요소다. 하지만 다양한 대안정보를 참고지표로 활용할 때 신파일러들이 대출 승인, 조건 개선 등 혜택을 볼 여력이 생긴다. 여은정 중앙대 교수의 2020년 ‘국내 중신용자 대출시장의 현황과 정책적 시사점’ 논문에 따르면 최근 3년간 주요 금융거래 기록이 없는 신파일러의 82.2%가 중신용자(옛 신용등급 기준 4~6등급)다. 자연스레 CSS 고도화가 중신용자의 금융 접근성을 개선하는 선순환 구조로 이어진다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>2022.03.22.</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>[인사이드 스토리]토스뱅크의 도전, 은행권 시각은?</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000006941?sid=101</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>없어진 복리형 수신상품, '일복리'로 업그레이드수신자산 확보+높은 MAU 유지 기반 될 듯만만치 않은 이자비용, 감당 여부 주목토스뱅크가 아주 파격적인 도전에 나섰습니다. 매달 받던 은행 수신 이자를 고객이 원할 때 언제든 받을 수 있도록 개편한 겁니다. 고객 입장에서는 환영할 만한 일입니다. 사실 거의 사라졌다 싶은 '복리형' 수신상품이 오래간만에 국내 금융권에 재등장한 것이나 다름 없어서입니다. 더 많은 이자를 기대할 수 있다는 얘기입니다. 은행 업계에서도 이번 도전에 관심이 많습니다. 과연 매달 나가는 이자비용을 감당할 수 있을까. 이러한 전략을 택한 것은 무엇일까에 대한 의문에서 기인합니다. 홍민택 토스뱅크 대표이사. /그래픽=비즈니스워치사라졌던 '복리', 다시 깨우다이번에 토스뱅크가 새롭게 선보인 서비스는 '지금 이자 받기 서비스'입니다. 토스뱅크통장을 보유한 고객이 원하는 시점에 이자를 받을 수 있는 구조입니다.그전에 토스뱅크 통장 보유 고객은 매달 3번째주 금요일에 잔액을 정산받아 토요일에 매달 이자를 지급받았습니다.'지금 이자 받기 서비스'의 경우 이런 이자 정산일을 무시하고 고객이 원하는 시점에 즉시 이자를 받을 수 있는 서비스입니다. 토스뱅크에 접속해 '지금 이자 받기' 버튼만 누르면 그 시점의 잔액을 기준으로 매일 1번 이자를 지급받을 수 있습니다. 금리는 연 2.0% 입니다. 그리고 고객이 이렇게 받은 이자를 다시 토스뱅크통장에 입금하고 그 다음날 '지금 이자 받기' 버튼을 누르면 종전의 원금에 전날 받은 이자를 더해 수신잔액을 재산정합니다. 수신잔액이 늘었으니 기대할 수 있는 이자 역시 늘어나게 됩니다. 과거 학창시절 우리를 헷갈리게 했던 '복리형' 수신상품인 셈입니다. 예를 들어 토스뱅크에 5000만원을 예치한 이후 지금 이자받기를 매일 클릭하고 이 이자를 그대로 토스뱅크통장에 넣어둔 경우 1년후 기대할 수 있는 이자는 세후 85만6287원입니다. 반면 일반 시중은행의 2% 금리, 만기 1년짜리 예금상품에 5000만원을 가입할 경우 기대할 수 있는 이자는 세후 84만6000원입니다. 금리는 같지만 토스뱅크의 경우 바뀌는 잔액을 기준으로 이자를 재산정하는 복리형 구조를 택했기 때문에 일반 시중은행 예금상품에 가입했을 때 보다는 높은 이자를 기대할 수 있는 셈입니다. 특히나 최근 시중은행들은 이같은 복리형 수신상품을 사실상 판매하고 있지 않습니다. 계약 만기시 금액을 기준으로 이자를 확정하는 단리형 수신상품이 대다수입니다. 비용절감을 위해서 은행들이 그동안 서서히 지워왔던 복리형 수신상품을 토스뱅크가 다시 깨운 셈입니다.토스뱅크가 기대할 수 있는 것토스뱅크는 이번 서비스를 통해 크게 두 가지를 기대할 수 있을 것으로 보입니다.일단 대규모 수신의 유치입니다. 토스뱅크는 출범하면서 수신상품은 수시입출금식 상품인 '토스뱅크통장'으로 일원화하고 1억원 이하일 경우 연 2.0%금리를 보장하겠다고 했습니다. 통상 적금금리도 2.0%를 기대하기 힘든 상황에서 가장 수신금리가 낮아야 하는 수시입출금식 상품에 2.0%의 금리를 제공한다고 하니 금융소비자들은 당연히 호응했습니다.이렇게 모은 수신은 토스뱅크가 앞으로 나아갈 자산이 됩니다. 수신을 많이 모으면 모을수록 대출을 해줄수 있는 여력이 늘어나기 때문입니다. 현재 은행권에게는 '예대율'이라는 규제가 적용중입니다. 예대율은 말 그대로 은행의 예금잔액을 대출잔액으로 나눈 비율을 말합니다. 금융당국은 이 비율을 100% 이내에서 관리할 것을 요구합니다. 예대율이 100% 넘어간다면 사실상 과잉대출을 하고 있는 셈으로 금융당국의 감시대상이 됩니다. 따라서 수신을 많이 늘리는 것이 은행에게는 중요합니다.또 다른 하나는 MAU(월간활성화사용자수)의 유지입니다. 모바일 금융서비스가 대세가 되면서 그 서비스가 얼마나 많이, 얼마나 자주 쓰이는 지가 금융서비스의 경쟁력을 측정하는 중요한 지표가 됐습니다. 주요 금융지주 역시 디지털 경쟁력 강화를 외치면서 주력계열사인 은행의 MAU를 실적발표 컨퍼런스때마다 공개하기 시작한 것도 이러한 이유에서입니다.토스뱅크는 출시부터 별도의 뱅킹앱을 출시하지 않고 모태인 '토스'내에 뱅킹서비스를 탑재시키며 출범했습니다. 그리고 토스의 MAU는 1400만명 가량입니다. 금융권 1위입니다. 토스뱅크 고객이 매일 '지금 이자 받기 서비스'를 활용한다면 자연스럽게 토스의 MAU유지에도 도움이 되는 구조입니다. 금융권 관계자는 "토스는 IPO까지 염두해 두고 있는 데카콘기업이 됐다"며 "높은 MAU유지는 향후 IPO흥행에 있어 좋은 근거자료로 활용될 것"이라고 설명했습니다.그런데 토스뱅크, 괜찮아요?다만 은행권에서는 이번 토스뱅크에 행보에 대해 이런 의문을 표합니다. "감당할 수 있을까"라는 의문입니다. 토스뱅크는 이제 막 출범했고 핵심 사업영역인 대출사업도 올해에서야 정상적으로 운영하기 시작했습니다. 여기에 더해 금융당국은 가계신용대출중 20~30%가량을 리스크가 높은 중·저신용자대출로 채울 것을 주문한 상황입니다. 때문에 일각에서는 토스가 본격적으로 돈을 버는, 즉 흑자전환을 하기 위해서는 비용관리에 힘을 써야 한다고 보고 있는데 출범 초기부터 나가는 비용 즉 이자비용을 너무 높게 잡고 있다는 겁니다. 은행 관계자는 "은행들이 이자비용이 적게 드는 저원가성 수신 유치에 활발한 것과는 정반대의 행보를 보이고 있다"며 "출범 초기 고객 확보를 위한 마케팅 비용으로 여겨질 수 있지만 가장 민감도가 높은 이자에 대한 마케팅이기 때문에 향후 쉽게 비용을 줄이기 어려운 부분이 있을 것"이라고 짚었습니다. 지난달 있었던 증자 역시 이러한 이유도 한몫했을 것이란 게 금융권의 분석입니다. 토스뱅크는 지난달 3000억원의 유상증자를 통해 자본을 확충했습니다. 지난해 10월 출범 직후 이뤄진 두번째 유상증자로 토스뱅크의 자본은 8500억원으로 늘었습니다.토스뱅크는 개인 신용대출 상품 확대, 개인사업자 대출 진출 등 대출사업 영역 확대를 위해 유상증자를 진행했다고 밝혔습니다. 은행권에서는 속도에 집중합니다. 앞서 출범한 카카오뱅크와 케이뱅크에 비해 유상증자 시점이 빠르다는 점입니다. 적극적인 대출영업 확대를 위한 자금조달이 가장 큰 이유겠지만, 나가는 비용을 감당하면서 자본건전성 등을 충족시키려면 증자가 시급했을 것이란 분석입니다. 다른 은행 관계자는 "이제 막 출범한 만큼 수신고객은 계속해서 유입이 될 것이고 모두에게 동일한 혜택을 제공해야 한다"며 "이러한 비용구조에 대한 고민도 시작할 시점이 곧 찾아오지 않겠느냐"고 짚었습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>2022.03.23.</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>토스뱅크 고객 6초에 1명씩 늘어··· 가입자 월 평균 3만7200원씩 이자 받았다</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003680547?sid=101</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>출범 5개월 만에 235만명 돌파 “가파른 성장세”토스뱅크가 작년 10월 출범한 지 5개월 만에 고객 수 235만명을 돌파했다. /토스뱅크 제공										인터넷전문은행인 토스뱅크가 작년 10월 출범 이후 5개월 만에 이용자 수 235만명을 돌파했다. 토스뱅크 예금·대출·카드 등 서비스 이용자를 모두 합친 수치다.23일 토스뱅크에 따르면, 지난 21일 기준 토스뱅크 가입자는 235만2202명으로 집계됐다. 하루 평균 약 1만4000명, 6초에 1명꼴로 신규 가입자가 늘어났다. 가입자는 30대가 27%로 가장 많았고 20대(25%), 40대(24%) 등이 뒤를 이었다. 모바일 금융 거래에 익숙한 20~40대가 많았다.수시 입출식인데도 연 2%라는 비교적 높은 이자를 주는 토스뱅크 통장을 개설한 사람이 205만5255명으로 특히 많았다. 이 통장은 예치금 1억원까지는 연 2%를, 1억원 초과분에 대해서는 0.1% 금리를 적용한다. 한 달, 혹은 하루 단위로 이자를 받을 수 있어 인기다.토스뱅크 가입자 1인당 평균 예치금은 831만원이었다. 역시 인터넷은행인 카카오뱅크(167만원)와 케이뱅크(158만원)를 크게 웃돈다. 다른 인터넷은행의 경우 모임비 관리 등을 위한 ‘제2의 통장’으로 계좌를 이용하는 이들이 많은 반면, 토스뱅크는 이자 자체를 더 받기 위해 목돈을 넣어두는 경향이 있는 것으로 보인다. 토스뱅크 가입자는 월평균 이자를 3만7200원씩 받는 것으로 조사됐다.이런 가운데 토스뱅크의 예금 잔액은 5개월 만에 17조51억원으로 늘었다. 2017년 탄생한 카카오뱅크가 2년만에 이룬 성과를 토스뱅크는 출범 5개월 만에 달성했다. 몇 년 사이 인터넷전문은행에 대한 신뢰가 두터워진 점 등이 후발주자인 토스뱅크에게 유리하게 작용한 것으로 풀이된다.인터넷은행과 함께 휴대폰을 통해 모바일 결제도 크게 늘어 ‘○○페이’로 대표되는 선불전자지급 서비스 사용이 크게 늘었다. 이날 한국은행에 따르면 지난해 선불전자지급 이용 건수가 하루 평균 2380만건, 이용 금액은 6647억원을 기록했다. 건수는 전년 대비 28%, 금액은 42%가 증가했다. 한은 관계자는 “물품·서비스 대금을 할인해주거나 포인트 적립 혜택 등이 많은 온라인 간편 결제 및 송금의 실적이 꾸준히 증가하고 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>2022.03.18.</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>토스뱅크, ‘매일 이자 지급’ 이틀 만에 이자액 66억원 돌파</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000800603?sid=101</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>토스뱅크가 매일 이자를 주는 ‘지금 이자 받기 서비스’를 출시한 지 이틀 만에 이자 지급액이 66억원을 돌파했다.토스뱅크는 이날 오전 9시까지 고객들이 받아간 이자 금액이 총 66억5576만원이라고 18일 밝혔다. 고객 41만여명이 ‘지금 이자받기’ 서비스를 이용했고, 평균 이자 수령 금액은 약 1만6200원으로 나타났다.토스뱅크 CI        이 은행은 지난 16일부터 ‘토스뱅크통장’을 보유한 고객을 대상으로 매일 한 번씩 고객들이 원할 때 즉시 이자를 받을 수 있도록 서비스를 제공 중이다. 고객은 ‘지금 이자 받기’ 클릭 한 번으로 매월 한 차례 지급되던 이자를 매일 통장으로 받게 된다. 매일 남은 잔액을 기준으로 이자가 쌓이는 ‘일 복리’ 구조라 돈을 많이 보관할수록, 또 이자를 매일 받을수록 유리하다. 이 같은 서비스를 선보인 것은 토스뱅크가 처음이다. 토스뱅크통장은 세전 연 2% 이자(1억원 초과시 0.1% 금리 적용)를 지급하는 수시입출금 통장이다.토스뱅크 관계자는 “출시 이틀 만에 41만명의 고객이 서비스를 이용했다는 것에서 ‘고객 경험의 혁신’이 이뤄지고 있음을 체감하고 있다”면서 “고객 중심의 금융으로 한발 더 나아갈 수 있도록 노력하겠다”고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>2022.03.22.</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>이유있는 `지금 이자받기` 돌풍..."예적금 투자는 단기로"</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001021274?sid=101</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>&lt;앵커&gt;최근 러시아의 우크라이나 침공 이후 글로벌 경제 불확실성 우려로 주식 시장과 가상자산 시장은 부진이 장기화되면서 `예적금 시대`가 다시 돌아왔습니다.마땅한 투자처를 찾지 못한 가계 자금이 안전 자산인 정기예적금으로 쏠리고 있는 건데, 앞서 보셨다시피 정기예금 수익률이 적금보다 더 높다는 분석리포트도 보셨는데요.전 기자, 실제 이자를 조금이라도 더 주는 예금 통장으로 금융소비자들이 몰리고 있다고요.&lt;기자&gt;네, 맞습니다. 혹시 짠테크라고 아시나요.&lt;앵커&gt;말 그대로 짠 재테크 아닌가요?&lt;기자&gt;정답입니다. `짜다`와 `재테크`의 합성어가 짠테크 입니다.전 세계 금융시장에서 위험자산 투자에 경고등이 들어오자 최근 소액이라도 예적금 등 안전자산에 돈을 모아두려는 이들이 늘어나고 있는데요.최근 이런 바람을 타고 은행권에서 처음으로 토스뱅크가 `일복리` 예금 통장을 내놓았는데,예적금이 다시 투자수단으로 각광받으면서 이른바 MZ세대를 중심으로 한 짠테크족들의 호응을 얻고 있습니다.토스뱅크의 일복리 상품은 지난 16일 출시 이후 이틀만에 41만명이 이용했고, 출시 6일만인 어제(21일) 기준 이용자가 77만명으로 급증했습니다.&lt;앵커&gt;일복리 상품은 생소한데, 어떤 개념인건가요?&lt;기자&gt;우선 이자율을 계산하는 방법에는 `단리`와 `복리`, 두가지가 있는데요. 단리는 원금에 대해 정해진 이자율만 곱해 이자를 주는 것이고, 복리는 원금과 이자를 합한 잔액에 대해 이자를 주기 때문에 복리계산법이 이자가 더 높습니다. 시중은행의 정기예금은 보통 `단리` 이자계산법을 적용하고 있는데요. 토스뱅크는 언제든 돈을 넣었다 뺄 수 있는 예금통장인 이른바 파킹통장에 `하루단위 복리` 효과를 내는 기능을 추가했습니다. 매일 토스앱에 접속해서 `지금 이자받기` 버튼을 누르면 원금에 이자를 더하고 다음날 그 금액에 다시 이자가 붙는 `일 복리` 효과 볼 수 있는 거죠. &lt;앵커&gt;그래도 잘 와닿지 않은데, 단리 상품과 일복리 상품은 이자가 얼마나 차이나는 겁니까?&lt;기자&gt;같은 원금, 같은 금리로 1년간 토스뱅크 일복리 예금 상품에 가입했을 때, 또 시중은행의 일단 단리 예금 상품에 가입했을 때 이렇게 두 경우로 나눠서 이자가 얼마나 붙는지를 비교해봤습니다. 예컨대 연 2% 금리를 주는 토스뱅크 통장에 1천만원을 1년간 예치하고 매일 `지금 이자받기`를 적용할 경우 총 이자는 17만5,533원이 됩니다. 같은 조건에서 `지금 이자받기`를 매일 클릭하지 않을 경우 약관에 따라 매월 복리 이자가 지급되는데요, 이땐 17만179원의 이자를 받게 됩니다. 그렇다면 시중은행 2% 정기예금의 경우는 어떨까요. 1년 예치시 이자는 16만9,200원으로 일복리 토스예금과 비교했을 때 6,300원 정도 차이가 납니다.  &lt;앵커&gt;실제 따져보니 단리 상품과 일복리 상품간 이자 차이는 크지 않네요. 그런데 왜 이렇게 호응이 좋은거죠?&lt;기자&gt;혜택이 그렇게 크지 않아 보일 수 있지만, 금융소비자들은 소액이라도 꾸준히 저축해서 목돈을 마련한다는 데 의미를 두고 있는 겁니다. 또 매일 이자를 버는 재미와 보람도 느낄 수 있기 때문에 소소한 앱테크로도 각광을 받고 있다고 할 수 있습니다.이런 해석도 있습니다. 주식과 가상자산, 부동산 등 자산시장의 변동성이 심해지면서 많은 투자자들이 시장 저점 타이밍 투자를 위해 이른바 총알, 즉 현금을 보유하려는 경향을 보이고 있는데요. 이 때문에 잠시 맡겨둬도 연 2%에 일복리 이자를 주는 파킹통장이 인기라는 거죠. &lt;앵커&gt;그럼 시중은행에는 복리 예금상품은 없는 건가요.&lt;기자&gt;금융감독원이 운영하는 `금융상품통합비교공시`를 통해 조사해봤는데요. 시중은행의 복리 정기예금 상품은 국민은행 3개, 광주은행 1개, 이렇게 4개가 있었고요, 복리 적금 상품은 산업은행, 하나은행, 수협은행 등 3곳에서 각각 1개씩 출시돼 있었습니다. 이렇듯 시중은행 통 틀어서 복리 예적금 상품이 10개도 채 되지 않는 건, 소비자들의 니즈가 없었기 때문입니다. `복리의 마법`은 은행 금리가 10%였던 1990년대 말에는 `재테크의 진리`라고 했을 정도로 효과가 컸지만 저금리 시대가 장기화되면서 복리의 극대화를 누리기 매우 어려웠던 거죠. 하지만 지금과 같이 금리가 계속 오를 땐 장기간 돈을 묶어두고 싶다면 확실히 복리가 유리하다고 볼 수 있습니다 .&lt;앵커&gt;최근 예적금에 대한 관심이 높아진 건 시중은행에서도 금리상승기를 맞아 고금리 상품을 내놓고 있는 것도 이유일텐데요. 이런 고금리 상품에 투자하는 것도 예적금 재테크 방법이지 않을까요.&lt;기자&gt;시중은행의 예적금 상품 투자는 특정조건을 만족할 경우 정기예금의 경우 최고 연 2%대, 적금은 연 4%대 금리를 받을 수 있어 쏠쏠한 재테크 재미를 볼 수 있습니다. 하지만 금리가 높다고 무턱대고 가입해선 안 된다고 전문가들은 조언합니다.  은행들이 높은 금리를 준다는 건 그만큼 해당 고객이 자신의 은행에 얼마나 기여하는지를 본다고 보면 되는데요.은행권의 4%대 적금은 주로 첫 거래고객에게만 해당이 되고요.또 높은 이자를 준다며 가입을 유도한 뒤 급여 이체, 신용카드 사용실적 등 까다로운 각종 우대조건을 붙이기도 하는 만큼 조건을 꼼꼼히 따져봐야 합니다. 월 납입 한도도 확인해야 하는데요. 돈을 불리고 싶은데 매월 넣을 수 있는 돈이 적다면 그만큼 받는 이자도 적을 수 밖에 없겠죠. 이 때문에 금리상승기엔 정기예금의 경우 중도해지의 부담 없고 변동식 금리를 적용한 짧은 만기의 상품에 가입하는 것이 유리하다고 조언합니다. 이 부분은 전문가 인터뷰로 확인해보겠습니다.[한수연 / 우리은행 TCE강남센터 부지점장 :  요즘과 같은 변동시장에서는 언제든지 현금화가 가능하지만 연 1% 내외의 금리를 제공하는 MMF(머니마켓펀드), RP(환매조건부채권), 1개월 회전형 정기예금과 같은 현금성 자산의 비중을 20~30% 정도 가져간다면 향후 위험자산을 저가 매수할 수 있는 좋은 기회를 잡을 수 있을 것입니다.] [김학수 / 하나은행 압구정PB센터 팀장:  금리가 상승하니깐 1년보다는 6개월로 (예금을) 돌리는 게 유리하겠죠. 적금 같은 경우에는 장기로 계약하는 것보다는 좀 더 짧은 1년짜리가 더 낫습니다. 요즘은 적금보다 예금을 많이 하거든요. ]&lt;앵커&gt;전 기자, 마지막으로 오늘의 주제를 한줄로 요약해주신다면요. 유튜브용 해시태그도 부탁드립니다. &lt;기자&gt;한줄평은 예적금 재테크 시대, 다시 돌아왔다. 해시태그는 #10년 전 복리예금 돌풍 재연 #짠테크족 주목 #이자로 부자되자 이렇게 하겠습니다.&lt;앵커&gt;네, 오늘 이야기 잘 들었습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>2022.03.16.</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>"카드 결제는 안 돼, 돌아가"…카드사 vs 가맹점, 수수료 놓고 깊어지는 감정골</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004935403?sid=101</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>전자지급결제업체 관계자들이 지난 15일 서울 중구 신한카드 본사 사옥 앞에서 카드 수수료율 인하 요구 집회를 열었다. [사진 제공 = 전자지급결제협회] 신용카드회사가 수수료 인상을 단행하면서 가맹점과의 갈등이 나날이 깊어지고 있다. 마트·편의점·주유소 등이 가맹점 해지를 고려하고 있는 데에 이어 온라인 쇼핑몰의 결제대행자인 전자지급결제업체(PG사)도 카드사 수수료율 인하 요구에 동참하는 등 반발이 거세다.16일 전자지급결제협회(PG협회)는 이날 오전 11시 서울 중구 신한카드 본사 사옥 앞에서 수수료 인상 결정을 철회하라는 집회를 열 예정이다. PG협회는 전날에도 오전 8시와 11시 두 차례에 걸쳐 신한카드 사옥 앞에서 피켓을 들었다. 수수료 협상에 성실히 임하고 소비자 권익을 보호하라는 구호를 외쳤다.PG협회는 나이스페이먼츠, 다날, 엔에이치엔한국사이버결제, 케이에스넷, 케이지모빌리언스, 케이지이니시스, 토스페이먼츠, 한국정보통신 등 PG사로 구성된 조직이다. 이 8개사의 시장점유율은 90%가 넘는 것으로 알려졌다.PG사는 온라인 거래 시 지급·결제업무를 중개하는 대표가맹점의 역할을 수행한다. 이 과정에서 발생할 수 있는 고객 민원이나 배상 책임 등 위험관리도 담당하고 있다. 카드사는 온라인 카드결제가 발생하면 PG사에 가맹점수수료를 제외한 결제대금을 입금하고, PG사는 결제대행수수료를 뺀 금액을 가맹점에 지급한다. 그런데 카드사가 수수료율을 0.05~0.1%포인트 인상하겠다고 통보하면서 PG사들이 부담해야 하는 수수료율이 2.25~2.30% 수준으로 상승하게 된 것이다. PG사들은 이 같은 수수료 상향이 소비자가격 인상으로 이어질 수밖에 없다는 주장이다.앞서 유통업계와 주유업계도 수수료율 조정을 요구한 바 있다. 특히 한국마트협회는 이미 인상률이 가장 높은 신한카드를 받지 않고 있다. 신한카드는 카드업계 점유율 1위사다. 실제로 계산대 곳곳에서 '신한카드 결제 안 됩니다'라는 안내문을 쉽게 찾아볼 수 있었다. 주유소도 유류비를 올리는 주범이 카드 수수료라고 지적했다.한 PG협회 관계자는 "일부 PG사는 온라인 쇼핑몰들이 원하는 카드사만 선택해서 계약할 수 있도록 관련 프로세스 개발에 착수한 것으로 안다"며 "이번 카드사의 수수료 인상폭은 일반 온라인 쇼핑몰들과 상생이 불가능한 수준이고 카드사가 손실을 가맹점에 떠넘기면서 시장 전반의 위기를 야기하고 있다"고 우려했다.가맹점들의 단체행동에 카드업계도 난감해졌다. 해마다 인건비, 운영비, 마케팅비 등이 상승하는데다가 기준금리까지 오르고 있다. 또 이번 수수료 인상 대상은 일반·대형가맹점이고, 영세·중소가맹점에는 우대 수수료율을 적용하고 있다. 이 같은 상황에서 카드사의 손실은 눈덩이처럼 불어나고 있다. 실제로 지난해 여신금융협회는 지난 2019~2020년 카드업계가 가맹점 수수료 부문에서 1317억원의 손실을 입은 것으로 추정했다. 한 카드사 관계자는 "여신전문금융업법에 의거해 합리적인 수준에서 인상분을 책정했고, 사실상 수수료 인상을 통보받은 가맹점은 전체 가맹점의 10%가 채 되지 않는 대형가맹점들"이라며 "가맹점들과 대화를 통해 원만하게 협의할 수 있도록 노력하겠다"고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>2022.03.24.</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>[내가 읽은 책] 훌륭한 나라</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/088/0000750586?sid=103</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>국가(政體)(플라톤 지음/ 박종현 역주/ 서광사 펴냄/개정증보판-2018)얼마 전 대통령 선거를 했다. 이번 대선 주자들도 공약을 다양하게 냈지만, '국민이 잘 살도록 하겠다', '대한민국을 훌륭한 나라로 만들겠다'가 공통점이다. 잠시 생각해 보자. 국민이 잘산다는 말은 무슨 말일까. 모두 다 부자가 된다, 아니면 교과서에서 배웠듯 자아실현을 마음껏 펼친다? 훌륭한 나라는 또 어떤 나라인가?2천400년 전 우리보다 먼저 이 논제를 토의한 사람이 있다. 소크라테스와 아데이만토스, 글라우콘이다. '올바름은 도대체 무엇인가'에서 시작하는 논의는 사람의 혼, 통치자 교육, 정치 체제, 철인치자(哲人治者) 등을 아우른다. 이 논의를 플라톤이 기록한 책이 '국가'(政體)다.소크라테스가 주도하는 대화를 기록한 책이기 때문에 소크라테스 철학을 대변한다고 볼 수 있지만, 플라톤 철학으로 봐도 무방하다. 플라톤이 아카데미아(Akademeia)를 세운 뒤 자신의 철학 사상을 정립해 나가는 시기에 기록한 중기 '대화편' 중 하나이고, 플라톤 전집에서 이 책이 차지하는 분량이 18%이기 때문이다.플라톤 철학 중심을 600여 쪽에 걸쳐 전개하는 만큼 '방대한 책'임은 틀림없지만, '내가 소크라테스 대화 상대자다'라고 생각하면서 맥락에 동참해보면 책을 따라가는 데 무리가 없다. 또 당시 사회·문화·정치에 관한 배경을 각주에 자세하게 설명해 놓았고, 1권에서 10권까지 앞부분에 논의를 요약한 글을 넣어서, 내용을 쉽게 이해하도록 도와준다.무엇이든 광속으로 해답이 나오는 시대에 철학책은 고리타분하다고 생각하기 쉽다. 일견 그렇게 볼 여지도 있지만, 그 고리타분함도 결국은 인간 삶과 관련된 문제를 인간이 철저하게 검토하기 때문이다. 길고 긴 검증 과정을 거친 후 집단 지성이 협업으로 내린 결론이라면 인공지능의 '광속 검색' 못지않게 의미 있는 통찰을 주리라.코로나19 발병 이후 국가 역할이 더욱 중시되는 시점이다. 그 역할과 보호 안에서 국민이 개인의 삶을 영위하기 때문이다. 도대체 어떤 나라가 훌륭한 나라(kallipolis)이고, 어떤 삶이 잘사는 삶인가. 이렇게 소크라테스 방식으로 생각하기 원하는 독자에게 '국가'(政體)를 권한다.김준현 학이사독서아카데미 회원</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>2022.03.28.</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>토스증권, 출범 1년만에 고객 420만명 확보</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004940932?sid=101</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>MAU 230만명 기록 토스증권이 출범 1년만에 고객 420만명, 월간활성이용자(MAU) 230만명을 확보했다고 28일 밝혔다.이날 토스증권에 따르면 토스증권은 출범 3개월 만에 350만 신규 계좌 개설을 달성했다. 하루 최대 가입자 수는 58만여명에 이른다. MAU는 출범 이래 꾸준히 200만명을 상회하며 월 평균 230만명을 기록 중이다. 토스증권은 "출범 3개월 만에 350만 신규 계좌가 개설됐는데 이는 미국 주식거래 플랫폼 로빈후드가 2년여 만에 달성한 수치"라며 "월간 활성 이용자 230만명은 국내 증권사 상위 5개사에 필적하는 수준"이라고 설명했다.특히 MZ세대가 전체 고객의 약 65%(260만명)를 차지하고 있다. 사용자 환경·경험(UI/UX)과 맞춤형 서비스들이 MZ세대와 초보 투자자들의 이목을 끌었다는 평가다.지난해 7월 선보인 '주식선물하기'는 투자자끼리 주식을 주고 받을 수 있는 서비스로 출시 1주일만에 1만 건 이상의 선물하기가 이뤄졌다. '토스증권 데일리' 는 애널리스트가 직접 투자자들과 소통하는 콘텐츠로 구독자 50만명 돌파를 눈앞에 두고 있다. '커뮤니티'는 실제 주주와 잠재투자자를 뱃지로 구분해 투자 의견의 신뢰도를 높이고 기존의 주식 커뮤니티와 차별화했다.토스증권 관계자는 "앞으로 토스증권은 처음 투자를 시작하는 고객과 숙련된 투자경험을 가진 고객 모두가 만족할 수 있는 모바일 주식투자의 표준을 보여드리게 될 것"이라고 말했다.한편 토스증권은 오는 4월 업계 최초로 '실시간' 해외주식 소수점 거래 서비스를 선보인다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>2022.03.30.</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>카카오페이증권 "테슬라 주식 소수점 단위로 거래 가능"</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004035979?sid=101</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>지난 28일 해외 주식 소수점거래 실시간 서비스 시작"주문 모아 빠르게 처리하는 시스템 구축"사진제공=카카오페이증권[서울경제] 카카오페이(377300)증권이 해외 주식 실시간 소수점거래 서비스를 시작했다.카카오페이증권에 지난 28일부터 실시간 수준으로 1000원부터 투자할 수 있는 해외 주식 소수점거래 서비스를 시작했다고 30일 밝혔다. 카카오페이증권 관계자는 “국내 최초로 사용자들의 주문을 모아 빠르게 처리하는 시스템을 자체적으로 구축했다”며 “소수점 단위로도 시세의 움직임에 따라 주식에 투자할 수 있도록 해 소액 투자자들도 포트폴리오를 구성해 분산투자 할 수 있는 길을 열었다”고 밝혔다.카카오페이증권은 사용자들이 원할 때마다 해외 주식 소수점 거래를 하도록 했다. 통상 증권사는 1일 1회 소수점 투자 서비스를 제공했다. 카카오페이증권의 해외 주식 소수점 거래는 정규장 마감 30분 전까지 수량이나 금액만 입력하면 간편하게 주문할 수 있다.거래 대상은 테슬라와 디즈니, 넷플릭스, 구글, 마이크로소프트, 스타벅스 등 미국 우량 주식 24개 종목이다. 카카오페이증권은 종목을 점차 확대할 계획이다.카카오페이증권 관계자는 “상대적으로 비싼 해외 우량주도 누구나 동등한 환경에서 투자할 수 있도록 형평성을 높였다”고 강조했다.토스증권도 4월에 실시간 해외 소수점거래 서비스를 시작한다고 지난 17일 밝힌 바 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>2022.03.23.</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>진격의 토스뱅크, 출범 5개월 만에 235만 고객 돌파</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002121254?sid=105</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>[디지털데일리 이상일기자] 토스뱅크(대표이사 홍민택)가 출범 5개월 만에 235만 고객을 넘어섰다. ‘연 2%’ 금리(세전) 혜택을 제공하는‘토스뱅크통장’의 가입 고객 수도 200만 명을 돌파했다. 출범 직후 대출 영업 중단 등 제한적인 영업 상황 속에서도, 고객 중심으로 금융을 풀어내며 흥행세를 이어왔다는 분석이다. 23일 토스뱅크에 따르면, 이달 21일 기준 토스뱅크를 가입·이용하는 고객은 총 235만2202명으로 나타났다. 지난해 10월 5일 영업을 시작한 이후 167일 만이다. 대출한도 조회부터 대출 실행, 연 2% 금리(세전) 혜택을 제공하는 토스뱅크통장, 즉시 캐시백 혜택 체크카드 등 다양한 서비스를 이용하며 토스뱅크의 실질 고객이 됐다.  토스뱅크 이용 고객 가운데 토스뱅크통장을 개설한 고객은 205만5255명이었다. 이들 중 83.2%가 토스뱅크통장을 실제로 사용하고 있는 고객으로 나타났다. 이른바 ‘실 사용 고객’이다. 계좌에 ‘1원 이상’ 잔고를 보유하고 있으며, 이체·송금 등 다양한 뱅킹서비스를 이용하는 고객들이다. 토스뱅크통장 고객은 1인당 평균 831만 원을 맡기고 사용했다. 실질 고객 수만큼 수신 규모도 급증했다. 토스뱅크통장 고객이 200만 명을 넘어서며 수신액도 17조 원을 돌파했다. 은행, 인터넷전문은행, 증권사에서만 수신액의 85% 가량이 몰리며 전 금융권에서 고객들의 발길이 이어진 덕분으로 토스뱅크는 분석했다. 토스뱅크는 출범과 동시에 토스뱅크통장 하나만을 운영하며 고객 편의성을 강화했다. 연 2% 금리(세전)로 시중은행 대비 가장 높은 혜택을 제공하고 있고, 고객이 원할 때 언제든 수시입출금도 가능하다. 높은 활용성과 소비자 효용이 높다는 점이 고객들의 이목을 끈 셈이다.  토스뱅크는 앞서 2차례 선제적인 유상증자 단행을 통해 총 8500억 원의 자본금을 확충하며, 건전성도 강화했다. 토스뱅크 관계자는 “현재 대출영업의 안정적인 성장과 함께, 자산운용을 통해 안정적인 수익을 거둠으로써 고객들께 혜택으로 돌려드리고 있다”고 설명했다.  토스뱅크통장을 보유한 고객들은 월 평균 3만7200원의 이자를 받았다. 토스뱅크는 최근 국내 은행 최초로 수시입출금 통장에 매일 이자를 지급하는 ‘지금 이자받기’ 서비스를 출시했다. 기존 월복리에서 일복리 효과가 더해지며 이른바 ‘짠테크’ 효과를 누리는 고객들까지 더해지는 추세다. 일주일 만에 약 87만8053명의 고객들이 서비스를 이용했다. 토스뱅크통장에 가입한 고객의 연령대도 고루 분포했다. 30대 고객이 26.9%로 가장 많았다. 20대(24.8%), 40대(24.4%)가 소폭의 차이를 보이며 다음을 차지했다. 50대 이상의 경우 6명 중 1명 꼴(17.2%)로, 10대(6.7%)보다 많은 비중을 차지했다.토스뱅크 관계자는 “지금까지 토스뱅크가 고객 중심으로 금융을 이해하고, 상품을 선보이며, 지속적으로 성장할 수 있었던 배경에는 고객들이 있었다”며 “초기 여신 영업 한계를 극복한 만큼 다양한 고객 중심의 서비스를 통해 계속 성장해 나가고자 한다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>2022.03.23.</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>"서학개미 잡자"…증권사, 해외주식 서비스 '봇물'</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000661243?sid=101</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>지난해 미국 주식 결제금액 448조…"증권사, 서비스 개발 본격화"증권사들이 '서학개미(해외주식에 투자하는 국내 개인투자자)'의 마음을 사로잡기 위해 다양한 서비스를 선보이고 있다. 특히 해외주식 투자에 따르는 불편함을 해소하는 데 주력하는 모습이다. 앞으로도 해외주식에 대한 관심이 지속적으로 높아지고 있는 만큼 투자자 유치를 위한 차별화 경쟁은 지속될 전망이다.23일 금융투자업계에 따르면 유안타증권은 미국 주식을 담보로 평가금액의 최대 55%까지 대출해주는 '미국 주식 담보대출 서비스'를 출시한다. 담보 지정을 통해 대출할 수 있는 미국 주식은 S&amp;P500지수 구성 종목 가운데 유안타증권이 지정한 약 500여개의 종목이다. 대출 한도는 최대 10억원, 담보유지비율은 150%다.23일 금융투자업계에 따르면 유안타증권은 미국 주식을 담보로 평가금액의 최대 55%까지 대출해주는 '미국 주식 담보대출 서비스'를 출시한다. 사진은 여의도 증권가. [사진=정소희 기자]한국투자증권도 서학개미들의 투자 편의성을 고려한 서비스 제공에 나섰다. 한국투자증권은 오는 4월 29일까지 뱅키스(BanKIS) 고객을 대상으로 해외주식 자동주문 서비스를 제공한다. 가격·수익률·수익금 등 다양한 조건을 미리 설정하면 거래 주문이 예약 전송된다. 시차로 해외주식에 접근하기 어려웠던 투자자들의 니즈를 반영했다는 설명이다.앞서 삼성증권은 지난달 '미국 주식 주간 거래 서비스'를 국내 최초로 선보이면서 증권업계의 지각변동을 일으켰다. 해외주식 투자에 가장 큰 불편함으로 꼽히는 시차 문제를 해결했기 때문이다. 해당 서비스로 낮 시간대에도 편리하게 해외주식을 매매를 할 수 있게 됐다. 이에 한국 시각으로 오전 10시부터 오후 5시 30분까지의 시간대를 포함해 총 20시간 30분 동안 해외주식을 매매할 수 있다.이 서비스는 삼성증권이 미국 대체거래소(ATS)인 블루오션과 1년간 독점계약을 맺으면서 성사됐다. 독점권을 확보한 만큼 고객 선점 효과가 클 것으로 전망된다. 실제 해당 서비스 출시 한 달 만에 이용자 수는 약 10만명에 달한 것으로 파악됐다.토스증권은 오는 4월부터 국내 증권사 가운데 처음으로 '실시간 해외 소수점 거래 서비스'를 제공한다. 기존의 해외 소수점 거래는 증권사가 일정 주기로 고객들의 소수점 주문을 모으고, 이를 온주(1주)로 만들어 매매하는 구조였다. 하지만 토스증권의 서비스는 고객의 주문 시점 가격으로 즉시 거래가 성사된다. 1주 단위의 주식 거래와 동일하게 실시간으로 소수점 주식을 사고 팔 수 있는 셈이다.한화투자증권은 오는 6월 30일까지 해외 우량 주식을 1주 미만 소수점으로 나눠 1천원 단위로 매매할 수 있는 '천원샵' 서비스를 제공한다. 키움증권은 '해외주식 양도소득세 무료 신고대행' 서비스를 오는 4월 13일까지 제공한다. 지난해 키움증권을 통해 해외주식 거래에서 기본공제금인 250만원 이상의 양도차익이 발생한 고객을 대상으로 한다.이처럼 증권사들은 정기적으로 제공해왔던 계좌개설에 따른 수수료 할인 등의 프로모션을 넘어 서비스 차별화에 공을 들이고 있다. 지난 3년간 가파르게 증가한 서학개미를 고객으로 유치하기 위해서다.실제 한국예탁결제원에 따르면 최근 3년간 국내 투자자의 미국 주식 투자 규모는 가파르게 증가했다. 예탁원을 통한 미국 주식 보관금액은 지난해 말 기준 677억8천만달러로 지난 2018년(46억6천만달러)보다 1천354% 급증했다. 지난해 결제금액도 2018년 대비 1천547% 증가한 3천700억5천만달러로 집계됐다.올해도 해외주식에 대한 국내 투자자들의 관심은 지속될 것으로 전망된다. 메리츠증권에 따르면 올해 국내 투자자들의 해외주식 순매수액은 지난 16일 기준 약 8조원으로 국내주식 순매수액(7조8천억원)을 앞질렀다.금융투자업계 관계자는 "이제 해외주식은 국내 투자자들의 포트폴리오 가운데 한 부분으로 자리잡아가고 있다"며 "투자자들의 관심이 높은 만큼 증권업계에서도 관련 서비스 개발에 적극적으로 나서고 있는 상황"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>2022.03.22.</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>은행 PB들 "청약저축·ISA·IRP…재테크 3대 필수템부터 가입"</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004676656?sid=101</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>최근 금융위원회 청년정책과 관계자는 깜짝 놀랐다. 지난달 정부가 시중은행과 함께 선보인 ‘청년희망적금’에 당초 예상(38만 명)보다 8배나 많은 290만 명이 몰렸기 때문이다. 2년간 연 10% 고금리(월 50만원 한도)를 준다고는 하지만 주식 암호화폐 등 위험자산 투자에 익숙한 청년 세대가 쥐꼬리만 한 이자 몇 푼에 이렇게까지 달려들 것이라고는 전혀 상상하지 못했다는 얘기다. 이번 논란이 역설적으로 청년 세대, 특히 사회에 진출한 지 얼마 안 된 새내기 직장인들의 재테크 열망이 얼마나 큰지 보여줬다는 평가도 나온다. 청년희망적금과 함께 시작한 ‘재테크 마라톤’에서 먼 훗날 결승선에 성공적으로 안착하려면 어떻게 해야 할까. “천리 길도 한 걸음부터”시작은 결국 종잣돈 모으기다. 시중은행 프라이빗뱅커(PB)들은 사회초년생에게 예·적금 등 기초적인 금융상품에 가입해 착실하게 돈을 모으는 습관부터 들여야 한다고 입을 모은다. 특히 내집 마련을 위한 주택청약종합저축, 절세 혜택이 많은 개인종합자산관리계좌(ISA) 등도 없이 무작정 주식 계좌부터 개설하는 게 능사가 아니라는 것이다. 통장 쪼개기 전략도 알고 있어야 한다. 재테크가 월급통장, 생활비통장, 비상금통장, 저축통장 등 목적에 맞게 돈을 나눠 담는 것부터 시작된다는 게 전문가들의 조언이다. 국민은행이 판매하고 있는 ‘KB마이핏 통장’은 이 같은 전략에 착안해 하나의 통장에서 목적에 따라 분리할 수 있는 ‘머니 쪼개기’가 가능하도록 설계됐다. KB마이핏 통장에서 정기적 수입지출이 발생하면 우대이율을 제공하는 적금 상품도 있다.주거래통장을 개설하는 것도 필수다. 주거래통장 고객에게는 대부분 계좌이체 등 수수료를 면제하는 등 혜택이 적지 않다. 향후 금융거래 이력이 차곡차곡 쌓이면 대출 한도를 늘려주거나 우대금리를 적용받는 등 장점이 많다. 최근 들어 인기가 높아지고 있는 ‘파킹통장’도 고려해볼 만하다. 파킹통장은 주차장에 차를 대듯 목돈을 잠시 보관하는 용도로 쓰는 수시입출식 예금으로 상대적으로 금리가 높게 책정된 상품이다. 1억원까지는 연 2%, 1억원 초과분에는 연 0.1% 금리를 적용하는 토스뱅크의 ‘토스뱅크 통장’이 대표적이다. 청약저축·ISA·IRP부터 가입주택청약종합저축은 향후 아파트 청약을 위해 필요한 금융상품이다. 연간 240만원 한도, 연간 납입액의 40%만큼 향후 연말정산 때 소득공제도 해 준다. 소득이 3600만원 이하라면 청년우대형 주택청약종합저축에 가입할 수도 있다. 2년 이상 통장을 유지하면 기본형 주택청약종합저축보다 이자를 1.5%포인트 더 준다.증권 등 금융투자의 첫 단추는 ISA 가입이다. 3년 만기 상품으로 연 2000만원 한도로 납입할 수 있다. 만기 때 원리금을 연금계좌에 입금하면 입금액의 10%(300만원 한도)를 추가로 세액공제해 준다. 중개형 ISA에 가입하면 국내 상장주식에도 직접 투자할 수 있다. 200만원까지 투자 수익이 비과세된다. 연금저축과 개인형 퇴직연금(IRP)도 반드시 가입해둬야 하는 상품이다. 총급여 5500만원을 넘으면 납입액(700만원 한도)의 13.2%를 세액공제해 준다. 총급여 5500만원을 넘지 않는 경우 납입액의 16.5%까지 세액공제된다. 연금저축의 납입 한도는 400만원, IRP는 700만원이다. 두 상품 합산 기준으로 700만원까지만 납입하면 된다. 체계적인 신용 관리 나서야체계적인 신용 관리도 중요하다. 대출을 받거나 신용카드를 만들 때 심사 기준이 되는 것이 개인의 신용점수다. 소액이라도 절대 연체가 발생하지 않도록 관리하고 신용카드를 이용할 땐 카드론(장기카드대출)이나 현금서비스 이용 없이 결제대금 상환 위주로 쓰는 게 좋다. 대출이 필요할 땐 가급적 1금융권부터 이용하는 게 바람직하다. 간편하다고 해서 저축은행이나 카드론, 대부업 등을 이용하면 신용점수가 상대적으로 더 크게 하락한다.대출 관련 규제를 미리 숙지하는 것도 필요하다. 1~2년 전만 해도 주택담보대출을 받기 위해 담보인정비율(LTV)이나 총부채상환비율(DTI) 정도만 신경 써도 됐지만, 이제는 대출 종류에 상관없이 적용되는 총부채원리금상환비율(DSR)까지 꼼꼼히 따져봐야 한다. DSR은 개인이 갖고 있는 ‘모든 대출의 원리금’을 연소득 대비로 따져 대출 한도를 정하는 규제다. 지금은 총대출액이 2억원을 넘는 신규 대출이면 개인별 DSR이 40%(비은행권은 50%)를 넘을 수 없다. 오는 7월부터는 이 기준선이 1억원으로 낮아져 규제 대상자가 크게 확대된다.단기로 연 8~10%대 고금리 상품에 투자할 수 있는 P2P금융(온라인투자연계금융) 상품도 눈여겨볼 만하다. 원금 보장이 안 된다는 게 단점이지만 평균 연체율이 2~3%대로 높지 않고 아파트담보대출 등 수익에 비해 안정적인 투자 상품도 적지 않다는 평가다. 낭패를 겪지 않으려면 플랫폼 이용료와 연체이자 등에 대해서도 미리 파악해둬야 한다는 게 전문가들의 조언이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>2022.03.29.</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>'머지포인트 사태' 막을수 있었는데...전금법, '이것'만이라도 먼저 하자</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004725593?sid=101</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>[편집자주] 지금까지 정부에서 금융은 소외됐다. 금융도 하나의 산업이다. 혁신이 중요하다. 규제를 완화해야 한다. 전자금융거래법 개정안은 새 정부의 금융'산업' 정책을 엿볼 수 있는 바로미터다. 새 정부 역시 전금법 개정의 필요성을 느끼고 업그레이드를 준비하고 있다. 새 정부의 전금법 개정안을 들여다봤다.[[MT리포트]윤석열 정부 금융정책 바로미터 '전금법 개정안'(上)]━尹, 전금법 개정안 업그레이드…"취할 건 취한다"━윤석열 대통령 당선인/사진=뉴스1  윤석열 정부가 전자금융거래법(전금법) 개정안을 '업그레이드'한다. 금융산업을 혁신하면서도 소비자 보호를 더 이상 미룰 수 없다는 판단에서다. 윤석열 정부 출범 이후 '새 여당' 주도의 개정안도 발의한다. 28일 정치권에 따르면 대통령직인수위원회는 '디지털금융의 혁신과 안정을 위해 금융규제를 개선하겠다'는 윤석열 대통령 당선인의 공약을 구체화한다. 윤 당선인은 후보 시절 "빅테크의 금융업 확대에 대비한 금융규제체계를 정비하겠다"고 밝혔다. 이와 관련해 금융위원회는 지난 25일 인수위에 금융회사의 디지털·플랫폼 경쟁력 제고 방안 등을 보고했다. 디지털금융 관련 규제체계의 핵심 중 하나가 전금법 개정안이다. 전금법 개정안은 비금융사의 금융업 진입 장벽을 낮춰 금융산업의 혁신을 이끌고 이들의 소비자 보호 책임을 명확히 하는 법안이다. 2020년 더불어민주당과 정부가 협업해 발의한 법안을 중심으로 지난해 국회에서 논의됐지만 외부청산 의무화, 종합지급결제사업자(종지사) 도입을 두고 이견이 커 논의가 중단됐다. 외부청산 의무화는 한국은행이 고유기능을 침해한다는 이유로, 종지사 도입은 사실상 은행과 같은 역할을 함에도 은행법 등의 규제를 받지 않는다는 이유로 반발이 거셌다.새 여당인 국민의힘은 현재 발의된 전금법 개정안을 업그레이드해 새로 발의한다는 계획이다. 발의 시점은 인수위 논의 등을 거쳐 새 정부가 출범하는 5월 이후다. 국민의힘 정무위 관계자는 "기존 개정안들을 토대로 국민의힘 의원들이 수정 법안을 내겠지만, 결국 여야가 합의해서 정무위 단일 개정안을 내는 쪽으로 가야 한다"고 말했다.국민의힘은 현재 전금법 개정안에 금융위 제안이 방대하게 담긴 만큼 검토를 통해 '취할 것은 취하고 버릴 건 버린다'는 방침을 세웠다. 국회 정무위원회의 국민의힘 간사 김희곤 의원은 "개정안 업그레이드는 쟁점과 이슈에 대한 정리로 시작된다"며 "인수위 등 새 정부의 입장을 반영해 국민의힘 내부적으로 방향을 정할 예정"이라고 말했다. 새 정부의 금융공약 개발에 참여한 국회 정무위 소속 윤창현 의원도 "전금법은 새 정부가 새 시각에서 접근해야 한다"며 "각 업계의 반발이 있었던 부분을 점검하고, 어디까지 수정할지 봐야 한다"고 밝혔다. 여야가 전금법 개정에 공감대가 있는 만큼 개정에도 속도가 붙을 것으로 보인다. 김 의원은 "여야 모두 소비자 보호를 담보하면서 금융혁신의 싹을 자르지 않는 방향으로 전금법 개정이 이뤄져야 한다는 데 공감대가 있다"며 "정부 출범에 맞춰 민주당측에 우선순위로 논의하자고 요청할 계획"이라고 말했다.━종지사·외부청산에 막힌 '제2의 머지포인트' 사태 방지책들━지난해 8월13일 서울 영등포구에 위치한 '머지포인트' 운영사 머지플러스 본사를 찾은 가입자들이 포인트 환불을 요구하며 항의하고 있다. 사진=뉴스1.'종합지급결제업' 논란과 '빅테크 내부거래에 대한 외부청산 의무화'라는 벽이 전자금융거래법 개정안의 다른 이슈까지 틀어막아버렸다. 갈수록 진화를 거듭하고 대형화되고 있는 온라인 금융 플랫폼을 점검하는 방안 뿐 아니라 필요하면 적시에 규제할 수 있는 방안이 함께 발이 묶여 있다. 특히 '머지포인트' 사태는 법의 사각지대를 그대로 보여줬다.  논란이 많은 종지업과 외부청산은 장기과제로 돌리고 당장 필요한 내용을 우선 떼어 낸 '핀포인트' 개정을 국회와 정부가 머리를 맞대고 고민해 해 봐야한다는 주장이 설득력을 얻는 이유다.■제2 '머지포인트' 사태 없어야…외부신탁 의무 법제화 필요종지업과 외부청산 이슈에 막혀 나아가지 못하는 전급법 개정의 대표적인 예가 빅테크(IT대기업) 등 선불충전사업자들에 맡긴 고객 돈의 외부신탁 의무 법제화다. 선불충전금은 간편결제·송금 서비스를 이용하기 위해 고객들이 미리 플랫폼에 넣어둔 금액이다. 금융권에서는 은행 예금과 같은 성격이라는 점에서 건전성과 운용에 대한 규제의 필요성을 제기해 왔다. 카카오페이, 네이버파이낸셜, 토스 등을 포함해 상위 4개사의 선불충전금 잔액 규모만 지난해 말 1조원을 넘겼고, 지난해 상반기 기준 선불충전금 하루 평균 이용 금액만 6247억원이다. 현재는 행정지도 수준의 '전자금융업자의 이용자금 보호 가이드라인'으로 관리된다. 선불충전금을 은행 등 외부기관에 신탁하거나 지급보증보험에 가입하도록 하는 내용이 담겨있다. 분기마다 잔액도 공시해야 한다. 그러나 말 그대로 가이드라인일 뿐 강제성이 없다. 이를 법적으로 명시화하는 내용이 전금법 개정안에 들어가 있지만 개정안은 국회 문턱을 넘지 못했다. 그 사이 '머지포인트' 사태가 터졌고 고객이 맡긴 돈은 법적인 보호를 받지 못하는 등 큰 혼란이 야기됐다. ■소비자 보호 강화 위해 전자금융업 등록제→허가제소비자 보호를 위해 등록제인 전자금융업을 허가제로 바꿔야 한다는 의견도 나온다. 빅테크 선불충전 하루 평균 결제 금액이 수천억원인 상황을 감안해 대주주 적격성이나 사업계획 타당성 등을 더 꼼꼼히 따져봐야 할 필요가 있다는 주장이다. 전자금융업자도 규모가 커지면 '금산분리' 원칙을 적용해야 한다는 입장도 있다. 일반 서비스업이나 제조업 기업이 사실상 금융회사인 전자금융업자를 겸영하거나 자회사로 두는 경우 소비자 피해로 이어질 수 있다는 우려 때문이다. 이 외에도 선불충전금 외부예치 금액을 예금보험에 포함시켜야 한다는 의견도 거론된다. 금융권 한 관계자는 "모든 걸 한 번에 바꾸려는 사실상의 전금법 전면 개정안에 막혀 정작 업계가 절실히 필요로 하는 법 개정 내용들이 발의 시도 조차 되고 있지 않다"며 "종지사 도입이나 외부청산 의무화 문제 등 논란이 있는 내용은 장기과제로 미루고 소비자 보호와 산업 발전을 요하는 법안들을 하나하나 개정해 나가는 게 더 효과적"이라고 말했다.━"겸영업무 네거티브로...빅테크·핀테크 차등 규제"━전자금융거래법(전금법) 개정안의 핵심축 중 하나는 핀테크 산업 발전이다. 업계와 전문가들은 현재 발의된 전금법 개정안의 일부 조항들이 혁신을 저해할 수 있다고 입을 모은다. 새 여당이 추진하는 개정안에는 핀테크의 혁신을 더 장려할 수 있는 내용이 담겨야 한다는 입장이다. 우선 업계는 전자금융업자의 겸영·부수업무에 대한 포지티브 규제가 네거티브 규제로 바뀌어야 한다고 주장한다. 핀테크 산업이 성장하기 위해서는 다양한 서비스를 자유롭게 출시할 수 있는 환경이 마련돼야 하는데, 할 수 있는 업무가 제한돼 있으면 틀 안에 갇힌 서비스만 출시될 수 있어서다. 현재 발의된 전금법 개정안 제35조는 후불결제업, 위치기반 서비스업, 전자서명인증업 등 전금업자가 겸영할 수 있는 업무를 나열하고 있다. 핀테크 업계에서는 나열된 업무 외에 대해서는 겸영이 허용되지 않는 것으로 해석된다고 우려한다. 한 핀테크 업계 관계자는 "기존 금융사가 생각지 못한 서비스를 만드는 게 핀테크의 혁신인데, 할 수 있는 업무를 처음부터 제한하면 새로운 서비스를 만들기 어렵다"며 "전금법 개정안의 취지 중 하나가 핀테크 산업의 육성인 만큼 겸영·부수업무에 관한 규제 방식을 네거티브로 바꿔야 한다"고 말했다.빅테크와 핀테크를 구분해 규제를 차등 적용해야 한다는 의견도 있다. 새롭게 사업을 시작하는 소규모 핀테크의 경우 빅테크보다는 완화한 규제를 적용해야 산업이 더욱 역동적으로 발전할 수 있다는 이유에서다. 발의된 개정안에 따르면 전금업자들은 자본금과 경영 건전성 등에 대한 규제를 받는다. 또 고객 피해를 막기 위해 금융보안 원칙과 안정성도 확보해야 할 의무가 생긴다. 이를 어기면 제재를 받는다. 정유신 서강대학교 기술경영전문대학원 교수는 "'동일업무-동일규제'의 목적이 빅테크의 독과점을 방지하는 데 있다면, 시장에서 영향력이 거의 없는 작은 핀테크까지 같은 규제를 받을 필요는 없다"며 "전금업자에 대한 규제는 일정 규모 이상의 빅테크에만 적용하는 조항을 고려할 만하다"고 제안했다. 이어 "소수 빅테크가 아니라 다양한 핀테크로 이뤄진 산업 생태계를 만들기 위해서는 규모에 따른 차등 규제가 필요하다"고 덧붙였다.전금업자의 후불결제 한도를 높여야 한다는 지적도 제기된다. 발의된 전금법 개정안은 후불결제 한도를 30만원으로 제한했는데, 휴대폰 소액결제 한도 100만원과 비교하면 적다. 핀테크 업계에서는 휴대폰 소액결제 한도의 3분의 1 수준인 후불결제를 '혁신적인 서비스'라고 부르기에는 민망하다는 입장을 보이고 있다. 망분리 규제 완화는 핀테크 뿐만 아니라 기존 금융권도 원한다. 망분리란 외부 인터넷망과 기업 업무망을 분리하도록 한 조치다. 2011년 시중은행들의 외부 해킹에 따른 개인정보 유출 사고 이후 도입됐다. 보안 기술 발달과 개선으로 사고 위험이 크게 줄었지만 이 규제 탓에 업무 효율성이 떨어진다는 의견이 나오고 있다. 금융당국도 망분리 규제 완화를 고민 중이지만 보안에 대한 책임을 강화하는 내용이 법제화되지 않고서는 어렵다는 입장이다. 전금법 개정안엔 핀테크 대상 금융보안에 대한 책임이 담겨 있다. 개정안이 통과되면 망 분리 완화도 가능해진다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>2022.03.16.</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>토스뱅크, 은행권 최초로 매일 이자 지급한다…"금융질서 재편"</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013053369?sid=101</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>'지금 이자 받기' 클릭…"매일 이자 받을수록 고객에 유리"1억원 넣으면 하루 5천400원 이자 토스뱅크, 은행 최초 매일 통장 이자 지급 서비스[토스뱅크 제공. 재판매 및 DB 금지]    (서울=연합뉴스) 오주현 기자 = 인터넷 전문은행 토스뱅크가 은행권 최초로 고객들에게 매일 이자를 지급하는 서비스를 시작하며 금융질서 재편에 나선다.    토스뱅크는 16일 오전부터 고객들이 매일 한 번씩 즉시 이자를 받을 수 있도록 한다고 밝혔다.    토스뱅크 통장을 보유한 고객이라면 누구나 '지금 이자 받기' 버튼을 눌러 이자를 받을 수 있으며, 이자를 받은 고객은 언제든지 출금할 수 있다.    토스뱅크 통장은 최대한도 1억원까지 세전 연 2% 이자를 지급하는 수시입출금 통장이다. 1억원을 초과한 금액에 대해서는 0.1% 금리가 적용된다.    토스뱅크는 매일 남은 잔액을 기준으로 이자가 쌓이는 '일 복리' 구조로 고객에게 이자를 제공한다. 따라서 돈을 많이 보관할수록, 이자를 매일 받을수록 고객에 유리한 구조다.    만약 1억원을 예치한 고객이라면 매일 약 5천400원(세전 기준) 상당의 이자를 출금할 수 있다.    토스뱅크는 이번 서비스를 통해 금융질서를 재편하고, 고객을 확보함으로써 혁신 서비스를 지속해서 제공하겠다는 계획이다.    토스뱅크 관계자는 "그동안 고객들은 은행이 정한 날짜에 이자를 받는 것만 생각했지, 매일 받을 수 있다는 생각은 할 수 없었다"며 "공급자 중심의 금융을 고객 중심으로 바꾸어 나가는 계기가 됐으면 한다"고 말했다.    '지금 이자 받기'를 클릭하지 않은 고객은 이전과 마찬가지로 매월 세 번째 토요일에 쌓인 이자를 일할 계산해 받게 된다.    토스뱅크는 올해 연말까지 서비스를 운영하며 서비스 안정화 작업을 진행한 뒤 이를 상시화할 예정이다.    viva5@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>2022.03.25.</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>"플랫폼 기업, 다 똑같지 않아…유형별 맞춤형 정책·지원 필요"</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004724485?sid=101</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>세계적으로 플랫폼 비즈니스의 중요성과 영향력이 점차 커지는 가운데, 전문가들은 지속 가능한 플랫폼 생태계를 위해 플랫폼에 대한 정확한 이해와 이를 바탕으로 한 정책 및 지원이 필요하다고 강조한다. 다양한 유형의 플랫폼을 천편일률적으로 바라볼 게 아니라 각각에 맞는 맞춤형 환경 조성이 필요하다는 의미다.국민대학교 혁신기업연구센터(이하 센터)는 최근 발간한 '비즈니스형 플랫폼 기업의 부상 - 국내 플랫폼 기업 현황 분석과 시사점' 보고서를 통해 국내 플랫폼 비즈니스 현 상황을 짚어보고, 플랫폼 생태계 활성화를 위해 나아가야 할 방향을 제시했다.센터는 플랫폼 기업의 유형을 △비즈니스형 △기술형 △하이브리드형으로 구분했다.비즈니스형 플랫폼은 참여자들을 중개하고 연결하는 활동이 핵심이다. 쿠팡, 배달의 민족 등이 대표적이다. 기술형 플랫폼은 플랫폼을 통해 기존의 재화와 서비스의 혁신을 추구하는 유형으로, 구글의 안드로이드, 애플의 iOS가 해당된다. 하이브리드형 플랫폼은 기술형과 비즈니스형이 합쳐진 플랫폼 유형으로, 디지털 기술과 비즈니스 융합을 통해 사용자 경험을 향상시킨다. 또 가치사슬 전반의 통합과 자동화로 고객 가치를 창출한다. 해당 유형의 기업으로는 토스를 운영하는 비바리퍼블리카가 있다. 현재 국내 플랫폼 생태계는 비즈니스형이 81%로 압도적이며, 하이브리드형과 기술형이 각각 17%, 2%를 차지한다.센터 관계자는 "국내 플랫폼 생태계는 대부분 비즈니스형 비즈니스모델을 기반으로 하지만 하이브리드형 플랫폼도 지속적으로 증가하는 추세를 보인다"며 "이는 기술을 기반으로 정보 및 데이터를 활용하는 비즈니스가 기존 시장에서 해결하지 못했던 문제와 고객의 불편함을 해소하기 때문"이라고 설명했다.이어 "기술형 플랫폼이 플랫폼 생태계에서 차지하는 비중이 낮게 나타나는데 기술형 플랫폼 양성을 위한 정책적 지원과 산업 분야의 노력이 필요하다는 것을 알 수 있다"고 덧붙였다.김주희 센터 연구본부장은 "플랫폼 기업들은 스타트업 생태계에서 큰 비중을 차지할 뿐 아니라 혁신적인 서비스를 선보임으로써 생태계를 풍부하게 만드는 원동력이 된다"며 "우리나라의 경우 글로벌 경쟁력과 스타트업 생태계 활성화를 위해 정책적 차원에서 플랫폼 생태계에 대한 면밀한 파악과 진단이 필요하고, 플랫폼 기업 유형별 특성에 대한 정확한 이해를 토대로 한 비즈니스 생태계 조성 노력이 필요하다"고 말했다.이번 연구의 자세한 내용은 센터의 '플랫폼 리서치 네트워크' 홈페이지에서 확인할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>2022.03.25.</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>토스 계열사 2곳 국제보안표준 인증 연달아 획득</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005063815?sid=101</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>토스CX와 토스인슈어런스, 각 ISO/IEC 인증 획득토스CS(고객상담센터), 토스인슈어런스 등 모바일금융플랫폼 토스의 계열사들이 국제표준 보안인증을 획득했다.토스 운영사 비바리퍼블리카는 토스CS와 토스인슈어런스가 이처럼 보안 인증을 취득했다고 25일 밝혔다.양사가 취득한 보안인증은 ISO/IEC 27001(정보보호 관리체계)과 27701 (개인정보 보호 관리체계) 두 종류다. 각각 국제표준화기구(ISO)와 국제전기기술위원회(IEC)가 표준을 만들고 영국표준협회가 인증심사를 주관하고 있다. 특히 토스의 콜센터 업무를 전담하는 ‘토스CX’는 국내 고객상담 기업 중 처음으로 정보보호와 개인정보보호 관리체계 인증을 동시 취득했다.토스 계열사들은 2020년부터 매년 ISO 정보보호인증을 취득하고 있다. 지난해에는 토스페이먼츠와 토스증권이, 올해는 토스CX와 토스인슈어런스까지 인증을 취득했다. 토스뱅크도 올해 인증취득을 추진 중이다.보안 부문 투자도 꾸준히 진행 중이다. 토스의 지난해 IT부문 투자액 432억원 중 정보보호에 60억원(14.1%)을 할애했다. 전체 인력 중 정보보호 전담인력 비중이 약 5.3%도 시중 은행 대비 5배 이상 높다는 설명이다. 업계에서 유일하게 4년 전부터 정보보호 투자규모와 인력을 공시하고 있기도 하다. 토스의 보안기술팀은 지난해 국내 유일 금융보안 해킹대회인 ‘FIESTA2021’에 참여해 156개 참가팀 중 유일하게 모든 문제를 풀어내며 1위를 차지했다.토스 관계자는 "보안 및 개인정보보호 분야에 대한 토스 전체의 노력이 객관적인 인정을 받은 성과"라며 "특히 개인고객 응대가 많은 보험과 고객상담 계열사에서 높은 수준의 정보보안 역량을 평가받아 그 의미가 더욱 크다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>2022.03.17.</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>[단독]"디지털 혁신 외치더니 시중은행 IT인력 비중 6.5%뿐"</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005059626?sid=101</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>4대 시중은행 인력 현황 살펴보니KB국민 9%…하나 4%로 가장 저조4대 시중은행의 IT인력 비중이 전체 임직원의 10%도 채 안 되는 것으로 파악됐다. IT·정보보호 분야는 인력이 곧 기술력과 직결되는 만큼 은행들이 디지털 혁신을 이루기에는 여전히 미흡한 숫자라는 지적이 나온다.아시아경제가 17일 강민국 국민의힘 의원실을 통해 금융감독원에서 입수한 ‘국내 은행별 IT 인력 현황’ 자료(2021년 12월 기준)에 따르면 KB국민·신한·우리·하나은행의 전체 임직원 대비 IT 인력 비중은 평균 6.5%에 불과했다.은행별로 살펴보면 국민은행의 경우 전체 임직원 1만7017명 중 IT인력은 1472명으로 전체 9%를 차지했다. 이 중 정보기술 인력이 1387명이었고, 정보보호 인력은 85명이었다. 신한은행은 전체 1만3644명 중 IT인력이 953명(정보기술 885명·정보보호 68명)으로 7% 수준이었다. 우리은행은 1만3518명 중 846명으로 정보기술 인력이 768명, 정보보호 인력이 78명이었다. 하나은행은 4대 은행 중에 가장 저조한 4% 수준이었다. 전체 1만1671명의 인원 중에 정보기술인력이 419명, 정보보호인력은 24명이었다. 다만 관련 외주 인력을 포함할 경우 총 868명으로 7% 수준이다.이에 반해 인터넷전문은행 3사는 IT인력 비중이 평균 48%로 절반에 육박했다. 토스뱅크의 경우 전체 226명의 직원 중 159명이 IT인력으로 70%에 달했다. 정보기술 인력이 146명, 정보보호인력이 13명이었다. 카카오뱅크는 전체 1082명의 직원 중 453명(42%)으로 정보기술 인력이 403명, 정보보호 인력이 50명이었다. 케이뱅크는 전체 424명 중 140명이 IT인력으로 전체 33%을 차지했다.시중은행들은 오프라인 지점을 운영하는 만큼 인터넷전문은행들과 단순 비교에서는 차이가 날 수 밖에 없지만 최근 디지털 역량 확보를 최우선 과제로 둔 것을 감안하면 부진한 성적이다. 2021년 1월과 비교해도 인력 확충이 미미한 수준이었다. 국민은행의 경우 IT인력 비중이 8%에서 9%로 증가했고, 신한은행과 하나은행은 각각 7%, 4%로 연초 대비 동일했다. 우리은행은 7%였던 IT인력 비중이 연말에는 오히려 6%로 떨어졌다. 물론 은행들도 속사정이 있다. 디지털 전환을 위해 IT인재 확보 기조를 계속 유지하고 있지만, 유능한 개발자들은 은행보다는 게임사 등 IT기업을 선호하는 경향이 강하다.강민국 국민의힘 의원하지만 비대면 거래가 확대되고 있는 상황에서 이 같은 IT인력 부족이 지속될 경우 보안 등 서비스에 문제가 발생할 가능성이 크다는 지적이 나온다. 실제로 신한은행은 이번 달에만 두 차례 전산 오류가 발생해 이용자들이 불편을 겪었다. 강 의원은 "IT인력 확보가 충분하지 않으면 비대면 거래 확대 및 금융산업의 디지털화 등 새로운 보안 리스크에 대한 대응이 미흡하고, 정보유출 등 보안사고 발생시 소비자 피해 확산방지를 위한 신속한 대응에도 어려움이 예상된다"고 지적했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>2022.03.30.</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>[서지명의 메이크머니] 될성부른 비상장주에 투자…‘선학개미’ 뜬다</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003183809?sid=101</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>서지명           개인 주식 투자자를 뜻하는 동학개미, 서학개미에 이어 ‘선(先)학개미’라는 신조어가 있다. 비상장 주식에 투자하는 개인을 일컫는 말이다. 공모주 투자로 재미를 본 투자자가 늘어난 덕분일까. 일반 공모청약을 통해 배정받는 주식 수가 너무 적다 보니 아예 상장 전에 ‘될성부른 떡잎’을 발견해 투자하려는 움직임이 반영된 결과다.      과거에는 비상장 주식 투자가 아는 사람만 하는 그들만의 리그였다면 지금은 투자의 진입장벽이 낮아졌다. 비상장주식 거래는 인터넷 커뮤니티 직거래나 개인 간 오프라인 직거래로 알음알음 진행돼 위험하고 불편한 투자로 취급받았지만 일반 주식 거래처럼 투자 가능한 비상장주식 거래 플랫폼이 등장하면서 개인 투자자의 접근이 쉬워졌다.      예컨대 비바리퍼블리카(토스), 컬리(마켓컬리), 두나무(업비트), 야놀자, 쏘카 등 이름을 대면 알만한 기업들은 아직 주식시장에 상장하지 않았지만 거래가 가능하다. 지난해 기준으로 살펴보면 야놀자와 컬리의 경우 연간 243.7% 올라 가장 많이 상승했고, 비바리퍼블리카는 101.5%의 수익률을 기록했다.      서울거래비상장, 증권플러스비상장 등의 비상장주식 거래 플랫폼을 이용하면 해당 플랫폼과 제휴를 맺은 증권사 계좌를 연결해 일반 주식투자처럼 거래할 수 있다. 최소 거래 기준이 없어 소액으로 적립식 투자도 가능하다. 금융투자협회에서 운영하는 장외거래 시스템(K-OTC)에서도 투자할 수 있는데, 거래 가능 종목 수가 적다.      유망 스타트업이라고 해서 묻지마식 투자는 금물이다. 지난해 주목받았던 카카오뱅크의 경우 상장 직전 장외시장에서 주당 9만원대에 거래되기도 했지만 상장 이후 현재 주가는 5만원대로 주저앉았다. 또 양도거래세를 내야 한다는 점도 알아두자. 연간 250만원은 기본 공제되고 그 이상의 금액에 대해 양도세가 나온다. 손실이 난 종목이 있다면 손익통산은 가능하다. 다만 K-OTC에서 거래한 중소·중견기업 소액주주는 양도소득세 부과 대상에서 제외된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>2022.03.29.</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>금감원, 토스 수시검사 착수(종합)</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013080379?sid=101</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>금융감독원 표지석[연합뉴스TV 제공]    (서울=연합뉴스) 오주현 기자 = 금융감독원이 토스(비바리퍼블리카)에 대한 수시검사에 착수했다.    29일 금융권에 따르면 금감원은 전날 금융업 서비스를 제공하는 토스에 대한 수시 검사를 위해 인력을 투입했다.    금감원 관계자는 "올해 빅테크에 대한 검사를 강화하는 차원에서 첫 번째로 선정된 사업자가 토스"라며 "사고나 민원에 따른 검사는 아니다"라고 설명했다.    금감원은 토스의 업무 전반을 살피는 한편 소비자 보호가 잘 이뤄지고 있는지 등을 중점적으로 검사할 예정이다.    금감원이 토스에 대한 수시검사를 결정한 것은 빅테크가 금융회사가 아닌 전자금융업자로, 정기검사 대상이 아니기 때문이다. 정기검사는 은행·지주, 금융투자, 보험 등 전통적인 금융회사를 대상으로만 진행한다.    다만 앞서 토스는 마이데이터(본인신용정보관리업) 시범서비스를 제공하는 과정에서 마이데이터 동의 절차 규정을 따르지 않았다는 논란이 일었다.    이에 금감원이 토스의 신용정보법 저촉 여부를 중점적으로 살필 것이라는 관측이 나온다.    금감원은 올해 검사업무 운영계획을 발표하면서 '빅테크'의 금융사업 확대에 따른 소비자 피해 예방에 초점을 맞출 것이라고 예고한 바 있다.    당시 금감원은 거래 규모, 신규사업 진출 등 위험 요소를 분석해 리스크가 큰 대형 전자금융업자를 대상으로 현장검사에 나서겠다는 계획을 밝혔다.     비바리퍼블리카 외에도 네이버파이낸셜, 카카오페이 등이 후보군으로 언급됐다.    viva5@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>2022.03.16.</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>해시드, 레이어-1 블록체인 개발 스타트업 앱토스에 투자</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004674836?sid=105</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>사진=해시드레이어-1 블록체인 개발 스타트업 앱토스(Aptos)가 2억달러(약 2483억원) 규모의 투자를 유치했다고 16일 밝혔다.국내 블록체인 전문 투자사 해시드가 주도한 이번 투자에는 a16z 크립토, 코인베이스 벤처스, FTX 벤처스, 멀티코인 캐피털, 타이거 글로벌(Tiger Global), 패러파이 캐피털, 쓰리애로우즈 캐피털, 블록타워 캐피털, 배리언트, 팍소스 등이 참여했다.메타 출신의 창업가들이 설립한 앱토스는 수십억명 이상의 사용자들을 수용할 수 있는 안정적인 레이어 블록체인 구축을 목표로 삼고 있다. 메타의 자체 가상자산(암호화폐) 디엠(Diem) 네트워크를 기반으로 개발을 진행 중이며 지난 15일에는 개발자가 디앱(dApp) 개발 등의 다양한 실험을 할 수 있는 퍼블릭 데브넷(Devnet)의 론칭을 발표했다.앱토스는 보안성, 속도, 탈중앙화 세가지 요소가 함께 성장할 수 없는 레이어-1 블록체인의 확장성 트릴레마 문제 해결을 위해 자체 개발 합의 알고리즘 디엠BFT(DiemBFT)와 프로그래밍 언어 무브(Move)를 공개했다. 테스트넷 초기에는 디엠 블록체인이 수행하는 초당거래처리속도(TPS)가 6건에 그쳤으나 현재는 1만건의 TPS 수행이 가능하다는 설명이다.모 샤이크 앱토스 최고경영자(CEO)는 "앱토스의 핵심 특징 중 하나는 메타 지갑 앱 노비(Novi)의 오픈소스 프로그래밍 언어 무브"라며 "저명 브랜드 및 테크 회사들과 대중적인 웹 3.0 생태계를 일궈나가는 것이 목표"라고 설명했다.김백겸 해시드 파트너는 "앱토스는 메타 플랫폼의 SNS 고객 기반을 활용해 빠른 실행력과 고객 접점을 확보할 수 있을 것"이라며 "웹 3.0 인프라와 기존 플랫폼의 유저베이스가 합쳐져 큰 시너지가 기대된다"고 전했다.&lt;블록체인·가상자산(코인) 투자 정보 플랫폼(앱) '블루밍비트'에서 더 많은 소식을 받아보실 수 있습니다&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>2022.03.17.</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>토스증권, 다음달 실시간 해외 소수점거래 서비스 시작</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013056225?sid=101</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>"국내 증권사 최초로 주문 즉시 체결 방식"[토스증권 제공]    (서울=연합뉴스) 채새롬 기자 = 토스증권은 4월에 국내 증권사 중 처음으로 실시간 해외 소수점거래 서비스를 시작한다고 17일 밝혔다.    투자자들은 토스증권에서 제공하는 2천700여개 미국주식과 상장지수펀드(ETF), 상장지수증권(ETN)에 대해 1천원부터 투자금액을 입력해 구매할 수 있다.    해외 소수점거래 서비스를 제공하는 다른 증권사들은 일정 주기로 고객들의 소수점 주문을 모으고, 이를 온주(1주)로 만들어 매매하는 구조다.     이 때문에 투자자들은 주문 시점에 실제로 체결될 주식 수량과 가격을 예상할 수 없다는 단점이 있었다.     토스증권 서비스는 투자자들이 1주 단위로 주식을 거래할 때와 동일하게 주문 시점 가격으로 즉시 체결되는 것이 특징이다. 단, 소수점 주문은 시장가 거래만 가능하고 지정가 주문은 제공하지 않는다.    토스증권 관계자는 "기존 해외 소수점 거래의 구조적인 문제와 고객 불편을 해소하면서 투자자들에게 가장 빠른 소수점 거래 서비스를 선보일 수 있게 됐다"고 말했다.    토스증권은 작년 12월 해외주식 서비스를 시작하고 3개월 만에 100만명 이상의 투자자를 모았다.    srchae@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>2022.03.16.</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>中 코로나 봉쇄책, 글로벌 공급망 대란 가중</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011066346?sid=104</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>기사내용 요약엄격한 폐쇄 정책에 제조업 공장·교통망에 타격[서울=AP/뉴시스]중국 상하이에서 코로나19 검사 중인 사람들. 2022.03.16. photo@newsis.com[서울=뉴시스] 임종명 기자 = 중국의 코로나19 봉쇄책이 글로벌 공급망 대란을 더욱 심화시키고 있다는 분석이 나오고 있다.뉴욕타임스(NYT)는 15일(현지시간) 중국 내 오미크론 변이 바이러스 감염이 급증하면서 중국 당국이 주민들의 이동을 제한하고 공장들을 폐쇄하고 트럭 통행을 중단해 이미 손상된 공급망이 위협받고 있다고 보도했다.보도에 따르면 중국 관리들은 2020년 초 이후 최악의 코로나19 발생을 막기 위해 안간힘을 쓰면서 봉쇄와 제한을 가하고 있다.특히 이날 기준 중국에서는 전국적으로 5000명 이상의 신규 확진자가 발생했다. 이러한 집계는 다른 많은 나라들에 비해 적은 수준이다. 하지만 중국은 정부 시설에서의 대규모 검사와 격리 뿐 아니라 엄격한 폐쇄를 요구하는 무관용 정책을 펴고 있다.이러한 조치들은 중국의 제조업과 세계 경제의 중추인 공장과 교통망에 타격을 주고 있다.세계 제조업의 3분의 1이 몰려있는 중국의 조치에 도요타와 폭스바겐 등 자동차 업계, 애플 아이폰 등 휴대전화 같은 완제품 생산은 물론 회로기판과 컴퓨터 케이블 등 부품 생산에도 차질을 빚고 있다. 중국 동북부 지린성에는 자동차와 자동차 부품을 만드는 공장이 많다. 그러나 이곳은 최근 확진 사례가 가장 집중된 곳이다. 이 지역 보건기구의 차장 장리는 "주민과 공무원들이 이를 악물고 어려움을 극복하기 위해 긴급 동원, 행동해야할 것"이라며 "시간과의 싸움"이라고 말했다.상하이 인근 도시들은 고속도로 출구를 폐쇄하거나 각 운전자에게 PCR 검사 음성 결과를 보여주도록 요구했다. 이로 인해 주요 부품을 운송하려는 트럭이 수십미터 길이의 줄을 서는 상황이 발생하기도 했다.지난해 세계적 인플레이션 압박을 높였던 공급망 대란으로 인해 국제 운임 가격이 상당히 올랐다. 그러다 올해 초 중국의 명절 연휴 동안 하락했다가 최근 다시 오르기 시작했다.아시아에서 미국 서부 해안으로 물품을 선적하는데 드는 비용은 일주일 전 1만6155달러에서 지난 11일 코로나19 봉쇄책 발효 후인 현재 1만6353달러까지 올랐다.운임예약 플랫폼 프리토스의 자료에 따르면 운임 요금이 1년 전보다 거의 3배, 2년 전보다 12배나 올랐다.중국의 항구들은 감염 확산을 막기 위해 근로자들에게 가족과 떨어져 두 달씩 부두에서 생활하고 일하도록 요구하고 있다.그러나 부두로 가는 트럭의 통행이 중단되면서 선박들이 최소 12시간 지연되고 있으며 곧 대기 기간이 2주에 다다를 수 있다는 분석도 나온다.공급망 분석 회사 에버스트림의 줄리 게르드먼 사장은 "공급망 내 유연성이 미미하기 때문에 가장 준비된 기업들조차도 중국의 새로운 봉쇄에 영향을 받을 것"이라고 말했다.항공 화물도 새로운 문제에 직면해 있다. 중국 민간 항공국은 이날 푸동 공항으로 가는 나머지 국제선 항공편 중 많은 수가 오는 21일부터 5월1일까지 다른 중국 도시로 연결될 것이라고 밝혔다.이로 인해 수출은 더 지연될 전망이다.이러한 봉쇄책에 생산을 중단한다고 발표하는 업체들도 늘었다.NYT에 따르면 도요타와 폭스바겐은 창춘에 있는 조립 공장과 다른 공장들을 폐쇄했고, 선전에 있는 대만의 프린트 기판 메이커 유니마이크론 테크놀로지, 상하이에 있는 발광 다이오드(LED) 제조업체 글로벌 라이팅 테크놀로지스도 생산을 중단했다.일부 외국인 투자자들에게는 코로나19 대유행보다 중국 정부의 조치로 인한 예측 불가능성이 더 불안을 가중하는 요인이다.줄리언 맥코맥 중국 주재 영국 상공회의소 회장은 "현재 중국의 사업 리스크는 2020년 봄 이후 어느 때보다 높다"고 말했다. 피터슨 국제경제연구소 선임연구원 매리 러블리는이러한 공급망 문제로 중국에서 부품 생산을 하는 기업들은 애플과 같은 특정 주요 고객을 우선할 가능성이 높다고 했다.그는 "결국 중국에서 수입된 수품이나 기기에 의존하던 중소기업이 타격을 입게 될 것"이라고 덧붙였다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>2022.03.27.</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>갈등 격화 카드 수수료율 협상…타결 언제쯤?</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003006028?sid=101</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>게티이미지뱅크카드업계가 영세·중소가맹점을 제외한 모든 가맹점에 지난 2월부터 카드 가맹점 수수료 인상을 통지했지만, 2달여 시일이 지난 현재도 협상에 어려움을 겪고 있다. 일반 중·대형 가맹점은 물론 주유소, 마트, 전자지급결제(PG)회사까지 통지한 수수료 인상에 반대하면서 뾰족한 방법을 찾지 못하고 있다.27일 카드업계와 유통업계 등에 따르면 한국석유유통협회는 여신금융협회를 상대로 현행 1.5%인 특수가맹점 수수료율 인하해달라고 건의할 방침이다.석유유통협회 관계자는 “업계 1위 신한카드를 상대로 현행 1.5%인 수수료율을 1.0%로 낮춰 달라고 요구했지만, 이를 거부한 상황”이라면서 “이에 카드사 전체를 대표하는 여신협회를 상대로 다음 주 특수가맹점 수수료율 인하를 건의할 예정”이라고 말했다.앞서 석유유통협회는 최근 현행 1.5%인 주유소 카드 수수료율을 1%로 0.5%포인트(P) 낮춰줄것을 요구했다. 최근 기름값이 인상하면서 소비자 부담이 커지고, 주유소 경영난이 가중된 데 반해 카드사가 가져가는 수수료 수익은 되레 늘었다는 이유에서다.석유유통협회 관계자는 “현재 주유소 기름값에 적용되는 특수가맹점 카드 수수료는 1.5%인 정률제로, 유가가 오르면 수수료도 덩달아 늘어나는 구조”라면서 “현재 특수가맹점 수수료율은 과거 카드 결제가 30% 수준이던 당시 책정된 것으로 현재 주유소들은 판매액 절반가량을 차지하는 유류세분까지 수수료로 내고 있어 실질적으로 3%에 달하는 수수료를 부담하고 있다”고 토로했다.카드사와 카드 수수료 갈등을 겪는 다른 업권과 연대도 고려 중이다. 이 관계자는 “현재 카드 수수료율 인상으로 어려움을 겪는 마트협회와도 연대하는 방안을 검토 중”이라고 설명했다.신한카드는 앞서 중소마트에 적용되는 일반가맹점 카드 수수료율을 기존 2.02%에서 2.28%로 0.26%P 인상을 통보, 전국 5800여 동네마트를 회원을 두고 있는 마트협회와 갈등을 겪고 있다. 현재 마트협회는 신한카드 측에 수수료 인상에 대한 근거 요구와 함께 가맹 계약 해지라는 초강수로 맞서고 있다.(사진=한국마트협회)마트협회 관계자는 “신한카드 측에 수수료 인상에 대한 근거를 요구하고 답변을 기다리는 상황”이라면서 “이와 별개로 동네마트 등을 중심으로 신한카드 가맹 계약 해지를 확대하고 있다”고 설명했다.PG사와 카드 수수료 협상도 여전히 평생선이다. 토스페이먼츠, 나이스페이먼츠, 엔에이치엔한국사이버결제 등 8개 업체로 구성된 PG협회는 카드사의 일방적인 수수료 인상에 반대, 신한카드 본사 앞에서 집회를 개최했다. PG협회는 최근 신한카드로부터 내달 중 합리적인 수수료 협의에 나설 것이라는 입장을 받고, 협상을 준비 중이다.PG협회 관계자는 “신한카드로부터 내달 중 합리적 수수료 협상에 나설 것이라는 입장을 전달받은 상황”이라면서 “업계 1위란 상징성 있는 회사 협상 이후 다른 카드사와도 협의를 진행할 것”이라고 말했다.가맹점들이 초강수로 맞서면서 카드업계는 이번 수수료율 협상이 장기화할 것으로 전망하고 있다. 카드사는 원가 상승 등에 따라 수수료율 인상이 필요하다는 입장이지만, 가맹점들이 이에 반대의사를 강하게 표출하면서 쉽지 않은 상황이다. 게다가 오는 6월 지방선거까지 예정돼 있어 정치권 눈치를 볼 수밖에 없어 타결까지 상당한 시일이 걸릴 것으로 보고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>2022.03.23.</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>지갑이 사라진다…비대면거래·간편결제 급증</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/586/0000036434?sid=101</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>2021년 전자지급결제 9048억원 '사상 최대'서울의 한 은행과 모바일 앱 ⓒ연합뉴스스마트폰 등을 통한 비대면 거래가 늘면서 지난해 삼성페이·카카오페이 등으로 대변되는 간편결제 하루 이용금액이 6000억원을 돌파하며 사상 최고치를 기록했다. 신용카드·계좌이체 등을 통한 온라인 결제를 의미하는 전자지급결제 이용 규모도 하루 평균 1조원에 육박하면서 이 역시 역대 최대를 기록했다. 한국은행이 23일 발표한 '2021년 전자지급서비스 이용 현황'에 따르면, 지난해 전자지급결제대행서비스(PG) 이용실적은 하루 평균 9048억원으로 전년 대비 28% 증가했다. 이용건수는 하루 평균 2172만 건으로 전년 대비 29.5% 늘었다. 전자지급결제대행서비스(PG)는 전자상거래 시 구매자로부터 대금을 받아 판매자에게 최종적으로 지급할 수 있도록 대행하는 서비스다. 지난해 선불전자지급서비스의 하루 평균 이용건수도 27.7% 증가한 2380만 건으로 집계됐다. 이용금액은 6647억원으로 42.2% 늘었다. 선불전자지급은 미리 충전한 돈으로 물건을 살 수 있는 네이버페이, 쿠페이(쿠팡) 등의 각종 '페이' 서비스를 포함해 교통카드, 하이패스카드 등 선불금으로 교통요금을 납부하는 형태 모두 해당한다.간편결제서비스도 증가세를 이어갔다. 지난해 간편결제서비스 이용건수와 금액은 각각 일 평균 1981만 건, 6065억원으로 각각 전년 대비 36.3%, 35% 늘었다. 공인인증서 없이 비밀번호나 생체정보 인식 등으로 결제가 가능한 간편결제 서비스 업체에는 삼성페이, 배민(배달의 민족)페이 등이 포함된다.카카오페이, 토스 등 간편송금서비스 이용실적도 늘었다. 지난해 이용건수는 하루 433만 건, 이용금액은 5045억원으로 각각 33%, 41.5% 증가했다. 또 아파트 관리비, 전기·가스 요금 등의 전자고지결제서비스의 경우 이용건수와 금액이 각각 12.2% 늘어난 22만 건, 10.2% 증가한 389억원으로 집계됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>2022.03.28.</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>미 로빈후드 넘어선 성장, 토스증권 출범 1년 만에 420만 고객 유치</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002121584?sid=105</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>[디지털데일리 이상일기자] 지난 해 3월 출범한 토스증권(대표 박재민)이 1주년을 맞았다. 출범 1년만에 420만 명의 고객과 230만 명의 월간활성이용자(MAU)를 확보했다. 토스증권은 지난 1년간의 압도적인 성장세를 올해 한층 가속화한다는 계획이다. 토스증권은 출범 석 달 만에 350만 신규 계좌가 개설되었는데, 이는 미국의 주식거래 플랫폼 로빈후드가 2년여 만에 달성한 수치라는 것이 토스증권의 설명이다. 월간활성이용자(MAU)는 출범 이래 꾸준히 200만 명을 상회하며, 월 평균 230만 명을 기록하고 있다. 이는 국내 증권사 상위 5개사에 필적하는 수준이다. 출범 당시 밝혔던 월간활성이용자 100만 명 달성의 목표를 출범 첫 달부터 2배 이상 상회했다. 이같은 성장의 중심에는 MZ세대 투자자들이 있다. 토스증권의 2030 고객은 260만 명으로, 전체 고객의 약 65%를 차지한다 토스증권이 지난 해 7월 선보인 ‘주식선물하기’ 서비스는 투자자끼리 주식을 주고 받을 수 있는 서비스다. 기존 증권사의 ‘타인계좌주식대체’를 이해하기 쉬운 표현으로 재해석하고 간편하게 서비스를 설계했다. ‘커뮤니티’는 토스증권만의 특징적인 서비스 중 하나로, 투자자 간 의견 교류의 장을 제공하며 건전한 투자 문화를 만들어가고 있다. 실제 주주와 잠재투자자를 뱃지로 구분해 투자자 의견의 신뢰도를 높이고 기존의 주식 커뮤니티와 차별화했다.‘토스증권 데일리' 콘텐츠는 애널리스트가 직접 고객과 소통하며 초보 투자자들의 성장을 이끌고 있다. 애널리스트들은 매일 시장에서 발생한 이슈들을 추려 투자자들의 시각에서 이해하기 쉽게 정리한다. 토스증권 콘텐츠는 투자자들의 높은 호응 속에 구독자 수 50만 명 돌파를 눈앞에 두고 있다. 토스증권 관계자는 “토스증권이 말하는 주식투자의 새로운 표준은 투자자의 시각에서 시작해 현재 진행형”이라며 “앞으로 토스증권은 처음 투자를 시작하는 고객과 숙련된 투자경험을 가진 고객 모두가 만족할 수 있는 진정한 의미의 모바일 주식투자의 표준을 보여드리게 될 것”이라 말했다. 토스증권은 출범 당시 ‘모바일 주식투자의 새로운 표준을 제시하고, 투자 대중화를 이끈다'는 비전을 밝힌 바 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>2022.03.22.</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>토스 주민센터 웹페이지 오픈</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005171607?sid=101</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>PC에서도 등·초본 신청…공동인증서 없이 발급 가능[이데일리 박철근 기자] 지난해 8월 전자문서지갑 서비스를 선보인 토스는 토스 주민센터 웹사이트를 개설했다고 22일 밝혔다. 이용자의 사용 편의성을 높이기 위한 조치다.이에 따라 토스 애플리케이션에서 이용하던 토스 주민센터 기능을 PC와 모바일 웹에서도 사용할 수 있게 됐다. 주민등록등본, 건강보험자격득실확인서 등 자주쓰는 전자증명서를 손쉽게 신청할 수 있다.주민등록등본 발급이 필요한 경우 토스 주민센터 홈페이지에 접속해 시·도, 시·군·구의 정보만 선택하면 QR코드가 생성된다. 화면상의 QR코드를 휴대폰 카메라로 인식하면 토스 앱이 실행되고 등본 발급을 완료할 수 있다. 발급된 증명서는 따로 저장하거나 필요 기관으로 바로 보내면 된다.토스 관계자는 “토스 주민센터는 별도의 공동인증서 인증 없이 토스인증서 만으로 사용할 수 있다”며 “토스를 사용하는 이용자는 이번 홈페이지 오픈으로 사용 빈도가 높은 4종의 전자증명서를 웹에서도 바로 신청할 수 있게 됐다”고 설명했다.토스 주민센터에서는 더 다양한 서비스를 경험할 수 있다. 증명서 떼기를 비롯해 △생활요금·세금 내기 △내 공공 알림 등의 대메뉴를 통해 총 61종의 전자증명서를 조회·발급할 수 있다. 통신비와 아파트 관리비 등 생활요금도 결제할 수 있다.박홍비 토스 프로덕트오너는 “토스 앱 하나로 다양한 전자증명서를 발급할 수 있던 기존 서비스에 PC나 모바일 웹을 통해서도 이용할 수 있도록 접근성을 대폭 향상 시켰다”고 말하며 “더 많은 증명서를 홈페이지에서 신청하고 바로 출력할 수 있는 서비스도 곧 선보이게 될 것”이라고 말했다.(자료= 토스)</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>2022.03.29.</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>토스증권, MZ세대 공략 통했다… 1년만에 420만 고객 유치</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000798418?sid=101</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>지난해 3월 출범한 토스증권이 1년 새 420만명의 고객과 230만명의 월간활성이용자(MAU)를 확보하며 눈에 띄는 성장세를 보였다. 사진은 박재민 토스증권 대표./사진=장동규 기자지난해 3월 출범한 토스증권이 1년 새 420만명의 고객과 230만명의 월간활성이용자(MAU)를 확보하며 눈에 띄는 성장세를 보였다. 토스증권의 주 고객층은 2030세대로 전체 고객의 약 65%(260만명)를 차지한다. 업계에서는 MZ(밀레니얼+Z세대)세대를 겨냥해 선보인 다양한 서비스를 토스증권의 주된 성공 요인으로 꼽는다. 29일 증권업계에 따르면 토스증권은 공식 출범 1년 만에 420만명의 고객과 230만명의 월간활성이용자(MAU)를 확보했다. 토스증권은 출범 석 달 만에 350만 신규 계좌가 개설됐는데, 이는 미국의 주식거래 플랫폼 로빈후드가 2년여 만에 달성한 수치다. MAU는 출범 이래 꾸준히 200만명을 웃돌며 월 평균 230만명을 기록하고 있다. 토스증권 성장의 중심에는 MZ세대 투자자들이 있다. 쉽고 편리하게 이용할 수 있는 UI/UX(사용자 환경·경험)와 투자자의 시각에서 해석한 맞춤형 서비스들은 MZ세대와 초보 투자자들에게 호평을 받았다. 대표적으로 토스증권의 간편 모바일트레이딩시스템(MTS)은 MZ세대 투자자들은 물론 증권가에 MTS 개편 가속화를 일으키는 계기가 되기도 했다. 실제 토스증권 간편 MTS 출시 이후 KB증권, 삼성증권, 이베스트투자증권, 키움증권 등 기성 증권사들의 MTS 전면 개편이나 각종 서비스 보완이 이뤄지고 있다. 토스증권이 MTS 공식 서비스를 시작한 직후인 2021년 4월부터 시작한 '주식 1주 받기' 이벤트도 흥행하면서 토스증권 가입자를 200만명 이상 끌어모으기도 했다.토스증권은 다음달 업계 최초로 선보이는 '실시간 해외주식 소수점 거래 서비스' 출시를 통해 또 한번 MZ세대 공략에 나설 계획이다.  토스증권 관계자는 "기존 증권사들이 고객들의 소수점 주문을 1일 1회 등 일정 주기로 모아 온주(1주)로 거래하는 기존의 방식은 그 구조상 실시간 매매가 어려웠다"며 "토스증권 실시간 방식은 주문 즉시 체결되기 때문에 투자자들은 1주 단위로 거래할 때와 이질감 없는 소수점 거래를 경험할 수 있다"고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>2022.03.18.</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>DGB대구은행, 담보대출 비교플랫폼 '담비'로 무방문 전세자금 대출</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011069741?sid=102</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>DGB대구은행, 담보대출 비교플랫폼 '담비'로 무방문 전세자금 대출 판매 *재판매 및 DB 금지[대구=뉴시스] 박준 기자 = DGB대구은행은 온라인 담보대출 비교플랫폼 '담비'를 통해 DGB대구은행의 무방문 전세자금 대출을 판매한다고 18일 밝혔다.부동산 담보대출 비교 플랫폼 ‘담비’는 베스트핀㈜이 금소법 시행에 맞춰 온라인 대출모집법인 등록을 마치고 지난해 출시한 플랫폼이다. 소비자가 입력한 부동산에 대한 기초 정보를 바탕으로 본인에게 맞는 주택관련대출 상품을 안내 받을 수 있는 플랫폼으로, 이용자들은 앱을 통해 1대1 개인 맞춤형 담보대출 정보를 확인하고 연결된 금융사 플랫폼을 통해 신청도 간편하게 완료할 수 있다.DGB대구은행 무방문 전세자금 대출은 스마트폰과 공인인증서만으로 복잡한 서류 제출 없이 대출 신청이 가능한 비대면 전용 대출로 간편한 프로세스와 편리함으로 인기리에 판매되고 있는 대출 상품이다. 지난 2월28일부터 주택담보대출과 전세대출에 대해 5000억원 규모의 한시 특판을 진행 중으로 담비를 통해 무방문 전세자금 대출을 가입할 경우, 최저 연 3.44% 금리(2022.02.28기준)로 최대한도 5억원까지 가입 가능하다. 특히 담비를 통해 대출 받은 고객이 예기치 못한 사고로 상해를 입거나 사망하는 경우, 보이스피싱과 같은 금융사기로 피해를 입었을 때 발생되는 채무 리스크를 무료로 보장받을 수 있는 담비안심 케어서비스 혜택도 제공 받을 수 있다.비대면 플랫폼을 이용한 다양한 제휴로 한계 없는 서비스를 지향하고 있는 DGB대구은행은 토스, 카카오페이, 핀다 등 다양한 업종의 디지털 플랫폼과 제휴를 맺고 있으며 특화된 비대면 전용 대출 라인업으로 선택권을 넓히고 있다.이숭인 IMBANK본부장은 "담보대출이 필요한 고객에게 유용한 서비스를 제공하는 담비와의 제휴를 통해 DGB대구은행의 담보대출을 전국 고객에게 소개하는 좋은 계기가 될 것으로 기대하고 있으며 앞으로도 다양한 플랫폼과의 적극적인 제휴를 확대해 나가겠다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>2022.03.22.</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>토스, 주민센터도 집어삼켰다</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004807044?sid=101</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>'토스 주민센터' 홈페이지 통해 등본 등 61종 증명서 조회 및 발급  [파이낸셜뉴스] 지난해 8월 전자문서지갑 서비스를 선보였던 토스가 이용자의 사용 편의성을 높인 ‘토스 주민센터’ 웹 홈페이지를 개설한다고 22일 밝혔다. 기존 토스 앱에서 이용하던 ‘토스 주민센터’를 PC와 모바일 웹에서도 사용할 수 있게 됐다. 주민등록등본, 건강보험자격득실확인서 등 자주쓰는 전자증명서를 손쉽게 신청할 수 있다.   예를 들어, 주민등록등본 발급이 필요한 경우 ‘토스 주민센터’ 홈페이지에 접속해 시·도, 시·군·구의 정보만 선택하면 QR코드가 생성된다. 화면상의 QR코드를 휴대폰 카메라로 인식하면 토스 앱이 실행되고 등본 발급을 완료할 수 있다. 발급된 증명서는 따로 저장하거나 필요 기관으로 바로 보내면 된다. ‘토스 주민센터’는 별도의 공동인증서 인증 없이 토스인증서 만으로 사용할 수 있다. 토스를 사용하는 이용자는 이번 홈페이지 오픈으로 사용 빈도가 높은 4종의 전자증명서를 웹에서도 바로 신청할 수 있게 됐다.   토스 앱에 있는 ‘토스 주민센터’에서는 더 다양한 서비스를 경험할 수 있다. 메뉴는 크게 △ 증명서 떼기, △ 생활요금·세금 내기, △ 내 공공 알림으로 구성돼 있다. 현재 총 61종의 전자증명서를 조회·발급할 수 있고, 통신비와 아파트 관리비 등 생활요금도 결제할 수 있다. 토스 앱을 실행한 후 전체메뉴에서 ‘토스 주민센터’에 들어가 신청하면 된다.   박홍비 토스 프로덕트오너는 “토스 앱 하나로 다양한 전자증명서를 발급할 수 있던 기존 서비스에 PC나 모바일 웹을 통해서도 이용할 수 있도록 접근성을 대폭 향상 시켰다”고 말하며 “더 많은 증명서를 홈페이지에서 신청하고 바로 출력할 수 있는 서비스도 곧 선보이게 될 것”이라고 계획을 밝혔다. #토스 #주민센터 #전자문서지갑</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>2022.03.29.</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>삼성·LG·효성 창업주 길러낸 지수초, 기업가정신센터로 재탄생</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000802864?sid=101</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>삼성 이병철, LG 구인회, 효성 조홍제 등 대한민국 산업화 1세대가 다닌 경남 진주시 지수초등학교가 ‘K-기업가정신 센터’로 새로 태어났다. 중소벤처기업진흥공단은 기업가정신 센터를 중심으로 비대면 교육 프로그램 등을 마련해 앞으로 우리나라를 이끌 미래 기업인을 육성할 계획이다.29일 지수초 운동장에는 동문과 지역 주민 등 100여명이 모였다. 기업가 정신센터 출범식에 참석한 이들은 옛 지수초를 추억하고, 새로운 내일을 기대했다. 1965년 지수초를 졸업한 허남욱(70) 지수면 자치위원장은 “한동안 폐교로 방치돼 안타까웠는데 번듯한 모습으로 바뀌어 감회가 새롭다”며 “지수초가 기업인의 산실이라는 자부심을 다시 한번 느낀다”고 말했다.경남 진주시 'K-기업가정신 센터'의 모습. /권오은 기자        지수초(당시 지수보통학교)는 1921년 5월에 개교했다. 1980년대 100대 기업의 창업주 30여명을 배출하면서 우리나라 기업가정신의 상징적 장소로 꼽힌다. 호암 이병철과 연암 구인회, 만우 조홍제 등 삼성·LG·효성그룹 창업주들이 지수초 1회 입학생으로 동문수학한 것으로 유명하다. 이들이 1922년 지수초에 심고 기른 소나무는 ‘부자 소나무(재벌송)’로 불리며 100년째 자리를 지키고 있다.지수초가 있는 승산마을은 범(凡) LG(003550) 구씨 가문과 GS(078930) 허씨 가문이 수백년 동안 터를 잡고 살던 동네다. 구철회 LIG그룹 창업주와 구태회 LS전선 명예회장, 구자경 LG 명예회장, 허정구 삼양통상 명예회장, 허준구 LG건설 명예회장, 허신구 GS리테일 명예 회장 등도 지수초를 졸업했다. 내로라하는 기업인들을 배출한 지수초이지만, 학생 수가 줄면서 2009년 송정초로 통폐합됐다. 송정초가 지수초로 교명을 바꿔 이름을 이어가고 있다.이때부터 지수초 부지를 미래 기업인들을 위한 공간으로 활용하자는 주장이 이어졌다. 한국경영학회와 진주시가 2018년 진주를 대한민국 기업가정신 수도로 선포하면서 사업이 물살을 탔다. 중진공은 진주시와 2019년부터 기업가정신 센터 설립을 위한 업무협약을 체결하고, 센터 구축을 추진해왔다.이병철 삼성 창업주와 구인회 LG 창업주, 조홍제 효성 창업주가 1922년 함께 심고 기른 부자 소나무. /권오은 기자지수초 출신 기업가 명단. /권오은 기자        기업가정신 센터는 본관 교육동과 전문 도서관, 체험센터로 마련됐다. 본관 1층은 전시관, 2층은 교육장으로 쓰인다. 1층 제1전시관의 주제는 ‘K-기업가정신의 뿌리’로, 1세대 글로벌 창업주들의 기업가정신을 소개한다. 전시관 내부 실감영상관에서는 한국 100년 기업사도 상영한다.제2전시관은 ‘K-기업가정신의 숲’을 주제로 한국경제 100년사, 글로벌 기업과 유니콘 기업의 기업가정신 등을 조망한다. 벽면에는 두산그룹의 모태인 1896년 박승직 상점을 시작으로 삼성과 LG, SK(034730), 롯데그룹 등을 지나 네이버와 카카오부터 ‘토스’ 운영사 비바리퍼블리카와 ‘마켓컬리’ 운영사 컬리까지, 이들 기업의 지향점이 적혀있다. 관람객이 자신의 기업가정신 유형을 알아볼 수 있는 참여형 체험공간도 마련돼 있다. 구자경 명예회장이 2000년에 기증한 체육관 겸 급식시설인 ‘상남관’은 기업가정신 전문 도서관으로 재탄생했다.경남 진주시 K-기업가정신 센터 제2전시관의 내부 모습. /권오은 기자경남 진주시 기업가정신 전문 도서관. /권오은 기자        기업가정신 센터를 운영하는 중소벤처기업진흥공단은 ▲현장체험 중심 교육 ▲참여형 소통콘텐츠 개발 ▲협력네트워크 구축을 중점적으로 추진할 계획이다. 기업가정신 교육을 위해 성찰, 경영, 사회적 책임 등 3대분야 공통 과정과 교육대상 특성에 맞춘 특화과정을 운영하기로 했다. 지역문화와 역사자원을 연계한 체험중심의 탐방 교육과정과 다양한 에듀테크 기술을 활용한 비대면 콘텐츠도 개발할 예정이다. 또 센터의 지리적 한계를 극복하기 위해 ‘찾아가는 맞춤형 교육’도 도입한다.중진공은 또 다음달부터 승산마을과 창업주들의 생가를 찾아 그들의 기업가정신과 경영철학을 되새겨보는 프로그램을 운영한다. 진주 기업가정신의 뿌리인 남명 조식 선생의 ‘경의사상’ 등도 배울 수 있다. 예비창업자와 중소기업 최고경영자(CEO)부터 학생과 일반 시민 등도 참여할 수 있다.김학도 중소벤처기업진흥공단 이사장은 “한국을 대표하는 1세대 창업주들이 꿈을 키웠던 이곳에 기업가정신의 메카를 조성하게 되어 기쁘게 생각한다”며 “K-기업가정신센터 개소가 우리 사회 전 분야에 기업가정신을 확산해 변화와 혁신을 끌어내는 계기가 되고, 자긍심이 충만한 기업인들을 배출하여 국가경제 발전에도 기여할 수 있길 바란다”라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>2022.03.28.</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>토스증권 "출범 1년, 420만 고객 유치"</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011086779?sid=101</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스] 이정필 기자 = 토스증권은 지난해 3월 출범한 지 1년 만에 420만명의 고객과 230만명의 월간활성이용자(MAU)를 확보했다고 28일 밝혔다.토스증권의 20~30대 고객은 260만명으로, 전체 고객의 약 65%를 차지한다. 회사는 다음 달 실시간 해외주식 소수점 거래 서비스를 선보일 계획이다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>2022.03.25.</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>신한은행, 예대금리차 ‘최고’…국민은행은 이자이익 ‘최대’</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003260731?sid=101</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>평균 1.8%P… 1년 새 0.05%P 올라강민국 국민의힘 의원강민국 당선자 측 제공윤석열 대통령 당선인이 ‘예대금리차 비교공시 확대’를 공약으로 내건 가운데 지난해 5대 시중은행 중 예대금리차가 가장 큰 곳은 신한은행으로 나타났다.24일 강민국 국민의힘 의원실이 금융감독원에서 받은 자료에 따르면 지난해 신규 취급 대출 기준으로 신한은행의 예대금리차는 1.83% 포인트로 조사됐다. 한국은행이 산출하는 가중평균금리를 적용해 1년간 평균치를 낸 결과 신한은행의 예금금리는 평균 1.16%, 대출금리는 2.99%로 집계됐다. KB국민은행의 예대금리차는 1.80% 포인트, 하나은행은 1.72% 포인트, 우리은행은 1.63% 포인트, NH농협은행은 1.54% 포인트였다.지난해 국내 은행 전체 평균 예대금리차는 1.80% 포인트로 2020년보다 0.05% 포인트 높았다. 지방은행 중에서는 전북은행의 예대금리차가 4.10% 포인트, 인터넷은행 중에서는 토스뱅크가 4.40% 포인트로 가장 높았다. 국내 은행의 예대마진은 2018년 40조 4698억원에서 해마다 증가해 지난해에는 46조 79억원을 기록했다. 5대 시중은행 중에서 국민은행이 7조 2648억원으로 예대마진이 가장 많았고 농협은행(5조 8096억원), 신한은행(5조 7889억원), 하나은행(5조 6325억원), 우리은행(5조 3475억원)이 뒤를 이었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>2022.03.29.</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>"고신용자도 고금리 굴레…연 5%대출 등장"</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005065452?sid=101</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>은행들 고신용자 금리 인상 신용점수 900점대 1~2등급 대상대출이자 1%포인트 넘게 올려기존 대출자는 연장 때 인상서울에서 대기업에 다니는 이영재씨(가명,45)는 카카오뱅크 마이너스 통장 사용을 연장하려고 신청했다가 깜짝 놀랐다. 1년전만 해도 한도 5000만원에 금리가 연 3.18%였는데, 지난주 휴대폰에 새로 찍힌 금리는 5.11%였다. 그는 "1년 사이 연봉도 오르고 다른 곳에서 대출을 추가로 받은 것도 아닌데다 신용점수 970점까지 그대로인데, 신용대출 금리가 2%포인트나 올랐다"며 "이 돈 빌려서 굴렸다간 이자도 못낼 것 같아서 마통을 해지했다"고 말했다. 같은 회사에 다니는 김미나씨(가명,38)도 "카뱅에서 1억짜리 마통을 개설했다가 지난 1월 연장할 때 금리가 2.9%에서 4.9%로 올랐다고 통보를 받았다"며 "문의를 해봐도 ‘내부 정책상 조정됐다’는 답변만 돌아왔다"고 전했다.신용점수 900점대도 신용대출 금리 4.06% 고신용자들도 신용대출을 받을 때 연 4~5%에 달하는 이자를 부담해야하는 고금리 시대가 열렸다. 인터넷은행 뿐 아니라 시중은행들도 금리를 일제히 올렸다. 29일 은행연합회가 공시하는 17개 은행의 2월 고신용자 신용대출 금리(신규취급액 기준)는 평균 4.06%였다. 1년전 3.06%에 비해 1%포인트 올랐다. 은행마다 등급을 매기는 기준은 다르지만 통상 NICE와 KCB에서 매기는 신용점수 900점 전후 고객들을 고신용자인 1~2등급으로 분류된다.5대은행만 놓고 보면 우리은행(4.08%)과 신한은행(4.00%)이 가장 높은 편이고 KB국민은행(3.81%), NH농협은행(3.75%), 하나은행(3.52%)가 뒤를 이었다. 지난해 1월 5대 은행의 평균금리가 2.6% 였던 것과 비교하면 상승폭이 1%포인트를 훌쩍 넘었다.인터넷은행들만 살펴보면 1~2등급 적용금리를 1월엔 케이뱅크 4.50%, 토스뱅크 4.19%까지 올렸다가 2월엔 각각 3.93%, 3.94%로 소폭 조정한 상황이다. 카카오뱅크는 작년 11월부터 고신용자들에겐 신규대출을 중단해 따로 공시하지 않았다. 다만 기존에 신용대출을 받았던 1~2등급 대출자들이 연장을 신청할 때 금리를 올리는 것으로 보인다.돈 빌릴 엄두 안나 고객도 비상…가계대출 잔액 줄어 은행도 비상 [이미지출처=연합뉴스]이러다 보니 직장인 인터넷 커뮤니티에서는 "한국은행이 기준금리 올린 것만 보면 작년 1월부터 지금까지 총 세 번, 0.75%포인트 정도 올렸는데 은행들 대출금리는 두 배 이상 뛰었다. 요즘엔 월급 받으면 대출부터 갚는 중", "주식과 코인의 불확실성이 워낙 커서 투자가 꺼려지기도 하지만 금리가 너무 올라서 돈 빌릴 엄두도 안 난다"는 글들이 올라오고 있다.은행들도 금리 상승이 마냥 반갑지만은 않다. 올해 들어 3개월 연속 5대 은행 가계대출 잔액이 줄어들었기 때문이다. 대출이 늘어나야 은행들도 주요 수익 기반인 예대마진을 얻을 수 있다. 지금처럼 고금리 탓에 대출이 뒷걸음질치는 상황이 계속되면 이익도 줄어들 수밖에 없다. 시중은행들이 최근 신용대출과 마이너스 통장 한도를 1억~2억원까지 일제히 늘리고 있는 것도 신용대출 증가 목표치에 실적이 한참 못 미쳐서 나온 비상책이다.한 시중은행 관계자는 "이미 젊은층들의 신용대출 수요는 작년에 거의 소진된데다 금리가 워낙 올라 작년 같은 대출붐이 일어나긴 힘들 것"이라며 "무엇보다 부동산 정책과 주택시장이 얼마나 활성화 될지에 따라 은행 대출 실적이 결정될 것으로 보여, 요즘 은행들은 부동산 정책만 쳐다보고 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>2022.03.23.</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>토스뱅크 출범 5개월 만에 17조원 모았다</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004807581?sid=101</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>[파이낸셜뉴스]  인터넷전문은행 토스뱅크가 출범 5개월 만에 17조원을 모았다. 수신 규모로는 5년 전 출범한 케이뱅크를 제친 숫자다. 하루만 맡겨도 연 2% 이자를 제공하는 토스뱅크 통장의 가입 고객 수도 200만명을 돌파했다.   23일 토스뱅크는 전체 수신 규모가 지난 21일 기준으로 17조원을 넘어섰다고 밝혔다.   토스뱅크를 가입·이용하는 고객은 총 235만2202명으로 나타났다. 지난해 10월 5일 영업을 시작한 이후 167일 만이다. 1분당 약 10명이 토스뱅크의 신규 고객이 된 셈이다. 일평균 가입고객은 약 1만4000명이다.   토스뱅크 이용 고객 가운데 토스뱅크통장을 개설한 고객은 205만5255명으로 집계됐다.   토스뱅크 고객 열 중 여덟은 토스뱅크 통장을 실제로 사용하고 있는 것으로 나타났다. 계좌에 ‘1원 이상’ 잔고를 보유하고 있으며, 이체·송금 등 다양한 뱅킹서비스를 이용하는 고객들이다.   토스뱅크는 앞서 두 차례 유상증자를 단행해 총 8500억원의 자본금을 확충했다. 토스뱅크 관계자는 “현재 대출영업의 안정적인 성장과 함께, 자산운용을 통해 안정적인 수익을 거둠으로써 고객들께 혜택으로 돌려드리고 있다”고 설명했다.   토스뱅크통장을 보유한 고객들은 월 평균 3만7200원의 이자를 받았다.   특히 최근 국내 은행 최초로 출시한 '매일 이자받기’ 서비스는 일복리 열풍을 일으키고 있다. 일주일 만에 약 87만8053명의 고객들이 서비스를 이용했다.   연령대도 다양했다. 30대 고객이 26.9%로 가장 많았다. 20대(24.8%), 40대(24.4%)가 소폭의 차이를 보이며 다음을 차지했다. 50대 이상의 경우 6명 중 1명 꼴(17.2%)로, 10대(6.7%)보다 많은 비중을 차지했다.   토스뱅크 관계자는 “지금까지 토스뱅크가 고객 중심으로 금융을 이해하고, 상품을 선보이며, 지속적으로 성장할 수 있었던 배경에는 고객들이 있었다”며 “앞으로도 다양한 고객 중심의 서비스를 통해 계속 성장해 나가고자 한다”고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>2022.03.22.</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>공인인증서 없이 증명서 떼는 '토스 주민센터' 서비스 확대</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004676565?sid=101</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>사진=뉴스1토스는 스마트폰 앱에서만 운영하던 '토스 주민센터'를 PC에서도 쓸 수 있도록 웹페이지를 열었다고 22일 밝혔다. 주민등록등본, 건강보험자격득실확인서, 코로나19 예방접종 증명서 등 61종의 전자증명서를 조회하거나 발급할 수 있다. 공동인증서 없이 '토스 인증서'로 이용할 수 있다.예를 들어 주민등록등본이 필요하면 토스 주민센터 홈페이지에 접속해 지역을 선택하면 QR코드가 생성된다. 이 QR코드를 스마트폰 카메라로 읽으면 토스 앱이 실행되고 서류 발급이 끝난다. 발급된 증명서는 따로 저장하거나 필요한 기관으로 바로 보내면 된다.박홍비 토스 프로덕트 오너는 "더 많은 증명서를 신청할 수 있도록 서비스를 확대할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>2022.03.26.</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>[머니랩] 잘 키운 스타트업 주식, 삼성전자보다 낫다? [김세영 피에스엑스 대표]</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000279985?sid=101</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>"스스로 만든 유리 천장, 직접 부숴보세요"비상장 주식 거래 전문 기업 피에스엑스Q. 피에스엑스는 어떤 회사인가요?안녕하세요. 김세영 피에스엑스 대표입니다. 저희 피에스엑스는 비상장 주식 거래 플랫폼 '서울거래 비상장'을 운영하고 있는데요. 이 플랫폼을 통해 우리가 생활 속에서 자주 사용하는 마켓컬리, 토스, 케이뱅크 등의 비상장 주식을 투자자가 거래할 수 있도록 도와드리고 있습니다.Q. 서울거래 비상장이 가진 의미는 무엇이라고 생각하시나요?피에스엑스는 비상장 주식 시장이 굉장히 좋은 투자처라고 생각합니다. 그런데 기존의 비상장 주식은 업계 네트워크, 증권사 자산관리사, 딜러를 통해 거래하는 방식이어서 일반 투자자가 접근하기 어려운 환경이었는데요. 저희는 이러한 환경을 개방해 일반 투자자들의 비상장 주식 접근성을 올리고 싶었습니다.또한 비상장 주식 시장은 입고가 먼저인지, 대금 결제가 먼저인지에 대한 분쟁도 많았고 허위 매물이 걸러지지 않는 곳이기도 했습니다. 게다가 내가 거래하는 주식이 대체 얼마인지 확인하기도 어려웠기 때문에 A라는 주식을 누구는 10만원에 거래하고, 누구는 15만원에 거래하는 일까지 있었는데요. 그래서 이걸 기술로 해결했다는 점에서 의미가 많다고 생각합니다.Q. 서울거래 비상장만의 특별한 관리법도 있을 것 같은데저희는 일반 투자자에게 비상장 주식 시장을 개방하면서 최소한의 안전장치를 마련해 드리고 싶었습니다. 그래서 종목 검증을 진행하게 됐는데요. 플랫폼에 기업을 등록할 수 있는지에 대한 최소한의 재무요건을 심의회를 통해 확인하고 있고요. 등록 이후에도 6개월 또는 1년마다 감사 의견이 부적격하거나 기업 평가가 낮아진 곳들은 투자 유의 안내를 하는 등 노력하고 있습니다.Q. 피에스엑스를 창업하게 된 계기도 궁금합니다사실 저는 인생에 큰 고저가 없었던 사람입니다. 10년간 은행에서 근무하면서 평탄하고 평범한 삶을 살았거든요. 그러다 정말 하고 싶은 일을 해봐야겠다는 생각이 들기 시작해서 주변의 반대를 무릅쓰고 퇴사했습니다. 그리고 중금리 대출 전문 핀테크 기업 '8퍼센트'에 합류하게 됐는데요. 제가 은행을 다닐 때부터 이효진 8퍼센트 대표와 친한 친구이면서 비즈니스 파트너였고, 여러 고민을 공유했기 때문에 함께 일까지 하게 됐던 것 같습니다.8퍼센트에서 일할 때에는 수많은 스타트업 관계자들을 만났습니다. 그러면서 기업 분석도 하게 됐는데, 성장성과 수익성이 높은 스타트업에 초창기 투자를 하고 싶다는 생각이 들었습니다. 그리고 스톡옵션 행사를 하면 주식으로 들고 있어야 하는데, 이걸 현금화하고 싶어 하는 분들이 많다는 걸 알게 되면서 사업 아이템을 떠올리게 됐습니다.Q. 사업의 시작이 순탄하지만은 않았을 것 같은데금융 서비스를 하기 위해서는 라이선스가 필요하기 때문에 이 환경을 어떻게 해결할지에 대한 고민이 많았습니다. 그래서 도움을 줄 수 있는 증권사나 기관을 찾아다녔는데, 아이디어뿐인 회사와 선뜻 협업해 줄 수 있는 곳이 많지 않더라고요.그러다 블라인드라는 직장인 익명 커뮤니티에 우리가 이러한 서비스를 준비하고 있다는 글을 올렸는데 신한금융투자 담당자께서 명함을 보내주셨습니다. 그분이 규제 샌드박스 신청부터 업무 위수탁 계약 체결까지 도와주셔서 서비스 출시까지 할 수 있었습니다. 문을 두드리며 찾아가는 정석적 방법이 아니라 '이게 되겠어? 하지만 해보자!'라는 마음으로 시도했던 게 성공으로 이어졌던 거죠.Q. 서울거래 비상장의 현재 성과는 어떤가요?서울거래 비상장은 출시 6개월 만에 이용자 30만명을 달성했습니다. 그리고 거래 금액 비중을 보면 MZ 세대가 50%에 육박하는데요. 자산가 외에는 크게 관심 없던 비상장 주식 시장이 일반 투자자의 영역으로 확대하고, 굉장히 적극적으로 참여하는 분위기로 바뀌고 있는 것 같습니다.Q. 스타트업으로서 투자를 받을 때는 어떤 부분이 중요할까요?투자자는 기업 성장이라는 하나의 배에 탄 파트너입니다. 그래서 투자자로 누구를 만나는 지도 굉장히 중요한 부분입니다. 특히 투자자는 어디서 주관하느냐에 따라 선호하는 포인트도 다릅니다. 어떤 분은 논리적이고 신빙성 있는 사업 계획서를 선호하고, 어떤 분은 비전과 업계 변화에 집중합니다. 그래서 이러한 부분들을 두루두루 준비해두는 게 좋은 것 같습니다.Q. 후배 창업자에게 하고 싶은 이야기하고 싶은 일이나 아이디어가 떠오르면 일단 실행에 옮겨보라고 말씀드리고 싶습니다. 그러면 주변에서 도움을 주시는 분들이 분명 나타나니까요. 저희 피에스엑스도 중소벤처기업부, 고용노동부, 한국핀테크지원센터 등에서 마케팅 비용과 인건비 등을 지원받고 있고요. 또한 도전하고 싶은 분야와 꿈이 있다면 욕심을 부리는 것도 중요합니다. 굉장히 똑똑하고 잘하는 것이 많은 사람임에도 불구하고 스스로 만든 유리 천장에 갇혀있는 경우가 많거든요. 이러한 한계들을 직접 부셔보셨으면 합니다.(자세한 내용은 동영상을 시청하시기 바랍니다.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>2022.03.28.</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>토스증권, 출범 1년 만에 420만 고객 달성…10명 중 6명은 '2030세대'</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005064736?sid=101</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>미국 로빈후드 넘어선 역대급 성장 기록…매월 230만명 접속쇼핑하듯 쉬운 주식 거래·고객과 소통하는 서비스 MZ세대 호응토스증권이 출범 1년 만에 420만명의 고객과 230만명의 월간활성이용자(MAU)를 확보했다고 28일 밝혔다. 2030 고객은 260만명으로 전체의 65%가량을 차지해 MZ(밀레니얼+Z세대) 세대의 인기를 얻은 것으로 나타났다.1년 새 420만 고객 확보는 국내 증권업계를 넘어 전 세계 금융투자 역사에서도 유래를 찾을 수 없는 기록이라는 게 토스증권의 설명이다. 토스증권은 출범 3개월 만에 350만개의 신규 계좌가 개설됐다. 이는 미국의 주식거래 플랫폼 로빈후드가 2년여 만에 달성한 수치다. 2100만여명에 달하는 토스 앱 사용자의 호응과 MZ세대 사이에 입소문이 퍼져 하루 최대 58만여 명이 가입하는 대기록을 세우기도 했다.월간활성이용자(MAU)는 출범 이래 꾸준히 200만명을 넘겨 월평균 230만명을 기록하고 있다. 이는 국내 증권사 상위 5개사에 필적하는 수준으로, 출범 당시 밝혔던 MAU 100만 명 달성의 목표를 출범 첫 달부터 2배 이상 달성했다.성장의 중심에는 MZ세대 투자자들이 있다고 토스증권은 설명했다. 토스증권의 2030 고객은 260만명으로 전체 고객의 약 65%를 차지한다. 토스증권 관계자는 "쉽고 편리하게 이용할 수 있는 사용자 인터페이스(UI) 및 사용자 경험(UX)과 맞춤형 서비스들이 MZ세대와 초보 투자자들의 이목을 끌었다"며 "국내 주식투자 인구 중 적은 비중을 차지해 온 30대 이하 젊은 투자자층의 주식투자 참여를 한층 끌어올렸다"고 자평했다.토스증권이 지난 해 7월 선보인 '주식선물하기' 서비스는 투자자끼리 주식을 주고 받을 수 있는 서비스다. 기존 증권사의 타인계좌주식대체를 이해하기 쉬운 표현으로 재해석하고 간편하게 서비스를 설계했다.'커뮤니티'는 투자자 간 의견 교류의 장을 제공해 건전한 투자 문화를 만들어가고 있다. 실제 주주와 잠재투자자를 구분해 투자자 의견의 신뢰도를 높이고 기존의 주식 커뮤니티와 차별화했다.'토스증권 데일리' 콘텐츠는 애널리스트가 직접 고객과 소통한다. 애널리스트들은 매일 시장에서 발생한 이슈들을 추려 투자자들의 시각에서 이해하기 쉽게 정리하는 동시에 어려운 전문용어는 쉽게 풀어 쓴다. 댓글을 통해 투자자와 소통하며 콘텐츠에 대한 의견과 주제를 제안받기도 한다. 토스증권 콘텐츠는 투자자들의 높은 호응 속에 구독자 수 50만명 돌파를 눈앞에 두고 있다.토스증권 관계자는 "토스증권이 말하는 주식투자의 새로운 표준은 투자자의 시각에서 시작해 현재 진행형"이라며 "앞으로 처음 투자를 시작하는 고객과 숙련된 투자경험을 가진 고객 모두가 만족할 수 있는 진정한 의미의 모바일 주식투자의 표준을 보여드리게 될 것"이라고 말했다.토스증권은 다음달 '실시간 해외주식 소수점 거래' 서비스로 성장세를 이어나갈 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>2022.03.21.</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>진화하는 서학개미...삼성·토스증권 서비스 혁신 물결</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002586659?sid=101</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>첫 실시간 해외 소수점거래 등장美주식 낮거래 등 파격시도 계속해외주식 순매수 8조...국내 상회MZ세대를 중심으로 해외주식 투자에 대한 관심이 급증하면서 증권사들의 서비스 강화 행렬이 이어지고 있다. ⓒ픽사베이[데일리안 = 백서원 기자] 해외주식 거래 수요가 급증하면서 증권사들이 잇따라 서비스 차별화에 공을 들이고 있다. 젊은 층을 중심으로 소수 단위 매매 등 혁신 서비스가 인기를 얻는 등 해외주식 투자 지평이 더욱 넓어진 영향이다. 증권사들의 서학개미 유치전이 치열해진 가운데 새로운 전략과 파격적인 시도가 이어질 전망이다.21일 금융투자업계에 따르면 토스증권은 다음달 국내 증권사 중 처음으로 실시간 해외 소수점 거래 서비스를 시작한다. 토스증권에서 제공하는 2700여개의 미국 주식과 상장지수펀드(ETF), 상장지수증권(ETN) 등을 대상으로 한다. 1000원부터 투자금액을 입력해 구매할 수 있다. 아마존, 구글(알파벳) 등 1주 당 가격이 높은 주식에 소액 분산투자가 가능해진 것이다.지금까지 해외 소수점 거래는 증권사가 일정 주기로 고객들의 소수점 주문을 모으고 이를 온주(1주)로 만들어 매매하는 구조로 진행됐다. 토스증권의 해외 소수점 거래 서비스는 1주 단위로 주식을 거래할 때와 동일하게 실시간으로 소수점 주식을 사고 팔 수 있다. 단 소수점 주문은 시장가 거래만 가능하고 지정가 주문은 제공되지 않는다.토스증권 관계자는 “투자자들은 주문 시점에 실제로 체결될 주식 수량과 가격을 예상할 수 없고, 급변하는 시장에 빠르게 대응할 수 없는 불편을 겪어왔다”면서 “기존 해외 소수점 거래의 구조적인 문제를 해소하면서 투자자들에게 가장 빠른 소수점 거래 서비스를 선보일일 것”이라고 설명했다.한국 투자자의 연간 해외·국내주식 순매수 규모 추이 ⓒ메리츠증권작년 해외주식 수수료 수입 1위 증권사인 삼성증권은 지난달 7일부터 세계 최초로 미국주식 전 종목에 대한 주간 거래 서비스를 시작했다. 하루의 거의 대부분인 20시간 30분간 매매를 할 수 있는 서비스다. 출시 한 달만인 이달 8일 기준으로 누적거래대금 3472억원, 주문건수 8만8483건을 돌파했다.삼성증권은 지난달 해외주식에 관심이 큰 MZ세대를 위해 유튜브 채널 개편에도 나섰다. 증시 관련 용어의 영어 표현을 알아보는 ‘보캐노믹스’, 미국에서 핫한 투자 관련 신조어를 소개하는 ‘밈글리쉬’ 등의 콘텐츠를 앞세웠다. 앞으로도 MZ세대 맞춤형 유튜브 콘텐츠를 강화해 이들을 적극 공략한다는 계획이다.삼성증권 관계자는 “외신 등을 통해 직접 투자 정보를 확인하는 스마트 개미들에게 좋은 정보가 될 것”이라며 “삼성증권 유튜브 채널 MZ세대 시청자 비중이 40% 수준까지 크게 늘었는데 이번 개편을 통해 젊은 층의 유입을 더욱 가속화해 나간다는 방침”이라고 밝혔다.해외주식 투자의 인기는 지난 2020년 코로나19 창궐로 인해 개인투자자들의 국내주식 투자 열풍이 거세진 것이 그대로 연결됐다. 올해 1분기가 끝나지 않은 현재 시점에서 해외주식 순매수액은 약 8조원(전년 총액의 32%)을 돌파해 국내주식 순매수액을 앞지른 상태다. 특히 미국 주식 성장주가 주목받으면서 국내 투자자의 미국 주식 보유 평가액은 약 607억달러로 전체의 86.5% 비중을 차지하고 있다.정은수 메리츠증권 연구원은 “해외주식 투자에 있어 국내 투자자의 특징은 미국 주식 비중이 절대적이라는 것과 팬데믹 이후 해외주식 순매수 상위 10개 종목의 비중이 크게 늘었다는 것, 신기술 산업 투자 심리가 강화됐다는 점”이라며 “다만 과거 유사한 성장주 베팅이 국내 투자자에게 수차례 아픈 경험을 준 적이 있다는 측면에서 무리한 성장주 투자는 재고할 필요가 있다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>2022.03.16.</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>토스뱅크, 은행이 정한 날 대신 고객 원할 때 이자 지급</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/241/0003197509?sid=101</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>[일간스포츠 권지예]   토스뱅크    토스뱅크가 고객들에게 매일 이자를 지급한다. 고객이 원할 때 이자를 받을 수 있도록 실행에 옮긴 것은 토스뱅크가 처음이다.      토스뱅크는 16일부터 매일 한 번씩 고객들이 원할 때 즉시 이자를 받을 수 있다고 밝혔다. 대상은 ‘토스뱅크통장’을 보유한 고객이다. 고객은 ‘지금 이자받기’ 클릭 한 번으로 매월 한 차례 지급되던 이자를 매일 통장으로 받게 된다. 쌓인 이자가 최소 1원 이상일 경우 받을 수 있으며, 출금도 고객이 원하면 언제든 가능하다.     매일 이자받기를 통해 ‘업그레이드’된 토스뱅크통장은 매일 남은 잔액을 기준으로 이자가 쌓이는 ‘일 복리’ 구조를 고객들에게 제공한다. 고객들의 경우 돈을 많이 보관할수록, 또 이자를 매일 받을수록 유리하다. 이로써 연 2%(세전)의 높은 금리 혜택이 더욱 강화된다는 게 토스뱅크 측 설명이다. 토스뱅크의 이번 시도는 고객들은 은행에서 돈을 빌리면 대출금의 이자는 하루 단위로도 납부를 해야 하지만, 큰 돈을 맡기는 경우에도 은행이 정한 날짜에만 이자를 받을 수 있다는 데서 출발했다.      또 급히 돈이 필요해 예·적금 상품을 해지해야 하는 경우에는 ‘중도해지’ 등의 사유를 들어 약정된 금리를 보장받지 못한 경우도 대부분이었다.      이날부터 1억 원을 예치한 고객의 경우 매일 세전 약 5400원 상당의 이자를 출금할 수 있게 된다.      토스뱅크 관계자는 “그동안 고객들은 은행이 정한 날짜에 이자를 받는 것만 생각했지, 매일 받을 수 있는 것은 생각할 수 없었다”며 “기획과 개발에만 수 개월을 쏟아부은 결과가 공급자 중심의 금융을 고객 중심으로 바꾸어 나가는 계기가 됐으면 한다”고 말했다.    ‘지금 이자받기’를 클릭하지 않은 고객은 이전과 마찬가지로 쌓인 이자를 매월 세 번째 토요일에 일할 계산해 받게 된다. 고객들은 매월 토스뱅크로부터 받은 이자 내역을 앱을 통해 확인할 수 있다.     권지예 기자 kwon.jiye@joongang.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>2022.03.29.</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>행정정보 조회내역 '국민비서'로 알림 받는다</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011089829?sid=102</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>기사내용 요약행안부, 30일부터 서비스 제공…알림 동의 필수[세종=뉴시스] 본인정보 조회내역(행정정보 공동이용) 알림서비스 이용절차. (자료= 행정안전부 제공) [세종=뉴시스] 변해정 기자 = 오는 30일부터 '국민비서 구삐' 서비스로 본인의 행정정보 조회 내역도 안내받을 수 있게 된다.  행정안전부는 본인정보 조회 내역 알림 서비스를 제공한다고 29일 밝혔다.국민비서는 카카오톡·네이버·토스 앱 등 친숙한 민간 채널로 사전 설정만 해놓으면 각종 생활 정보와 코로나19 백신 접종 정보를 때맞춰 제공해주는 비대면 알림서비스다. 국민비서에 가입한 후 본인정보 조회 내역 알림에 동의하면 '행정정보 공동이용' 과정에서 본인의 정보 조회 시 이를 요청한 민원인 이름과 함께 조회 기관, 일시, 목적, 조회 정보가 안내된다.  행정정보 공동이용은 각 행정기관이 보유한 개인의 행정정보를 공동이용 할 수 있게 해주는 것으로, 그간 법령에 따라 정보주체의 사전동의와 열람청구권 보장을 통해 개인정보를 보호해왔다. 그러나 최근 이 시스템을 통해 불법적으로 이용하는 사례가 잇따르면서 개인정보 조회 내역까지 정보주체에게 적극 알리기로 했다는 게 행안부 측 설명이다. 본인정보 조회 내역 알림은 코로나19 격리자 생활지원 자격심사, 치매치료관리비 지원, 난임부부 시술비 지원 신청 등 760여 개의 민원 사무에 적용된다. 서주현 행안부 공공지능정책관은 "개인정보 유출 피해는 회복하기가 어려워 민원 처리를 위한 경우 등 필요 최소한으로만 조회돼야 한다"면서 "행정정보 공동이용 과정에서 개인정보가 안전하게 보호될 수 있도록 만전을 기하겠다"고 말했다.[세종=뉴시스] 국민비서 알림 메시지 예시. (자료= 행정안전부 제공) 2022.03.29.</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>2022.03.22.</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>토스 “PC로 주민등록등본 발급 받으세요”</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000801347?sid=101</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>토스가 주민등록등본 등 증명서를 웹에서 발급할 수 있는 ‘토스 주민센터’ 홈페이지를 선보인다고 22일 밝혔다. 기존 토스 애플리케이션(앱)에서 이용하던 서비스를 PC와 모바일 웹에서도 사용할 수 있게 된 것이다.▲주민등록등본 ▲코로나 예방 접종 증명서 ▲건강 보험 자격 득실 확인서 ▲국민연금 산정용 가입 내역 확인서 등 사용 빈도가 높은 전자증명서 4종을 웹에서 신청할 수 있다.토스 제공        주민등록등본 발급이 필요한 경우, 토스 주민센터 홈페이지에 접속해 시·도, 시·군·구의 정보만 선택하면 QR코드가 생성된다. 화면상의 QR코드를 휴대폰 카메라로 인식하면 토스 앱이 실행되고 등본 발급이 된다. 발급된 증명서는 따로 저장하거나 필요 기관으로 바로 보내면 된다. 별도의 공동인증서 인증 없이 토스인증서로 사용할 수 있다.토스 앱을 통하면 더 많은 종류의 증명서 발급이 가능하다. 현재 총 61종의 전자증명서를 조회·발급할 수 있고, 통신비와 아파트 관리비 등 생활 요금도 결제할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>2022.03.24.</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>영상인식 AI 기업 '알체라', 작년 매출 100억 돌파…2배 껑충</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011081185?sid=101</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>기사내용 요약작년 영업손실 113억원[서울=뉴시스] 이진영 기자 = 영상인식 인공지능(AI) 기업 알체라가 지난해 매출 100억원을 달성했다고 24일 밝혔다. 전년 46억원의 2배가 넘는 수치로 역대 최대치다.매출을 부문별로 보면 AI 안면인식 사업 매출이 약 65억원으로 전년의 약 10억원의 6배 이상으로 확대됐다. 알체라는 외교부, 인천국제공항 등 공공기관과의 사업을 통해 AI 안면인식 기술 신뢰를 쌓은 것이 신한카드, 토스뱅크, 토스증권 등 금융권 사업으로 이어져 매출이 증대했다고 설명했다. 지난해 데이터사이언스 사업 매출액은 약 23억원으로 전년의 16억원에 비해 50%가량 올랐다. 삼성, 현대모비스, SK텔레콤 등 대기업들의 AI 도로자율주행, 안면인식 AI 성능향상 DB 학습 용역 등을 수행하면서 매출이 늘었다.지난해 영업손실은 113억원으로 전년 영업손실 51억원에 비해 확대됐다. 알체라는 글로벌 시장 진출을 위해 기업 규모를 확장하면서 인건비, 연구개발 및 마케팅비 등이 가파르게 증가했기 때문으로 설명했다.알체라는 올해 실적 개선을 위해 향후 SaaS(서비스형 소프트웨어) 모델 사업에 주력할 계획이다. SaaS 모델은 구축형 사업에 비해 적은 비용으로 더 많은 고객에게 향상된 서비스를 제공할 수 있는 시스템이다. 알체라의 대표적 SaaS 모델은 산불 조기감지 AI 솔루션인 파이어스카우트(FireScout)다.알체라는 현재 미국 소노마카운티에 해당 솔루션을 적용 중으로, 미국 캘리포니아의 전력회사인 ‘PG&amp;E’와 'CALFIRE'(캘리포니아 산림보호 및 화재예방국), 미국 최대 산불 감시카메라 회사 ‘ALERT Wildfire’와 협업 중이다. 알체라는 기후변화로 인해 전 세계적으로 증가하고 있는 산불의 조기감지를 위해 솔루션을 널리 보급할 계획이며 이에 맞춰 올해부터 SaaS 모델의 본격적인 성장이 가능하다고 보고 있다.알체라는 이외에도 영상인식 AI 기술을 활용한 디지털 헬스케어 사업 등 고부가가치 신사업을 육성해 매출과 영업이익 두 마리 토끼를 모두 잡겠다는 다짐이다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>2022.03.17.</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>토스증권서 4월부터 아마존 주식 1천원어치 살 수있다</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002250762?sid=105</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>실시간 해외 소수점 거래 서비스 출시토스증권에서 앞으로 아마존이나 구글 등 해외 대형 주식을 실시간으로 소수점 구매할 수 있게 된다.토스증권은 17일 오는 4월부터 실시간 해외 주식을 1주 미만의 소수 단위로 거래하는 서비스를 시작한다고 밝혔다.2천700여개의 미국 주식과 상장지수펀드(ETF)와 상장지수증권(ETN) 등을 대상으로 하며, 1천원부터 투자금액을 입력해 구매할 수 있다.특히 토스증권의 해외 소수점 거래 서비스는 고객의 주문 시점의 가격으로 즉시 체결되는 것이 특징이다. 투자자들은 1주 단위로 주식을 거래할 때와 동일하게 실시간으로 소수점 주식을 사고 팔 수 있다.단, 소수점 주문은 시장가 거래만 가능하고, 지정가 주문은 제공되지 않는다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>2022.03.18.</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>‘가성비’ 갤럭시A53 자급제, 이커머스에서 살까?</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002120974?sid=105</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>- 제품 수령 25일부터…할인쿠폰 등 지급    [디지털데일리 이안나 기자] ‘가성비(가격 대비 성능)’ 높은 스마트폰을 찾는 소비자를 위해 이커머스 기업들이 삼성전자 갤럭시A 시리즈 신제품을 사전 판매한다.   삼성전자 갤럭시A 시리즈는 합리적인 가격 대비 뛰어난 성능이 특징이다. 이번 모델은 120헤르츠(Hz) 주사율을 갖춘 대화면 디스플레이, 5000밀리암페어시(mAh) 대용량 배터리 등이 탑재했다. 128기가바이트(GB) 단일 용량으로 출고가 59만9500원이다. 11번가는 갤럭시A53 자급제 모델 사전판매 행사를 시작한다고 18일 밝혔다. 사전구매 고객 대상으로 오는 24일까지 ▲신한·현대·NH농협·KB국민·삼성 등 9개 카드사 ‘11% 할인쿠폰’ ▲T멤버십 3000원 할인 ▲SK페이 결제 시 최대 12개월 무이자 할부 ▲갤럭시워치4 30% 할인쿠폰 등을 지원한다.   SK텔레콤 가입상품도 같은 기간 사전판매 진행한다. 11번가 ‘T공식대리점’을 통해 갤럭시A53 모델을 사전구매하는 고객에게 ‘카드사 할인’, ‘T멤버십 할인’ 등 혜택과 구매 고객 전원에게 ‘무아스 무선충전 탁상시계’를 사은품으로 제공한다. 제품은 25일부터 순차적으로 받아볼 수 있다.   11번가는 갤럭시A53 사전판매 라이브 방송을 18일 자정부터 90분간 실시, 구매 고객들이 신제품 실물을 확인하고 사전구매 할 수 있도록 했다. 라이브 방송 시청수는 120만명에 달했다.   쿠팡은 이날부터 오는 24일까지 갤럭시A53 사전예약을 실시한다. 갤럭시A53 어썸 블랙·블루·화이트 3종을 준비했다. 와우 회원은 우리·하나·농협·롯데·국민·BC·삼성카드로 결제할 경우 최대 11% 즉시 할인받을 수 있다.    휴대폰 구매 때 ‘쿠팡안심케어’를 함께 구매하면 휴대폰을 수리하거나 교체가 필요할 경우 보험서비스를 받을 수 있다. 쿠팡 ‘중고폰 보상판매 서비스’를 통해 기존에 사용하던 휴대폰을 간편하게 처분할 수 있다.   마켓컬리도 갤럭시A53을 한정수량으로 사전예약 판매한다. 오는 24일까지 주문하면 25일 새벽부터 순차적으로 갤럭시A53을 배송해, 바로 다음 날 상품을 받을 수 있다. 회원 할인가 11%를 적용해 53만3555원에 구매할 수 있다.    위메프 역시 이날부터 24일까지 사전 예약 판매 기간을 갖는다. 5% 기본 할인에 6% 카드 할인을 합쳐 총 11% 할인받을 수 있다. 할인카드 및 간편 결제 대상은 국민·농협·삼성·하나·전북·카카오페이·토스다. 25일 이후부터 순차 발송한다.    판매처 구분 없이 갤럭시A53을 구매한 고객은 사은품을 신청하면 갤럭시버즈 라이브를 받을 수 있다. 삼성전자는 추가로 유튜프 프리미엄 2개월 무료체험, 윈드라이브 100GB 6개월 체험권을 제공한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>2022.03.21.</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>기업가치 1조원 이상, 2021 신규 유니콘 기업 7개사 앱 분석</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004937389?sid=105</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>서울중소벤처기업청은 지난 2월 ‘21년 유니콘기업 현황’을 발표했다. 이에 따르면 지난해 말 기준 국내의 유니콘 기업은 역대 최다인 18개사이며, 21년 들어 새롭게 탄생한 국내 유니콘 기업도 집계 이래 최다인 7개사라고 한다. 신규 유니콘 기업은 두나무(가상자산거래소, 업비트), 직방(부동산중개), 컬리(신선식품 배송, 마켓컬리), 빗썸코리아(가상자산거래소, 빗썸), 버킷플레이스(인테리어커머스, 오늘의집), 당근마켓(중고거래 플랫폼), 리디(전자책 등 콘텐츠 플랫폼, 리디북스)로 각 분야에서 빠르게 성장한 스타트업 기업이다.유니콘 기업은 기업 가치가 1조 원 이상이고 창업한 지 10년이 안 된 비상장 스타트업 기업을 말한다. 뿔이 하나 달린 전설의 동물 유니콘처럼, 상상 속에나 존재할 만큼 놀라운 실적을 보이거나 우수한 기술력, 성장 가능성을 통해 기업 가치가 높은 것으로 평가되는 기업을 가리키며 사용되고 있다. 전 세계의 대표적인 유니콘 기업으로는 미국의 택시 스타트업 우버나 가정집을 여행지의 숙소로 활용하도록 중개하는 에어비앤비, 일론 머스크의 우주탐사 기업 스페이스X를 포함해 중국의 전자제품 제조 기업 샤오미, 모바일 차량공유 서비스 기업 디디추싱 등 각각의 분야에서 두각을 나타내는 여러 기업들이 있다. 이번에 새롭게 유니콘 기업으로 등극한 국내의 7개사 역시 독보적인 기술력, 트렌드의 변화 등에 힘입어 짧은 기간 동안 놀라운 성장률을 보였다. 또 한 가지 주목할만한 점은, 7개사 모두 자신만의 분야에서 유의미한 시장 점유율을 보유한 앱을 운영중이라는 것이다. 각각의 앱은 시장에서 어느 정도의 점유율을 차지하고 있을까? 지난 1년간 얼마나 많은 사용자를 확보했을까? 빅데이터 전문기업 TDI(티디아이, 대표 이승주)에서는 2021년 신규 유니콘 기업으로 우뚝 선 7개사의 대표적인 모바일 앱을 분석해봤다. Trend 1. 신규 유니콘 기업 7개사 앱, 각자의 분야에서 1위를 달리는 중우선 2021년 신규 유니콘 기업으로 등극한 7개사의 대표적인 모바일 앱을 살펴봤다. 대부분이 각자의 분야에서 독보적 1위 자리를 차지하고 있는 앱이며, ‘암호화폐 거래소’ 분야에서는 두나무의 업비트와 빗썸코리아의 빗썸이 경쟁 중이다. 모든 앱은 사용자도 많고 인지도도 높은 ‘국민 앱’들이었다. 지난 1월 국내의 안드로이드 스마트폰 사용자 수를 기준으로 신규 유니콘 기업 7개사의 모바일 앱 설치자를 조사해보니, 중고거래 플랫폼 당근마켓 앱이 50.1%로 가장 많은 설치자를 확보하고 있었다. 다음으로 안드로이드 스마트폰 사용자 중 23.2%가 인테리어 콘텐츠 및 커머스 앱 오늘의집을 설치했고, 직방, 업비트, 마켓컬리 앱의 설치자는 각각 16.8%, 12.5%, 12.1%의 비율을 보였다. 빗썸과 리디북스 앱을 설치한 이들은 10% 미만으로 조사됐다. 안드로이드 스마트폰 사용자 두 명 중 한 명꼴로 사용하고 있는 당근마켓은 구매자 및 판매자의 지역을 기반으로 개인 간의 중고 거래를 돕는 온라인 플랫폼이다. GPS를 통해 나의 거주 지역을 인증해야 이용할 수 있기 때문에 그동안 중고나라 등 중고거래 플랫폼의 문제점을 꼽히던 택배 거래 사기, 전문 판매업자의 사재기나 되팔이로 인한 피해가 적다. 뿐만 아니라, 거주 지역 인증을 통한 우리 동네 맛집 정보, 동네 이웃들의 이슈와 소식을 공유하는 등 당근마켓은 전반적인 지역 생활 커뮤니티 서비스를 제공하고 있어 많은 이들이 사용한다.안드로이드 스마트폰 사용자 네 명 중 한 명이 사용하는 오늘의집은 인테리어 콘텐츠 및 커머스 서비스를 제공하는 홈 인테리어 앱이다. 오늘의집 앱의 사용자들은 인테리어 고수들이 꾸민 집을 ‘랜선 집들이’로 구경하거나, 콘텐츠 속 가구, 소품 등을 오늘의집 ‘스토어’에서 간편하게 확인하고 구매할 수 있다. 지난 2년간 사회적 거리두기, 재택근무 등으로 집에 머무는 시간이 늘어나자 많은 이들이 인테리어, 집 꾸미기에 큰 관심을 보였는데, 오늘의집은 이런 추세에 힘입어 가파른 성장세를 보였다. 오늘의집은 현재 구글플레이 스토어 부동산/홈 인테리어 카테고리에서 직방 등 부동산 앱과 모든 인테리어 관련 앱을 제치고 압도적 1위 자리를 유지하고 있다.Trend 2. 7개사 앱 대부분 큰 성장폭을 기록했지만, 암호화폐 거래 앱의 성장세 유독 두드러져 다음으로 2021년 신규 유니콘 기업으로 등극한 7개사의 앱은 지난 1년간 얼마나 성장했는지 살펴봤다. 작년 1월 각 앱의 설치기기수를 기준으로 올해 1월 설치기기수의 증가율을 분석해보니, 부동산 앱 직방을 제외한 대부분의 앱은 지난 1년간 높은 성장률을 보였다. 특히 암호화폐 거래소 앱 업비트와 빗썸은 작년 1년간 각각 645.5%, 199.2%로 폭발적인 증가율을 보였다. 이처럼 두 암호화폐 거래소 앱이 두드러진 성장을 보인 것은 2010년대 후반부터 유행하기 시작한 암호화폐 산업이 지난 2021년 호황기를 맞이한 데다, 경기 불황이 장기화되자 주식, 암호화폐 등 투자에 관심을 가진 이들도 무척 늘었기 때문이다. 다른 앱에 비해 어마어마한 설치기기수 증가율을 보인 업비트는 우리나라의 대표적인 암호화폐 거래소 앱이다. 빗썸 등 다른 암호화폐 거래소 앱에 비하면 후발주자이지만, 입문자도 적응하기 쉬운 UI/UX를 비롯해 앱의 사용자 편의성도 높고, 투자자를 보호하는데 적극적인 행보를 보이고 있어 많은 사용자를 확보했다. 국내에서는 업계 2위에 해당하는 빗썸도 업비트만큼은 아니지만 지난 1년간 3배 더 많은 설치자를 확보했다. 암호화폐 거래소 앱 외에 다른 앱들의 성장률도 높게 나타났다. 콘텐츠 산업이 발전함에 따라 전자책 시장의 일인자 리디북스는 지난해에 비해 두 배에 가까운 성장률을 보였다. 앱 출시 이후 매년 꾸준한 성장세를 보여온 마켓컬리, 오늘의집, 당근마켓도 작년 1년간 27%~35%대의 성장률을 기록했다. 한편, 직방의 설치기기수 증가율은 5%에 그쳤는데, 이는 부동산 관련 모바일 앱을 사용하는 대부분의 사람들이 이미 직방을 설치했다는 점, 그리고 작년 한 해 동안 부동산 시장이 위축되며 신규 사용자의 유입이 적었다는 점이 반영된 것으로 보인다. 앞서 살펴본 신규 유니콘 기업 7개사 외에도 국내 18개의 유니콘 기업에서는 모바일 앱을 적극적으로 운영하고 있다. 비바리퍼블리카는 간편 송금 서비스, 인터넷뱅킹, 주식 투자 등 모든 은행 업무가 가능한 ‘토스’ 앱을 통해 현재 가장 주목받는 핀테크 스타트업 중 하나로 자리매김했다. 국내 차량 공유 시장의 1위 쏘카 역시 모바일 앱을 통해 근처의 차량을 찾고, 마음에 드는 차량을 예약하고, 차량의 문을 열거나 차를 반납하는 등 대부분의 기능을 이용할 수 있다. 위메프, 티몬, 무신사 등 전자상거래 유니콘 기업 역시 마찬가지다. 자사의 앱을 고도화하며 모바일 쇼핑 인구를 적극적으로 유치하고 있다. 이제 기업을 운영함에 있어 모바일 앱은 선택이 아닌 필수인 시대가 다가왔다고 보아도 과언이 아니다. 특히 소규모 자본으로 시작하는 IT 스타트업은 모바일 앱 시장에 성공적으로 안착하는 것이 생존과 성장의 관건이라 할 수 있다. [TDI는 국내 안드로이드 스마트폰 사용자 기준으로 작성합니다.][TDI 차주헌 매니저 jhcha@tdi9.com]Copyright ⓒ TDI. All rights reserved. 무단전재 및 재배포 금지</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>2022.03.28.</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>종지사·외부청산에 막힌 '제2의 머지포인트' 사태 방지책들</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004725320?sid=101</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>[편집자주] 지금까지 정부에서 금융은 소외됐다. 금융도 하나의 산업이다. 혁신이 중요하다. 규제를 완화해야 한다. 전자금융거래법 개정안은 새 정부의 금융'산업' 정책을 엿볼 수 있는 바로미터다. 새 정부 역시 전금법 개정의 필요성을 느끼고 업그레이드를 준비하고 있다. 새 정부의 전금법 개정안을 들여다봤다.[[MT리포트-윤석열 정부 금융정책 바로미터 '전금법 개정안']]지난해 8월13일 서울 영등포구에 위치한 '머지포인트' 운영사 머지플러스 본사를 찾은 가입자들이 포인트 환불을 요구하며 항의하고 있다. 사진=뉴스1.'종합지급결제업' 논란과 '빅테크 내부거래에 대한 외부청산 의무화'라는 벽이 전자금융거래법 개정안의 다른 이슈까지 틀어막아버렸다. 갈수록 진화를 거듭하고 대형화되고 있는 온라인 금융 플랫폼을 점검하는 방안 뿐 아니라 필요하면 적시에 규제할 수 있는 방안이 함께 발이 묶여 있다. 특히 '머지포인트' 사태는 법의 사각지대를 그대로 보여줬다.  논란이 많은 종지업과 외부청산은 장기과제로 돌리고 당장 필요한 내용을 우선 떼어 낸 '핀포인트' 개정을 국회와 정부가 머리를 맞대고 고민해 해 봐야한다는 주장이 설득력을 얻는 이유다. ━제2 '머지포인트' 사태 없어야…외부신탁 의무 법제화 필요━종지업과 외부청산 이슈에 막혀 나아가지 못하는 전급법 개정의 대표적인 예가 빅테크(IT대기업) 등 선불충전사업자들에 맡긴 고객 돈의 외부신탁 의무 법제화다. 선불충전금은 간편결제·송금 서비스를 이용하기 위해 고객들이 미리 플랫폼에 넣어둔 금액이다. 금융권에서는 은행 예금과 같은 성격이라는 점에서 건전성과 운용에 대한 규제의 필요성을 제기해 왔다. 카카오페이, 네이버파이낸셜, 토스 등을 포함해 상위 4개사의 선불충전금 잔액 규모만 지난해 말 1조원을 넘겼고, 지난해 상반기 기준 선불충전금 하루 평균 이용 금액만 6247억원이다. 현재는 행정지도 수준의 '전자금융업자의 이용자금 보호 가이드라인'으로 관리된다. 선불충전금을 은행 등 외부기관에 신탁하거나 지급보증보험에 가입하도록 하는 내용이 담겨있다. 분기마다 잔액도 공시해야 한다. 그러나 말 그대로 가이드라인일 뿐 강제성이 없다. 이를 법적으로 명시화하는 내용이 전금법 개정안에 들어가 있지만 개정안은 국회 문턱을 넘지 못했다. 그 사이 '머지포인트' 사태가 터졌고 고객이 맡긴 돈은 법적인 보호를 받지 못하는 등 큰 혼란이 야기됐다. ━소비자 보호 강화 위해 전자금융업 등록제→허가제━소비자 보호를 위해 등록제인 전자금융업을 허가제로 바꿔야 한다는 의견도 나온다. 빅테크 선불충전 하루 평균 결제 금액이 수천억원인 상황을 감안해 대주주 적격성이나 사업계획 타당성 등을 더 꼼꼼히 따져봐야 할 필요가 있다는 주장이다. 전자금융업자도 규모가 커지면 '금산분리' 원칙을 적용해야 한다는 입장도 있다. 일반 서비스업이나 제조업 기업이 사실상 금융회사인 전자금융업자를 겸영하거나 자회사로 두는 경우 소비자 피해로 이어질 수 있다는 우려 때문이다. 이 외에도 선불충전금 외부예치 금액을 예금보험에 포함시켜야 한다는 의견도 거론된다. 금융권 한 관계자는 "모든 걸 한 번에 바꾸려는 사실상의 전금법 전면 개정안에 막혀 정작 업계가 절실히 필요로 하는 법 개정 내용들이 발의 시도 조차 되고 있지 않다"며 "종지사 도입이나 외부청산 의무화 문제 등 논란이 있는 내용은 장기과제로 미루고 소비자 보호와 산업 발전을 요하는 법안들을 하나하나 개정해 나가는 게 더 효과적"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>2022.03.29.</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>"시중銀 외면 개인사업자대출 확대…토뱅, 대출 플랫폼과도 손잡을것"</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004035638?sid=101</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>정희원 토스뱅크 기업여신본부 PO'사장님대출' 출시 하자마자 큰 호응하반기에는 보증부 대출 선뵐 계획정희원 토스뱅크 PO가 최근 서울 강남 토스뱅크 사무실에서 개인사업자 대출인 ‘토스뱅크 사장님대출’에 대해 설명하고 있다. 사진 제공=토스뱅크[서울경제] “한두 달 안에 대출 비교 플랫폼과 제휴를 맺어 토스 애플리케이션에 들어오지 않아도 ‘토스뱅크 사장님대출’의 금리·한도를 조회할 수 있도록 하려고 합니다.”정희원 토스뱅크 기업여신본부 PO(Product Owner)는 최근 서울 강남 토스뱅크 사무실에서 서울경제와 만나 ‘사장님대출’의 향후 계획에 대해 이같이 말했다. 사장님대출은 토스뱅크가 인터넷전문은행 중 처음으로 선보인 개인사업자 대출이다.사실 개인사업자 대출은 기존 은행들조차 판매에 소극적인 상품이다. 매출 파악이 어렵고 부실률도 높은 탓이다. 최근에는 리스크가 더 커졌다. 코로나19로 영업이 제한되고 기존 대출의 만기연장·상환유예가 늘어 부실률을 확인할 지표가 없기 때문이다. 하지만 정 PO는 “그간 코로나19의 어려움을 다 극복한 사업자들이 사업을 팽창할 수 있는 시기라는 점에서 지금이 개인사업자 대출의 적기”며 “시중은행처럼 현장 조사를 할 수는 없지만 마이데이터를 통해 비대면으로도 가능하다”고 언급했다.보증부 대출 형식을 사용하지 않는 것도 비슷한 이유다. 보증기관과 함께 개인사업자 대출을 취급하면 한도가 3000만 원으로 제한되고 보증기관이 요구하는 사후 관리 프로세스를 비대면으로 구축하는 데 시간·비용이 더 들기 때문이다. 그는 “300만 원 이하의 소액 한도 대출도 해봤는데 수요가 생각만큼 많지 않았다”며 “충분한 자금이 공급되도록 최대 1억 원 한도의 사장님대출에 먼저 집중하고 하반기에 보증부 대출을 출시할 계획”이라고 설명했다.토스뱅크는 개인사업자 대출을 신규 고객 확보의 기회로 보고 있다. 대출 신청 고객 연령대는 40대가 전체 40%를 넘어 가장 많았는데 기존 토스 앱의 사용자 중에서는 30대가 가장 많았다. 고객 연령대가 넓혀진 셈이다. 아울러 중·저신용자의 신청 비중도 40%에 육박했다. 다만 앞으로 금리·한도조회, 대출 신청, 취급까지 이어지게 하는 것은 숙제다. 정 PO는 “개인사업자들이 캐피털과 카드론을 많이 쓰는데 사장님대출로 갈아타면 신용등급도 좋아지고 금리도 더 떨어진다”며 “다양한 고객이 들어와야 신용 평가 모형을 발전시켜 상환 능력을 정확히 심사할 수 있는데 올해 개입사업자 대출에서 성공적인 발판을 마련하는 게 목표”라고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>2022.03.28.</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>MBN[토요포커스] 이근주 한국핀테크산업협회장 “디지털 금융 혁신의 디딤돌이 되다”</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/057/0001652106?sid=101</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>- 핀테크, 온라인 플랫폼으로 다양한 금융 서비스 제공…편리한 서비스로 젊은 세대에게 각광받아- 지난해, 간편 결제 이용금액 일 평균 약 5,600억…사상 최대치 기록해- 핀테크 유니콘 기업으로 ‘토스’ 등재해…핀테크 생태계 순위는 8계단 하락- 마이데이터 서비스, 금융 규제로 활성화 늦어져…소비자 보호 방안 마련해 디지털 금융 혁신 이끌 것방송보기 링크 : https:youtu.be/2hjMAwynwT4 ■ 방송일시 : 2022년 3월 26일 (토요일 / 05:40 ~ 06:20)■ 진 행 : 박대일 산업부장 / 정아영 아나운서■ 출연자 : 이근주 한국핀테크산업협회장* 아래 텍스트는 실제 방송 내용과 차이가 있을 수 있으니 보다 정확한 내용은 방송으로 확인하시기 바랍니다.◇ 박대일: 이제는 휴대폰 메신저로 돈을 보내거나 각종 결제를 하는 게 일상이 됐습니다. 하지만 국내 핀테크 산업은 여러 가지 규제 때문에 세계적인 기업으로 뻗어나가지 못하고 있습니다. ◇ 정아영: 그래서 오늘은 국내 핀테크 업계의 입장을 대변하는 곳, 한국핀테크산업협회 이근주 협회장님을 모셨습니다. 어서 오세요. ◆ 이근주: 안녕하세요. ◇ 박대일: 대통령 당선인께서 금융 선진화 공약을 내놨어요. 그래서 핀테크 산업 관련 업계도 정책 변화에 대해서 상당히 주시하고 있을 텐데요. 일단 저희에게 핀테크라는 용어가 아직도 생소한 분이 계실 것 같습니다. 설명 부탁드리겠습니다. ◆ 이근주: 핀테크는 말 그대로 파이낸스와 테크놀로지의 합성어입니다. IT 기반의 금융 혁신 서비스를 내놓고 있는 기업들, 그리고 그 산업을 핀테크라고 말할 수가 있습니다. 스마트폰이 확산되면서 아주 편안하게 인터넷을 접속할 수 있는 상황이 되었죠. 그런 상황에서 금융 서비스를 아주 간편하게 제공할 수 있는 환경 조성이 되다 보니까 혁신적인 IT 기업들이 많은 핀테크 서비스를 내놓고 있습니다. 대표적인 사례로 우리가 이제 흔히 토스라고 이야기하는데 많이 들어보셨을 겁니다. 간편 송금 서비스가 대표적인 핀테크 서비스로 등장을 했고요. 간편 결제, 스마트폰을 들고 간단한 지문 인증이나 비밀번호만 입력을 해도 번거롭지 않게 물품을 구매할 수 있습니다. 그런 서비스도 상당히 크게 확산이 되고 있는 분위기고요. 로보어드바이저라고 해서 로봇이 자산 관리를 해 줍니다. 금융 투자 부분의 서비스가 또 크게 확산이 되어 있습니다. P2P 대출이라고 은행과 같은 중개 사업자가 개입을 하지 않고 개인 대 개인이 플랫폼 하에서 자금 조달과 운용을 할 수 있는 서비스도 있고요. 크라우드 펀딩과 소액 해외 송금 등 상당히 다양한 금융 서비스가 기존 금융사에서 제공해 오던 서비스들을 언번들링을 시켜서 시장에 내놓고 있습니다. 그런 것들을 핀테크라고 이야기할 수 있고요. 상당히 편리하고 저렴한 서비스로 젊은 세대들한테 각광을 받고 있는 상황이라고 할 수 있겠습니다. ◇ 정아영: 협회장님께서 계시는 한국핀테크산업협회가 어떤 일을 하는지에 대해서도 우리 시청자 여러분께 소개 말씀 부탁드릴게요. ◆ 이근주: 현재 한 350개의 회원사가 모여 있는 우리나라에서 가장 큰 핀테크 네트워크 조직이고요. 핀테크 업계는 금융 서비스를 제공하다 보니까 규제 부분 때문에 큰 애로를 겪고 있습니다. 그런 이해관계를 대변하기 위해서 만들어진 협회인데요. 초기에 108개 정도의 기업들이 모여서 협회를 설립을 했는데 현재 350개가 되었습니다. 상당히 성장세가 크다고 볼 수 있습니다. ◇ 박대일: 국내에도 핀테크 기업이 그야말로 우후죽순으로 많이생겨나고 있어요. 그렇다면 국내 핀테크 산업의 현황은 어떻고 또 세계 시장과 비교하면 어떤가요? ◆ 이근주: 국내 핀테크 기업은 한 350개가 회원사로 활동을 하고 있기 때문에 개수로 따지면 그 정도라고 이야기 드릴 수가 있겠는데요. 실제 핀테크 육성 기관들과 접촉한 기업을 한번 조사를 해 봤더니 한 600여 개가 됩니다. 상당히 잠재력이 큰 시장이라고 말씀을 드릴 수가 있습니다. 지금 간편 결제 서비스의 경우는 작년에 일 평균 5,590억 정도의 규모가 결제가 되었습니다. 사상 최대치를 보이고 있는데요. 간편 송금도 하루에 평균 이용 금액이 4,819억 수준입니다. 급속한 성장세를 보이고 있습니다. 저희 협회는 처음 창립 당시에는 108개 기업이 참여를 했었는데요. 현재는 350개고요. 아까 말씀드린 대로 핀테크 기업이 한 600여 개라고 하니까 아직도 협회 활동을 안 하면서 핀테크 서비스를 내놓고 있는 기업이 한 200여 개 이상 된다고 볼 수 있겠습니다. 세계적으로는 98개 정도의 핀테크 유니콘 기업이 조사가 되었습니다. 우리나라는 토스 1개 사가 유니콘으로 등재가 되어 있는데요. 아직도 우리나라는 성장을 많이 해야 되는 상황이라고 말씀을 드릴 수가 있겠습니다. 아마도 이런 내용이 반영되어서 그런지 글로벌리서치사의 조사에 의하면 작년도 우리나라 핀테크의 등급은 26위였는데요. 직전 연도보다 한 8단계가 하락된 상황을 보이고 있습니다. ◇ 정아영: 지금 회장님께서 말씀을 해 주신 대로 내부 시장은 커지는데 세계 시장에서 우리 국가 순위가 떨어지는 것에 대해서는 그 이유가 분명히 복합적으로 존재를 할 것 같습니다. 협회장님께서는 어떻게 보고 계시는지요?◆ 이근주: 저희가 바라보는 것은 한 세 가지 정도로 분석을 하고 있는데요. 첫째는 규제의 불확실성이라고 말씀드릴 수 있겠습니다. IT 인력 부족 부분도 그 원인이라고 할 수 있겠고요. 핀테크 산업에 대한 소극적 투자도 주원인이라고 분석을 하고 있습니다. 먼저 규제의 불확실성을 보면 정부와 당국에서 디지털 금융 혁신을 위한 노력을 상당히 기울이고 있습니다마는 금융 산업 자체가 규제 산업이다 보니까 핀테크 기업들한테는 상당히 어렵게 넘어야 될 장애로 인식이 되어 있습니다. 정부가 지속적인 노력을 기울이고 있기 때문에 아마도 그 부분은 시간에 따라서 다 해결이 되지 않을까 하는 생각을 하고 있고요. IT 인력 부족 부분은 전 산업이 다 그렇지만 최근에 디지털 전환이 전 사회적으로 확산이 되고 있는 추세이기 때문에 디지털 인력이 상당히 부족합니다. 그런데 학교에서는 컴퓨터공학과의 학생 정원 수가 아직도 확대되지 않고 정체되어 있는 부분이 앞으로도 저희가 해결해 나가야 할 요소로 볼 수 있겠습니다. 투자 부분은 금융사가 핀테크 기업에 투자를 할 수 있는 환경이 조성되어 있지가 않습니다. 그런 부분들이 해소가 되면 투자도 활성화되지 않을까 하는 생각을 하고 있습니다. ◇ 박대일: 새로운 산업이 등장을 할 때마다 어김없이 규제가 등장하지 않습니까? 소비자 보호를 위해서 그렇게 한다고는 생각이 되는데요. 핀테크 기업과 협회 측의 입장에서는 규제가 좀 지나치다는 부분도 좀 있을 것 같아요. 대표적으로 어떤 게 좀 그렇습니까? ◆ 이근주: 상당수 많습니다마는 현재 저희가 조속하게 풀어야 된다고 하는 과제가 세 가지로 정리가 되어 있는데요. 전자금융거래법 개정안이 만들어졌는데 한 1년간 지금 답보 상태에 있습니다. 전자금융거래법의 조속한 통과가 이제 시급하고요. 금년에 마이데이터 서비스가 출시되어서 산업화되어 가고 있는 추세입니다. 전 국민의 내 손안의 금융 비서라는 아주 큰 슬로건을 담고서 시작이 되었던 서비스인데요. 금융소비자보호법이라든가 여러 가지의 규제 이슈 때문에 활성화가 안 되고 있습니다. 그리고 망 분리 규제가 현재 핀테크 기업뿐만이 아니고 많은 스타트업들이 애로를 겪고 있는 분야입니다. 전산 개발자도 내부망과 외부망을 분리한 환경 하에서 일을 해야 되는 상황이라서 생산성이 상당히 낮습니다. 그런 부분들이 해소가 되면 핀테크 산업도 성장세가 오르지 않을까 하는 기대를 하고 있습니다. ◇ 박대일: 지금 답보 상태에 있다고 하신 전자금융거래법 개정안이 법이라 좀 생소한데요. 주로 개정안의 주요 골자는 무엇이고 협회에서는 또 이걸 어떻게 접근하고 계십니까? ◆ 이근주: 전자금융거래법은 핀테크, 즉 디지털금융의 기본법이라고 할 수 있습니다. 전자금융거래법의 개정안에는 규율 체계를 좀 변경하는 내용이 들어가 있고요. 보다 구체적으로는 마이페이먼트라고 해서 지급 지시 전달업이라는 새로운 라이선스가 등장을 했습니다. 종합 지급 결제 사업자라는 부분도 있고요. 이런 부분들은 스몰 라이선스와 관련된 것이기 때문에 핀테크 기업들에게는 당장 해결이 되었으면 하는 바람을 주고 있는 부분이고요. 또 대금 결제 사업자에 대한 후불 결제 기능이 있습니다. 지금은 신용카드를 통해서 외상 구매가 가능하지만 간편 결제 사업자들도 후불 서비스를 제공해서 소액으로도 외상 구매를 할 수 있는 규정도 들어가 있고요. 전자금융거래 청산 제도를 만들어서 별도로 관리해야 한다는 내용도 담겨 있습니다. 이용자 예탁금 보호도 들어가 있고요. 이 부분은 간단하게 요약을 해서 말씀을 드리면 혁신적인 핀테크 기업들이 전자금융업에 진입하는 장벽을 낮추어서 소비자 보호와 활성화 부분을 진작시키면서 금융을 혁신하겠다는 내용이라고 말씀드릴 수가 있겠습니다. 이 부분이 아직 답보 상태에 있는데 저희가 정부와 국회에 지속적으로 전달하면서 빠른 통과가 되기를 요청을 드리는 상황입니다. ◇ 정아영: 지금까지 이제 업계의 입장을 대변해 주셨습니다마는 일각에서는 이런 반론도 나옵니다. 핀테크 업계가 금융계와 동일하게 업무와 어떤 권한을 가지고 있는데요. 규제 부분에서는 좀 자유롭다, 그래서 지금 적절한 규제가 필요하다는 목소리도 나오는데요. 이 부분에 대해서는 어떻게 생각하고 계시는지요?◆ 이근주: 동일 기능, 동일 규제 부분을 말씀하는 것인데요. 동일 기능에는 동일한 규제가 적용되어야 한다는 것이 최근 전통 금융사들의 입장에서 나온 이야기라고 할 수 있겠습니다. 핀테크는 IT 기반의 혁신 기술을 적용해서 질적으로 다른 서비스를 제공합니다. 동일 기능이라고 부르기엔 좀 적절치가 않고요. 동일 라이선스, 동일 규제라는 이야기로 전환해서 말한다면 적절할 수 있겠습니다. 이 서비스 제공의 기능 측면이 아니고 서비스의 수혜자와 서비스의 폭이 다르기 때문에 이런 질적 차이에 대한 인식에서부터 시작을 해서 이게 동일 기능, 동일 규제보다는 동일 라이선스, 동일 규제가 더 정확한 표현이라고 할 수 있습니다. 그렇기 때문에 그런 관점에서 규제를 바라봐 주는 게 맞지 않나 생각을 합니다. ◇ 정아영: 이 업계에 대한 어려움도 있고요. 또 핀테크 시장에 대한 어떤 견제의 움직임도 있을 겁니다. 그래서 협회의 노력으로 해결하기 어려운 부분도 있을 텐데요. 이런 부분에 대해서는 정부의 중재가 있으면 좋을 거라는 입장도 있을 것 같아요. 어떤 내용들이 좀 있을까요?◆ 이근주: 저희는 공정한 핀테크 생태계 조성에 좀 노력을 해 주셨으면 하는 바람이 있는데요. 금융 산업도 혁신을 추구해야 합니다. 혁신은 경쟁에서 나오는 것인데요. 경쟁은 진입 장벽을 낮춤으로써 구성이 될 수가 있겠죠. 타 산업들 역시 다 그런 형태로 해서 성장해 나가는데요. 금융 산업은 유독 규제 산업이기 때문에 진입장벽이 높은 어려움이 있습니다. 젊고 아주 유능한 핀테크 기업인들이 이 창업을 활성화시켜서 금융을 혁신하고 그런 금융 혁신의 결과는 오롯이 우리 국민들이 가져가는 것이기 때문에 그런 환경을 주시는 게 정부의 역할이 아닌가 하고 생각을 합니다. ◇ 박대일: 아까 토스 이야기가 나왔는데 국내에서도 제2, 제3의 토스가 나와야 하지 않겠습니까? 그렇다면 협회에서는 중장기 목표를 어디에 두고 계십니까? ◆ 이근주: 토스와 같은 또 다른 유니콘 기업이 나와야 되겠죠. 토스는 다시 또 데카콘 규모로 성장을 해야 될 것이라고 생각을 합니다. 중소 핀테크사들, 그리고 스타트업들도 규모 확대 지원 체계를 통해서 토스와 같은 규모로 성장을 해야 되겠는데요. 저희는 대관 역량도 다소 상대적으로 좀 열려 있고 인력 부분도 역시 열려 있는 핀테크 스타트업들이 많습니다. 이제 그런 부분들을 협회 차원에서 인력 양성도 지원하고 규제나 대관 부분에서의 컨설팅 지원을 통해서 기업의 역량을 증대시키는 것이 저희의 목적이고 그런 사업들을 지속적으로 추진하고 있습니다. ◇ 박대일: 국내 핀테크 산업이 세계 시장에서 경쟁하려면 금융 거래의 안전을 강화하고 다양한 서비스를 개발해 나가야 할 것으로 보입니다. 그래서 한국핀테크산업협회의 역할이 기대됩니다. ◇ 정아영: 오늘 말씀은 여기까지 듣도록 하겠습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>2022.03.17.</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>토스증권, 4월 실시간 해외 소수점거래 개시</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011067329?sid=101</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스] 이정필 기자 = 토스증권은 4월 국내 증권사 중 처음으로 실시간 해외 소수점 거래 서비스를 시작한다고 17일 밝혔다.회사에 따르면 해외 소수점 거래 서비스는 토스증권에서 제공하는 2700여개의 미국 주식과 상장지수펀드(ETF)와 상장지수증권(ETN) 등을 대상으로 한다. 1000원부터 투자금액을 입력해 구매할 수 있다. 아마존, 구글(알파벳) 등 1주당 가격이 높은 주식들에 소액 분산투자가 가능해져 투자 접근성이 확대될 전망이다.토스증권의 해외 소수점 거래 서비스는 고객의 주문 시점의 가격으로 즉시 체결되는 것이 특징이다. 투자자들은 1주 단위로 주식을 거래할 때와 동일하게 실시간으로 소수점 주식을 사고 팔 수 있다. 이는 국내 증권사 중 처음 선보이는 방식이란 설명이다.소수점 주문은 시장가 거래만 가능하다. 지정가 주문은 제공되지 않는다. 소수점 거래는 1주 미만의 주식을 소수 단위로 매매할 수 있는 서비스다. 지금까지 해외 소수점 거래는 증권사가 일정 주기로 고객들의 소수점 주문을 모으고, 이를 온주(1주)로 만들어 매매하는 구조로 진행돼 왔다. 투자자들은 주문 시점에 실제로 체결될 주식 수량과 가격을 예상할 수 없고, 시장이 급변하는 상황에 빠르게 대응할 수 없는 불편을 겪어왔다.토스증권은 지난해 12월 해외주식 서비스를 시작하고 3개월 만에 100만명 이상의 투자자를 모으며 빠르게 성장하고 있다.토스증권 관계자는 "기존 해외 소수점 거래의 구조적인 문제와 고객 불편을 해소하면서 투자자들에게 가장 빠른 소수점 거래 서비스를 선보일 수 있게 됐다"며 "해외 소수점 투자로 더 많은 투자자들이 미국의 우량 주식을 손쉽게 경험하고 해외투자가 대중화될 수 있기를 기대한다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>2022.03.19.</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>토스뱅크, 매일 이자 줘도 괜찮나요 [발칙한 금융]</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004031499?sid=101</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>서비스 시작 이틀만 지급한 이자 66억매년 이자 지급 대비 비용 부담 안 커MAU 넘어 DAU 높이기 전략 효과 주목[서울경제] “매일 이자를 주는 게 가능한 구조인가요? 고객 입장에서는 원금 커지고 이자를 더 받아 좋은데 은행 입장에서는 엄청난 지출 아닌가요?”토스뱅크의 매일 이자를 지급해주는 서비스를 두고 금융소비자의 관심이 높다. 서비스 시작한 지 이틀 만에 지급한 이자만 66억 원이 넘을 정도다. 일 년에 한 번 이자를 지급한 데서 매일 이자를 줌에 따른 은행의 부담이 커질 것 같지만 정작 비용도 크게 증가하지 않는 것으로 분석된다. 적은 비용으로 모바일 애플리케이션에 접속하는 이용자를 늘려 ‘똑똑한 한 수’라는 지적이 나온다.19일 금융권에 따르면 토스뱅크의 ‘지금 이자 받기’ 서비스를 두고 은행권에서 마케팅 효과에 주목하고 있다. 은행권의 한 관계자는 “확실히 고객의 눈길을 사로잡는 데 성공한 것 같다”며 “이자를 받기 위해 매일 앱에 들어가는 고객이 얼마나 지속적으로 많을지 궁금하다”고 말했다. 앞서 토스뱅크는 지난 16일 은행권에서 처음으로 고객이 원할 경우 매일 한 번 즉시 이자를 받을 수 있는 서비스를 선보였다. 토스뱅크 통장을 보유한 고객이라면 누구나 ‘지금 이자 받기’ 버튼을 눌러 이자를 받을 수 있고 이자를 받은 고객은 언제든지 출금할 수 있다. 이자는 최소 1원 이상일 경우에 받을 수 있다.서비스 출시 후 시장의 관심은 높다. 지난 18일 오전 9시까지 고객들이 받아간 이자 금액이 총 66억5576만 원에 달한다. 고객 41만여 명이 서비스를 이용했고 평균 이자 수령 금액만 약 1만6200원으로 집계됐다. 상당수의 고객이 서비스에 호응한 데는 토스뱅크가 ‘일 복리’ 구조로 이자를 지급해주기 때문이다. 일 복리 구조란 원금에 대해서만 이자가 붙는 게 아니라 원금과 이자를 합산해 남은 잔액을 기준으로 매일 이자가 붙는 것을 의미한다. 돈을 많이 보관할수록, 이자를 매일 받을수록 고객에게 유리하다.매일 이자를 지급한 데 따른 비용 부담은 적은 편이다. 가령 5000만 원을 토스뱅크통장에 예치해 연 2% 금리로 매일 이자를 받을 경우 일년 간 받는 이자는 총 85만6287원이다. 타행에 같은 금리로 일 년간 정기예금에 가입한 뒤 만기 때 받는 이자가 84만6000원이다. 토스뱅크에서 매달 1회 이자를 지급하는 기존 방식으로는 이자가 85만390원에 이른다. 매일 이자 지급이 당행의 기존 서비스보다 5897원, 타행보다 1만287원 많은 셈이다. 토스뱅크에서 비용 부담은 크지 않다고 설명한 것도 이 때문이다.금융권에서는 비용적 측면보다 마케팅 측면에 더 주목하고 있다. 매일 토스뱅크 앱에 접속해 이자 지급을 클릭하게 함으로써 월평균 이용자(MAU)를 넘어 일일 활성 사용자(DAU)를 높이는 효과를 가지기 때문이다. 모바일인덱스에 따르면 지난해 말 기준 토스의 MAU는 1397만4762명으로 카카오뱅크(1317만154명)보다 높다. 토스는 한 앱에 은행, 증권, 보험 등 금융 관련 서비스를 모두 제공하고 있다. 은행권의 관계자는 “적은 비용으로 혁신 이미지까지 얻을 수 있어 토스가 머리를 잘 썼다”면서 “이제 영업한 지 얼마 되지 않은 토스뱅크가 매일 이자를 지급함으로써 유동성 관리를 잘할 수 있을지는 관건”이라고 언급했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>2022.03.28.</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>홈택스·정부24 접속할때 하나은행·드림인증도 인증 가능</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0005993524?sid=102</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>공공누리집 민간 간편인증, 지난해 7종서 올해 11종으로행정안전부 청사 전경. © News1(서울=뉴스1) 이밝음 기자 = 행정안전부는 공공 누리집의 민간 간편인증에 하나은행과 드림인증 인증서를 추가한다고 28일 밝혔다. 민간 간편인증은 지난해 카카오, KB국민은행, 네이버, 삼성패스, 신한은행, 통신사패스, 페이코 7종에서 올해 토스, 뱅크샐러드, 하나은행, 드림인증 등 11종으로 늘었다.행안부는 2020년 말 공인인증서 제도 폐지 이후 민간 간편인증 확산을 중점 추진하고 있다고 강조했다. 지난해 홈택스, 정부24, 국민비서 등 55개 공공 누리집에 민간 간편인증을 적용했고, 올해는 110개 이상 공공 누리집으로 간편인증을 확대한다.하반기에는 현재 시범발급 중인 모바일 운전면허증으로도 정부24 등 공공 누리집을 이용할 수 있게 된다.이상민 행안부 디지털안전정책과장은 "디지털정부서비스를 편리하고 안전하게 이용할 수 있도록 공공분야 간편인증 확산 속도를 높여 나가겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>2022.03.24.</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>이원덕 우리은행장 취임…"기술·플랫폼에 모든 역량 집중"</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013070724?sid=101</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>취임사 하는 이원덕 신임 우리은행장(서울=연합뉴스) 이원덕 우리은행 신임 은행장이 24일 서울 중구 본점에서 취임사를 하고 있다. 2022.3.24     [우리은행 제공. 재판매 및 DB 금지] photo@yna.co.kr    (서울=연합뉴스) 김유아 기자 = 우리은행은 24일 정기 주주총회를 열고 이원덕 신임 우리은행장의 취임을 확정했다고 밝혔다.     이 행장의 임기는 2년이다.    이 행장은 1962년생으로 1990년 우리은행에 입사한 뒤 전략기획팀 수석부부장, 우리은행 미래전략부장(영업본부장), 미래전략단장(상무), 우리금융지주 전략부문 부사장, 수석 부사장 등을 역임했다.    이 행장은 중구 본점에서 열린 취임식에서 "4차 산업혁명의 본질은 경계의 붕괴다. 보호 산업이었던 금융의 경계도 허물어지고 있다"라며 "지급결제 업무만 보더라도 네이버페이, 토스, 삼성페이가 우리를 훨씬 앞질러 가고 있다"라고 말했다.    그는 "우리는 이러한 변화에 한발 먼저 나아가야 한다"라며 "기존 은행뿐만 아니라 거대 플랫폼, IT기업들과 경쟁하기 위해 테크놀로지와 플랫폼에 모든 역량과 자원을 집중하겠다"라고 밝혔다.    이어 고객, 시장, 직원을 3대 경영 키워드로 언급하면서 "고객의, 고객에 의한, 고객을 위한 우리은행이 돼야 한다"고 경영 포부를 전했다.    이 행장은 취임식 직후 첫 행보로 서울 우리은행 수유동금융센터 등을 찾아 현장 의견을 들었다.    신임 행장을 맞이한 우리은행은 본부 지원조직을 축소하는 대신 영업 총괄 및 외환 등 현장 영업 담당 등 영업 부문 조직을 강화할 예정이다.    kua@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>2022.03.22.</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>토스, 등·초본 신청 '토스 주민센터' 모바일 웹·PC로 확장</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003005059?sid=101</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>토스를 서비스하는 비바리퍼블리카(대표 이승건)는 '토스 주민센터'를 모바일 웹과 PC에서도 사용할 수 있도록 웹 홈페이지(paper.toss.im)를 개설했다고 22일 밝혔다. 사용빈도가 높은 4종의 전자증명서를 바로 신청할 수 있다.주민등록등본 발급이 필요한 경우 토스 주민센터 홈페이지에 접속해 시·도, 시·군·구 정보만 선택하면 QR코드가 생성된다. 화면상의 QR코드를 휴대폰 카메라로 인식하면 토스 앱이 실행되고 등본 발급을 완료할 수 있다. 발급된 증명서는 따로 저장하거나 필요 기관으로 바로 보내면 된다.토스 주민센터는 별도 공동인증서 인증 없이 토스인증서로 사용할 수 있다.토스 앱 내 토스 주민센터에서는 더 다양한 서비스를 경험할 수 있다. 메뉴는 크게 △증명서 떼기 △생활요금·세금 내기 △내 공공 알림으로 구성됐다. 현재 총 61종의 전자증명서를 조회·발급할 수 있다. 통신비와 아파트 관리비 등 생활요금도 결제할 수 있다.박홍비 토스 프로덕트오너는 “토스 앱 하나로 다양한 전자증명서를 발급할 수 있던 기존 서비스에 PC나 모바일 웹에서도 이용할 수 있도록 접근성을 대폭 향상시켰다”며 “더 많은 증명서를 홈페이지에서 신청하고 바로 출력할 수 있는 서비스도 곧 선보이게 될 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2022.03.28.</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>토스증권 "출범 1년만에 420만 고객 유치"</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000662283?sid=101</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>매월 230만명 접속…"실시간 해외 소수점 거래로 성장 동력 이어갈 것"토스증권은 작년 3월 출범 후 1년만에 420만명의 고객과 230만명의 월간활성이용자(MAU)를 확보했다고 28일 밝혔다.회사 측은 "1년만에 420만 고객 확보는 국내 증권업계를 넘어 전세계 금융투자 역사에서도 유래를 찾을 수 없는 기록"이라며 "토스증권은 출범 석 달 만에 350만 신규 계좌가 개설됐는데, 이는 미국의 주식거래 플랫폼 로빈후드가 2년여 만에 달성한 수치"라고 설명했다.토스증권은 출범 1년만에 420만명의 고객과 230만명의 월간활성이용자(MAU)를 확보했다. [사진=토스증권]토스증권의 MAU는 출범 이래 꾸준히 200만명을 상회하며, 월 평균 230만명을 기록하고 있다. 이는 국내 증권사 상위 5개사에 필적하는 수준이다. 출범 당시 밝혔던 MAU 100만명 달성의 목표를 출범 첫 달부터 2배 이상 상회했다.토스증권의 20·30세대 고객은 260만명으로, 전체 고객의 약 65%를 차지한다. 투자자 누구나 쉽고 편리하게 이용할 수 있는 사용자인터페이스(UI)·사용자경험(UX)과 투자자의 시각에서 해석한 맞춤형 서비스들은 MZ세대와 초보 투자자들의 이목을 끌었다.토스증권 관계자는 "토스증권이 말하는 주식투자의 새로운 표준은 투자자의 시각에서 시작해 현재 진행형"이라며 "앞으로 토스증권은 처음 투자를 시작하는 고객과 숙련된 투자경험을 가진 고객 모두가 만족할 수 있는 진정한 의미의 모바일 주식투자의 표준을 보여드리게 될 것"이라 말했다.한편 토스증권은 다음달 업계 최초로 선보이는 '실시간' 해외주식 소수점 거래 서비스를 통해 또 한 번의 혁신으로 성장세를 가속화할 계획이다. 실시간 방식은 주문 즉시 거래가 체결되기 때문에 투자자들은 1주 단위로 거래할 때와 이질감 없는 소수점 거래를 경험할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>2022.03.16.</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>토스뱅크, 하루 한 번씩 이자 지급한다…국내 은행권 최초 시도</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/024/0000073798?sid=101</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>서울 강남구 지식재산센터 내 위치한 토스 뱅크 사무실 모습. (매경 DB)	- 인터넷 전문은행 토스뱅크가 고객들에게 매일 이자를 지급하는 서비스를 시작하며 금융질서 재편에 나선다. 원할 때 이자를 받도록 구축한 것은 국내 은행권 최초다.토스뱅크는 16일 오전부터 고객들이 매일 한 번씩 즉시 이자를 받을 수 있다고 밝혔다. 토스뱅크 통장을 보유한 고객이라면 누구나 ‘지금 이자 받기’ 버튼을 눌러 이자를 받을 수 있고, 이자를 받은 고객일지라도 고객이 원하면 언제든지 출금할 수 있다.토스뱅크 통장은 최대한도 1억원까지 세전 연 2% 이자를 지급하는 수시입출금 통장이다. 1억원을 초과한 금액에 대해서는 0.1% 금리가 적용된다. 토스뱅크는 매일 남은 잔액을 기준으로 이자가 쌓이는 ‘일 복리’ 구조로 고객에게 이자를 제공한다. 이에 따라 돈을 많이 보관할수록, 이자를 매일 받을수록 고객에게 유리하다.1억원을 예치한 고객의 경우 매일 약 5400원(세전 기준) 상당의 이자를 출금할 수 있는 셈이다. 토스뱅크는 이번 서비스를 통해 금융질서를 재편하고, 고객을 확보함으로써 혁신 서비스를 지속해서 제공하겠다는 방침이다.지금까지 소비자들은 대출금의 이자는 하루 단위로 납부해야 하는 것과 달리, 예치금의 경우 은행이 정한 날짜에만 이자를 받을 수 있었다. 이에 따라 급전이 필요해 예·적금 상품을 해지해야 하는 경우에는 ‘중도해지’ 등의 사유로 약정된 금리를 보장받지 못하는 경우가 있었다.토스뱅크 관계자는 “그동안 고객들은 은행이 정한 날짜에 이자를 받는 것만 생각했지, 매일 받을 수 있다는 생각은 할 수 없었다”며 “공급자 중심의 금융을 고객 중심으로 바꿔나가는 계기가 됐으면 한다”고 전했다.‘지금 이자 받기’를 클릭하지 않은 고객은 이전과 동일하게 매월 세 번째 토요일에 쌓인 이자를 일할 계산해 받게 된다. 매월 토스뱅크로부터 받은 이자 내역은 애플리케이션(앱)을 통해 확인 가능하다.토스뱅크는 올해 연말까지 매일 이자를 지급하는 서비스를 운영하며 서비스 안정화 작업을 거친 뒤 이를 상시화할 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>2022.03.16.</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>토스도 후불결제사업 뛰어든다…형평성 논란 속 금융당국은 뒷짐</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000278809?sid=101</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>[앵커] 요즘 인터넷 사업자들을 통해서 후불 결제라는 것 접해보신 분들 있으실 겁니다. 마치 신용카드처럼 소액을 현금 없이 결제하는 건데, 네이버와 카카오에 이어 토스가 이 사업에 뛰어들었습니다. 사업 영역이 겹치는 카드사의 반발도 커지고 있습니다. 윤성훈 기자의 보도입니다. [기자] 토스가 월 30만 원 한도의 후불 결제사업을 이번 달 말부터 선보일 예정입니다. 후불 결제사업은 사용자가 온라인상에서 물건을 미리 사고 나중에 갚도록 하는 서비스입니다. 토스는 우선 일부 가맹점과 사용자를 대상으로 서비스를 제공할 계획입니다. [토스 관계자 : 금융이력부족자, 상환 능력은 있지만 이력이 없는 사용자에게 도움이 되는 서비스를 만들겠다는 포부로…] 네이버파이낸셜과 카카오페이에 이어 토스까지 시장 진출을 예고하면서 카드업계의 반발은 더욱 커지고 있습니다. 후불 결제사업이 사실상 소액 신용카드와 동일한 기능을 하는데도 빅테크업체라는 이유로 카드사들에 적용되는 핵심 규제를 비켜간다고 지적하고 있습니다. 실제 빅테크업체는 수수료 규제를 적용받지 않아 카드사 수수료 상한선보다 1% 포인트 높은 수수료를 받고 있습니다. 반면 빅테크업체들은 후불 결제 서비스가 신사업의 영역이라며 기존 신용카드 영역과 다르다고 맞서고 있습니다. 이런 첨예한 대립 상황에서 기준을 제시해야 할 금융당국은 뚜렷한 입장도 내놓지 못하고 있습니다. [금융위 관계자 : 전금 업자를 여전법에 포함시켜서 규제를 해야 하는 건지, 어떤 식으로 가져가야 하는 건지는 검토 해봐야 할 것 같아요.] [김상봉 / 한성대 경제학과 교수 : 금융당국이 정리해주지 않으면 할 수가 없죠. 금융당국이 카드 쪽에 풀어주든지, 빅테크한테 규제를 가하든지 양자택일의 상태에 있는 것이죠.] 윤석열 당선인이 빅테크와 카드사의 '동일기능, 동일규제' 원칙 공약을 내건 만큼 어떤 해법을 내놓을 지에 관심이 모아지고 있습니다. SBS Biz 윤성훈입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>2022.03.28.</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>토스증권, 출범 1년 만에 고객 수 420만명 돌파</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000280119?sid=101</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>토스증권은 출범 1년 만에 고객 420만명, 월간 활성 이용자(MAU) 230만명을 확보했다고 오늘(28일) 밝혔습니다.토스증권 관계자는 "출범 석 달 만에 350만 신규 계좌가 개설되었는데, 이는 미국의 주식거래 플랫폼 로빈후드가 2년여 만에 달성한 수치"라며 "2100만 토스 앱 사용자의 호응과 MZ세대 사이에 입소문이 퍼지며 하루 최대 58만여 명이 가입하는 대기록을 세웠다"고 밝혔습니다.토스증권은 MZ세대 투자자 참여로 플랫폼이 성장하고 있다고 강조했습니다. 토스증권의 20∼30대 고객은 260만명으로 전체 고객의 약 65%를 차지합니다.여기에 토스증권이 지난 해 7월 선보인 ‘주식선물하기’ 서비스는 투자자끼리 주식을 주고 받을 수 있는 서비스입니다. 기존 증권사의 '타인계좌주식대체'를 이해하기 쉬운 표현으로 재해석하고 간편하게 서비스를 설계했습니다.토스증권은 다음 달 '실시간 해외주식 소수점거래 서비스'를 선보일 게획입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>2022.03.29.</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>금감원, 토스 수시검사 착수</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000280384?sid=101</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>금융감독원이 토스(비바리퍼블리카)에 대한 수시검사에 착수했습니다.오늘(29일) 금융권에 따르면 금융감독원은 어제(28일) 토스에 대한 수시검사를 위해 인력을 투입했습니다. 토스의 업무 전반을 들여다보고 소비자 보호가 잘 이뤄지고 있는지 등을 검사할 예정입니다.빅테크는 금융회사가 아닌 전자금융업자로 정기검사 대상에 포함되지 않습니다. 이에 금감원은 토스에 대해 정기검사가 아닌 수시검사를 실시하게 된 것입니다.앞서 토스는 본인신용정보관리업(마이데이터) 시범서비스를 제공하며 마이데이터 동의 절차 규정을 따르지 않아 논란이 제기됐습니다. 때문에 이번 수시검사에서 신용정보법 저촉 여부 등도 당국이 들여다볼 것이란 관측이 나옵니다.한편, 금감원은 올해 검사업무 운영계획을 발표하며 빅테크의 금융사업 확대에 따른 소비자 피해 예방에 중점을 둘 것이라고 예고한 바 있습니다. 당시 대형 전자금융업자를 대상으로 현장검사에 나서겠다는 계획을 밝히면서 토스와 네이버파이낸셜, 카카오페이 등이 후보군으로 언급됐습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>2022.03.22.</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>토스뱅크, 출범 첫해 성적표 ‘816억 적자’</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001966902?sid=101</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>대출영업 제한·마케팅 비용 영향카뱅·케뱅 흑전 각각 2, 4년 소요스타트업 출신으로는 처음으로 인터넷전문은행 라이선스를 획득한 토스뱅크가 지난해 800억원대 적자를 기록했다. 4분기에 문을 열어 영업 기간은 짧지만, ‘파격적’이라고 평가받았던 이자 마케팅에 소요된 비용이 적지 않은 영향을 미친 것으로 보인다.22일 금융권에 따르면 토스뱅크는 지난 한 해 816억5300만원 적자를 기록했다. 지난해 10월 출범 후 두 달 동안 영업한 결과다. 먼저 문을 연 인터넷은행들도 첫해는 모두 손실을 냈다. 2017년 4월 출범한 케이뱅크는 그해 837억8716원 순손실을 기록했고, 같은 해 7월 출범한 카카오뱅크는 그해 순손실 1044억9014만원이 발생했다. 각각 영업 약 8개월, 5개월 만에 이같은 손실을 기록한 셈이다. 이후 케이뱅크는 출범 4년 만인 지난해 흑자전환했고, 카카오뱅크는 2년 만에 흑자전환에 성공했다. 토스뱅크 관계자는 “흑자 전환까지 3년 정도 시간을 예상하고 있다”고 설명했다.영업기간으로 봤을 때 토스뱅크 적자 규모는 다른 두 인터넷은행에 비해 상대적으로 큰 편이다. 토스뱅크의 경우 지난해 대출 총량이 5000억원으로 제한돼 열흘 만에 여신 영업을 중단해야 했기 때문이다. 그럼에도 토스뱅크는 입출금통장에 연 2% 이자 지급 정책은 유지했다. 현재는 2% 이자가 1억원 한도까지만 적용되지만 당시는 한도도 무제한이어서 이자 수입은 들어오지 않는데 비용만 지불하는, 즉 손실이 커질 수밖에 없는 구조였다. 출범과 맞물려 토스뱅크가 내놓은 체크카드 역시 파격적인 현금환급을 제공했다. 올해 새로 대출 총량을 부여받은 토스뱅크는 활발한 영업을 이어가고 있는 중이다. 중·저신용자를 타깃으로 한 신용대출을 비롯해, 올해 2월에는 인터넷은행 최초로 개인사업자대출 상품을 선보이기도 했다. 박자연 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>2022.03.23.</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>"한 달 이자 3만원 쏠쏠하네"…'年 2% 금리' 토스통장의 힘</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004677247?sid=101</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>5개월 만에 예금 17조 끌어당긴 토스뱅크205만명 개설, 평균 831만원 맡겨평균 이자 月3만원…자금 몰려수신 규모, 케이뱅크 앞질렀지만여신 2.5조 불과…영업 확대 관건사진=연합뉴스“5개월 된 막내가 다섯 살 맏이보다 키가 커졌다.” 토스뱅크가 5개월 만에 17조원 넘는 돈을 빨아들이며 수신(예금) 규모에서 ‘국내 첫 인터넷전문은행’ 케이뱅크를 추월했다. 다만 여신(대출)과 가입자 규모는 케이뱅크가 월등히 앞서고 있다. 여·수신 성장의 균형을 맞춰가는 것이 토스뱅크의 과제로 떠올랐다.23일 토스뱅크가 공개한 영업 실적에 따르면 지난 21일 기준 가입자 수는 235만2202명으로 집계됐다. 지난해 10월 5일 문을 연 이후 하루 평균 1만4085명꼴로 가입자가 늘었다.‘1억원까지 연 2% 금리’를 내세운 토스뱅크 통장은 205만5255명이 개설했다. 통장 주인은 30대(26.9%)가 가장 많고 20대(24.8%), 40대(24.4%), 50대 이상(17.2%) 등이 뒤를 이었다. 이들은 1인당 평균 831만원을 맡기고 월 3만7200원을 이자로 받았다. 토스뱅크 관계자는 “다른 인터넷은행은 지난해 말 기준 가입자 1인당 평균 잔액이 158만~167만원 수준”이라며 “토스뱅크가 다섯 배 이상 많다”고 설명했다. 토스뱅크는 통장의 83.2%가 1원 이상 잔액이 있는 ‘실사용 계좌’라는 점도 강조했다. 케이뱅크와 카카오뱅크는 2017년 출범 당시 만들어 놓고 쓰진 않는 ‘깡통 계좌’가 많다는 지적을 받았는데, 토스뱅크는 그렇지 않다는 것이다.시중은행의 월급통장, 증권사 위탁계좌 등에 들어 있던 여윳돈이 옮겨오면서 토스뱅크의 수신액은 17조원을 기록했다. 카카오뱅크(32조5000억원)보단 적지만 케이뱅크(11조6900억원)는 크게 앞선다. 하지만 토스뱅크의 여신 공급은 2조5000억원에 그쳐 카카오뱅크(25조9000억원)와 케이뱅크(7조4900억원)에 한참 못 미쳤다. 금융당국의 가계대출 총량규제 여파로 출범 9일 만에 신규 대출을 중단했다가 새해 들어 재개한 영향이다.토스뱅크는 지난해 816억5300만원의 순손실을 냈다. 대출은 묶인 채 예금에 비싼 이자만 얹어주느라 예상보다 큰 적자를 봤다. 카카오뱅크는 2년, 케이뱅크는 4년 만에 연간 흑자 전환에 성공했다. 토스뱅크 통장은 상품 자체만 놓고 보면 팔수록 손해일 가능성이 높지만 토스 쪽 생각은 다르다. 높은 이자만 챙기는 ‘체리피커’가 없진 않겠지만 결국 이용자 상당수가 토스의 카드, 증권, 마이데이터 등 다른 서비스까지 쓰게 될 것이란 계산이다. 토스뱅크는 매일 접속해 버튼을 누르면 매일 이자를 받을 수 있는 ‘지금 이자 받기’ 기능을 지난 16일 선보였다. 일복리 효과가 있다는 점이 주목받으면서 1주일 만에 87만8053명이 이용했다.토스뱅크는 “대출 영업이 안정화하면서 초기 한계를 극복한 만큼 다양한 고객 중심 서비스를 통해 성장을 이어가겠다”고 했다. 이자가 상대적으로 비싼 중저신용자 대출 비중이 30%를 넘었고, 자산운용으로 1.5~2% 수익률을 꾸준히 올리는 등 안정화 궤도에 올랐다는 것이다. 두 차례 유상증자를 거쳐 자본금도 8500억원으로 늘려뒀다.다른 인터넷은행도 주춤했던 대출 영업에 다시 힘을 싣는 분위기다. 케이뱅크는 이날 ‘100% 비대면 전세대출’ 취급액이 출시 6개월 만에 6000억원을 돌파했다고 밝혔다. 케이뱅크의 전세대출은 주말과 공휴일에도 대출금 송금이 가능하다. 별도의 중도상환수수료도 없다. 대출 금리는 연 2.88~4.40%, 청년전세대출 금리는 연 2.48~2.66% 수준이다. 카카오뱅크는 지난해 10월부터 중단한 1주택자 전세보증금 대출을 전날 재개했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>2022.03.24.</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>닥터나우, 누적 이용자 수 300만 돌파</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003005790?sid=102</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>원격의료 플랫폼 닥터나우는 비대면 진료 및 처방약 배송 서비스를 출시한 2020년 12월부터 올해 3월 20일까지 누적 이용자 수가 300만명을 돌파했다고 24일 밝혔다. 3월 주간 활성 이용자 수(WAU)는 100만명을 넘어섰다.닥터나우가 자체 이용 현황을 분석한 결과 서비스 초기에는 트렌드에 민감한 2030 세대의 사용량이 지배적이었으나, 최근에는 40대 이상의 사용량이 늘어 전체 사용자의 30% 비중을 차지하는 등 이용 연령층이 확장되고 있는 것으로 나타났다.닥터나우 이용자 중 가장 어린 나이의 환자는 0세이며 최고령 환자는 101세로, 영유아부터 노년까지 전 생애주기에 걸쳐 비대면 진료를 이용하고 있는 것으로 나타났다. 증상 선택부터 약 배송 신청까지 앱에서 모두 이뤄지는 간편한 사용자환경(UI)과 함께, 2030세대 이용자가 가족의 비대면 진료를 위해 닥터나우의 '가족 대리접수' 기능을 활용한 결과인 것으로 회사는 분석했다.지역적으로도 비대면 진료의 사용량이 고르게 늘어났다. 닥터나우는 전국 700여 개의 제휴 의료기관에서 이비인후과, 소아청소년과, 내과, 피부과 등 19개 진료과목을 운영하고 있어 거주지나 시간에 상관없이 진료를 받을 수 있다. 처방약 배송 역시 서울 및 수도권, 6개 광역시에서 당일 배송이 가능하며 전국 택배 시스템도 갖추고 있다. 서울과 수도권 제외한 지역의 이용 건수는 전년 평균 대비 9배 이상 증가한 것으로 나타났다.장지호 닥터나우 대표는 “토스, 쿠팡 등 서비스 플랫폼이 2030 이용자의 지지로 시작해 현재 전국민 서비스가 된 것처럼 닥터나우의 의료 서비스 역시 빠르게 연령대를 넘어 확장해 나가고 있다”며 “과거에는 경험하지 못한 의료 서비스를 제공하기 위해 앞으로도 서비스 고도화와 인프라 확장에 최선을 다할 것”이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>2022.03.24.</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>이원덕 우리은행장 취임..."IT·플랫폼에 역량 집중"</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002270386?sid=101</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>◆…이원덕 신임 우리은행장이 24일 취임식에서 향후 경영 포부를 밝히고 있다. 사진=우리은행 제공우리은행은 24일 정기 주주총회를 열어 이원덕 신임 행장의 취임을 확정하고 취임식을 가졌다..   이 행장은 중구 본점에서 열린 취임식에서 "4차 산업혁명의 본질은 경계의 붕괴다. 보호 산업이었던 금융의 경계도 허물어지고 있다"며 "지급결제 업무만 보더라도 네이버페이, 토스, 삼성페이가 우리를 훨씬 앞질러 가고 있다"라고 말했다.   그는 "우리는 이러한 변화에 한발 먼저 나아가야 한다"며 "기존 은행뿐만 아니라 거대 플랫폼, IT기업들과 경쟁하기 위해 테크놀로지와 플랫폼에 모든 역량과 자원을 집중하겠다"고 밝혔다.   이어 고객, 시장, 직원을 3대 경영 키워드로 언급하면서 "고객의, 고객에 의한, 고객을 위한 우리은행이 돼야 한다"고 경영 포부를 전했다.   이 행장은 취임식 후 첫 행보로 내점 고객 수가 전국 최상위 지점인 서울 우리은행 수유동금융센터 등을 찾아 현장 의견을 들었다.   신임 행장을 맞이한 우리은행은 비서실 폐지 등 본부 지원조직을 축소하는 대신 영업 총괄 및 외환 등 현장 영업 담당 등 영업 부문 조직을 강화할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>2022.03.28.</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>"우량 스타트업 미리 잡자"···신기술 육성 진심인 보험</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004725008?sid=101</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>임종철 디자이너 /사진=임종철 디자이너유망 스타트업을 발굴하고 지원하려는 보험사들의 시도가 늘고 있다. 새로운 아이디어로 무장된 신기술 제휴·발굴 발판삼아 시장을 넓혀보겠다는 복안이다. 카카오페이나 네이버파이낸셜, 토스 등 빅테크(IT대기업)들의 본격적인 보험산업 진출 전 경쟁력을 갖춰 놓기 위한 포석으로도 분석된다. 28일 보험업계에 따르면, 한화생명은 이번주 우수한 기술력을 갖춘 창업팀과 인재들을 발굴해 성장을 지원하는 내용의 '2022 아이디어톤' 참가자 모집을 시작했다. 이번 행사는 미주지역에서 활동할 팀을 선발한다. 선정된 팀들에게는 총 2억원의 상금이 지급되고 아이디어 개발부터 미국 진출까지 발판을 만들어 준다는 계획이다. 이에 앞서 삼성생명과 삼성화재를 포함한 삼성금융그룹도 지난 13일부터 '스타트업과 함께 금융이 미래를 향해 나아갑니다'라는 슬로건 아래 '삼성금융 오픈 컬래버레이션' 참가자 모집을 하고 있다. 본선에 진출한 스타트업은 3000만원의 지원금을 받게 되며 4개월 간 삼성금융사들과 공동 프로젝트를 추진한다. 10월에 있을 사업모델 발표회를 거쳐 삼성 금융사별로 1팀씩 최우수 스타트업에 선발된다. 삼성금융사들은 사업모델 개발과 함께 인사노무·준법경영 등 스타트업 성장에 필요한 경영 노하우와 성장 멘토링 프로그램도 제공한다.교보생명도 올해 초 중소 핀테크(금융기술기업) 스타트업들의 아이디어와 지식을 공유할 수 있는 '이노스테이지 데모데이'를 열고 헬스케어와 새로운 플랫폼 등의 기술 기업 육성 작업에 돌입했다. 현대해상은 스타트업들과 수시로 제휴를 맺고 소통할 수 있는 공간인 '디지털파트너센터'를 운영하고 있다. 현재 약 40여개 기업들이 디지털파트너로 등록돼 있으며, 현대해상은 이들과 신규상품 개발이나 서비스 제휴 등을 논의 중이다. NH농협손보와 메리츠화재도 스타트업과의 온라인 채널을 통해 수시로 협업을 추진하고 있다. 주요 보험사들이 스타트업 육성에 나서고 있는 건 저성장 국면에 접어든 산업 구조를 깨는 새로운 기회를 외부 수혈을 통해 모색하기 위해서다. 대형화 보수화 된 보험사 내부에서 나올 수 없는 아이디어를 바탕으로 미래성장동력의 씨앗을 사전에 품겠다는 전략이다. 실제로 지난 1월 세계가전전시회(CES)에서 주목을 받았던 국내 스타트업 '에이슬립'은 지난해 '삼성금융 오픈 컬래버레이션' 프로그램에 참가해 삼성생명과 함께 사업모델을 개발한 업체다. 에이슬립은 AI(인공지능)를 통한 수면 관리 서비스를 선보였다. 방대한 수면데이터와 이를 분석한 알고리즘을 통해 편안한 잠자리를 제공할 수 있는 기술력을 가졌다. 조만간 아마존 AI스피터 알렉사에도 에이슬립의 서비스가 탑재된다. 사전에 물꼬를 터 놓은 삼성생명이 향후 에이슬립과의 협업이나 기술 도입 논의에 있어서 다른 경쟁사들보다 유리한 위치에 있을 수밖에 없다. 다만, 아직까지 스타트업의 아이디어와 기술력을 바탕으로 혁신적인 보험상품이나 서비스가 나온 사례는 아직 없다. 일각에서 실효성에 의문을 제기하는 시선도 있다. 보험업계 한 관계자는 "업계 패러다임을 바꿀만한 결과가 아직 나오건 아니지만 첫 술에 배부를 수는 없는 것 아니냐"며 "보험업권에 진입 중인 빅테크와의 경쟁에서도 기술적·아이디어적으로 밀리지 않기 위해서는 스타트업들과의 소통을 더 늘려야 할 필요가 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>2022.03.18.</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>토스뱅크, ‘지금 이자 받기’ 출시 이틀 만에 66억 돌파</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002586278?sid=101</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>41만 고객, 평균 1만6200원 수령ⓒ 토스뱅크[데일리안 = 이호연 기자] 토스뱅크가 국내 은행 최초로 선보인 ‘지금 이자 받기 서비스’가 출시 이틀 만에 66억 원을 돌파했다고 18일 밝혔다.토스뱅크에 따르면 이날 오전 9시까지 고객들이 받아간 이자 금액은 총 66억5576만원을 기록했다. 고객 41만여 명이 지금 이자받기 서비스를 이용했으며, 평균 이자 수령 금액은 약 1만6200원으로 나타났다.토스뱅크는 지난 16일부터 토스뱅크통장을 보유한 고객을 대상으로 매일 한 번씩 고객들이 원할 때 즉시 이자를 받을 수 있도록 서비스를 제공하고 있다. 토스뱅크통장은 세전 연 2% 이자(1억원 초과시 0.1% 금리 적용)를 지급하는 수시입출금 통장이다.고객은 지금 이자 받기 클릭 한 번으로 매월 한 차례 지급되던 이자를 매일 통장으로 받게 된다. 매일 남은 잔액을 기준으로 이자가 쌓이는 ‘일 복리’ 구조라 돈을 많이 보관할수록, 또 이자를 매일 받을수록 유리하다.토스뱅크 관계자는 “출시 이틀 만에 41만 명의 고객이 서비스를 이용했다는 것에서 ‘고객 경험의 혁신’이 이뤄지고 있음을 체감하고 있다”며 “고객 중심의 금융으로 한발 더 나아갈 수 있도록 노력하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>2022.03.22.</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>산티아고 순례지 맛집② 파니니,해물볶음밥..거북손도 [함영훈의 멋·맛·쉼]</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001966680?sid=103</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>[헤럴드경제=함영훈 기자] 스페인은 인류 이동의 종착점으로 다양한 문화가 공존하고, 유럽-아시아-북아프리카가 교류하는 지중해와 지브롤터 해협을 끼고 있다.또 켈트, 고트족 일부 등 동유럽에 있다가 서부로 이동한 이민족이 많고, 꽤 오랜 기간 훈·몽골·비잔틴 등 동방의 영향을 받기도 했다. ▶기사 하단, 헤럴드경제 리오프닝 특별기획 ‘산티아고 순례길’ 전체기사 목록특히 북서부 갈리시아는 여기에다 아메리카와 빈번히 교류하는 대서양변이라는 특성도 지닌다. “갈리시아 주의 5번째 도(道:province)는 부에노스 아이레스(아르헨티나의 수도)”라고 말할 정도로 대항해시대를 주도하면서 아메리카 쪽 문화양식이라는 노하우를 하나 더 가진 것이다.1200년간 각국의 내륙길 순례자 중 바다 구경(코루냐, 피스테라, 폰테베드라 등)을 꼭 하고 가는 경우가 많은 점도 대서양변 문화가 더 풍부해지는 요인일 수도 있다.새우·조개 잡탕밥. 갈리시안 셰프는 파에야가 아니라 “갈리시안 스타일의 라이스”라고 강조했다.투이 부터 땅끝 피스테라 까지 대서양변 음식을 맛 보자. 해양-내륙 순례길의 중심, 갈리시아 만의 독특하고 풍부한 문화를 강조하는 경우도 많은데, 스페인 대표음식과 비슷한데도 가끔은 “그것과 다른 음식”이라고 말하기도 한다.포르투갈길 스페인구간 최남단인 투이 아레알식당이 새우조개 잡탕밥을 메인디시로 올렸기에 “이거 파에야(해산물과 밥 볶음) 아니냐”고 묻자, 주인은 이를 부인했고, 대서양변 폰테베드라의 베이라식당에서도 K스타일의 해산물 볶음밥을 내어왔는데 역시 “파에야가 아니고 갈리시안스타일”이라는 답이 돌아왔다. 한국의 어촌이나 가정집에서 흔히 해먹는 해물 죽, 비빔밥 혹은 볶음밥이었다.체코, 헝가리, 슬로바키아 등 동유럽 주류 메뉴로 정착한 ‘타르타르(아시아식 육회를 얇게 썬 바게트에 발라먹는 것)’는 아시아의 유산인데, 스페인에서도 자주 만나는 음식이다. 갈리시아 식 타르타르는 해산물소스를 살짝 추가해 더욱 감칠맛이 난다.파니니투이 아레알식당의 파니니는 육해공 식재료를 마치 오징어두루치기처럼 조리한뒤 얇게 구운 식용 밀페이퍼로 아래 위를 막아서 접시 위에 올린 것이다.웬만한 갈리시아 식당에서 늘 나오는 것이 이 파니니와 갈리시아 형 타타르(육회), 풀뽀(문어요리)였다. 연어+크림+빵의 조화는 한국에서도 리셉션 다과 때 가끔 보던 와인페어링이다.폴테베드라 베이라식당의 색다른 풀뽀(문어)음식. 매콤간간하게 양념된 문어를 크림으로 바게트에 붙였다.폰테베드라 베이라 식당은 메인 디시에 해당하는 모든 것이 한국 사람들의 입맛에 맞다. 소스에 지나치게 의존하는 서유럽과는 달리, 식재료에 따라, 원래 맛을 극대화하는 방법이 양념없는 찜이라는 점을 갈리시아 사람들은 잘 안다. 게찜은 한국의 소래포구, 울진 것과 같다. 그들도 우리처럼 게딱지장을 너무 너무 좋아한다.게찜과 게딱지장. 인천·울진 스타일과 흡사했다.가리비 양념 구이. 한국에 비해 껍질 대비 알 크기가 실하다.베이라식당의 메인디시 중 하나인 가리비구이는 껍질 크기 대비 알 크기가 큰 편이다. 알다시피 한국 것은 껍질이 너무 크다. 그냥 구워먹는 한국과는 달리 양념을 살짝 했다. 이 역시 한국의 해물볶음밥-비빔밥을 먹을 때 느꼈던 풍미와 비슷하다.한국에서 바지락의 가격은 싸다. 땅끝마을 피스테라의 티라도코르델레스토랑의 바지락 요리는 “이 귀한 식재료를 그동안 한국에서 칼국수에 마구 넣어 먹었다니..”하는 후회를 할 정도로 맛있었다. 바지락을 우린 양념과 으깬 감자, 크림이 조화를 부린 소스는 빵을 좋아하지 않는 탐방객에게 조차 ‘빵 도둑’이었다.한국의 해남 땅끝마을에서 만나는 거북손 요리는 티라도코르델 등 스페인 땅끝마을 식당가에서도 명물로 통한다. 동서 땅끝의 신기한 거북손 인연이다.산티아고 수산시장 옆 아바스토스 2.0에서 감탄을 금치 못했던 맛조개 요리 ‘리바카스’, 레몬올리브 농어회 ‘루비나’를 땅끝의 이집에서도 맛보게 돼 다행이었다. 다만 이 집 메뉴판에는 갈리시아식 농어회를 ‘세비체(시베스)’로 적어놨다.해산물 와인 페어링으로, 랍스터는 스페인 남부대서양 해변 과르다, 굴은 셀타비고 팀의 연고지 비고, 갑오징어는 한국의 법성포 같이 대서양 바닷물이 내륙 깊숙이 들어온 소도시 레돈델라 것이 유명하다.하몽스페인 대표 와인인 알바리뇨의 원료인 갈리시아주 중·남부지역 청포도일반적인 스페인 대표음식인 ‘또르띠야 데 파타타(오믈릿 비슷한 빵)’, ‘파바다(걸죽한 콩요리)’, ‘판 콘 토마테’(토마토즙을 바른 바게트), ‘파파스 아루가다스’(삶은 감자), ‘초리소’(스페인식 쏘시지), ‘하몽’(장기숙성 생소고기 슬라이스) 등은 조식을 중심으로 삼시세끼 자주 접하게 된다.갈리시아는 알바리뇨와 리아스 바이샤스, 블랑코, 리베이로, 몬테레이 등 스페인을 대표하는 와인 7~8종을 보유하고 있다. 투이 테라스 가우다스와 폰테베드라 정원형 와이너리 루비아니스가 알바리뇨, 블랑코, 리아스바이샤스 생산지로 유명하다.◆산티아고 순례길 헤럴드경제 인터넷판 글 싣는 순서 ▶3월8일자 ▷스페인 산티아고 순례길 걸으면, 왜 성인군자가 될까 ▶3월15일자 ▷스페인 갈리시아 산티아고 순례길에서 만난 사람들 ▷산티아고는 제주 올레의 어머니..상호 우정 구간 조성 ▶3월22일자 ▷산티아고 대서양길①땅끝끼리 한국-스페인 우정, 순례길의 감동들 ▷산티아고 대서양길②임진강과 다른 미뇨강, 발렌사,투이,과르다 켈트마을 ▷산티아고 순례길, 대서양을 발아래 두고…신의 손길을 느끼다 ▷산티아고 순례지 맛집①매콤 문어,농어회..완전 한국맛 ▷산티아고 순례지 맛집②파니니,해물볶음밥..거북손도 ▷산티아고 순례길 마을식당서 만나는 바지락·대구·감자·우거지…우리집에서 먹던 ‘한국맛’ ▶3월29일자 ▷산티아고 대서양길③돌아오지 못한 콜럼버스..바요나, 비고 ▷산티아고 대서양길④스페인 동백아가씨와 폰테베드라, 레돈델라, 파드론 ▷산티아고 대서양길⑤(피스테라-무시아) 땅끝은 희망..행운·해산물 득템 ▷산티아고 프랑스길①순례길의 교과서, 세브리로 성배 앞 한글기도문 뭉클 ▶4월5일자 ▷산티아고 프랑스길②사모스,사리아,포르토마린,아르수아 ▷산티아고 프랑스길③종점 산티아고 데 콤포스텔라의 매력들 ▷산티아고 영국길..코루냐,페롤,폰테데움,베탄소스</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>2022.03.16.</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>'매달 이자'는 옛말…토스뱅크 "매일 드려요"</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000006853?sid=101</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>고객 원하는 때 이자 지급 서비스 개시'붕 뜬' 시중자금 흡수 가능성 주목'매달 따박따박 들어오는 은행 이자'라는 말이 틀려지는 수신상품이 출시됐다. 매달 이자일을 기다리지 않고 원하는 때 즉시 이자를 받을 수 있는 상품을 토스뱅크가 출시하면다. 국내 금융권에서는 처음이다.금융권에는 최근 시장 불확실성이 커지면서 '파킹통장'(수시입출금식 예금)'에 돈이 유입되는 속도가 빨라지고 있다. 은행들도 저원가성 수신 유치에 적극적으로 나서고 있다. 이런 상황에 후발 주자인 토스뱅크가 신규 고객을 더 많이 끌어모을 새로운 서비스를 무기로 장착한 셈이다.홍민택 토스뱅크 대표이사/그래픽=비즈니스워치토스뱅크는 16일 고객들이 원할 때 즉시 이자를 지급하도록 하는 서비스를 '토스뱅크통장' 고객 대상으로 시행한다고 밝혔다. 이 서비스는 매일 1회까지 받을 수 있다. '토스뱅크통장'에 이자가 1원 이상 쌓여있을 경우 고객이 '이자받기' 단추만 누르면 즉시 이자가 지급돼 잔고에 더해진다. 출금도 고객이 원하면 언제든 가능하다.아울러 이 은행은 이 기능을 도입하면서 매일 남은 잔액을 기준으로 이자가 쌓이는 '일 복리' 구조로 고객들에게 이자를 제공키로 했다. 종전까지는 세전 연 2.0%(한도 1억원)의 금리만 제공했다. 고객이 이자를 받는 시기가 잦더라도 계속해서 이 통장 입금을 해 나갈 경우 더 높은 금리혜택을 받을 수 있다는 게 토스뱅크 측 설명이다. 토스뱅크 관계자는 "이번 시도는 왜 은행은 한 달에 한 번, 은행이 정한 날짜에만 고객들에게 이자를 줄까라는 고객 관점의 물음에서 시작됐다"며 "고객들은 은행에서 돈을 빌리면 대출금의 이자는 하루 단위로도 납부를 해야 하지만 큰 돈을 맡기는 경우에도 은행이 정한 날짜에만 이자를 받을 수 있었다"며 상품 취지를 설명했다.특히 "또 급한 급전이 필요해 예금과 적금 등 상품을 해지해야 하는 경우에는 중도해지 등의 사유를 들어 약정된 금리를 보장받지 못하는 경우도 있었다"며 "고객 관점에서 시작된 아이디어로, 공급자 중심의 금융이 아닌 고객 중심의 금융으로 나아가기 위한 서비스"라고 덧붙였다.앞서 토스뱅크는 출범 당시부터 모든 수신상품에 금리 연 2.0%를 일괄 보장하겠다는 방침을 내걸며 대규모 수신을 확보해 낸 바 있다. 일반적으로 시중은행 수시입출금식 예금은 연 1.0%의 이하의 금리인 상황에서였다.  금융권에서는 토스뱅크가 금리 경쟁력에 편의성을 더하면서 수신고를 더욱 늘릴 가능성을 주목하고 있다. 최근 국제금융시장의 불확실성 확대로 인해 주식시장, 부동산시장 등으로 유입됐던 자금이 빠르게 수시입출급식 예금 등으로 유입되고 있어서다. 지난 2월 말 기준 KB국민·신한·우리·하나·농협 등 5대 시중은행의 요구불예금 잔액은 717조6545억원으로 지난 1월 말 대비 17조3254억원 급증했다. 한 시중은행 관계자는 "수시입출금 상품과 같은 요구불예금은 은행 입장에서는 이자가 적게 나가는 저원가성 상품이어서 은행의 수익성과 연관성이 큰 수신고"라며 "토스뱅크가 이러한 수시입출금식 상품에 이자를 매일 정산하는 시도를 한 셈인데 고객 입장에서는 상당한 메리트가 있다고 여겨진다"고 설명했다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/기사데이터/토스/엑셀파일/news(토스, 2022.03.16~2022.03.31).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2022.03.16~2022.03.31).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1705,1256 +1705,6 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2022.03.23.</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>"2% 통장 흥행몰이" 토스뱅크, 출범 5개월만에 고객 235만명 몰렸다</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000796747?sid=101</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>사진=토스뱅크토스뱅크 고객 수가 출범 5개월 만에 235만명을 넘어섰다. ‘연 2%’ 금리를 제공하는‘토스뱅크통장’의 가입 고객 수도 200만명을 돌파했다. 출범 직후 대출 영업 중단 등 제한적인 영업 상황 속에서도 흥행을 지속해왔다는 평가가 나온다.23일 토스뱅크에 따르면 지난 21일 기준 토스뱅크를 가입·이용하는 고객은 총 235만2202명이었다. 지난해 10월 5일 영업을 시작한 이후 167일만이다. 일평균 가입고객은 약 1만4000명에 달한다.토스뱅크는 대출한도 조회부터 대출 실행, 연 2% 금리(세전)를 제공하는 토스뱅크통장, 즉시 캐시백 혜택 체크카드 등 서비스를 제공하며 고객을 끌어모았다.토스뱅크 관계자는 "6초에 1명, 1분 당 약 10명이 토스뱅크의 신규 고객이 된 것을 의미한다"며 "지난해 10월 14일은 하루에만 23만여명의 고객이 토스뱅크를 찾았다"고 설명했다.━토스뱅크통장, 10명 중 8명은 실사용 고객━토스뱅크 이용 고객 가운데 토스뱅크통장을 개설한 고객은 205만5255명이었다. 이들 중 83.2%가 토스뱅크통장을 실제로 사용하고 있는 고객으로 나타났다. 이른바 ‘실사용 고객’이다. 계좌에 ‘1원 이상’ 잔고를 보유하고 있으며 이체·송금 등 다양한 뱅킹서비스를 이용하는 고객들이다. 토스뱅크통장 고객은 1인당 평균 831만원을 맡기고 사용했다. 실질 고객 수만큼 수신 규모도 급증했다. 토스뱅크통장 고객이 200만명을 넘어서며 수신액도 17조원을 돌파했다. 은행, 인터넷전문은행, 증권사에서만 수신액의 85% 가량이 몰리며 전 금융권에서 고객들의 발길이 이어진 결과로 토스뱅크는 분석했다. 토스뱅크는 출범과 동시에 토스뱅크통장 하나만을 운영하며 고객 편의성을 강화했다.연 2% 금리로 시중은행 대비 가장 높은 혜택을 제공하고 있고 고객이 원할 때 언제든 수시입출금도 가능하다.토스뱅크는 앞서 2차례 선제적인 유상증자 단행을 통해 총 8500억원의 자본금을 확충하며 건전성도 강화했다. 토스뱅크 관계자는 "현재 대출영업의 안정적인 성장과 함께 자산운용을 통해 안정적인 수익을 거둠으로써 고객들께 혜택으로 돌려드리고 있다"고 설명했다.   ━고객 월 평균 3만7200원 이자 받아━토스뱅크통장을 보유한 고객들은 월 평균 3만7200원의 이자를 받았다. 토스뱅크는 최근 국내 은행 최초로 수시입출금 통장에 매일 이자를 지급하는 ‘지금 이자받기’ 서비스를 출시했다. 기존 월복리에서 일복리 효과가 더해지며 이른바 ‘짠테크’ 효과를 누리는 고객들까지 더해지는 추세다. 일주일 만에 약 87만8053명의 고객들이 서비스를 이용했다. 토스뱅크통장에 가입한 고객의 연령대도 고루 분포했다. 30대 고객이 26.9%로 가장 많았다. 20대(24.8%), 40대(24.4%)가 소폭의 차이를 보이며 다음을 차지했다. 50대 이상의 경우 6명 중 1명 꼴(17.2%)로, 10대(6.7%)보다 많은 비중을 차지했다.토스뱅크 관계자는 “지금까지 토스뱅크가 고객 중심으로 금융을 이해하고 상품을 선보이며 지속적으로 성장할 수 있었던 배경에는 고객들이 있었다”며 “초기 여신 영업 한계를 극복한 만큼 다양한 고객 중심의 서비스를 통해 계속 성장해 나가고자 한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2022.03.29.</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>국민비서 '구삐'에서 행정정보 조회내역 '알림' 제공</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013079111?sid=100</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>(서울=연합뉴스) 김병규 기자 = 행정안전부는 30일부터 행정정보 공동이용에 동의한 국민에게 '본인정보 조회내역 알림' 서비스를 제공한다고 29일 밝혔다.    행정정보 공동이용은 여러 행정기관의 정보시스템을 연계해 각 행정기관이 보유한 개인의 행정정보를 공동으로 이용하며 민원인의 편의를 돕는 시스템이다.    사전에 알림 서비스를 신청하면 본인의 행정정보가 조회될 때 챗봇 안내 서비스인 '국민비서(구삐)'가 조회기관, 조회목적, 조회정보, 조회일시를 카카오톡, 네이버 앱, 토스 등을 통해 알려준다.    행안부는 개인정보처리자의 무분별한 이용을 사전에 막고 정보주체의 알권리를 실질적으로 보장해 개인정보 보호를 강화할 것으로 기대한다고 설명했다.    bkkim@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2022.03.28.</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>토스증권, 출범 1년만에 420만 고객유치… MZ세대 꽉 잡았다</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002726838?sid=101</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>&lt;토스증권 제공&gt;    토스증권이 출범 1년만에 420만명의 고객과 230만명의 월간활성이용자(MAU)를 확보했다고 28일 밝혔다. 토스증권에 따르면 출범 석 달만에 350만 신규계좌가 개설되었는데, 이는 미국의 주식 거래 플랫폼 로빈후드가 2년여 만에 달성한 수치다. 뿐만 아니라 토스앱 사용자의 호응과 MZ세대 사이에서 입소문이 퍼지면서 하루 최대 58만명이 가입하기도 했다.월간활성화이용자는 출범 이래 꾸준하게 200만명을 넘어섰으며, 월 평균 230만명을 기록하고 있다. 이는 국내 증권사 상위 5개사와 맞먹는 수준이다.성장의 중심에는 MZ세대 투자자들이 있다. 토스증권의 2030 고객은 260만 명으로, 전체 고객의 약 65%를 차지한다.토스증권 측은 "투자자 누구나 쉽고 편리하게 이용할 수 있는 UI/UX, 투자자의 시각에서 해석한 맞춤형 서비스들이 국내 주식투자 인구 중 적은 비중을 차지해 온 30대 이하 젊은 투자 층의 주식투자 참여를 한층 끌어올렸다"고 전했다.또한 지난해 7월에 선보인 '주식 선물하기' 서비스는 투자자끼리 주식을 주고 받을 수 있는 서비스다. 기존에 존재했던 '타인계좌주식대체' 서비스를 재해석하면서 고객들의 높은 관심을 받아, 출시 1주일만에 1만 건 이상의 선물하기가 이뤄졌다.투자자의 의견 교류의 장인 '커뮤니티', 증권사 애널리스트가 직접 소통하는 컨텐츠 '토스증권 데일리' 등을 통해 이용자들의 큰 호응을 얻고 있다.더불어 토스증권은 '실시간 해외 주식 소수점 거래' 서비스를 다음달 중 출시할 예정이다. 해외주식 소수점 거래를 실시간 방식은 업계 최초로 도입된다. 주문 즉시 체결되기 때문에 투자자들은 1주 단위로 거래할 때와 이질감 없는 소수점 거래를 경험할 것으로 기대된다.토스증권 관계자는 "토스증권이 말하는 주식투자의 새로운 표준은 투자자의 시각에서 시작해 현재 진행형"이며 "앞으로 토스증권은 처음 투자를 시작하는 고객과 숙련된 투자경험을 가진 고객 모두가 만족할 수 있는 진정한 의미의 모바일 주식투자의 표준을 보여드리게 될 것"이라 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2022.03.19.</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>토스뱅크 ‘지금 이자 받기’ 이틀간 66억 원</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003677531?sid=101</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>언제든 원할 때 이자 지급을 신청할 수 있는 토스뱅크의 ‘지금 이자 받기 서비스’로 고객들이 이틀간 66억원을 받아간 것으로 나타났다.   토스뱅크는 18일 오전 9시 기준으로 고객들이 받아간 이자 금액이 총 66억5576만원이라고 밝혔다. 고객 41만여명이 ‘지금 이자받기’ 서비스를 이용했으며, 평균 이자 수령 금액은 약 1만6200원인 것으로 분석됐다.   토스뱅크는 지난 16일부터 ‘토스뱅크통장’을 보유한 고객을 대상으로 매일 한 번씩 고객들이 원할 때 즉시 이자를 받을 수 있도록 서비스를 제공하고 있다. ‘토스뱅크통장’은 세전 연 2% 이자(1억원 초과 시 0.1% 금리 적용)를 지급하는 수시입출금 통장으로, 이 같은 서비스를 선보인 것은 국내 은행 중 토스뱅크가 처음이다.    고객은 ‘지금 이자 받기’ 클릭 한 번으로 매월 한 차례 지급되던 이자를 매일 통장으로 받을 수 있게 됐다. 매일 남은 잔액을 기준으로 이자가 쌓이는 ‘일 복리’ 구조라 돈을 많이 보관할수록, 또 이자를 매일 받을수록 유리하다.   토스뱅크 관계자는 “출시 이틀 만에 41만 명의 고객이 서비스를 이용했다는 것에서 ‘고객 경험의 혁신’이 이뤄지고 있음을 체감하고 있다”며 “고객 중심의 금융으로 한발 더 나아갈 수 있도록 노력하겠다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2022.03.21.</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>케이뱅크도 개인사업자 대출…내달 온택트 특례보증 개시</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004937734?sid=101</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>앱에서 신청, 한도 3000만원토스뱅크에 이어 케이뱅크가 비대면 개인사업자대출에 나선다. 인터넷전문은행이 개인대출에 이어 개인사업자대출에도 본격 진출하며 고객 유치를 위한 경쟁이 치열해지고 있다.케이뱅크는 지난 18일 신용보증재단중앙회와 비대면 금융 지원 강화와 소상공인 금융 지원을 위한 업무협약(MOU)을 체결했다고 21일 밝혔다. 이번 협약으로 다음달 18일부터 케이뱅크 애플리케이션(앱)에서도 신보중앙회 '온(溫·ON)택트 특례보증' 신청이 가능해진다. 온택트 특례보증은 소상공인이 창구 방문 없이 금융사 앱을 통해 보증과 대출을 신청할 수 있는 서비스로, 지난해 8월 출시돼 KB국민·IBK기업·NH농협·신한·우리·하나 등 6개 시중은행에서 취급해왔다. 케이뱅크는 인터넷전문은행 중 처음으로 온택트 특례보증을 취급하게 됐다. 케이뱅크의 개인사업자대출 한도는 최대 3000만원이며 상환 방식과 조건, 금리 등은 미정이다. 서호성 케이뱅크 행장은 "개인사업자 고객의 부담을 덜어드릴 수 있도록 더욱 편리한 상품을 구현해 선보이겠다"고 말했다.앞서 토스뱅크는 지난달 14일 인터넷전문은행 중 처음으로 개인사업자대출 상품을 출시한 바 있다. 케이뱅크와 달리 토스뱅크는 무보증·무담보 신용대출로 개인사업자대출을 개시했다. 최저금리는 연 3%대 초중반(변동금리)이고 최대 한도는 1억원이다. 상환 방식은 원리금 균등 상환, 만기 일시 상환 중 선택할 수 있으며 중도상환수수료는 무료다. 토스뱅크의 개인사업자 대출 상품은 한 달 만에 대출액이 총 1167억원 규모를 달성했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2022.03.16.</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>토스뱅크의 '신박한 혁신'...수시입출금 고객에 '일수 통장'식 이자지급</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002269543?sid=101</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>- 매일 이자에 이자 붙는 '일 복리' 효과 제공- 1억원 예치시 매일 5400원 이자 적립 ◆…사진=토스뱅크토스뱅크에 예금을 한 고객들은 앞으로 본인이 원할 경우 매일 이자를 지급받아 '일 복리' 효과를 얻을 수 있게 됐다.   토스뱅크는 고객들이 원할 때 매일 이자를 지급하는 서비스를 개발, 16일부터 제공한다고 밝혔다. 대상은 ‘토스뱅크통장’을 보유한 고객이며 ‘지금 이자 받기’를 클릭하면 매월 한 차례 지급되던 이자를 매일 통장으로 받게 된다. 쌓인 이자가 최소 1원 이상일 경우 받을 수 있으며, 출금도 고객이 원하면 언제든 가능하다.   ‘토스뱅크통장’은 세전 연 2% 이자를 지급하는 수시입출금 통장으로, 최대 한도 1억 원까지 해당 금리를 적용한다(1억 원 초과시 0.1% 금리 적용).   지금 이자받기를 선택한 고객은 당일 이자가 지급된 잔액을 기준으로 다음날 다시 이자가 쌓이는 ‘일 복리’ 효과를 얻게 된다. 돈을 많이 보관할수록, 또 이자를 매일 받을수록 유리한 셈이다.   ‘지금 이자받기’를 클릭하지 않은 고객은 이전과 마찬가지로 쌓인 이자를 매월 세 번째 토요일에 일할 계산해 받게 된다. 고객들은 매월 토스뱅크로부터 받은 이자 내역을 앱을 통해 확인할 수 있다. 토스뱅크는 올 연말까지 ‘지금 이자받기’ 서비스를 운영하며 안정화 과정을 거친 후, 이를 상시화 할 계획이다.   토스뱅크는 ‘왜 은행은 한 달에 한 번, 은행이 정한 날짜에만 고객들에게 이자를 줄까?’라는 고객 관점의 물음에서 이 서비스에 착안했다고 설명했다. 고객들은 은행에서 돈을 빌리면 대출금의 이자는 하루 단위로도 납부를 해야 하지만, 예금은 큰 돈을 맡기는 경우에도 은행이 정한 날짜에만 이자를 받을 수 있었다.   또 급히 돈이 필요해 예·적금 상품을 해지해야 하는 경우에는 ‘중도해지’ 등의 사유를 들어 약정된 금리를 보장받지 못한 게 일반적었다.   은행은 고객들이 돈을 맡기고 불릴 수 있는 곳이어야 하며, 하루를 맡기더라도 그 대가를 고객들이 누릴 수 있어야 한다는 것이 토스뱅크의 생각이다. 그동안 토스뱅크는 수시입출금 통장 하나의 상품만을 운영하며 은행에 대한 고객 경험을 바꿔 왔다. 이날부터 가령 1억 원을 예치한 고객의 경우 매일 세전 약 5400원 상당의 이자가 쌓이는 경험을 누릴 수 있게 된다.   토스뱅크 관계자는 “그동안 고객들은 은행이 정한 날짜에 이자를 받는 것만 생각했지, 매일 받을 수 있는 것은 생각할 수 없었다”며 “기획과 개발에만 수 개월을 쏟아부은 결과가 공급자 중심의 금융을 고객 중심으로 바꾸어 나가는 계기가 됐으면 한다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2022.03.30.</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>"지금 사고 다음 달에 낼게요" 토스, 후불결제 서비스 오픈</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/629/0000140518?sid=101</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>금융이력 부족자에 소액 신용 기회 열어비바리퍼블리카가 후불결제 서비스를 출시한다고 30일 밝혔다./토스 제공'토스'를 운영하는 비바리퍼블리카(이하 토스)가 후불결제 서비스를 오픈한다.토스의 후불결제 서비스는 지난해 11월 금융위원회로부터 혁신금융서비스로 지정받았으며, 신용카드 이용이 어려운 청년·주부 등 금융이력 부족자에게 소액 신용 결제 기회를 제공하고자 만들어졌다.만 19세 이상 사용자가 이용할 수 있는 후불결제 서비스는, 일부 사용자를 대상으로 오픈된 후 가맹점과 사용자 규모를 순차적으로 늘려나갈 계획이다.사용방식은 간단하다. 후불결제 가맹점에서 제품을 고른 후 결제 단계에서 토스페이를 선택하면 후불결제 버튼을 확인할 수 있다.후불결제 서비스 이용을 위해 자동납부 계좌 등록 후 심사를 거쳐야 하며 월 결제한도는 최대 30만 원이다.서비스 이용에 따른 별도의 수수료나 이자가 부과되지 않으며, 이번달 결제 사용금액은 다음달 15일에 지정된 계좌에서 출금된다.토스는 사용자들의 금융정보와 결제이력 등 비금융 데이터를 기반으로 한 대안신용평가모형 활용해 리스크를 최소화하겠다는 계획이다.대안신용평가모형 고도화와 함께, 서비스 대상 확대, 후불결제 사용 가맹점 확충도 진행할 계획이다.토스 관계자는 "금융이력이 부족한 사회초년생, 주부 등에도 소액 신용 기회를 주겠다는 맥락에 걸맞는 후불결제 서비스를 고도화해나가겠다"며 "간편하고 혁신적인 결제 경험을 제공해온 토스페이가 후불결제 서비스로도 유저 편의성과 포용성 두 마리 토끼를 잡겠다"고 말했다.발로 뛰는 더팩트는 24시간 여러분의 제보를 기다립니다.▶카카오톡: '더팩트제보' 검색▶이메일: jebo@tf.co.kr▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2022.03.25.</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>“자소서 필요없습니다” 스타트업 채용 문법은 다르다</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003680917?sid=105</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>와디즈·토스·당근마켓…  각양각색 인재 채용 전쟁							크라우드펀딩 전문 스타트업 와디즈는 이달 초부터 ‘자율 포지션 100′이란 이름의 채용을 진행 중이다. 기획·마케팅·개발 같은 직군을 나눠 사람을 뽑는 대기업 채용과 달리 정해진 직군이 아예 없다. 지원자들에게 “현재 채용 공고엔 없지만 꼭 필요하다고 생각되는 포지션, 자신이 가장 잘할 수 있는 포지션을 직접 만들어 제안해달라”는 게 이 회사의 주문이다. 제출 서류도 본인의 성과와 능력을 표현하는 것이면, 종류도 양식도 자유다. 회사는 지원자가 제안한 직무가 사내에 필요한지 신속하게 검토해 합격 여부를 안내해준다. 일종의 ‘DIY(Do It Yourself) 입사’인 셈이다./그래픽=김성규										이달 말까지 600여 명의 대규모 채용을 진행 중인 금융 스타트업 토스는 지원자에게 ‘지원 직군’을 맞춤형으로 찾아주는 제도를 도입했다. 300여 직군의 빼곡한 온라인 채용 공고 위 ‘어떤 포지션을 골라야 할지 모르겠다면?’이란 문구를 누르면 곧바로 2개의 설문(현재 회사에서 하는 업무, 과거의 업무 이력)이 진행된다. 답변을 남기면 2초 만에 추천 직군이 뜬다. 지원자가 직군을 고르는 게 아니라 회사가 거꾸로 직군을 제안하는 셈이다.대기업 맞서 스타트업이 사람 뽑는 법							삼성·LG·현대차 등 대기업들이 일제히 상반기 채용을 시작한 가운데, 스타트업들도 이에 맞서 각양각색 방법으로 인재 채용 전쟁을 벌이고 있다. 특히 IT(정보 기술) 개발자 구인난이 심각한 상황에서 대기업뿐 아니라 경쟁 스타트업에도 인재를 뺏기지 않기 위해서다.스타트업 공채는 ‘유연성’ ‘맞춤형’이 특징이다. 대기업처럼 틀에 박힌 자기소개서(자소서), 대규모 시험 같은 건 없다. 예를 들어, 올해 삼성전자 공채 자소서는 ‘지원 이유와 이루고 싶은 꿈’ ‘나의 성장 과정과 가장 큰 영향을 끼친 사건·인물’ ‘중요하다고 생각되는 사회 이슈에 대한 견해’ ‘지원 직무 관련 본인의 전문 지식·경험’ 같은 문항으로 이뤄져있다. 반면 스타트업의 자소서는 대부분 ‘자유 양식’이다. 한 스타트업의 경우, 유일한 제한 사항이 ‘특정 프로그램으로 작성된 자소서는 안 받는다’일 정도다. ‘컬처(문화) 면접’도 대기업과 차별되는 스타트업들의 특징적인 채용 방식이다. 1시간 남짓 경영진과 직접 대화를 나누며, 지원자의 성향과 가치관이 회사와 잘 맞을지 평가하는 것이다.길게는 수개월씩 절차가 진행되는 대기업 공채와 달리 스타트업은 신속함이 생명이다. 예를 들어, 지역 기반 커뮤니티인 당근마켓은 최근 ‘리크루트24′란 공채를 진행했다. 자기소개서도 필요 없고 간단히 본인의 역량과 성과를 기술하면, 24시간 내에 서류 합격 여부를 알려준다. 회사 관계자는 “각 분야의 전문 인력들이 이력서 부담 없이 간편하게 지원하고, 또 답답하게 기다리지 않을 수 있도록 만든 제도”라고 했다.”인재 한 명 뺏기면 프로젝트 멈춰, 생존 경쟁”							스타트업이 대기업 못지않게 수백 명 단위의 대규모 채용을 진행하면서도 저마다 독특한 방식을 도입하는 것은 ‘원하는 인재의 유형’이 크게 다르기 때문이다. 스타트업의 한 팀장급 직원은 “대기업은 연차·직군에 따라 개개인에게 주어진 역할이 명확하지만 스타트업은 당장 이번 주에 내가 무슨 일을 할지 모를 만큼 역동적”이라며 “하나의 목표를 향해 모두가 우르르 뛰는 문화인 만큼 채용 절차에서 큰 차이가 날 수밖에 없다”고 했다.최근 직방 등 일부 스타트업은 대기업의 사업 부서를 인수할 만큼 성장하면서 인재를 보는 눈도 대기업 이상으로 까다롭다. 국내 한 유니콘(기업가치 1조원 이상) 스타트업의 대표는 “경력직 인재 한 명을 채용하면, 그가 몸담았던 회사의 프로젝트가 바로 멈출 수도 있다”면서 “그만큼 사람이 중요하고 사람을 뽑는 게 스타트업엔 치열한 생존 경쟁, 그 이상”이라고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2022.03.23.</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>토스뱅크, 출범 5개월 만에 235만 고객 돌파</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011077617?sid=101</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스]이주혜 기자 = 토스뱅크가 출범 5개월 만에 235만 고객을 넘어섰다고 23일 밝혔다.토스뱅크에 따르면 21일 기준 토스뱅크를 가입·이용하는 고객은 총 235만2202명으로 나타났다. 지난해 10월 영업을 시작한 이후 167일 만이다. 이는 6초에 1명, 1분 당 약 10명이 토스뱅크의 신규 고객이 된 것을 의미한다. 일평균 가입고객은 약 1만4000명에 달한다.토스뱅크 이용 고객 가운데 토스뱅크통장을 개설한 고객은 205만5255명이었다. 이들 중 83.2%가 계좌에 1원 이상 잔고를 보유하고 있으며, 이체·송금 등 다양한 뱅킹서비스를 이용하는 실사용 고객으로 나타났다. 고객 1인당 평균 831만원을 맡기고 사용했다. 토스뱅크통장 고객이 200만명을 넘어서며 수신 금액도 17조원을 돌파했다.토스뱅크통장을 보유한 고객들은 월 평균 3만7200원의 이자를 받았다. 최근에는 국내 은행 최초로 수시입출금 통장에 매일 이자를 지급하는 '지금 이자받기' 서비스를 출시해 일주일 만에 약 87만8053명의 고객들이 서비스를 이용했다.고객의 연령대도 고루 분포했다. 30대 고객이 26.9%로 가장 많았다. 20대(24.8%), 40대(24.4%)가 뒤를 이었다. 50대 이상의 경우 6명 중 1명 꼴(17.2%)로, 10대(6.7%)보다 많은 비중을 차지했다.토스뱅크 관계자는 "지금까지 토스뱅크가 고객 중심으로 금융을 이해하고, 상품을 선보이며, 지속적으로 성장할 수 있었던 배경에는 고객들이 있었다"며 "초기 여신 영업 한계를 극복한 만큼 다양한 고객 중심의 서비스를 통해 계속 성장해 나가고자 한다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2022.03.16.</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>토스뱅크 통장은 이자 매일 받는다…출금도 언제나 'OK'</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002585442?sid=101</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>토스뱅크가 도입한 매일 이자 지급 서비스 소개 포스터.ⓒ토스뱅크[데일리안 = 부광우 기자] 토스뱅크가 고객들에게 매일 이자를 지급한다. 국내 금융사가 고객이 원할 때 이자를 받을 수 있도록 실행에 옮긴 것은 토스뱅크가 처음이다.토스뱅크는 16일부터 매일 한 번씩 고객들이 원할 때 즉시 이자를 받을 수 있다고 밝혔다. 대상은 토스뱅크통장을 보유한 고객이다. 고객은 지금 이자 받기 클릭 한 번으로 매월 한 차례 지급되던 이자를 매일 통장으로 받게 된다. 쌓인 이자가 최소 1원 이상일 경우 받을 수 있으며, 출금도 고객이 원하면 언제든 가능하다.지금 이자받기를 클릭하지 않은 고객은 이전과 마찬가지로 쌓인 이자를 매월 세 번째 토요일에 일할 계산해 받게 된다. 고객들은 매월 토스뱅크로부터 받은 이자 내역을 앱을 통해 확인할 수 있다. 토스뱅크는 올해 말까지 지금 이자받기 서비스를 운영하며 안정화 과정을 거친 후 이를 상시화 할 계획이다.토스뱅크통장은 세전 연 2% 이자를 지급하는 수시입출금 통장으로, 최대 한도 1억원까지 해당 금리를 적용한다. 매일 이자받기를 통해 업그레이드 된 토스뱅크통장은 매일 남은 잔액을 기준으로 이자가 쌓이는 일 복리 구조를 고객들에게 제공한다. 고객들의 경우 돈을 많이 보관할수록, 또 이자를 매일 받을수록 유리하다. 이로써 세전 연 2%의 높은 금리 혜택은 더욱 강화될 전망이다.토스뱅크의 이번 시도는 왜 은행은 한 달에 한 번, 은행이 정한 날짜에만 고객들에게 이자를 줄까라는 고객 관점의 물음에서 시작됐다. 고객들은 은행에서 돈을 빌리면 대출금의 이자는 하루 단위로도 납부를 해야 하지만, 큰돈을 맡기는 경우에도 은행이 정한 날짜에만 이자를 받을 수 있었다. 급히 돈이 필요해 예·적금 상품을 해지해야 하는 경우에는 중도해지 등의 사유를 들어 약정된 금리를 보장받지 못한 경우도 대부분이었다.그동안 토스뱅크는 수시입출금 통장 하나의 상품만을 운영하며 은행에 대한 고객 경험을 바꿔 왔다. 가령 이날부터 1억원을 예치한 고객의 경우 매일 세전 약 5400원 상당의 이자를 출금할 수 있게 된다.토스뱅크 관계자는 "그동안 고객들은 은행이 정한 날짜에 이자를 받는 것만 생각했지 매일 받을 수 있는 것은 생각할 수 없었다"며 "기획과 개발에만 수 개월을 쏟아 부은 결과가 공급자 중심의 금융을 고객 중심으로 바꿔 나가는 계기가 됐으면 한다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2022.03.16.</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>토스뱅크, 고객들에 '매일 이자 지급'…금리 혜택 강화</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000659651?sid=101</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>1억원까지 2% 금리 적용…"고객이 원할 때 금리 받아야"토스뱅크는 16일부터 매일 한 번씩 고객들이 원할 때 즉시 이자를 받을 수 있다고 이날 밝혔다.대상은 '토스뱅크통장'을 보유한 고객이다. 고객은 '지금 이자 받기' 클릭 한 번으로 매월 한 차례 지급되던 이자를 매일 통장으로 받게 된다. 쌓인 이자가 최소 1원 이상일 경우 받을 수 있으며, 출금도 고객이 원하면 언제든 가능하다.토스뱅크 매일 이자지급 호보 포스터. [사진=토스뱅크]'토스뱅크통장'은 세전 연 2% 이자를 지급하는 수시입출금 통장으로, 최대 한도 1억원까지 해당 금리를 적용한다. 1억원 초과시 0.1% 금리를 적용한다.매일 이자 받기를 통해 업그레이드된 토스뱅크 통장은 매일 남은 잔액을 기준으로 이자가 쌓이는 '일 복리' 구조를 고객들에게 제공한다. 고객들의 경우 돈을 많이 보관할수록, 또 이자를 매일 받을수록 유리하다. 이로써 연 2%(세전)의 높은 금리 혜택은 더욱 강화될 전망이다.토스뱅크 관계자는 이번 시도는 '왜 은행은 한 달에 한 번, 은행이 정한 날짜에만 고객들에게 이자를 줄까?’라는 고객 관점의 물음에서 시작됐다'는 설명이다. 고객들은 은행에서 돈을 빌리면 대출금의 이자는 하루 단위로도 납부를 해야 하지만, 큰돈을 맡기는 경우에도 은행이 정한 날짜에만 이자를 받을 수 있다는 불편함이 따르기 때문이다.또 돈이 필요해 예·적금 상품을 해지해야 하는 경우에는 '중도해지' 등의 사유를 들어 약정된 금리를 보장받지 못한 경우도 대부분이었다.이에 토스뱅크는 은행은 고객들이 돈을 맡기고 불릴 수 있는 곳이어야 하며, 하루를 맡기더라도 그 대가를 고객들이 누릴 수 있어야 한다는 주장이다.토스뱅크 관계자는 "그동안 고객들은 은행이 정한 날짜에 이자를 받는 것만 생각했지, 매일 받을 수 있는 것은 생각할 수 없었다"며 "기획과 개발에만 수개월을 쏟아 부은 결과가 공급자 중심의 금융을 고객 중심으로 바꾸어 나가는 계기가 됐으면 한다"고 밝혔다.한편 '지금 이자받기'를 클릭하지 않은 고객은 이전과 마찬가지로 쌓인 이자를 매월 세 번째 토요일에 일할 계산해 받게 된다. 고객들은 매월 토스뱅크로부터 받은 이자 내역을 앱을 통해 확인할 수 있다. 토스뱅크는 올 연말까지 '지금 이자받기' 서비스를 운영하며 안정화 과정을 거친 후, 이를 상시화 할 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2022.03.31.</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>NIA | 금융 사기부터 교통사고까지…‘빅데이터’로 예방</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/024/0000074078?sid=101</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>포항공대 인공지능연구원은 교통 빅데이터 플랫폼의 빅데이터를 바탕으로 AI 기반 교통사고 예방 모델을 개발했다(.한 국지능정보사회진흥원 제공) 코로나19 이후 온라인 금융 거래가 활발해지면서 금융 사기 등 부작용도 덩달아 속출하고 있다. 이를 예방하고자 금융 사기 방지 서비스를 내놓은 회사가 있다. ‘더치트’다. 이 회사는 과학기술정보통신부와 한국지능정보사회진흥원 지원으로 민간, 공공이 협력해 구축한 ‘빅데이터 플랫폼’ 참여사다. 네이버페이, 토스 등은 ‘빅데이터 플랫폼’에 개방된 데이터를 활용해 금융 사기 예방 서비스를 만들었다.토스의 ‘사기 의심 사이렌’ 서비스를 예로 들면 토스 화면에서 이체 금액과 받는 사람의 정보를 입력하면, 수신자의 계좌, 연락처가 사기 거래 이력이 있는지 자동으로 조회된다. 만약, 사기 의심 계좌나 연락처로 판명될 경우 송금을 위해 ‘보내기’ 버튼을 누르더라도 송금 전 주의가 필요하다는 안내 메시지를 띄워줌으로써 금융 사기를 예방할 수 있다.네이버 역시 사기 거래 계좌 알림 서비스를 제공한다. 네이버페이 화면에서 사기 거래 의심 계좌로 신고된 계좌로 송금 시 피해 신고 건수 등 사기 거래 이력 정보를 알림으로 알려준다. 이처럼 더치트 데이터를 활용한 금융 사기 예방 서비스 제공 업체는 이 밖에도 많다. 이를 통해 범죄 예방 효과도 뚜렷하게 입증됐다. 금융 사기 예방 API 서비스와 ‘더치트’ 통계에 따르면 지난해 11월 누적 기준 사기 거래 이력으로 등록된 정보를 조회한 건수는 약 226만건에 달한다. 더치트 관계자는 “2020년 금융 사기 평균 피해액 기준으로 계산했을 때 지난해에는 약 1조54억원 규모의 피해액을 예방했다”고 밝혔다.  ▶‘더치트’ 빅데이터로 지난해 금융 사기 예방만 1조원 포항공대 인공지능연구원, AI가 도로 파손 미리 예상 더치트 외에도 빅데이터 활용 사례는 또 있다. ‘포항공대 인공지능연구원’은 교통 빅데이터 플랫폼이 제공하는 포항시 CCTV 영상 데이터와 도로교통 위험 분석 학습용 샘플 데이터를 활용해 교통사고 AI 예방 모델을 개발했다. 이 모델을 활용하면 차량 간의 사고인지, 차량과 사람과의 사고인지도 구별할 수 있다. 여기에 더해 교통 상황을 모니터링할 수 있는 서비스도 추가 개발했다. 이를 통해 도로 파손 상태를 AI가 지켜보다가 보완 공사가 필요한 시점이 오면 미리 알려 미연에 교통사고를 방지할 수 있게 됐다. 정확도는 85%에 달한다. 이처럼 데이터를 활용한 새로운 서비스들이 속속 출시되고 있다. 신규 서비스 개발의 원천인 데이터가 빅데이터 플랫폼을 통해 지속적으로 생성, 제공되면서다. 기업들은 통합 데이터 지도를 통해 다양한 분야의 플랫폼의 데이터를 한 번에 찾아볼 수 있어 원하는 데이터를 활용, 다양한 시도를 할 수 있다. 한국지능정보사회진흥원 관계자는 “이를 통해 기업은 새로운 가치 있는 서비스의 개발을, 국민들은 보다 안전하고 편리한 생활을 누릴 수 있을 것으로 기대된다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2022.03.30.</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>“저금리 대출 받으세요”…‘피싱’ 의심되면 ‘전번’ 꼭 확인하세요</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002584725?sid=101</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>은행연합회, 전화번호 진위확인 서비스 개시은행연합회 제공‘저금리 대출’ 제안 등 은행 관련 보이스 피싱으로 의심되는 문자나 전화가 왔을 때 해당 번호의 진위를 확인할 수 있는 서비스가 시행된다.은행연합회(회장 김광수)는 31일부터 보이스 피싱으로 의심되는 은행 관련 문자나 전화가 왔을 때 이 번호가 실제 은행에서 사용하는 번호인지 확인할 수 있도록 ‘은행 전화번호 진위확인 서비스’를 연합회 공식 누리집을 통해 제공한다고 30일 밝혔다. 최근 가짜 저금리 대출 상품, 생계 자금 지원을 해주겠다며 은행을 사칭한 대출 빙자형 보이스 피싱이 급증하는 상황을 고려한 서비스다. 피시나 모바일로 은행연합회 공식 누리집 (https://www.kfb.or.kr )에 접속한 뒤 오른쪽 밑에 ‘ 자주 찾는 메뉴 ’ 에서 ‘ 은행전화번호 진위확인 ’을 선택하면 된다.특정 번호가 은행 전화번호인지 아닌지를 확인하고 싶은 이는 누구나 별도의 회원가입이나 로그인 절차를 거치지 않고 연합회 누리집에서 은행을 선택하고 전화번호 입력하면 곧바로 확인할 수 있다. 이번 서비스는 은행연합회와 회원사인 19개 은행(산업, NH농협, 신한, 우리, 한국스탠다드차타드, 하나, 기업, KB국민, 한국씨티, 수협, 대구, 부산, 광주, 제주, 전북, 경남, 케이뱅크, 카카오뱅크, 토스뱅크)이 함께 제공한다. 다만 은행연합회는 소비자가 특정 번호를 조회해 본 결과 해당 번호가 은행에서 실제로 사용하는 전화번호로 확인됐다고 하더라도 예상하지 못한 피해를 막으려면 경찰청 ‘시티즌 코난’ 등 보안 프로그램을 통해 스마트폰이 악성 애플리케이션에 감염됐는지를 확인하고 해당 은행에 관련 내용을 문의하는 것이 바람직하다고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2022.03.31.</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>부실 이미지 뗀 저축은행…우량 금융사로 우뚝</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004680518?sid=101</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>지난해 순이익 2조원중금리 대출 호조가 실적 견인5대 저축銀 이익증가율 두자릿수 핀테크 협업으로 디지털 강화2030세대 고객들 끌어모아업계 "까다로운 규제 완화돼야"전국 79개 저축은행이 지난해 2조원에 육박하는 당기순이익을 거뒀다. 2011년 부실 프로젝트파이낸싱(PF) 대출 문제로 촉발된 ‘저축은행 사태’ 여파로 2013년까지 적자를 면치 못하던 저축은행업계가 2017년 순이익 1조원을 넘어선 지 4년 만에 2조원 돌파를 눈앞에 두고 있다. 작년 한 해 총자산과 총수신, 총여신 모두 100조원을 넘어서는 기록도 세웠다.1972년 상호신용금고란 이름으로 탄생해 올해 출범 50년을 맞은 저축은행업계가 ‘부실 금융사’ ‘지역의 소규모 금고’ 이미지를 떨쳐내고 우량 금융회사로 탈바꿈했다는 평가가 나온다. 중금리 대출 활성화, 디지털 전환 가속화 등을 통해 건전성을 높이고 고객층을 다변화한 결과로 풀이된다. 지방은행 제친 SBI저축은행31일 금융감독원과 업계에 따르면 지난해 저축은행들은 전년(1조3997억원)보다 40% 증가한 1조9654억원의 순이익을 올렸다. 5대 금융지주 중 한 곳인 농협금융의 순이익(2조2919억원)에 조금 못 미치는 수준이다. 1위 SBI저축은행의 작년 순이익은 3495억원으로 대구은행(3300억원) 경남은행(2306억원) 광주은행(1941억원) 등 지방은행을 앞섰다. 부산은행(4026억원)을 바짝 뒤쫓았다.5대 저축은행 모두 두 자릿수 이상의 이익 증가율을 보였다. 페퍼저축은행의 순이익은 2020년 348억원에서 지난해 817억원으로 두 배 넘게 늘었다. 같은 기간 한국투자저축은행(604억원→896억원), SBI저축은행(2583억원→3495억원), OK저축은행(1851억원→2431억원), 웰컴저축은행(956억원→1121억원)의 순이익도 17~48% 증가했다.대출 호조가 실적을 이끌었다. 이자수익이 2020년 6조5600억원에서 작년 7조6660억원으로 1조원 넘게 급증했다. 작년 시중은행의 가계대출 증가율이 5~6%로 묶인 데 따른 ‘풍선효과’도 작용했다는 분석이다. 저축은행의 총량 증가율은 21.1%였다. 지난해 총자산과 총여신, 총수신은 각각 118조2000억원, 102조4000억원, 100조5000억원으로 모두 100조원을 넘겼다. 웰컴, ‘웰뱅’ 효과로 2030 고객↑2010년대 초반만 해도 저축은행 실적은 내리막길을 걸었다. 저축은행 사태 이후 소비자 신뢰가 추락했기 때문이다. 저축은행업계 적자는 2011년 963억원에서 2013년 3828억원으로 크게 확대됐다. 같은 기간 총자산은 60조1646억원에서 38조9764억원으로 35% 쪼그라들었다.저축은행들은 이후 중금리 대출을 늘리며 사업 포트폴리오 변화를 꾀했다. 중소기업이나 자영업자 대상 대출도 강화했다. 한 저축은행 관계자는 “신용평가시스템(CSS)을 고도화하는 등 리스크 관리에 힘썼다”고 했다. 이를 통해 업계의 고정이하 여신비율이 2011년 16.54%에서 지난해 3.35%로 낮아지는 등 건전성도 대폭 개선됐다.영업 채널 다변화에도 힘썼다. 자체 앱을 만들거나 토스 카카오페이 핀다 등 핀테크사와 연계해 2030세대 젊은 고객을 끌어모았다. 저축은행 중 유일하게 마이데이터(본인신용정보관리업) 사업에 진출한 웰컴저축은행이 가장 적극적이란 평가다. 2018년 ‘웰컴디지털뱅크’ 앱을 선보이면서 20~30대 신규 예·적금 가입 건수가 2017년 6만8823계좌에서 지난해 19만1823계좌로 급증했다. 페퍼저축은행도 수신 고객 중 60대 이상 비중이 2018년 22%에서 작년 17%로 하락하는 동안 20대는 16%에서 21%로 늘었다.업계에선 그동안 건전성 강화 노력을 지속해 온 만큼 이제는 다른 금융업권 대비 까다로운 규제가 완화돼야 한다는 목소리가 나온다. 저축은행은 시중은행(0.08%)이나 보험사(0.15%)에 비해 최대 다섯 배 높은 0.4%의 예금보험료율을 적용받고 있다. 부동산 사업자금의 20%를 자기자본으로 조달하는 우량 차주(시행사)에만 PF 대출을 내줄 수 있도록 한 규제, 전체 대출의 40%(수도권은 50%)를 각 영업구역 내에서 내주도록 한 의무여신비율 규제 등도 대표적이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>2022.03.16.</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>카드업계, 수수료율 협상 ‘난항’…동네마트 이어 PG사까지 ‘반발’</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002585547?sid=101</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>PG협회 “수수료 인상, 결국 소비자 피해 이어져”카드사 “적격비용 산정 독단적으로 결정 못 해”ⓒ연합뉴스[데일리안 = 이세미 기자] 카드 수수료율을 둘러싼 카드사와 가맹점 간 갈등이 지속되고 있는 가운데 최근 온라인상에서 카드 결제를 중개하는 전자지급결제대행(PG)사들이 신용카드사의 가맹점 수수료 인상에 반발하고 나섰다.16일 금융권에 따르면 전자결제업자들로 구성된 전자지급결제협회(이하 PG협회) 소속 회원사들은 전날 오전 서울 중구 신한카드 본사 앞에서 카드사의 수수료 인상에 반대하고 협상을 촉구하는 집회를 개최했다.협회는 토스페이먼츠, 나이스페이먼츠, 엔에이치엔한국사이버결제, 케이지모빌리언스 등 8개 PG사로 구성됐다.협회는 이날 성명서를 내고 PG업종 가맹점에 대한 적격비용과 해당 적격비용 산정근거의 원가자료를 공개할 것을 요구했다. 아울러 수수수료 인상을 즉각 철회하고, 카드사들이 추가 협상에 나서야 한다고 주장했다.PG협회에 따르면 최근 각 PG사는 기존 2% 초반대보다 0.05~0.1%p 오른 새 수수료율을 카드사로부터 통보 받았다. 협회는 이번 인상으로 카드 수수료 상한선인 2.3%를 통보 받은 곳도 있다며, 카드사들에게 납득할 만한 답변이 없을 경우 가맹점 해지도 검토하고 있다고 강조했다.앞서 금융당국은 연매출액 30억원 이하 가맹점에 적용되는 우대수수료율을 0.8~1.6%(체크 0.5~1.3%)에서 0.5~1.5%(체크 0.25~1.25%)로 낮췄다.PG협회는 이번 카드사의 수수료 인상은 가맹점수수료 인상 근거를 찾을 수 없고, 적격비용 산정의 근거가 되는 조달금리, 마케팅비용, 전자금융보조업자(VAN사)에게 지급하는 비용 등이 적격비용 재산정 기간 동안 인하되거나 축소돼 원가 인하 요인만 발생했으며, 이에 따라 적격비용은 물론 적격비용을 토대로 산정되는 가맹점 수수료 또한 인하되는 것이 정상이라는 입장이다.이에 PG협회는 대형 가맹점에게는 수수료 관련 협상권이 있지만 일반 가맹점들은 인상에 대한 이유도 모른 채 높아진 수수료율을 받아들여야 하는 것은 ‘역차별’이라고 주장했다. 아울러 온라인 쇼핑몰의 카드 수수료 인상은 결국 소비자에게 피해가 돌아간다고 강조했다.PG협회 관계자는 “일반 온라인 쇼핑몰에 카드수수료를 인상하는 것은 결국 온라인 쇼핑몰의 수익성 악화로 귀결될 수 밖에 없고, 결과적으로 온라인 쇼핑몰의 판매가격 상승으로 이어져 소비자에게 피해가 돌아간다”고 말했다.카드업계는 금융위원회가 카드 수수료 원가를 산정하고 있고, 카드사들이 독단적으로 적격비용을 결정하는 것은 아니기 때문에 카드사가 나서서 이를 공개하는 것은 어렵다는 입장이다. 다만 원만한 해결을 위해 노력하겠다는 입장이다.카드업계 관계자는 “적격비용 산정은 카드사의 독단적인 결정이 아닌 금융위, 협회, 카드사 등으로 구성된 태스크포스(TF)가 관련 원가 등을 분석해 진행한다”고 말했다. 이어 “수수료 협상은 각 카드사별로 개별 협상 진행중인 사안으로, 원만하게 협상이 이루어질 수 있도록 지속적으로 노력하겠다”고 덧붙였다.한편 지난달 동네 중형 마트들을 주축으로 한 한국마트협회도 카드사들의 수수료율 인상안을 수용할 수 없다며 원가비용을 공개할 것을 요구하고 있다. 마트협회에 따르면 기존 평균 수수료율은 1.98~2.16% 수준이지만 카드사가 최근 통보한 수수료율은 2.06~2.28%로 하단 0.08%p, 상단은 0.12%p 올랐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2022.03.22.</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>인건비에 발목잡힌 네카오…돈 잘 벌어도 이익률 줄어간다</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004938415?sid=105</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>네이버·카카오 급여총액 1년새 30~40% 폭증네이버 영업이익률 3.5%P 뚝카카오도 1년새 10%대 깨져美빅테크 25~30%와 대조적카카오 평균연봉 1억7천만원"실리콘밸리에 사람 뺏겨서…"주식보상 확 늘려 개발자 구애인력 뺏긴 중견업체는 구인난'울면서 월급 더 주기' 악순환◆ IT업계 인건비 쓰나미 (上) ◆  최근 전자상거래(이커머스) 스타트업 A사는 초급 개발자 연봉을 기존 5000만원에서 6000만원으로 인상했다. 중견 정보기술(IT) 회사나 게임사로 개발자들이 이직하는 사례가 늘면서다. A사 대표는 "우리보다 큰 기업도 더 큰 기업에 인력을 뺏기면서 연쇄 작용이 벌어지고 있다"며 "인건비 부담으로 스톡옵션도 내걸고 있지만 당장 상장이 가능한 것도 아니기 때문에 큰 유인이 되지 못하는 게 현실"이라고 한숨을 내쉬었다.빅테크 쌍두마차인 네이버와 카카오 인건비 상승이 IT업계 전체 생태계 문제로 번지고 있다. 빅테크가 인력 확충에 나서면 중견 IT회사나 중소·벤처 스타트업이 차례로 인력에 구멍이 생기는 먹이사슬 구조가 형성되고 있기 때문이다. 실제로 네이버는 지난해 직원 539명을 충원해 4526명을 확보했고 카카오는 556명을 더 선발하면서 3303명으로 확대했다. 전체 인원이 20% 이상 증가한 상황에서 평균 임금도 올랐다. 네이버 평균 임금은 2020년 1억247만원에서 지난해 1억2915만원으로, 카카오는 같은 기간 1억800만원에서 1억7200만원으로 상승했다.특히 임직원 인센티브 확대 정책으로 스톡옵션 비용은 3배가량 늘었다. 네이버는 같은 기간 290억원에서 734억원으로 2.5배, 카카오는 433억원에서 1480억원으로 3.4배 증가했다. 두 기업 모두 향후 주식 보상을 더 늘리겠다는 계획이어서 주식 인센티브 비용은 갈수록 증가할 전망이다. 카카오는 올해 연봉 재원 15%를 늘리며 추가 인건비 상승에 대응하고 있다. 올해 카카오 직원 연봉은 평균 500만원 정도 인상될 전망이다. 남궁훈 카카오 대표 내정자는 내년 연봉 예산도 추가로 6% 이상 늘린다고 밝힌 상태다.IT업계 관계자는 "네이버는 스톡옵션을 나눠주지 않고 현금으로 보상해주는 것으로 유명했다"며 "최근 네이버가 스톡옵션 혹은 외국계 회사의 RSU(양도제한 조건부 주식) 개념 자사주를 분배해주기 시작한 것은 카카오의 영향"이라고 분석했다.  RSU는 특정 가격에 회사 주식을 살 수 있는 권리인 스톡옵션과 달리 직원이 특정 기간에 목표를 달성하면 주식으로 지급하는 보상 체계다. 카카오 관계자는 "네이버는 현금 보상, 카카오는 주식 보상이라는 인센티브 체계가 최근 서로 섞이면서 키 맞추기를 하고 있는 것으로 보인다"고 전했다.문제는 연쇄 효과로 중견 IT회사와 스타트업 부담이 크게 늘고 있다는 점이다. 핵심 인력이 빠져나가는 것을 막기 위해 이들 기업도 연봉 인상과 주식 보상을 내걸었다. 예컨대 크래프톤은 개발자 연봉을 일괄적으로 2000만원 인상했고 신입사원 초봉도 6000만원으로 높였다. 넥슨은 전 직원 연봉 800만원 인상과 신입 초봉 5000만원을 제시했고 넷마블도 넥슨에 맞춰 같은 비율로 임금을 올렸다. 유니콘 기업으로 성장한 핀테크 업체 토스는 이직 시 연봉을 최대 1.5배까지 제시하고 스톡옵션 1억원을 내걸기도 했다. 한 중견 게임사 관계자는 "네이버·카카오로 인력이 유출되는 것을 막기 위해 당장 큰 당근인 임금 인상을 제시할 수밖에 없다"며 "임금 인상에 더해 주식 보상까지 요구하는 분위기에 따라 스톡옵션 정책도 고려되고 있다"고 전했다.네이버·카카오도 인력 먹이사슬의 최상단은 아니다. 한 IT업계 고위 관계자는 "빅테크에서 우리 개발자를 데려가면서 미안하다는 말과 함께 '우리도 실리콘밸리에 인력을 뺏기고 있어 어쩔 수 없다'는 얘기를 들었다"며 "재택근무 확산으로 서울이나 분당에서 일하면서 미국의 구글·메타(옛 페이스북)나 실리콘밸리 벤처기업에 스카우트되는 인재도 많은 것으로 안다"고 말했다. 그는 이어 "기업이 지속 성장하면 괜찮지만 부침을 겪을 때 고정비가 너무 커진 것은 부담이 될 것"이라고 지적했다.실제 증권가에서는 네이버와 카카오의 마진 둔화를 우려한다. 서정연 신영증권 연구원은 "네이버는 모든 사업부가 고르게 성장 중이지만 투자 확대가 이어지고 있어 마진 둔화가 불가피하다"며 "올해 8조4000억원에 이르는 매출을 기대하면서 영업이익률은 지난해 19.4%에서 18.9%로 더 낮아질 수 있다"고 전망했다. 그는 카카오 영업이익률에 대해서도 올해는 지난해 9.7%보다 낮은 8.8%를 제시했다. 인건비 상승과 더불어 마케팅 비용이나 연구개발비가 증가하고 있는 점이 고려된 것으로 보인다. 네이버의 마케팅 비용은 지난해 5794억원으로 36.1%, 연구개발비는 1조6550억원으로 24.2% 증가했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2022.03.28.</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>토스증권, 출범 1년만에 고객 수 420만명 기록</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013076156?sid=101</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>[토스증권 제공]    (서울=연합뉴스) 채새롬 기자 = 토스증권은 출범 1년 만에 고객 420만명, 월간 활성 이용자(MAU) 230만명을 확보했다고 28일 밝혔다.    토스증권은 "출범 3개월 만에 350만 신규 계좌가 개설됐는데 이는 미국 주식거래 플랫폼 로빈후드가 2년여 만에 달성한 수치"라며 "월간 활성 이용자 230만명은 국내 증권사 상위 5개사에 필적하는 수준"이라고 전했다.    토스증권은 MZ세대 투자자 참여로 플랫폼이 성장하고 있다고 강조했다. 토스증권의 20∼30대 고객은 260만명으로 전체 고객의 약 65%를 차지한다.     작년 7월 선보인 '주식 선물하기 서비스'는 높은 관심을 받으며 출시 1주일 만에 1만 건 이상의 선물하기가 이뤄졌다.     애널리스트가 투자자 시각에서 이해하기 쉽게 정리한 '토스증권 데일리' 콘텐츠는 구독자 수가 50만명에 육박했다.     투자자 간 의견 교류를 할 수 있는 '커뮤니티'도 좋은 반응을 얻고 있다.    토스증권은 다음 달 '실시간 해외주식 소수점거래 서비스'를 통해 성장 동력을 이어간다는 전략이다.    srchae@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2022.03.30.</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>금감원, 토스 수시검사 착수</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/021/0002508097?sid=101</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>금융감독원이 대표적인 핀테크 회사 비바리퍼블리카에 대한 수시검사에 착수했다.30일 금융권에 따르면 금융감독원은 전날 금융업 서비스를 제공하는 토스에 대한 수시 검사를 위해 인력을 투입했다. 앞서 토스는 마이데이터(본인신용정보관리업) 시범서비스를 제공하는 과정에서 마이데이터 동의 절차 규정에 따르지 않았다는 논란이 일었다. 이에 금감원이 토스의 신용정보법 저촉 여부를 중점적으로 살필 것이라는 관측이 나온다.금감원은 올해 검사업무 운영계획을 발표하면서 빅테크의 금융사업 확대에 따른 소비자 피해 예방에 초점을 맞출 것이라고 예고한 바 있다. 당시 금감원은 거래 규모, 신규사업 진출 등 위험 요소를 분석해 리스크가 큰 대형 전자금융업자를 대상으로 현장검사에 나서겠다는 계획을 밝혔다. 비바리퍼블리카 외에도 네이버파이낸셜, 카카오페이 등이 후보군으로 언급됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2022.03.23.</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>“중·저신용자 모십니다” 카뱅·케뱅·토뱅, 다급해진 이유는</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000796625?sid=101</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>[머니S리포트-은행권 대출 대전①] 신용평가모델 고도화 나서지만 목표치 달성은 미지수[편집자주]금융당국의 고강도 가계대출 규제 속에서도 은행권의 대출 경쟁이 후끈 달아오르고 있다. 가계대출 총량관리에서 중·저신용자(중금리) 대출을 제외할 가능성이 높아지면서 이들을 유치하기 위한 쟁탈전이 뜨겁다. 인터넷은행들은 설립 취지에 맞게 올해 중·저신용자 대출 비중을 크게 끌어올릴 예정이다. 대형 시중은행들도 우량한 중·저신용자를 확대해 부실 리스크를 줄이면서도 대출 수익성을 확보한다는 복안이다. 다만 윤석열 대통령 당선인이 LTV 80%  완화 등 가계대출 규제 완화 카드를 꺼내들어 부실 리스크 우려가 다시 고개를 들고 있다. 이같은 움직임에 중·저신용자의 금전 창구로 통하는 저축은행 역시 고민이 깊어지는 모습이다. 급기야 서민과 취약 차주가 제도권 금융 밖으로 밀려나 벼랑 끝으로 몰릴 수 있다는 우려까지 나온다.인터넷전문은행들이 중·저신용자 대출 확대에 안간힘을 쏟고 있다. 고승범 금융위원장이 중·저신용자를 대상으로 취급한 중금리 대출을 가계대출 총량관리에서 제외하는 방안을 들여다보고 있어서다./사진=이미지투데이◆기사 게재 순서① “중·저신용자 모십니다” 카뱅·케뱅·토뱅, 다급해진 이유는② 리스크 줄이려는 빅뱅크… 尹 “LTV 80%”에 고개드는 부실 우려 ③ 인뱅·규제에 고민 깊어진 저축은행… 저신용자 대출 ‘적신호’?#. 서울 마포구에서 식당을 운영하는 자영업자 김모(47)씨는 오미크론 변이 바이러스 확산으로 생활고를 겪어야 했다. 식당이 직장인들로 북적여야 할 점심시간 조차 재택근무가 늘면서 인근 사무실 유동인구가 줄어든 탓에 그만큼 손님도 뜸해졌기 때문이다. 이런 이유로 신용대출을 받기 위해 최근 한 캐피탈사의 애플리케이션(앱)에 접속해 대출을 신청하던 중 깜짝 놀랐다. 대출 금리가 연 19%로 법정최고금리(20%)에 육박했던 것. 그는 다시 토스(토스뱅크) 앱에 접속해 신용대출을 신청했다. 그 결과 연 4%로 여유자금을 빌릴 수 있었다. 김씨는 그제서야 안도의 한숨을 내쉬었다.━중·저신용자 대출 목표 미달성한 인뱅들━인터넷전문은행들이 중·저신용자 대출 확대에 안간힘을 쏟고 있다. 고승범 금융위원장이 중·저신용자를 대상으로 취급한 중금리 대출을 가계대출 총량관리에서 제외하는 방안을 들여다보고 있어서다. 중·저신용자는 KCB(코리아크레딧뷰로) 기준 신용점수가 820점 이하인 사람, 옛 신용등급으로는 4등급 이하에 해당하는 사람을 말한다.시중은행들과 한정된 가계대출 총량을 놓고 경쟁해야 하는 인터넷은행 입장에선 한도 없는 중금리대출은 매력적일 수밖에 없다. 특히 금융당국은 인터넷은행들에게 설립 취지에 맞게 중·저신용자 대상 신용대출 비중을 내년말까지 30% 이상 확대하라는 엄명까지 내린 상태다.하지만 카카오뱅크와 토스뱅크, 케이뱅크 등 인터넷은행 3사의 중·저신용자 대출 실적은 아직 지지부진하다. 은행연합회가 올 2월말 공시한 ‘각 인터넷전문은행 중·저신용자 대상 신용대출 비중(잔액기준)’에 따르면 지난해 12월말 기준 토스뱅크와 카카오뱅크의 중·저신용자 신용대출 비중은 각각 23.9%, 17.0%였다. 이어 케이뱅크가 16.6%로 인터넷은행 3사 중 가장 저조한 기록을 보였다.인터넷은행 3사 모두 지난해 중·저신용자 대출 비중이 목표치에 도달하지 못했다. 카카오뱅크와 토스뱅크는 지난해말 기준 중·저신용자 대출 비중 목표치를 각각 20.8%, 34.9%로 잡았는데 이보다 각각 3.8%포인트, 11%포인트 부족한 실적을 올린 것이다. 케이뱅크 역시 목표치보다 4.9%포인트 낮은 중·저신용자 대출 실적을 보였다.지난해 중·저신용자 대출 비중이 목표치보다 낮았던만큼 인터넷은행 3사는 올해 더 뛰어야 한다. 올해 말 기준 중·저신용자 대출 비중 목표치는 카카오뱅크와 케이뱅크가 각각 25%, 토스뱅크가 42%다. 내년 말에는 카카오뱅크가 30%, 케이뱅크가 32%, 토스뱅크가 44%까지 해당 비중을 확대해야 한다.우선 올해 목표치를 달성하려면 토스뱅크는 18.1%포인트, 카카오뱅크는 8.4%포인트, 케이뱅크는 8.0%포인트 중저신용자 대출을 더 늘려야 하는 상황이다.━인뱅 막내 토뱅의 추격… 중·저신용자 대출 승자는━인터넷은행 3사 중 막내격인 토스뱅크가 카카오뱅크와 케이뱅크보다 빠른 속도로 중·저신용자 대출을 늘리고 있다.지난해말까지만 해도 토스뱅크는 가계대출 총량관리로 대출총량 한도인 5000억원을 출범 9일만에 모두 소진해 개점휴업 상태를 이어갔다. 이후 올 1월부터 신용대출 판매를 재개한 토스뱅크는 중·저신용자 대출에서 기대 이상의 성적을 보여줬다.토스뱅크가 올해 대출 재개 이후 지난 2월말까지 신규 취급한 가계대출 가운데 중·저신용자 대출 비중은 31.75%를 기록했다. 지난해말(23.90%)과 비교해 2개월만에 7.85%포인트 급등한 것이다. 토스뱅크에 따르면 중·저신용자 대출 실행 비중이 가장 높았던 때는 올 1월31일로 이날 고객의 절반 이상이 중·저신용자(50.18%)였다. 인터넷은행의 설립 취지에 맞게  포용금융에 앞장섰다는 평가가 나온다.여기서 눈여겨볼 점은 토스뱅크의 중·저신용자 중 26.3%는 고신용자로 재평가돼 낮은 금리로 대출을 받았다는 점이다. 토스뱅크에서 대출을 실행한 중·저신용자의 평균 금리는 7.7%로 저축은행 평균금리(13.3%)대비 5.6%포인트 낮은 수준이었다. 이는 토스뱅크가 자체 개발한 신용평가모형(TSS)을 통해 고객의 실질 소득을 분석하는데 주력한 결과다.다만 카카오뱅크·케이뱅크가 토스뱅크보다 4년 이른 2017년 출범한 만큼 가계대출 규모에서 큰 차이가 있다는 점을 감안해야 한다는 게 금융권의 분석이다. 카카오뱅크와 케이뱅크의 2월말 가계대출 잔액은 각각 25조8979억원, 7조4900억원이었다. 토스뱅크의 경우 1조9446억원이다. 카카오뱅크와 케이뱅크가 취급한 중·저신용자 대출 잔액이 많아도 상대적으로 비중이 낮을 수밖에 없다는 분석이다.카카오뱅크는 지난해 6월 회사의 실제 대출 이력 데이터와 대안 정보 등을 활용한 신CSS(신용평가모델)를 대출 평가에 적용해 중·저신용자에 대한 대출 변별력을 높이고 있다. 케이뱅크는 2월부터 통신과 쇼핑 정보를 금융정보와 결합한 CSS를 적용했다.이처럼 인터넷은행 3사는 중·저신용자 대출 비중 확대를 최우선 과제로 삼고 CSS 고도화 등에 매진하고 있지만 카카오뱅크와 케이뱅크 등이 2017년부터 쌓아둔 고신용자 대출 비중 등을 고려하면 올해도 목표치를 달성하기가 순탄치 않을 것이라는 관측이 나온다.가계대출 총량관리에서 중·저신용자 대출을 제외하는 방안이 거론되면서 시중은행들도 해당 대출 시장에 본격적으로 뛰어들 채비를 하고 있어 경쟁이 가열되는 양상이다. 국내 5대 금융그룹 수장들은 일제히 올해 신년사를 통해 새로운 대출 성장 기회를 중·저신용자에서 찾는다는 방침을 밝혔다.여기에 인터넷은행들은 정통 은행권에 비해 여전히 중·저신용자 대출 금리 경쟁력에서 뒤처진다는 지적도 나온다. 은행연합회에 따르면 지난 1월 취급된 신용대출 가운데 카카오뱅크와 케이뱅크, 토스뱅크가 5~6등급 고객을 대상으로 제공한 대출 평균금리는 각각 6.43%, 6.29%, 9.49%로 제주(4.55%)·우리(5.40%)·대구(5.56%)·경남(5.83%)·기업(6.08%)은행보다 높다.금융권 관계자는 “2017년 출범해 그동안 고신용자를 많이 유치해왔던 카카오뱅크와 케이뱅크로선 올해 신용대출을 모두 중·저신용자로 채워도 목표 비중을 달성할 수 있을 지 미지수”라며 “이러한 상황에서 시중은행도 중·저신용자 대출 시장을 노리고 있어 경쟁이 심화하고 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2022.03.24.</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>미성년자만 골라 억대 사기친 '페북 김왕관'... 복역 중 또 실형</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000665464?sid=102</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>SNS로 미성년자 대출 꾐… 부모 명의 도용10대 미성년자 통해 1억5,000만 원 갈취일당 페이스북  '김왕관' 닉네임으로 활동서울중앙지법·서울고법이 위치한 서울 서초구 서울법원종합청사 전경. 한국일보 자료사진사회관계망서비스(SNS)에서 닉네임 '김왕관'으로 활동하며 미성년자에게 부모 신분증을 받아 비대면 대출 등 신종 사기 혐의로 실형을 확정받고 복역 중인 최모(22)씨 일당이 동종 범죄로 재차 실형을 선고받았다.서울중앙지법 형사19단독 이원중 부장판사는 24일 컴퓨터등사용사기 등 혐의로 기소된 최씨와 장모(22)씨에게 각각 징역 6월을 선고했다. 이들은 페이스북을 통해 미성년자들에게 대출을 해주겠다는 광고를 올린 후, 10대 피해자들이 문의하면 부모와 조부모의 개인정보로 대출을 받아 중간에서 돈을 챙긴 이른바 '부모론' '할배론'으로 불리는 신종 사기를 주도했다. 두 사람은 해당 범죄로 각각 징역 6년과 징역 3년이 확정돼 현재 서울구치소에서 복역 중이다.  피해자는 20여 명으로 피해액은 7억5,000만 원에 달하는 것으로 알려졌다.이번에 추가로 드러난 최씨 일당의 범죄는 2019년 발생했다. 이들은 "부모 신분증과 휴대폰을 가져오면 100만~200만 원 소액 대출을 해주겠다"는 광고를 올려 미성년자 3명을 유인했다. 이들의 주문에 따라 피해자들이 부모 휴대폰에 원격제어 애플리케이션 ‘팀뷰어’를 몰래 설치하자, 부모 개인정보는 고스란히 일당에게 넘어갔다. 최씨 등은 이후 스마트 뱅킹으로 보험 해약·대출 신청·예금 출금을 하는 방식으로 1억5,000만 원을 빼돌려 불법 인터넷 도박 계좌로 송금했다. 최씨 일당의 범죄는 조직적이었다. 최씨가 전체 계획을 공모·지시하는 총책을 맡았고, 동창인 장씨가 광고를 보고 찾아온 청소년을 연결해 주는 ‘토스업자’ 역할을 맡았다. 대출 사기로 챙긴 돈을 세탁해 현금으로 인출하는 ‘자금세탁업자’와 계좌 제공 및 현금 입금을 담당하는 ‘인출책’ 역할을 담당한 공범도 있었다.재판부는 “나이 어린 피해자를 속여 인적사항을 알아낸 후 재산상 이익을 취득해 죄질이 좋지 않고 피해 회복도 되지 않았다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>2022.03.17.</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>[핀테크 칼럼]핀테크 M&amp;A</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003004486?sid=101</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>최근 글로벌시장에서 핀테크가 급성장세다. 핀테크 자체 성장뿐만 아니라 금융사의 핀테크 활용 및 협력도 크게 늘고 있다. 이제 핀테크가 금융산업 변방에서 주력으로 자리매김하고 있다는 의견이다.시가총액으로 본 금융권 구조와 순위변동이 단적인 예다. 5년 전만 해도 금융권 글로벌 시가총액 상위 톱은 중국 공상은행, 웰스파고, JP모건, 중국은행 등 은행권 독무대였다. 하지만 지금은 톱5 가운데 은행은 JP모건과 뱅크오브아메리카뿐이고 나머지는 대표적 핀테크라 할 수 있는 페이팔과 핀테크를 적극 활용·협력해서 핀테크업체化하고 있는 비자, 마스터카드가 그 위치를 차지하고 있다.왜 이렇게 단기간에 핀테크가 주력으로 올라서고 있는가. 전문가들은 핀테크업체의 노력도 노력이지만 시장에서 핀테크 투자, 특히 핀테크업체 M&amp;A가 급증하고 있는 게 큰 역할을 하고 있다고 말한다. KPMG에 따르면 핀테크 M&amp;A는 2020년 758억달러, 2021년 831억달러로 연속 고공행진을 보이고 있다. 금융사 비즈니스모델을 넘어 금융업 구조 변화에도 큰 역할을 하고 있다는 평가다. 실제 지난해 크로스보더 M&amp;A 거래액(362억달러)이 전년 대비 3배 이상 증가해 M&amp;A를 통한 해외 진출 추세로도 확대되고 있음을 보여 준다. 초기엔 페이팔 등 빅테크들이 M&amp;A를 주도했지만 최근에는 JP모건, 뱅크오브 아메리카, 골드만삭스 등 기존 금융사들의 'M&amp;A를 통한 반격'이 거세지고 있다.사실 M&amp;A는 정보 공개가 제약적이고 인수·피인수업체 간 눈높이가 달라서 웬만해선 성사율이 높지 않다.그럼에도 핀테크업체의 M&amp;A엔 왜 불이 붙었을까.전문가들은 첫째 금융권이 4차 산업혁명과 코로나19 충격으로 더욱 빠른 디지털화가 요구됨에 따라 급격한 구조변화가 불가피해졌다는 점을 꼽는다. 구조 전환을 빠르게 하려면 회사 내부 인력 양성이나 R&amp;D 투자 등 오가닉(organic) 성장만으론 불가능하다.'M&amp;A를 통한 외부 인력 및 조직의 투입 등 인오가닉(inorganic) 성장이 필수적'이라고 판단하는 업체가 늘고 있기 때문이다. 사실상 요즘처럼 기술 변화가 빠를 때는 자체 개발만으론 어림없다. 구글의 경우 알파고든 유튜브든 다 M&amp;A했다.둘째 기존 금융사들은 글로벌 트렌드라 할 수 있는 금융 디지털·모바일화에 대응할 수 있는 핵심 인력 및 조직이 취약하다. 강력한 디지털·모바일 경쟁력을 갖추고 있는 빅테크와 맞닥뜨려야 하는 게 현실이다. 이에 따라 불과 5년 만에 글로벌 금융 톱 자리를 내준 글로벌 은행들의 반성이 이들 핀테크 M&amp;A 확대로 이어지고 있기 때문이다.셋째 금융 성격이 플랫폼화하면서 과거와 다르게 비금융서비스와 계속 융합·확대되고 있는 점도 핀테크 M&amp;A를 확대시키는 요인이다. 예컨대 소비자 만족도를 경쟁적으로 높이기 위해선 금융뿐만 아니라 금융소비자들의 생활상 중요하거나 재미 등 때문에 관심도가 높은 비금융서비스(게임, 통신, 의료헬스, 부동산 등)와의 융합이 갈수록 중요해지고 있다. 이에 따라 이러한 비금융서비스를 기술적으로나 사업모델상으로 연결시켜 주는 핀테크업체 M&amp;A가 늘어나는 건 당연하다.이러한 글로벌 추세는 2015~2020년 발빠른 성장세를 보이다가 작년 이후 주춤하고 있는 우리나라 핀테크 성장에 의미 있는 시사점을 준다. 글로벌 리서치업체인 핀덱서블에 따르면 주요국 핀테크산업 발전 순위에서 우리나라는 2020년 18위에서 2021년 26위로 8계단 하락했다.국내 핀테크기업 매출(186개 기업 기준)도 2020년 4조5089억원으로 사별 평균 242억원으로 낮다. 무엇보다 신산업 성장의 척도라 할 수 있는 유니콘도 아직 토스 1개뿐이다. 글로벌 핀테크 유니콘이 94개인 점을 감안하면 적다.어떻게 하면 핀테크 성장세에 다시 불을 붙일 수 있을까. 여러 방법이 있겠지만 가성비 좋은 한 가지를 꼽는다면 지금 시점에선 핀테크 M&amp;A 활성화가 아닐까 한다. 4차 산업혁명기엔 기업 자체의 오가닉(organic) 성장만으론 한계가 있는 데다 특히 현재 금융사들도 빅테크와의 경쟁 때문에 핀테크업체 M&amp;A에 대해 내심 적극적이기 때문이다.정유신 서강대 기술경영대학원장 ysjung1617@sogang.ac.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2022.03.17.</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>“토스증권에서 아마존, 구글에 1000원부터 투자하세요!”</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004804621?sid=101</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>토스증권, 내달 국내 증권사 최초 실시간 해외 소수점 거래 서비스 출시미국주식, ETF, ETN 등 2700여개 종목에 1000원부터 투자 가능고객의 주문 즉시 체결까지…1주 투자 시와 동일한 투자 경험 제공  [파이낸셜뉴스] 토스증권이 오는 4월 국내 증권사 중 처음으로 ‘실시간’ 해외 소수점 거래 서비스를 시작한다고 17일 밝혔다.   '해외 소수점 거래 서비스'는 토스증권에서 제공하는 2700여개의 미국 주식과 상장지수펀드(ETF)와 상장지수증권(ETN) 등을 대상으로 하며, 1000원부터 투자금액을 입력해 구매할 수 있다. 아마존, 구글(알파벳) 등 1주 당 가격이 높은 주식들에 소액 분산투자가 가능해져, 2030 투자자 및 해외투자를 망설였던 고객들의 투자 접근성이 확대될 것으로 보인다.   토스증권의 해외 소수점 거래 서비스는 고객의 주문 시점의 가격으로 즉시 체결되는 것이 특징이다. 투자자들은 1주 단위로 주식을 거래할 때와 동일하게 실시간으로 소수점 주식을 사고 팔 수 있다. 이는 국내 증권사 중 처음 선보이는 방식이다. 단, 소수점 주문은 시장가 거래만 가능하고, 지정가 주문은 제공되지 않는다. 토스증권의 실시간 매매 방식은 기존에 소수점 투자를 경험해본 투자자들에게 차별화된 매매 경험을 제공할 것으로 기대된다.   소수점 거래는 1주 미만의 주식을 소수 단위로 매매할 수 있는 서비스다. 지금까지 해외 소수점 거래는 증권사가 일정 주기로 고객들의 소수점 주문을 모으고, 이를 온주(1주)로 만들어 매매하는 구조로 진행되어 왔다. 때문에 투자자들은 주문 시점에 실제로 체결될 주식 수량과 가격을 예상할 수 없고, 시장이 급변하는 상황에 빠르게 대응할 수 없는 불편을 겪어왔다.   토스증권 관계자는 “기존 해외 소수점 거래의 구조적인 문제와 고객 불편을 해소하면서 투자자들에게 가장 빠른 소수점 거래 서비스를 선보일 수 있게 되었다"며, “해외 소수점 투자로 더 많은 투자자들이 미국의 우량 주식을 손쉽게 경험하고, 나아가 해외투자가 대중화될 수 있기를 기대한다"고 언급했다.   한편 토스증권은 지난 해 12월 해외주식 서비스를 시작하고 3개월 만에 100만명 이상의 투자자를 모으며 빠르게 성장하고 있다. #ETF #구글 #아마존 #ETN #토스증권 #해외소수점거래서비스</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2022.03.29.</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>믿었던 요구불예금마저…시중은행 '비상'</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004725584?sid=101</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>5대 은행 요구불예금 잔액 추이/그래픽=이지혜 디자인기자은행의 마진을 방어해주던 요구불예금이 들쭉날쭉해 주요 은행이 비상이 걸렸다. 금리 경쟁력 있는 인터넷전문은행에 고객을 뺏겼다는 분석도 나온다. 29일 은행권에 따르면 KB국민·신한·하나·우리·NH농협 5대 은행에서는 지난 25일 기준 요구불예금 잔액이 705조7374억원으로 전월 말보다 8조6634억원 줄었다. KB국민·하나·NH농협은행의 경우 요구불예금의 한 종류인 MMDA(수시입출식 저축성예금)가 포함된 규모다. 요구불예금은 은행의 마진을 방어해주는 효자 역할을 했는데 좀처럼 증가세가 이어지지 않아 은행권의 우려가 짙어진다. 은행 입장에서 요구불예금은 이자가 0.1~0.2% 수준이라 '저원가성 예금'으로 통한다. 조달비용이 적게 드는 데다 잔액도 커 예·적금보다 중요한 영업 수단으로 꼽힌다. 이 때문에 은행 내부적으로 '핵심예금'이라 부르기도 한다. 아무 때나 돈을 넣고 뺄 수 있는 요구불예금은 투자처가 마땅하지 않은 시기에 쌓이는 경향이 있다. 통상적으로 빚투(빚내서 투자)할 만한 곳이 없을 때 갈 길을 잃은 요구불예금이 대기 자금 성격으로 통장에 모인다. 그런데 최근엔 가계대출이 계속해서 줄어드는데도 요구불예금이 늘지 않아 은행마다 영업 전략을 고심하고 있다. 시중은행 관계자는 "이러한 추세가 계속해서 이어진다면 이자마진에 문제가 생길 수밖에 없다"며 "한국은행 기준금리 추가 인상, 새 정부의 대출 규제 완화 등으로 상황이 나아질 것이란 기대감은 있지만 근원적인 영업인 요구불예금 확대에 힘써야 할 때"라고 말했다. 다만 요구불예금을 눈에 띄게 확대하기 어려운 게 문제다. 요구불예금을 늘리려면 영업점마다 기업 거래처 확대 등으로 신규 고객을 유치하는 수밖에 없다. 이 관계자는 "요구불예금은 십시일반으로 쌓인 잔액이 불어나는데 발품 팔아 영업한 결과물이 모이는 셈"이라고 했다. 인터넷전문은행에 금리 경쟁력을 뺏겨 신규 고객 유치가 어렵다는 분석도 나온다. 인터넷전문은행은 오프라인 영업점이 없어 비용이 덜 들기 때문에 시중은행보다 금리 경쟁력을 높일 여력이 있다. 실제 토스뱅크는 전례 없던 '조건 없는 2% 금리 통장'으로 출범 5개월 만에 235만 고객을 단숨에 확보했다. 토스뱅크는 통장에 돈을 맡기기만 하면 세전 연 2% 금리(잔액 1억원 초과하면 0.1%)를 제공하는 '파격 행보'를 지속하면서 5개월만 17조원을 끌어들였다. 최근부터는 이자를 매일 지급하면서 고객의 혜택을 높였다. 은행권 관계자는 "토스뱅크가 2% 통장으로 일으킨 파급력이 상당한 것 같다"며 "특히 손해 보기 싫어하는 스마트컨슈머 MZ세대(1980년대 초반~2000년대 초반 출생)는 금리를 꼼꼼히 비교해보고 금융사를 선택하는 데다 비대면을 선호해 인터넷전문은행으로 몰릴 수밖에 없다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2022.03.28.</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>'주린이나 쓴다' 무시당했지만…1년만에 420만 '대흥행'한 토스증권</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0005994148?sid=101</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>키움증권·미국 로빈후드보다도 월등히 빠른 고객 증가 속도 4월부턴 '실시간' 해외주식 소수점 투자 서비스 제공(서울=뉴스1) 강은성 기자 = "복잡하고 어려운 정보는 과감하게 빼고, 쉽고 직관적인 이용자 환경(UI)으로 '주린이'(초보 주식투자자)부터 투자고수까지 누구나 손쉽게 투자할 수 있는 환경을 만들겠다."지난 2021년 3월, 토스증권이 모바일트레이딩시스템(MTS)을 정식 서비스하면서 밝힌 포부다. 28일 토스증권은 공식 출범 1년 만에 420만명의 고객과 230만명의 월간활성이용자(MAU)를 확보했다고 밝혔다. 현재 국내에서 개인투자자 거래점유율이 가장 높은 키움증권의 경우 지난 2020년 1년 동안 333만좌의 신규 계좌 개설을 기록한 바 있다. 또 미국 주식거래 플랫폼 '로빈후드'가 2년여만에 350만명이 가입한 것과 비교해도 압도적인 수치다. 회사측은 "2100만 토스 앱 사용자의 호응과 MZ세대 사이에 입소문이 퍼지며 하루 최대 58만여명이 가입하는 대기록을 세우기도 했다"고 말했다.토스증권은 출범 당시 투자자들에게 익숙한 '봉차트'(캔들차트)를 빼고 기업 정보 제공 서비스를 강화하는 등 종전 MTS와는 확연히 다른 서비스를 선보이며 관심을 한 몸에 받았다. 금융투자업계에선 "UI 단순화를 할 기술이 없어서 못 하는 게 아니라, 기존 고객과 투자자들의 요구가 있기 때문에 제공하는 것"이라면서 "토스증권 MTS는 주린이들이 입문용으로 사용해볼 수는 있겠지만 결국 메이저 증권사의 MTS로 갈아타게 될 것"이라는 평가가 나왔다. 하지만 업계의 예측은 빗나갔다. 주린이는 물론 오랜 경력을 투자자들도 토스증권 MTS를 사용해보고는 긍정적인 평가를 내렸다. 토스증권의 2030 세대 고객은 260만명으로, 전체 고객의 약 65%를 차지한다.특히 토스증권이 MTS 공식 서비스를 시작한 직후인 2021년 4월부터 시작한 '주식 1주 받기' 이벤트는 단숨에 토스증권 가입자를 200만명 이상 끌어모았다. 이 이벤트 역시 대부분 '체리피커'(열매만 따 먹고 금세 탈퇴해버리는 '철새이용자'를 뜻하는 말)일 것이라고 금투업계는 평가절하했지만, 이벤트 참여자들은 대부분 토스증권에 잔존하며 거래를 이어갔다. 토스증권은 이후 '주식 1주 선물하기' 이벤트 등 각종 이벤트와 편리한 UI, 집중도 높은 분석보고서 제공 등으로 이용자의 입소문을 타며 연간 신규고객을 420만명으로 늘렸다. 대흥행이다. 월간활성이용자(MAU)는 출범 이래 꾸준히 200만명을 상회하며, 월 평균 230만명을 기록하고 있다는 것이 회사 측의 설명이다. 이는 국내 증권사 상위 5개사에 필적하는 수준이다. 토스증권은 "출범 당시 밝혔던 월간활성이용자 100만명 달성의 목표를 출범 첫 달부터 2배 이상 상회했다"고 강조했다.토스증권은 오는 4월부터 '실시간' 해외주식 소수점 거래 서비스를 제공하며 MTS를 한단계 업그레이드 한다는 방침이다. 해외주식 소수점 거래는 증권사가 소수단위 주식을 모아 해외 증권사에 1일 1회에 한해 넘기는 방식이기 때문에 사실상 실시간 거래가 어려웠는데, 토스증권은 소수점 주문에 나머지를 보태 '온주'로 거래할 수 있도록 하기 때문에 실시간 거래가 가능하다는 설명이다. 토스증권 관계자는 "토스증권이 말하는 주식투자의 새로운 표준은 투자자의 시각에서 시작해 현재 진행형"이라며 "앞으로 토스증권은 처음 투자를 시작하는 고객과 숙련된 투자경험을 가진 고객 모두가 만족할 수 있는 진정한 의미의 모바일 주식투자의 표준을 보여드리게 될 것"이라고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2022.03.17.</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>토스증권, 실시간 해외 소수점 거래 내달 첫 서비스</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004675067?sid=101</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>토스증권이 다음달부터 국내 증권사 중 처음으로 실시간 해외 소수점 거래 서비스를 시작한다고 17일 밝혔다. 토스증권에서 제공하는 2700여 개의 미국 주식과 상장지수펀드(ETF) 및 상장지수증권(ETN)이 대상이다. 해당 서비스는 1000원 단위부터 거래가 가능하다.토스증권의 해외 소수점 거래 서비스는 고객의 주문 시점 가격으로 즉시 주문이 체결된다. 1주 단위로 주식을 거래할 때와 동일하게 실시간으로 소수점 주식을 사고팔 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2022.03.21.</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>본인확인기관 접수 앞두고 '불패 의지' 다지는 은행들</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003004985?sid=101</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>ⓒ게티이미지뱅크오는 23일 접수를 마감하는 방송통신위원회 본인확인기관 신청에 주요 시중은행이 대거 참여한다. 마이데이터 서비스와 자사 뱅킹 앱 플랫폼 경쟁력 강화를 위한 필수 요건으로 보고 있어 올해 지정심사를 반드시 통과하겠다는 의지를 다지고 있다.21일 업계에 따르면 작년 본인확인기관 지정에서 한 차례 고배를 마신 KB국민은행이 올해 심사에 다시 도전한다. 자체 인증서를 출시하고 전자서명인증사업자 인정을 획득한 신한은행과 하나은행은 처음 본인확인기관 지정에 도전한다.카카오와 네이버는 심사에 충실을 기하기 위해 이번 접수에는 참여하지 않는다. 본인확인기관 지정 필요성이 여전히 높은 만큼 준비에 만전을 기하기 위해 다음 기회를 노리기로 하고 재도전 시기를 저울질하고 있다.본인확인기관은 금융상품이나 온라인 서비스 등에 가입할 때 주민등록번호 대신 대체인증수단을 이용해 가입자 본인 여부가 맞는지 인증할 수 있는 자격을 갖춘 기관이다. 사실상 주민등록번호와 동등한 자격인 대체인증수단을 다루므로 엄격하고 까다롭게 자격 심사가 이뤄진다.작년 3월 비바리퍼블리카(토스), 카카오, 네이버가 심사에 도전했고 모두 통과하지 못했다. 같은해 하반기 토스가 재도전해 자격을 부여받았다. 국민은행은 작년 하반기 심사에 도전했으나 통과하지 못했다.본인확인기관 지정은 수준 높은 보안요건을 갖춘 금융사도 한 번에 통과하기 힘들 정도로 평가가 까다롭다고 알려졌다. 방통위는 점수평가제와 조건부 지정 등 새로운 기준을 적용해 전반적으로 심사 기준을 완화했다.시중은행들이 본인확인기관 지정에 도전하는 가장 큰 이유는 플랫폼 경쟁력 확보다.뱅킹 앱 등에서 금융상품 가입을 위해 본인확인을 하려면 이통3사 패스(PASS) 앱을 이용하는 등 자사 플랫폼이 아닌 외부 플랫폼을 이용해야 한다. 별도 패스 앱이나 문자인증 등을 이용해 본인확인에 필요한 수단계 절차를 거치는 과정에서 상품·서비스 가입까지 도달하지 못하는 경우도 잦다.은행이 자체 인증서를 활용한 본인확인 서비스를 제공할 수 있다면 자사 뱅킹 앱 편의성을 큰 폭 개선할 수 있다. 뱅킹 앱이 단순 금융앱을 넘어 생활 플랫폼으로 저변을 확대하고 있어 이 같은 서비스 혁신은 큰 무기가 될 수 있다.더 나아가 공공기관과 타 금융사 등에도 본인확인 서비스를 제공할 수 있으면 자체 인증서와 플랫폼 저변 확대도 꾀할 수 있다.이미 주요 은행들은 자체 인증서 출시-전자서명인증사업자 인정-본인확인기관 지정으로 이어지는 인증서 사업을 제대로 추진하기 위해 태스크포스(TF) 형태로 운영해온 조직을 올 초 정식 조직으로 전환하기도 했다.은행 한 관계자는 “한 번에 통과하기 어려운 심사이지만 정식 조직을 꾸리고 오랫동안 준비에 만전을 기한데다 심사요건도 완화된 만큼 좋은 결과를 기대하고 있다”며 “올해 중순까지 이어지는 현장실사 등에 집중 대응할 계획”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2022.03.23.</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>[사설] 폭증하는 개인사업자대출, 출구전략 필요하다</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003260151?sid=110</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>가계대출 규제를 받지 않는 개인사업자대출을 안내하는 은행의 대출 광고. 서울신문DB인터넷전문은행 케이뱅크가 그제 개인사업자대출 출시를 위해 신용보증재단중앙회와 업무협약을 맺었다. 토스뱅크는 지난달 관련 상품을 내놨고 카카오뱅크도 준비 중이다. 개인사업자대출은 기업대출로 분류돼 총량관리 등 가계대출 규제를 받지 않는다. 개인사업자들이 대출받을 수 있는 금융기관이 늘어난 점은 긍정적이지만 대출의 빠른 증가세는 우려스럽다. 지난 2월 말 현재 은행들의 개인사업자대출은 428조원으로 올 들어 5조원 늘었다. 반면 가계대출은 1조원 줄었다.개인사업자대출의 부실채권비율은 지난해 말 0.20%로 1년 전보다 0.07% 포인트 떨어졌다. 사업 환경이 나아져서가 아니라 대출 만기 연장과 상환유예 조치 덕이 크다. 소상공인·자영업자 대출의 만기 연장 및 상환유예 조치가 시작돼 6개월씩 네 차례 연장되면서 오는 9월 말 끝날 예정이다.코로나19 상황을 보면 연장은 불가피하지만 부실을 떠넘기고 있다는 점도 부인하기 어렵다. 만기 연장 대출 115조원(지난해 11월 말 기준), 상환유예 원금 12조원과 이자 5조원 등 총 132조원의 ‘잠재적 부실’ 가능성이 있다. 연장 조치는 언젠가 끝날 테고 대출금과 쌓인 이자를 갚지 못해 파산 위기에 처한 개인사업자들이 속출할 수 있다. 개인사업자들은 가계대출도 받은 터라 가계부채도 우려스럽다.사업자 사정에 밝은 은행들이 적극 나서 출구전략을 마련해야 한다. 원리금 탕감 등을 통해 조기 상환을 유도하고 업종별ㆍ사업체별로 달리 접근해야 한다. 코로나19 발생 이후 막대한 이익을 거둬 ‘성과급잔치’를 한 은행들이 당연히 해야 할 상생이다. 금융당국 또한 자영업자의 연착륙이나 업종 전환을 유도할 수 있도록 다양한 상권정보시스템, 교육컨설팅 등 체계적 지원 방안을 준비하기 바란다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2022.03.18.</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>“당장 1분기부터 걱정”...억대 성과급에도 웃지 못하는 증권사</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000800634?sid=101</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>거래대금 감소에 실적 타격 불가피  금리 상승 속 트레이딩 부문 우려도 IB·해외 경쟁력 확보 여부 주목        역대급 성과급 잔치에도 증권가에서는 마냥 웃지 못하는 분위기다. 당장 1분기를 시작으로 올해는 실적이 꺾일 수밖에 없다는 전망에 무게가 실리는 탓이다. 리테일 의존도가 높은 키움증권(039490)을 비롯해 토스증권, 카카오페이증권 등 신생 증권사 실적 우려는 특히 더 큰 것으로 나타났다.서울 여의도 증권가. /조선DB        18일 한국거래소에 따르면 지난달 국내 주식시장 일평균 거래대금은 18조6619억원으로 집계됐다. 이는 지난해 같은 기간(32조3771억원)보다 42.4% 감소한 규모다. 국내 증시 거래대금은 지난해 하반기부터 감소하기 시작해, 올해 들어서는 미국 연방준비제도(Fed·연준) 긴축 우려, 우크라이나 전쟁 여파로 감소폭이 커지고 있다.이에 따라 증권사들은 올해 실적에 대한 불안감이 커지고 있다. 지난해 실적 호황에 따른 역(易)기저 효과가 나타날 것으로 예상되는 가운데 증시 자금이 빠져나가면서 브로커리지(위탁매매) 부문이 위축될 가능성이 있기 때문이다. 또 금리 상승으로 채권 가격이 하락하면서 트레이딩 부문 손실도 커질 것으로 전망된다.이렇게 증권사의 올해 실적이 하락할 것으로 전망되면서 지난해 사상 최대 실적을 내며 최고의 성과급을 받은 임직원들은 벌써부터 시름에 젖었다. 올해는 이런 호황을 기대하기 어려울 것이기 때문이다.증권가에선 지난해 증권사의 성과급이 화두였다. 지난해 유례 없는 증시 호황으로 역대 최대 실적을 기록한 증권사들은 임직원을 대상으로 높은 성과급을 지급했고 일부 회사에서는 기본급의 최대 4000%를 지급하기도 했다. 성과급으로 많게는 수억원을 받은 실무급 직원들도 나왔다.한 증권사 관계자는 “직원들 사이에선 ‘입사 이래 가장 많은 액수’라는 말이 오갔다”며 “지금까진 좋았지만 앞으로는 걱정”이라고 말했다. 그는 “연초부터 순이익이 이미 많이 줄었고, 일부 중소형사의 경우 적자를 겨우 피했다는 이야기까지 나온다”며 “성과급 잔치를 즐길 만한 상황은 아니다”라고 덧붙였다.증권사의 이익 추정치도 이런 분위기를 반영하고 있다. 금융정보업체 에프앤가이드에 따르면 이달 초 기준 실적 추정치가 있는 주요 증권사 5곳(한국금융지주(071050)·NH투자증권(005940)·삼성증권(016360)·미래에셋증권(006800)·키움증권(039490)) 1분기 영업이익 전망치 합계는 1조5202억원으로 집계됐다. 이는 지난해 동기(2조251억원)보다 24.9% 감소한 수준이다.이런 부진한 업황을 의식하듯 자사주 매입에 나서는 증권사도 많아졌다. 자사주 매입은 기업이 유통 중인 자사 주식을 사들이는 행위로 시중에 유통되고 있는 발행 주식 수를 줄여 주가를 띄우는 대표적 주주환원 정책이다. 주식 수가 감소하면 주당순이익(EPS) 증가로 이어지고, 결과적으로 자기자본이익률(ROE)도 올라간다. 회사는 증권사 최고경영자(CEO)를 평가하는데 영업이익, 당기순이익 등 이익규모뿐 아니라 EPS나 ROE도 평가의 주요 항목이다. 같은 이익을 내더라도 자사주를 소각해 EPS나 ROE를 높이면 좋은 평가를 받을 수 있다.CEO 임기 내에 주가가 상승하면 실적 부진에 대한 책임론을 불식시키는 효과가 있고, 주주들 입장에선 기업 미래 가치가 높아질 수 있다는 CEO의 자신감으로 읽혀지기도 한다.프로젝트파이낸싱(PF) 등 기업금융(IB)보다 리테일에 주력하고 있는 증권사일수록 실적 안정성을 확보하기 어렵다는 지적도 있다. 국내 리테일 주식거래 점유율 1위인 키움증권을 비롯해 후발주자로 리테일 시장에서 입지를 넓혀간다는 목표를 제시한 토스증권, 카카오페이증권 등 핀테크 증권사가 대표적이다.토스증권, 카카오페이증권의 경우 사업 초기라는 점을 고려해도 지난해 4분기 기준 각각 5개 분기, 7개 분기 연속 적자를 기록했다. 모바일트레이딩시스템(MTS)을 기반으로 한 위탁매매 수수료 수익에 의존도가 높은 상황에서 증시 변동성이 확대되면, 자칫 흑자 전환 시기가 늦어질 수 있다는 우려가 커지고 있다.다만, 일각에선 올해 증권사 실적이 우려보다 양호할 것이라는 긍정적인 분석을 내놨다. 이달 들어 거래대금 감소 추세가 주춤하고 있고, 대형사들은 IB나 해외 브로커리지 부문 수익성이 견조하다는 평가다. 여러 외부 변수에도 불구하고 그동안 증권사들이 사업 다각화에 투자한 결과가 실적에 반영되기 시작할 것으로 예상되기도 했다.김지영 교보증권 연구원은 “올해 증권사 실적이 전년보다 감소하겠지만, 우려한 만큼 낮은 수준은 아닐 것으로 전망한다”라며 “장기적인 관점에서 경기가 좋아지면 시장도 상승 흐름이 예상되고, 위탁매매에서 IB, 자산관리 부문으로의 사업 다각화를 위한 노력들이 증권사들의 실적에 반영될 것”이라고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2022.03.30.</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>보이스피싱 의심 전화, 은행연합회 홈페이지서 확인하세요</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002270831?sid=101</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>◆…자료=은행연합회 제공은행연합회는 본인이 수신한 문자 또는 전화가 보이스피싱으로 의심될 경우 실제 은행에서 사용하는 번호인지 확인할 수 있는 ‘은행전화번호 진위확인 서비스’를 인터넷 홈페이지(https//portal.kfb.or.kr)를 통해 31일부터 제공한다.   이 서비스는 회원가입이나 로그인 등 번거로운 절차없이 은행을 선택하고 전화번호를 기입하기만 하면 실제 은행이 사용하는 전화번호인지를 손쉽게 확인할 수 있다. 서비스 대상 은행은 산업, 농협, 신한, 우리, 한국스탠다드차타드, 하나, 기업, 국민, 한국씨티, 수협, 대구, 부산, 광주, 제주, 전북, 경남, 케이뱅크, 카카오뱅크, 토스뱅크 등 19개 은행이다.   은행연합회는 “최근 가짜 저금리 대출상품, 생계자금 지원 등 은행을 사칭하는 대출빙자형 보이스피싱이 급증하고 있다”며 “이 서비스를 이용하면 보이스피싱 피해 예방에 큰 효과가 있을 것”이라고 설명했다.   또 조회결과 은행에서 실제료 사용하는 전화번호로 확인된 경우에도 예기치 못한 피해를 방지하기 위해서는 반드시 악성앱 설치 여부를 확인하고 해당 은행에 관련 내용을 문의하는 것이 바람직하다고 당부했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2022.03.31.</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>‘U+알뜰모바일’ 본인인증 수단 7종으로 확대</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004812690?sid=105</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>KG이니시스 ‘통합간편인증’ 서비스 도입  [파이낸셜뉴스]  미디어로그 제공  알뜰폰 브랜드 ‘U+알뜰모바일’이 공동인증서 없이 본인 인증이 가능한 KG이니시스의 ‘통합간편인증’ 서비스를 도입한다.   미디어로그는 통합간편인증 도입 등 알뜰폰 개통 본인인증 수단을 확대한다고 3월31일 밝혔다.   U+알뜰모바일은 이번 통합간편인증 서비스 도입에 따라 기존 네이버, 페이코 간편 인증에 더불어 PASS, 토스, 금융결제원을 추가해 5종의 간편 인증 서비스를 제공한다. 신용카드와 범용공동인증서를 포함하면 총 7종으로 확대되는 셈이다.   U+알뜰모바일은 지난해 4월 알뜰폰 업계 최초로 네이버 인증서를 도입한데 이어 통신업계 최초로 페이코 인증서를 도입하는 등 고객 편의성 향상을 위해 비대면 본인인증 서비스 도입 및 확대를 선도해왔다.   U+알뜰모바일은 온라인에 익숙한 MZ세대뿐 아니라 온라인 가입 및 개통에 어려움을 겪는 노령층의 편의성도 대폭 개선해나갈 방침이다.   조용민 MVNO 사업당당은 “코로나 이후 비대면 가입 및 개통이 일반화되면서, 고객들의 편의성을 강화하고자 업계 최고 수준의 간편인증 서비스를 제공하게 되었다”며 “앞으로도 고객들의 디지털 경험을 향상시키기 위해 다양한 방안을 마련할 예정”이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2022.03.29.</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>무제한 3% 캐시백? 해외서 쓸 ‘카드 혜택’ 착착 챙겨두세요</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002584640?sid=101</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>국제 항공권 · 패키지 상품 등 불티나게 팔려“해외 결제 고객 잡아라” 바빠진 카드사들28일 오후 서울 종로구 하나투어 본사에서 마케팅기획팀 직원들이 최근 해외 입국자의 자가격리 의무 면제 이후 급증한 여행수요에 맞춰 사전예약할인 프로모션 등 다양한 상품을 내놓기 위해 기획회의를 하고 있다. 연합뉴스해외에 다녀온 뒤 의무적으로 자가격리를 해야 하는 방역 지침이 풀리면서 국제선 항공편 티켓, 해외 패키지 여행 상품 등이 불티나게 팔리고 있다. 올해 해외여행을 계획하는 금융 소비자라면 해외 이용 또는 결제에 혜택이 따라붙는 신용, 체크카드를 미리 발급해두고 카드별 사용법도 기억해두면 좋다.체크카드 가운데서는 인터넷전문은행인 토스뱅크카드의 혜택이 좋은 편이다. 토뱅카드는 모든 해외결제에 대해 ‘무제한 3% 캐시백’ 혜택을 제공한다. 물론 비자, 마스터카드와 같은 국제브랜드 수수료(1%)와 해외 서비스 수수료가 건당 0.5달러씩 붙기 때문에 25달러 미만 소액 결제를 할 때는 캐시백보다 수수료가 더 많을 수 있다. 최소 25달러 이상 고액 결제일수록 돌아오는 혜택이 크다. 예컨대 1000달러를 결제하면 수수료(10.5달러)를 제하고도 캐시백(30달러)을 통해 20달러 정도를 더 돌려받는다.혹시 해외에서 현금을 뽑을 일이 많은 소비자라면 인터넷은행 케이뱅크의 ‘KT멤버십 더블혜택 체크카드’에 관심을 가져볼 만 하다. 이 체크카드는 해외결제 및 자동화기기(ATM) 인출에 수수료를 떼지 않는다. 대부분의 은행 체크카드는 보통 국제브랜드(1% 안팎) 수수료에 더해 건당 0.5달러 또는 0.25%의 수수료를 부과한다. 또한 현금을 뽑는 자동화기기(ATM) 이용 시 건당 3달러씩 수수료를 부과하는 경우가 일반적이다. ‘케이비(KB)국민 해외에선 체크카드’는 전달 실적이 30만원만 넘으면 국제브랜드 수수료와 해외서비스 수수료 1.25%를 환급해주고 자동화 기기에서 100달러 이상 현금을 뽑을 때 나오는 수수료 3달러를 돌려준다. 면세점, 항공사 등 여행 업종 결제시에도 전월 실적에 따라 2000∼4000원을 환급해 준다.카드사들은 국제브랜드 수수료 면제부터 포인트 및 마일리지 적립까지 저마다 해외여행에 최적화된 신용카드를 내놓고 있다. 해외여행을 앞두고 체크카드에 더해 자신의 소비 패턴에 따라 혜택을 많이 볼 수 있는 신용카드를 준비하는 것도 좋다.‘글로벌쇼핑 삼성카드 5 V2’는 국제브랜드 수수료(1%)를 면제하고, 해외 결제 금액의 1%를 포인트로 적립해준다. 전월 실적이 충촉되면 1%를 추가 적립해줘서 최대 3%까지 혜택을 누릴 수 있다. ‘삼성 아이디 온(iD ON) 카드’는 전월 실적에 따라 해외 결제 금액의 3% 할인 혜택을 월 최대 1만원까지 제공한다. 실적이 안 되거나 할인 한도가 다 찬 경우 1% 할인 혜택이 들어간다.하나카드의 ‘1큐(Q) 글로벌 비바(Global VIVA) 카드’는 전월 실적 없이도 해외 가맹점 결제 시 국제브랜드 수수료(1%)를 면제해준다. 이 카드 이용자는 해외 이용, 직구 등을 할 때, 저가항공이나 면세점을 이용할 때 전월 실적에 따라 5∼9% 하나머니 포인트를 최대 2만 머니까지 적립받을 수 있다. ‘케이비(KB)국민 가온글로벌카드’는 전달 실적이 없다고 하더라도 포인트 1%가 적립되고 이용 실적 20만원, 50만원 조건을 만족시킬 때마다 추가로 포인트가 1%씩 적립돼 최대 3%(마지막 1%는 이용금액 50만원까지)까지 포인트를 받는 혜택을 누릴 수 있다.해외여행 수요가 몰릴 것을 대비해 기간 한정 행사를 진행하는 카드사들도 있다. 엔에이치(NH)농협카드는 올 한 해동안 ‘NH농협카드 채움’ 회원을 대상으로 숙박 할인 행사를 한다. 채움스케치 누리집을 통해 숙박 예약 사이트인 익스피디아에 접속하고 해당 카드로 결제하면 국내외 숙박에 15% 할인 혜택을 준다. 신한카드(메리어트 본보이 더 클래식·더베스트 카드)는 지난해와 올해 국내·외 호텔 이용에 따라 포인트 적립 및 업그레이드 등 각종 혜택을 주는 카드를 출시, 판매 중이다.그밖에 NH농협(스카이패스, 아시아나클럽 카드), 현대(대한항공, 아메리칸 익스프레스 카드), 우리카드(카드의 정석 마일리지 아시아나 클럽 카드), 롯데(아멕스 플래티넘 아시아나클럽 카드) 등 대부분 카드사가 이용 금액에 따라서 마일리지를 적립해주는 카드를 판매하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>2022.03.27.</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>토스 이끄는 50인의 미니 CEO… ‘PO 혁신 노하우’ 알린다</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004809804?sid=105</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>토스 PO세션에 외부참여 허용이승건 대표가 직접 사례 소개 지난 26일 서울 강남구 한국타이어빌딩에서 열린 토스 PO 세션에서 발표를 진행 중인 비바리퍼블리카 이승건 대표. 토스 제공."PO(Product Owner·신규 사업 서비스 기획자)라는 업의 본질은 성공을 만드는 사람이고, 위닝 멘탈리티는 실패하는 힘에서 나온다. 간절해지려면 내가 좋아하는 걸 해야 한다. 그래서 직원들에게 좋아하는 걸 찾아주려고 하고, 뺏지 않으려고 한다. 이제는 어디에 남고 싶느냐가 중요해진 시대다. 이러한 점이 간절함과 이어지는 것 같기도 하다" (비바리퍼블리카 이승건 대표)  2022년 토스의 신규 사업 서비스 윤곽이 제시됐다. 지난 26일 서울 강남구 한국타이어빌딩에서 열린 토스 PO 세션에서다. 2년만에 열린 토스 PO 세션은 강당 내 마련된 좌석이 꽉 찰 정도로 활기를 띄었다. 스타트업 대표부터 대기업 반열에 오른 정보기술(IT) 기업 내 제품 기획 담당자 등 다양한 배경을 가진 참가자들이 주말을 자체 반납하고 토스만의 노하우를 듣기 위해 이 자리에 모였다. 토스의 경쟁사 직원도 참가해 눈길을 끌었다.   ■토스, 기업 PO문화 선도   27일 업계에 따르면, 토스 PO 세션은 스타트업은 물론, 여러 규모의 기업에서 새로운 직군으로 주목받고 있는 PO로 성장하기 위한 여러 기법을 공유하기 위해 마련됐다. 지난 2020년 처음 열린 이후 이번이 두번째 행사다.   토스는 PO를 '제품의 성장을 주도적으로 책임지는 사람'으로 정의한다. 새로운 제품에 전권을 가지고, 인력과 금전 등 자원 투입을 본인 스스로 결정할 수 있는 직군이다. 토스 내부에선 이들을 미니 최고경영자(CEO)로 불리기도 한다. 현재 토스 커뮤니티에는 약 50명의 PO가 근무하고 있다.   기존 토스 PO세션은 사내 직원들을 대상으로 진행되는 교육이었다. 회사 내부 여러 지표가 공유되기 때문에 비공개가 원칙이지만 △업계 내 PO 인식 제고 △스타트업 성장 지원 △토스 브랜드 강화 등을 취지로 소규모로 외부에 공개하고 있다. 토스는 이 같은 취지를 살리기 위해 신청비 등을 전혀 받지 않는다. 이번 세션에는 660명 신청자가 몰렸고, 이 중 30여명이 최종 선발돼 참석했다.   ■토스 주역들과 직접 '호흡'   26일부터 매주 주말 총 4회로 구성된 이번 행사는 이승건 대표(사진)를 비롯해 토스뱅크 홍민택 대표 등 계열사 주요 PO 6명이 멘토링을 제공한다.   이날 첫 세션으로는 'PO가 갖춰야 할 7가지 자질'을 주제로 이승건 대표가 발표를 진행했다. 발표 내용에 궁금한 점이 있는 참가자들은 그 자리에서 바로 이 대표에게 질문했고, 이 대표가 이에 바로 답했다. 반대로 이 대표가 먼저 참가자들에게 질문을 던지고, 이에 대한 참여자들의 생각을 듣는 등 의견이 자유롭게 오가는 모습을 볼 수 있었다. 이 대표는 지금 토스 애플리케이션(앱)을 만들기까지 거친 성공·실패 사례 등을 가감없이 공유하면서 PO 역할 중요성을 강조했다. 토스의 경우, 커뮤니티 내 50여명 PO에게 제품 성장에 필요한 전권을 부여한다.   이날 세션에 참석한 한 참가자는 "토스에서 일하는 이들을 보면 자부심을 갖고 즐겁게 일한다"면서 "대부분의 혁신은 그런 과정에서 일어날 것"이라고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2022.03.28.</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>6668억 쏟아부었다… 증권사 MTS 경쟁 치열</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002726866?sid=101</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>지난해 전산운용비 14.9% 늘어KB증권 20% 늘리며 MTS 확대카카오페이증권은 베타 서비스고객 유치를 위한 모바일트레이딩시스템(MTS) 서비스 강화가 이어지면서 증권사들이 전산운용비를 대폭 늘린 것으로 나타났다. 최근에는 기존 증권사들뿐 아니라 핀테크까지 MTS 경쟁에 가세하면서 향후 고객 확보 경쟁이 더욱 치열해질 전망이다.28일 금융투자협회에 따르면 지난해 59개 증권사 전산운용비는 6668억원으로 집계됐다. 전산운용비는 전년에는 5802억원이었지만, 1년새 14.91% 늘어났다.특히 미래에셋증권(26.99%), 한국투자증권(15.40%), 키움증권(21.25%), 대신증권(17.97%) 등 국내 주요 증권사들에서 전산운용비를 크게 늘렸다. 또한 코로나 19 여파로 증권업계에서도 비대면 거래가 활성화하면서 전산운용비를 지난 2019년 5368억원, 2020년 5825억원에 이어 지난해에는 6668억원까지 꾸준히 늘리고 있는 상황이다.증권사들이 전산운용비를 늘리는 배경으로는 MTS 경쟁이 격화되면서 대비에 나선 것으로 풀이된다. 기존 증권사들도 해외주식 소수점 거래 등 MTS 서비스를 추가하는 가운데 핀테크 기반의 증권사들도 관련 서비스를 선보이면서 경쟁이 점점 치열해지는 분위기다.지난해에만 전산운용비를 전년 대비 20% 가까이 늘린 KB증권은 최근 MTS 이용자를 크게 올리는 효과를 얻기도 했다. KB증권은 올 초 진행된 LG에너지솔루션 IPO(기업공개)의 대표주관사를 맡은 바 있다. 빅데이터 플랫폼 아이지에이웍스 모바일인덱스에 따르면 지난 1월 KB증권의 MTS 이용자가 MAU(월간활성이용자)가 404만명에 달하면서 업계 내 1위를 차지했다. 지난해 말까지만 하더라도 KB증권 이용자수가 210만명으로 타 증권사에 뒤처진 5위에 머물렀지만, 단숨에 1위로 뛰어오른 바 있다.여기에 토스증권도 출범 1년 만에 고객 유치수 420만명에 더해 MAU 230만명를 달성하는 등 폭발적인 성장을 기록하고 있다. 특히 MAU가 200만명이 넘어선 수치는 대형 증권사들의 앱의 MAU와 맞먹는 수치로, 어깨를 나란히 하고 있다. 또한 토스증권은 다음달 중 해외주식 '실시간' 소수점거래를 새롭게 추가하면서 이용자 확보에 나선다는 방침이다. 앞서 선보인 타 증권사들의 해외주식 소수점거래가 온주로 거래했던 것과는 달리 실시간으로 거래가 체결해 사용자들의 편의성을 높이겠다는 전략이다.또 다른 핀테크 기반의 카카오페이증권도 지난달부터 MTS 정식 출시를 앞두고 베타 서비스를 진행하고 있다. 이달 중 MTS에 해외주식 소수점 거래 서비스를 추가할 예정으로, 향후 서비스 안정성을 검토한 뒤 MTS 정식 출시를 진행할 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2022.03.21.</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>국립발레단 '해적' 대전예술의전당서 24일부터 이틀간 공연</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0005980784?sid=102</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>국립발레단 '해적'이 24일부터 이틀간 대전예술의전당에서 선보인다. © 뉴스1(대전=뉴스1) 김기태 기자 = 대전예술의전당은 24일부터 이틀간 강수진 예술감독이 이끄는 국립발레단의 '해적' 무용공연을 선보인다. 국립발레단의 '해적'은 영국 낭만시인 바이런의 극시를 바탕으로 한 마리우스 프티파의 오리지널 버전을 국립발레단의 솔리스트이자 안무가인 송정빈이 새롭게 탄생시킨 작품이다.해적단의 모험에 빠질 수 없는 사랑과 우정, 배신의 이야기가 토슈즈를 신은 발레단의 다이내믹한 춤의 향연으로 펼쳐진다. 이번 대전공연에서는 박슬기, 박예은이 ‘메도라’ 역을, 그녀와 사랑에 빠지는 해적단의 수장 ‘콘라드’역에 이재우와 하지석, 그리고 그들의 사랑을 돕는 ‘알리’ 역에 김기완, 김태석이 주역으로 출연한다. 이번 송정빈 안무의 '해적'에서 주목할 점은 캐릭터의 설정과 극의 전개에 있다고 대전예술의전당은 설명했다. 시대 상황에 맞춰 원작에서 노예로 설정된 두 여주인공 ‘메도라’와 ‘귈나라’를 각각 ‘플로리아나 섬의 아름다운 소녀’와 ‘마젠토스 왕국의 대사제’로 캐릭터를 재설정하는 한편, 3막의 원작을 2막으로 압축해 보다 빠르고 다이내믹한 전개로 긴장감과 몰입도를 높였다는 평을 받고있다.여기에 역동적인 남성 군무와 ‘파 드 트루아(3인무)’ 등 화려한 볼거리와 아름다운 명장면을 더해 더욱 웅장한 무대를 선사한다. 티켓은 R석 7만원, S석 5만원, A석 3만원, B석 2만원으로 8세 이상 입장 가능하다. 자세한 내용은 대전예술의전당 홈페이지를 참조하면 된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2022.03.22.</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>[THE FINANCE] 몇년 손꼽아 이자받는다고?… `지금받기` 누르면 매일!</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002725971?sid=101</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>고금리 은행 예·적금을 찾다 보면 우대조건 충족과 유지 기간들을 상세히 확인해야 하는 번거로움을 감수해야 한다. 여기에 지친 사람들을 위해 잠시만 돈을 넣어둬도 이자가 붙는 '파킹통장' 경쟁도 벌어지고 있다.토스뱅크의 '토스뱅크 통장'은 1억원까지는 연 2%, 1억원 초과분에는 연 0.1% 금리를 제공한다 지난 16일부터는 은행권 최초로 이자를 하루 단위로 정산하는 서비스를 시작해 돈을 넣어둔 기간에는 복리 효과를 볼 수도 있다.토스뱅크 앱에 접속해 '지금 이자 받기(이미지)'를 누르면 매일 한 번씩 이자를 받을 수 있다. '지금 이자 받기' 기능을 이용하지 않으면 원래대로 월 1회, 매달 세 번째 토요일에 이자를 준다.대출 이자는 매일 꼬박 계산되지만 예금이자는 그렇지 않다는 점에 실험적으로 도전한 토스뱅크는 서비스 출시 이틀만에 66억원에 달하는 이자를 지급하기도 했다. 토스뱅크는 지난 18일 서비스 출시일부터 이날 오전 9시까지 토스뱅크 고객이 받아간 이자 금액이 66억5576만원이라고 밝혔다. 41만명에 달하는 고객이 평균 1만6200원의 이자를 얻은 셈이다.'비상금 통장'으로 높은 인기를 끌고 있는 케이뱅크의 '플러스박스'는 최대 한도 3억원까지 연 1.0% 금리를 준다. 원하는 용도별로 최대 10개까지 '통장 쪼개기'가 가능해 기혼 직장인들에게 선호도가 높다. 특정 요일이나 날짜를 정해 입출금 통장에서 플러스박스로 자동이체를 설정할 수도 있다. 카카오뱅크도 파킹통장 개념의 '세이프박스' 서비스를 운영 중이다. 최대 보관 한도는 1억원으로 금리는 연 1.1%다.파킹통장을 향한 관심이 높아지면서 저축은행들도 고객 유치전에 나섰다. 상상인저축은행의 '파킹통장 369 정기예금'은 중도해지할 경우에도 예치기간별 약정금리를 적용하는 복리식 이율 적용이 장점이다. 기존 고객과 신규 고객 모두 가입 가능하고, 최소 10만원 이상 납입해야 한다. 연이율은 24개월 기준 최고 2.11%이고 가입기간은 최대 24개월이다. 영업점 전용 상품으로 분할해지는 3회까지 가능하다.SBI저축은행의 '사이다뱅크 입출금통장'은 예치금 1억원까지 연 1.2%, 1억원 초과분에는 연 0.2% 금리를 적용한다. 가령 1000만원을 1년 예치할 경우 연이자는 12만662원(원복리 세전 기준)이다.  BNK저축은행은 지난 10일 모바일뱅킹 앱 개편을 기념해 '타!이거 파킹통장'을 내놨다. 예치금액에 따라 500만원까지 최대 연 2.2%, 초과분에 대해선 0.7%의 금리를 제공받을 수 있다.OK저축은행의 'OK읏통장'은 가입금액 제한 없이 3000만원까지 연 1.0%, 3000만원을 초과하는 금액에는 연 0.1% 금리를 적용한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2022.03.22.</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>위메프, ‘브랜드데이’..인기 브랜드 30곳 최대 30% 할인</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004806832?sid=101</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>위메프가 23~24일 이틀간 ‘브랜드데이’를 열고, 30개 인기 브랜드관 세일 행사 및 타임세일을 진행한다고 22일 밝혔다.   먼저 3월 베스트브랜드관으로 △SK매직 △팸퍼스 △그린핑거 △LF몰(헤지스,닥스,질스튜어트) △잇츠스킨 △웨스트우드 6곳을 선정했다. 해당 브랜드관에서는 최소 10%에서 최대 30%까지 할인 혜택을 선보인다.   베스트브랜드관 대표 상품은 △SK매직 무설치 식기세척기 외 △그린핑거 워시320ml+샴푸320ml △질 바이 질스튜어트 체크패턴 숄더백 외 △웨스트우드 긴팔 집업 티셔츠 외 등이다.   추천 브랜드관에서는 식품·생활용품·패션·인테리어 등 다양한 카테고리를 대표하는 인기 브랜드를 선정해 파격 세일을 진행한다. △유한킴벌리 △네파키즈 △네스프레소 △청정원 △모던하우스 등이 참여한다.   타임세일은 23일 0시부터 하루 6번(0시, 9시, 12시, 15시, 18시, 21시) 열린다. 시간대별 5개씩 행사 기간 총 60개 타임세일 상품을 선보인다. 주력 상품은 △리복 아동 맨투맨 티셔츠 외 △SOUP 슬리브 롱 점퍼 외 △오가니스트 아이스민트 샴푸 500ml △진쿡 일품양념닭갈비 1팩 △바치(VACH) 스팀마스터 스팀청소기 △닥터브라이언 비타프레쉬 귤젤리 1+1 등이다.   전 고객 대상 쿠폰 혜택도 제공한다. 구매 금액별 장바구니 쿠폰을 지급하며 최대 1만5000원까지 할인 받을 수 있다. 국민·삼성·하나·카카오페이·토스 등 카드사 추가 할인도 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>2022.03.23.</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>비트코인 범죄 잡던 美 전직 검사, 1조8000억원 가상화폐 펀드 설립</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003680613?sid=104</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>케이티 혼 전 미국 연방 검사. /트위터										비트코인 범죄를 수사해온 미국 전직 검사가 가상 화폐 투자자로 변신해 1조8000억원이 넘는 자금을 조달했다.블룸버그통신은 22일(현지 시각) 미국의 전 연방검사 케이티 혼이 설립한 투자펀드 혼 벤처스가 15억달러(약 1조8174억원)의 자금을 유치했다고 보도했다. 혼 벤처스는 가상 화폐와 블록체인 기술, 대체불가토큰(NFT), 차세대 분산형 웹 3.0 관련 업체에 주로 투자한다.10여 년간 검사로 일했던 혼은 비트코인 관련 범죄를 수사하면서 가상 화폐를 처음 접했다. 정부 최초로 가상 화폐 태스크포스(TF)를 설립했고, 2013년 위장 수사 요원으로 활약하며 정부를 대신해 가상 화폐를 구매하기도 했다. 2014년 해킹 피해로 파산한 1세대 암호 화폐 거래소 ‘마운트곡스’ 수사를 이끌기도 했다.혼은 수사 경험을 통해 얻은 가상 화폐 전문 지식을 바탕으로 2017년 미국 최대 암호 화폐 암호 거래소인 코인베이스 이사회에 합류했다. 이어서 벤처캐피털 앤드리슨 호로비츠 임원을 거치며 능력을 인정받았고 지난해 12월 혼 벤처스를 창립했다. 이후 NFT 거래소 ‘오픈시’, 블록체인 개발 스타트업 ‘앱토스’ 등 10개 미만의 스타트업에 투자했다. 경제 매체 CNBC 방송은 혼 벤처스의 15억달러 자금 유치는 여성 창업자가 설립한 펀드의 최초 모금액 중 가장 큰 규모라고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2022.03.29.</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>금감원, '토스' 수시검사 착수…빅테크 첫 사례</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003006669?sid=101</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>금융감독원이 '토스'에 대한 수시검사에 착수했다. 토스의 신용정보법 저촉 여부를 중점적으로 살필 것으로 예측된다.29일 금융권에 따르면 금감원은 최근 토스 운영사 비바리퍼블리카에 대한 수시 검사를 위해 인력을 투입했다. 금감원은 토스의 업무 전반을 살피고 소비자 보호 상태를 중점적으로 점검할 것으로 알려졌다.이번 수시 검사는 사고 발생이나 민원 접수에 따른 것이 아니라 올해 금감원의 빅테크 검사 강화 차원이다. 비바리퍼블리카가 첫 번째로 선정됐으며, 이후 수시검사 대상 후보로 카카오페이, 네이버파이낸셜 등이 가능성 있다.금감원 정기검사는 은행·지주, 금융투자, 보험 등 전통적인 금융회사 대상으로 진행된다. 정기검사 대상이 아닌 토스는 수시검사를 받게 됐다.금감원은 올해 검사업무 운영계획을 발표하면서 '빅테크'의 금융사업 확대에 따른 소비자 피해 예방에 초점을 맞출 것이라고 예고했다. 당시 금감원은 거래 규모, 신규사업 진출 등 위험 요소를 분석해 리스크가 큰 대형 전자금융업자를 대상으로 현장검사에 나서겠다는 계획을 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2022.03.16.</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>[단독]은행 핀테크 인수길 열린다…尹, 디지털 혁신 규제 완화</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004720667?sid=101</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>윤석열 대통령 당선인/사진=뉴스1은행권 혁신을 가로막았던 대표적인 규제들이 윤석열 정부에서 점차 완화될 전망이다. 핀테크 등 자회사 소유 제한이 풀리면 은행이 경쟁력 있는 핀테크를 인수, 고객에게 새로운 서비스를 제공할 수 있게 된다. 또 금융지주 자회사간 고객 데이터를 공유할 수 있게 되면 맞춤형 금융서비스도 더욱 정교화될 것으로 보인다. 윤 당선인 대선 캠프에서 금융 공약 개발에 참여했던 한 인사는 16일 "그동안 은행과 빅테크 사이 경쟁 구도는 '기울어진 운동장'이었다"며 "다만 빅테크를 압박하는 것보다는 은행도 혁신할 수 있도록 제도를 정비하는 게 가장 좋은 방향"이라고 말했다. 그는 "캠프에서 은행권 요구를 검토했고, 경쟁 촉진을 위해 바람직한 방향이라고 봤다"고 했다. 실제로 토스, 카카오 등 빅테크는 은행 외에도 다양한 핀테크 회사를 자회사로 두고 있다. 인수위는 구성이 완료된 후 활동을 시작하면 은행들이 요구하는 '디지털 규제' 완화 방안을 포함해 금융권 규제 이슈를 전반적으로 들여다 볼 예정이다. 인수위 관계자는 "(규제 완화는) 당연히 논의될 수 있는 사안"이라며 "변화하는 환경 속에서 규제의 부작용이나 단점이 나타나면 필요와 부작용 사이 어느 쪽이 더 큰지 따져봐야 한다"며 규제 완화 가능성을 언급했다. 금융권이 완화를 요구하는 디지털 규제는 스타트업·핀테크 등 자회사 소유 제한, 지주 자회사 간 고객 데이터 공유 제한 등이다. 금융산업의 구조개선에 관한 법률(금산법)에 따르면 은행 등 금융사는 비금융 회사 지분을 20% 이상을 확보하려면 금융위원회의 승인을 받아야 한다. 은행법은 은행이 비금융 스타트업 지분을 15% 이상 보유할 수 없다고 규정하고 있다. 금융지주회사법은 지주 자회사끼리 마케팅 등 영업 목적의 고객 데이터 공유를 금지하고 있다.은행연합회도 대선 기간 윤 당선인 캠프에 규제를 완화할 필요가 있다는 내용의 제안서를 보냈다. 직접 캠프에 방문해 법 개정에 나서달라고 요청하기도 했다. 은행권은 정부 역시 규제 완화에 공감하고 있어 새 정부가 더 속도를 낼 것으로 보고 있다. 고승범 금융위원장은 지난달 28일 '디지털 유니버셜 뱅크' 구축을 위해 자회사 소유 규제를 개선하고 자회사간 정보 공유를 완화하겠다고 밝힌 바 있다.다만 일각에서는 은행권 규제 완화를 새 정부가 당장 추진해야 할 목표로 내세우진 못할 것으로 보고 있다. 윤 당선인 대선 캠프 관계자는 "당장은 코로나19(COVID-19) 피해 소상공인·자영업자 관련 경제 대책이 중요해서, 업권 규제 이슈는 차후 논의될 것 같다"고 말했다. 이 관계자는 "규제를 완화하려면 법 개정이 필요하다"며 "정부 출범 이후에 국회에서 본격적으로 논의되지 않겠느냐"고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2022.03.17.</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>토스증권, 4월부터 실시간 해외 소수점거래 출시</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001020338?sid=101</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>2,700여개 해외 종목…1,000원부터 투자토스증권이 오는 4월 국내 증권사 중 처음으로 '실시간' 해외 소수점 거래 서비스를 시작한다.해외 소수점 거래 서비스는 토스증권에서 제공하는 2,700여개의 미국 주식과 상장지수펀드(ETF)와 상장지수증권(ETN) 등을 대상으로 하며, 1,000원부터 투자금액을 입력해 구매할 수 있다.아마존, 구글(알파벳) 등 1주 당 가격이 높은 주식들에 소액 분산투자가 가능해져, 2030 투자자 및 해외투자를 망설였던 고객들의 투자 접근성이 확대될 것으로 보인다.토스증권의 해외 소수점 거래 서비스는 고객의 주문 시점의 가격으로 즉시 체결되는 것이 특징으로 투자자들은 1주 단위로 주식을 거래할 때와 동일하게 실시간으로 소수점 주식을 사고 팔 수 있다.이는 국내 증권사 중 처음 선보이는 방식이다.단, 소수점 주문은 시장가 거래만 가능하고, 지정가 주문은 제공되지 않는다. 토스증권의 실시간 매매 방식은 기존에 소수점 투자를 경험해본 투자자들에게 차별화된 매매 경험을 제공할 것으로 기대된다.토스증권 관계자는 "기존 해외 소수점 거래의 구조적인 문제와 고객 불편을 해소하면서 투자자들에게 가장 빠른 소수점 거래 서비스를 선보일 수 있게 되었다"며 "해외 소수점 투자로 더 많은 투자자들이 미국의 우량 주식을 손쉽게 경험하고, 나아가 해외투자가 대중화될 수 있기를 기대한다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2022.03.16.</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>모션-애니메이션 플랫폼 로티파일즈, 국내 시장 진출</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002250591?sid=105</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>첫 해외 진출 시장으로 한국 선정 후 아시아 시장 공략 예정모션 및 애니메이션 플랫폼 로티파일즈(LottieFiles)가 국내 시장에 본격적으로 진출한다. 로티파일즈는 빠르게 성장하고 있는 한국을 해외 첫 시장으로 선정해 국내 사용자 및 커뮤니티를 적극 지원하고 모션 그래픽에 새로운 패러다임을 제시할 예정이다.로티파일즈는 JSON 기반의 애니메이션 파일 포맷 ‘로티(Lottie)’를 통해 모션 그래픽의 혁신을 선도하는 새로운 애니메이션 플랫폼이다. 로티는 벡터기반으로 만들어진 오픈 소스 애니메이션 파일 포맷으로, 파일 용량을 획기적으로 줄이고 전송 속도를 높인다.크기를 자유롭게 조정해도 해상도가 낮아지지 않고, 다양한 기기 및 플랫폼에서 사용할 수 있기 때문에 디자이너, 마케터, 개발자 등 다양한 업계에서 각광 받고 있다.로티파일즈에어비앤비, 구글, 틱톡, 디즈니, 넷플릭스 등 13만 4천여 개 기업과 200만 명 이상의 사용자를 보유하고 있으며, 2021년 기준 전년 대비 약 160%의 성장률을 기록했다. 현재 9초마다 새로운 애니메이션이 로티파일즈의 워크플로우 및 툴을 활용하고 있으며, 어도비 XD(Adobe XD), 어도비 애프터 이펙트(Adobe After Effects). 피그마(Figama), 웹플로우(Webflow) 등 가장 보편적으로 사용되고 있는 디자인 툴과도 통합되어 범용성이 높다.또한 지난 2020년 4월 어도비 디자인 펀드(Adobe Fund for Design) 및 500 스타트업 펀드(500 Startups)를 유치하고, 2021년 1월에는 마이크로스프트의 M12 벤처 펀드가 이끄는 시리즈 A 라운드에서 약 900만 달러의 투자를 받는 등, 성장 가능성을 인정받으며 세계에서 가장 빠르게 성장하고 있는 스타트업으로 부상하고 있다.로티파일즈는 아이콘스카우트(Iconscout) 인수를 통해 전세계 가장 큰 애니메이션 라이브러리로 자리잡았으며, 웹사이트에서는 현재 5만개 이상의 애니메이션을 무료로 사용할 수 있는 오픈 소스 라이브러리를 제공하고 있다. 이러한 편의성에 기반하여 앱스토어 상위 500여 개 앱이 로티를 사용하고 있다.로티파일즈는 첫 해외 진출 시장을 한국으로 선택하고 올해 본격적으로 진출해 사업을 확장해 나갈 계획이다. 이를 위해 나투 아드난(Nattu Adnan) 공동 창립자 겸 CTO가 한국 비즈니스 및 활동 전반을 총괄하며 한국 및 아시아 시장 공략에 적극 나선다.나투 아드난 CTO는 “한국은 전세계에서 로티파일즈 이용자가 가장 빠르게 증가하고 있는 국가 중 한 곳이다”라며 “이미 삼성, 네이버, 토스, 우아한 형제들 등 수많은 한국 기업들이 로티파일즈를 이용하고 있으며, 향후 국내 사용자 및 커뮤니티에 대한 적극적인 지원을 통해 한국 시장에서 애니메이션의 혁신에 대한 니즈를 충족시켜 줄 것”이라고 말했다.로티파일즈 시티지 밍글라니(Kshitij Minglani) 공동 창립자 겸 CEO는 “로티파일즈는 유연하고 혁신적인 로티 포맷을 통해 모션 그래픽에 새로운 패러다임을 제시하고 있다”라며 “로티를 통해 애니메이션 파일의 전송 속도를 높이고 시간을 절약시켜주는 등, 전세계 사용자를 위해 애니메이션 워크플로우를 간소화하여 산업 전반에 걸쳐 새로운 가능성의 영역을 만들어나갈 것”이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>2022.03.30.</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>서울시 "토스서도 지방세·과태료 납부하세요"</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004812001?sid=102</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>서울시는 30일부터 지방세입 전자고지 및 납부 서비스에 모바일 금융 플랫폼 토스(TOSS)를 추가한다고 밝혔다.   서울시는 지난 2019년부터 페이코와 네이버, 신한플레이, 카카오페이 등 간편결제사를 통한 지방세입 전자고지 서비스를 시행 중에 있다. 간편결제사 앱을 통해 재산세, 자동차세 등 지방세뿐만 아니라 과태료 등 세외수입까지 고지서 수령 및 납부가 가능하다.   간편결제사 앱이나 이텍스(ETAX) 홈페이지를 통해 전자고지를 신청하고 스마트폰에 수신된 고지서 내역을 확인한 후 등록된 신용카드로 편리하게 납부할 수 있다.   전자고지 신청자에게는 재산세(7월, 9월), 자동차세(6월, 12월) 등 정기분 지방세를 기한내에 납부할 경우 150~500원의 세액공제 혜택을 주고, 현금처럼 사용 가능한 마일리지를 최고 850원까지 적립해 준다.   서울시는 "지난해 정기분 기준 19.5%인 전자고지 발송 비율을 전자고지 방법의 다양화, 혜택 확대, 홍보 등을 통해 올해 말까지 24.5% 목표로 확대할 계획"이라며 "가입자 2100만명의 토스 앱을 통한 전자고지 서비스를 추가하여 연간 15만건(1%), 1억여원의 종이고지서 송달 비용을 절감할 수 있을 것"이라고 내다봤다.   아울러 서울시는 "종이고지서를 수령하는 납세자의 납부편의 확대를 위해 고지서의 QR코드를 간편결제사 앱에서 간편하게 스캔하고 바로 납부할 수 있는 서비스를 제공한다"고 덧붙였다.   서울시 세금 납부 사이트 '서울시 ETAX'에서도 간편결제사 토스를 이용한 납부 서비스가 확대된다.   이병한 서울시 재무국장은 "토스 전자고지 및 간편결제 확대를 통해 서울시민이 보다 편리하게 지방세를 납부할 수 있기를 바란다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>2022.03.30.</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>카뱅 주담대 한달만에 1000억…시중銀 위협하는 인뱅</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004036172?sid=101</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>[기업대출 이어 주담대까지 공격영업]한도·금리확인까지 3분이면 OK토뱅 사장님 사업자 대출도 돌풍케뱅은 담보대출 금리 0.5%P 내려[서울경제] 카카오뱅크·토스뱅크·케이뱅크 등 인터넷은행 3사가 공격적인 대출에 나서고 있다. 각 사는 상품 취급 범위 확대 및 혜택 강화, 신상품 개발 등을 통해 대출 사업 부문 확대하며 시중은행을 위협하고 있다.30일 은행 업계에 따르면 카카오뱅크의 주택담보대출 누적 약정 금액은 이날 기준 1000억 원을 넘어섰다. 2월 말 카카오뱅크가 주택담보대출 상품을 선보인 뒤 불과 한 달 만이다. 신규 취급 평균 금리는 3.69%로 이용자들이 해당 상품을 조회한 건수는 누적 7만 건 이상에 달했다. 카카오뱅크 집계 결과 대출 가능 한도나 금리 등을 확인하는 데 걸리는 시간은 평균 3분 29초에 불과했다. 챗봇에 기반한 대화형 인터페이스 등을 도입한 영향이다. 카카오뱅크에 앞서 2020년 8월 업계 최초로 비대면 아파트 담보대출을 내놓은 케이뱅크의 아파트 담보대출 누적 취급액은 출시 1년 4개월 뒤인 올 1월 기준 1조 원을 넘겼다.개인 사업자 대출 시장에서도 인터넷은행이 영역을 확대하고 있다. 토스뱅크가 2월 14일 인터넷은행 최초로 출시한 무보증·무담보 개인 사업자 대출 상품 ‘사장님 대출’ 취급액은 한 달 반 만에 2000억 원(29일 기준)을 돌파했다. 대출을 받기 위해 토스뱅크를 찾은 이용자는 하루 평균 1400여 명으로 이 중 최대 한도인 1억 원으로 대출을 받은 고객은 전체 상품 이용자의 8.4%를 차지했다. 시중은행들의 올해 비대면 자영업자 대출 목표가 4000억 원 선임을 감안하면 토스뱅크의 개인 사업자 대출은 성공적이다.틈새시장을 공략한 결과 토스뱅크 가입자 수는 출범 5개월 만에 235만 명으로 불어나기도 했다. 사업자 대출 출시 전인 올해 1월 말과 비교하면 60만 2400여 명(34.42%) 늘었다. 토스뱅크 관계자는 “대출 영업의 성장 등을 통해 안정적인 수익을 거둬 고객들에게 혜택을 돌려주고 있다”며 “‘사장님 대출’ 중도 상환 수수료 무료 혜택 등을 이어갈 것”이라고 말했다.인터넷은행들은 기존 대출 상품을 확대하거나 신상품을 개발하는 방식 등으로 대출 시장에 더욱 공격적으로 진출할 계획이다. 카카오뱅크는 올해 말까지 주택담보대출 중도 상환 수수료를 전액 면제한 데 이어 다음 주 중으로 주택담보대출을 신청할 수 있는 주택 가격 기준을 상향할 계획이다. 현재 대출이 가능한 주택은 KB시세 기준 9억 원 이하 수도권 소재 아파트로 기준이 상향될 경우 최대 15억 원 미만 아파트까지 주택담보대출을 이용할 수 있을 것으로 전망된다. 올 하반기에는 개인 사업자 대출 상품 출시도 예정돼 있다.올해 기업공개(IPO)를 앞둔 케이뱅크 역시 기업가치 제고를 위해 2월 아파트 담보대출 고정형 상품 금리를 0.5%포인트 인하하는 등 대출 부문 강화에 나선다. 현재 100% 비대면 보증부 대출 형식의 개인 사업자 대출 상품을 준비 중인 케이뱅크는 통합 전자 보증, 비대면 보증 시스템 구축 등 막바지 작업을 마친 뒤 4월 중 상품을 선보일 예정이다.인터넷은행들의 적극적인 행보는 5월 들어설 새 정부의 대출 규제 완화 기조에 발맞춰 더 속도를 낼 것으로 전망된다. 인터넷은행 관계자는 “업권 전반적으로 봤을 때 다른 대출 상품들로 회로를 찾으려는 움직임이 속속 나타나고 있다”며 “기존에 하지 않던 상품들이 추가되면서 인터넷은행사들의 대출 상품 포트폴리오가 다각화될 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>2022.03.24.</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>닥터나우, 누적 이용자 수 300만 돌파</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000661387?sid=105</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>"전국 비대면 진료·약 배송 시스템 구축"닥터나우 누적 이용자 수가 300만명을 돌파했다.코로나19 확산으로 원격 의료 플랫폼이 빠르게 성장하고 있다. 사진은 원격 의료 플랫폼 닥터나우 관련 이미지. [사진=닥터나우]24일 닥터나우는 누적 이용자 수 300만 돌파를 기념해 이용 현황 데이터를 조사해 공개했다. 자체 이용 현황을 분석한 결과 연령, 지역별로 사용량이 크게 늘어난 것으로 나타났다.앞서 닥터나우는 지난 2020년 12월 서비스를 시작했다. 올해 3월 20일까지 누적 이용자 수는 300만 명을 돌파했으며, 3월 주간 활성 이용자 수(WAU)가 100만 명을 넘어서며 비대면 진료 및 처방약 배송 서비스 확대에 앞장서고 있다.아울러, 서비스 초기에는 2030 세대의 사용량이 지배적이었으나, 최근에는 40대 이상의 사용량이 늘어 전체 사용자의 30% 비중을 차지하는 등 이용 연령층의 확장이 가속되고 있다.닥터나우 이용자 중 가장 어린 나이의 환자는 0세이며 최고령 환자는 101세로 나타났다. 영유아부터 노년까지 비대면 진료를 이용하고 있는 것이다. 이는 2030세대 이용자가 가족의 비대면 진료를 위해 닥터나우의 '가족 대리접수' 기능을 활용한 결과다.지역적으로도 비대면 진료의 사용량은 고르게 늘어났다. 닥터나우는 전국 700여 개의 제휴 의료기관에서 이비인후과, 소아청소년과, 내과, 피부과 등 19개 진료과목을 운영하고 있어 거주지나 시간에 상관없이 진료를 받을 수 있다. 처방약 배송 역시 서울 및 수도권, 6개 광역시(일부 지역 제외)에서 당일 배송이 가능하며 전국 택배 시스템도 갖추고 있다.회사 측은 "이를 통해 서울, 수도권 제외 지역의 이용 건수는 전년 평균 대비 9배 이상 증가해, 지역별 의료 격차를 해소하는데 기여하고 있다"고 설명했다.장지호 닥터나우 대표는 "토스, 쿠팡 등 데일리 서비스 플랫폼이 2030 이용자의 지지로 시작해 현재 전국민 서비스가 된 것처럼, 닥터나우의 의료 서비스 역시 빠르게 연령대를 넘어 확장해 나가고 있다"며, "과거에는 경험하지 못한 의료 서비스를 제공하기 위해 앞으로도 서비스 고도화와 인프라 확장에 최선을 다할 것"이라고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>2022.03.28.</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>출범 1년 토스證 “420만 고객 확보 월평균 230만명 접속”</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005175854?sid=101</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>미국 로빈후드 넘어선 역대급 성장 기록“올해 실시간 해외 소수점 거래로 성장 동력 이어갈 것”[이데일리 유준하 기자] 토스증권이 출범 이후 1주년을 맞은 가운데 420만명의 고객과 230만명의 월간활성이용자(MAU)를 확보했다고 28일 밝혔다. 토스증권은 지난 1년간의 압도적인 성장세를 올해 한층 가속화한다는 계획이다.토스증권 관계자는 “1년 만에 420만명 고객 확보는 국내 증권업계를 넘어 전세계 금융투자 역사에서도 유래를 찾을 수 없는 기록”이라며 “토스증권은 출범 석 달 만에 350만 신규 계좌가 개설됐는데, 이는 미국의 주식거래 플랫폼 로빈후드가 2년여 만에 달성한 수치”라고 설명했다. 2100만 토스 앱 사용자의 호응과 MZ세대(밀레니얼+Z세대) 사이에 입소문이 퍼지며 하루 최대 58만여 명이 가입하는 대기록을 세우기도 했다. 월간활성이용자(MAU)는 출범 이래 꾸준히 200만명을 상회하며, 월평균 230만명을 기록하고 있다. 이는 국내 증권사 상위 5개사에 필적하는 수준이다. 출범 당시 밝혔던 월간활성이용자 100만명 달성의 목표를 출범 첫 달부터 2배 이상 상회했다.이같은 성장의 중심에는 MZ세대 투자자들이 있다. 토스증권의 2030 고객은 260만명으로, 전체 고객의 약 65%를 차지한다. △투자자 누구나 쉽고 편리하게 이용할 수 있는 UI·UX(사용자환경·경험)와 △투자자의 시각에서 해석한 맞춤형 서비스들은 MZ세대와 초보 투자자들의 이목을 끌며, 국내 주식투자 인구 중 적은 비중을 차지해 온 30대 이하 젊은 투자 층의 주식투자 참여를 한층 끌어올렸다. 토스증권이 지난해 7월 선보인 ‘주식선물하기’ 서비스는 투자자끼리 주식을 주고받을 수 있는 서비스다. 기존 증권사의 ‘타인계좌주식대체’를 이해하기 쉬운 표현으로 재해석하고 간편하게 서비스를 설계했다. 기존에 존재했던 증권 서비스지만 고객들의 높은 관심을 받으며 출시 1주일만에 1만건 이상의 선물하기가 이뤄졌다. ‘커뮤니티’는 토스증권만의 특징적인 서비스 중 하나로, 투자자 간 의견 교류의 장을 제공하며 건전한 투자 문화를 만들어가고 있다. 실제 주주와 잠재투자자를 뱃지로 구분해 투자자 의견의 신뢰도를 높이고 기존의 주식 커뮤니티와 차별화했다. 이 서비스는 주식 투자자 중 상당수가 객관적인 정보 외에도 지인, 주식 커뮤니티 등을 통해 주관적인 정보를 참고한다는 점에 착안해 기획됐다. ‘토스증권 데일리’ 콘텐츠는 애널리스트가 직접 고객과 소통하며 초보 투자자들의 성장을 이끌고 있다. 애널리스트들은 매일 시장에서 발생한 이슈들을 추려 투자자들의 시각에서 이해하기 쉽게 정리한다. 어렵고 낯설게 느껴질 수 있는 전문용어들은 쉽게 풀어쓴다. 댓글을 통해 투자자와 소통하며 콘텐츠에 대한 의견과 주제를 제안받기도 한다. 토스증권 콘텐츠는 투자자들의 높은 호응 속에 구독자 수 50만명 돌파를 눈앞에 두고 있다. 토스증권 관계자는 “토스증권이 말하는 주식투자의 새로운 표준은 투자자의 시각에서 시작해 현재 진행형”이라며 “앞으로 토스증권은 처음 투자를 시작하는 고객과 숙련된 투자경험을 가진 고객 모두가 만족할 수 있는 진정한 의미의 모바일 주식투자의 표준을 보여 드릴 것”이라 말했다.한편, 토스증권은 지난 1년간의 압도적인 성장세에 이어 업계 최초로 선보이는 ‘실시간’ 해외주식 소수점 거래 서비스라는 혁신을 통해 더욱 가속할 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2022.03.29.</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>내 행정정보 조회내역, 간편하게 알림받자</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003261610?sid=100</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>행정안전부는 30일부터 민원을 신청하면서 행정정보 공동이용에 동의한 국민에게 ‘본인정보 조회내역 알림’ 서비스를 제공한다고 29일 밝혔다. 국민비서에서 ‘본인정보 조회내역 알림’을 신청한 국민들은 앞으로 행정정보 공동이용 과정에서 본인의 행정정보가 조회되면 국민비서로 알림서비스를 받는 방식이다.행정정보 공동이용은 여러 행정기관의 정보시스템을 연계해 각 행정기관이 보유한 개인의 행정정보를 공동으로 이용하며 민원인의 편의를 돕는 시스템이다. 사전에 알림 서비스를 신청하면 본인의 행정정보가 조회될 때 챗봇 안내 서비스인 ‘국민비서(구삐)’가 조회기관, 조회목적, 조회정보, 조회일시를 카카오톡이나 네이버 앱, 토스 등을 통해 알려준다.행안부는 개인정보처리자의 무분별한 이용을 사전에 막고 정보주체의 알권리를 실질적으로 보장할 수 있을 것으로 기대한다고 설명했다.서주현 행안부 공공지능정책관은 “개인정보가 한번 잘못 유출되면 그로 인한 피해를 회복하기 어렵다. 민원처리를 위한 경우 등 필요 최소한으로만 조회되어야 한다”면서 “앞으로도 행정정보 공동이용 과정에서 개인정보가 안전하게 보호될 수 있도록 만전을 기하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>2022.03.31.</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>토스뱅크, 작년 이자순손실 -112억</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004812661?sid=101</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>[파이낸셜뉴스]   '하루만 맡겨도 2% 이자 제공'이라는 파격을 내걸었던 토스뱅크가 작년 이자 영업으로 약 100억원의 적자를 기록한 것으로 나타났다. 토스뱅크 입장에서는 이자를 지급해야 하는 예금이 이자를 받을 수 있는 대출보다 20배 많이 모였지만 중금리 대출 위주 영업으로 손실폭을 최소화 한 것으로 분석된다.   31일 토스뱅크가 공시한 지난해 영업실적에 따르면 토스뱅크 이자순손실은 112억원으로 나타났다. 두 달 간 13조7900억원의 수신잔액을 유치하며 이자비용으로 424억원을 지출했고, 5315억원을 대출한 데 대해 312억원의 이자 수익을 거뒀다.   여기에 토스뱅크 출범을 위해 지난 1년 간 직원들에게 지급됐던 급여와 ATM 수수료 등 주로 초기 투자에 투입된 판관비가 540억원을 차지하면서 누적순손실은 806억원을 기록했다.   다른 인터넷은행들도 영업 첫 해는 모두 손실을 냈다. 2017년 4월 출범한 케이뱅크는 그해 837억8716원 순손실을 기록했고, 같은 해 7월 출범한 카카오뱅크는 그해 순손실 1044억9014만원이 났다. 케이뱅크는 출범 4년 만, 카카오뱅크는 2년 만에 각각 흑자전환에 성공했다. 토스뱅크 관계자는 "업권의 오해와 달리 이자손실이 예상보다 크지 않았지만, 이제 막 문을 연 은행으로서는 아쉬움도 있었다"고 말했다.   토스뱅크는 지난 해 10월 출범해 열흘 만에 대출 총량인 5315억원을 모두 소진하고 사실상 대출 영업을 중단했다. 하지만 세전 연 2% 금리 혜택의 토스뱅크통장(수시입출금)과 월 최대 4만6500원의 캐시백 혜택은 그대로 뒀다.   올 1월 대출 영업을 재개하며 사실상 정상영업을 시작한 토스뱅크는 빠른 성장세를 보이고 있다. 우선 오는 3월 18일까지 여신잔액은 약 2조5000억원 규모로 늘었다. 토스뱅크 관계자는 "여신이 지난해 말 대비 5배로 상승하면서 경영 상태가 빠르게 개선되고 있다"며 "특히 중저신용자, 개인사업자 대출 등 전 업권을 아우르는 대출을 취급하며 예대율이 증가하는 등 순이자마진이 빠르게 높아지고 있다"고 설명했다.   토스뱅크 수신잔액은 지난 18일 기준 17조원 규모로 늘었고, 이용고객 수는 235만명으로 지난해 말보다 약 두 배 가량 불었다. 또 추가 증자에 따라 자본금도 8500억원으로 확대됐다. 토스뱅크는 "하반기 전세자금대출 등 신상품을 출시해 빠른 시간 내에 재무적 개선을 이뤄나갈 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2022.03.23.</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>[DD 퇴근길] 명실상부 정치테마주, 신고가 경신 '안랩'</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002121317?sid=105</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>디지털데일리가 퇴근 즈음해서 읽을 수 있는 [DD퇴근길] 코너를 마련했습니다. 혹시 오늘 디지털데일리 기사를 놓치지는 않으셨나요? 퇴근 앞두고 저희가 요약 정리한 주요 기사를 가벼운 마음으로 읽어주시기 바랍니다. 전체 기사는 ‘디지털데일리 기사 하단의 관련뉴스(아웃링크)’에서 확인할 수 있습니다.   안랩이 23일 전일대비 29.9% 오른 17만5800원으로 상한가와 동시에 52주 신고가이자 창사 이래 최고가를 경신했습니다. 기존 최고가는 안철수 창업주가 정계에 입문하며 유력 대권주자로 부상한 2012년 1월 6일 기록한 16만7200원입니다. 안랩의 최고가 경신은 만으로 10년 2개월 17일, 3730일 만입니다. 2012년 이후 안랩은 매 선거철마다 주가가 오르락내리락하는 ‘정치 테마주’가 됐고, 급등하다가 전고점인 16만7200원에 미치지 못한 상태에서 급락하는 것을 반복해왔는데 10년 만에 그 사이클을 깼습니다.상승을 주도한 것은 외국인입니다. 지난 14일부터 8거래일 동안 외국인은 안랩 주식 137만4294주를 순매수했습니다. 이는 안랩 전체 지분의 13.7%에 달합니다. 동기간 개인은 126만5313주, 기관은 8만1746주 순매도했습니다. 개관과 개인의 매도를 외국인이 모두 흡수한 모양새입니다. 이로 인해 23일 기준 안랩 주식의 외국인 지분율은 28.2%가 됐습니다.진격의 토스뱅크, 출범 5개월 만에 235만 고객 돌파토스뱅크가 출범 5개월 만에 235만 고객을 넘어섰습니다. ‘연 2%’ 금리(세전) 혜택을 제공하는‘토스뱅크통장’의 가입 고객 수도 200만 명을 돌파했다는데요. 출범 직후 대출 영업 중단 등 제한적인 영업 상황 속에서도, 선전한 결과라는 평가입니다. 이달 21일 기준 토스뱅크를 가입·이용하는 고객은 총 235만2202명으로 이 가운데 토스뱅크통장을 개설한 고객은 205만5255명입니다. 이들 중 83.2%가 토스뱅크통장을 실제로 사용하고 있는 고객으로 1인당 평균 831만 원을 맡기고 사용한 것으로 나타났습니다. 한편 토스뱅크통장을 보유한 고객들은 월 평균 3만7200원의 이자를 받았다고 합니다. 토스뱅크는 최근 국내 은행 최초로 수시입출금 통장에 매일 이자를 지급하는 ‘지금 이자받기’ 서비스를 출시했는데요 기존 월복리에서 일복리 효과가 더해지며 이른바 ‘짠테크’ 효과를 누리는 고객들까지 더해지는 추세라고 합니다. [GDC 2022] 글로벌 무대 나선 위메이드 장현국의 일성은?위메이드가 세계 최대 게임 개발자 컨퍼런스 ‘GDC 2022’에 참석한 가운데, 발표를 맡은 장현국 위메이드 대표는 블록체인 경제 시스템을 적용한 게임을 ‘플레이 앤 언(Play and Earn)’ 게임으로 정의하는 이유를 재차 강조했습니다. 돈을 벌기 위해 플레이하는 ‘플레이 투 언(Play to Earn)’ 게임은 경제적 보상이 줄어들면 지속가능하기 어렵지만, 게임 자체가 재미있고 돈이 부수적 요소인 ‘플레이 앤 언’ 게임은 지속가능하다는 게 그 이유입니다.이와 함꼐 장 대표는 블록체인 경제 시스템을 적용한 게임이 곧 ‘메타버스’라고 밝히기도 했습니다. 서비스별 메타버스의 개념이 조금씩 다르지만 결국 가상과 현실을 연결하는 경험을 창출해내는 게 메타버스라는 것입니다. 이런 개념을 적용하면, 가상현실 속 경제가 실제 경제와 연결되는 블록체인 기반 게임은 곧 메타버스라는 게 장 대표의 의견입니다. 이날 장 대표의 발표 세션엔 많은 인파가 몰렸습니다. 그만큼 게임 개발자들의 질문도 쏟아졌는데요. 장 대표는 게임 개발자들이 손쉽게 블록체인 기반 게임을 개발할 수 있도록 내년에 오픈 SDK를 출시한다고 밝혔습니다.싸이월드, 보상프로그램 마련…공식 패밀리 코인 ‘싸이콘’싸이월드제트는 싸이월드 브랜드와 기존 코넌을 결합한 ‘싸이콘(CYCON)’을 싸이월드 생태계 공식 패밀리 코인으로 정했다고 23일 밝혔습니다. 싸이월드제트는 20년전 싸이월드 추억만 꺼내오지 않았고, 싸이콘을 통한 저장과 보상 등 다양한 보상프로그램을 준비했다고 하네요. 싸이콘은 분산형슈퍼컴퓨팅(DSC)을 목적으로 개발됐다네요. 싸이월드에 제공되는 ‘코넌드라이브’는 개인들이 보유하고 있는 고성능 PC 및 휴대폰 유휴저장용량을 연결해 활용하는 분산형 스토리지 시스템입니다. 낮에는 집에서 쉬고 있는 개인용 PC들의 저장용량을, 밤에는 사용하지 않는 PC나 휴대폰 저장용량을 활용하고, 저장용량을 제공하는 회원들에게 싸이콘으로 보상하는 시스템이라고 하네요. 한편, 싸이월드는 오는 4월2일 4시42분 공식 오픈할 예정입니다. 현재 애플 앱스토어 심사만 남아 있습니다.5G 단말기는 저렴해지는데…중저가요금제는 언제? 5세대이동통신(5G)을 지원하는 50만원대 중저가폰 출시로 주춤했던 5G 가입자 수가 다시 증가할 것으로 보입니다. 이에 통신3사 역시 동반수혜를 누릴 것으로 전망되는 가운데 3사도 단말기에 걸맞은 중저가 요금제를 마련해 소비자 부담을 낮춰야 한다는 지적이 제기됩니다. 23일 통신업계에 따르면 조만간 출시될 삼성전자의 갤럭시A53와 애플의 3세대 아이폰SE가 5G 가입자 수 증가를 견인할 것으로 보고 있습니다. 50만원대의 저렴한 가격에 프리미엄급 성능까지 갖춰 시장의 큰 기대를 받고 있기 때문입니다. 이 같은 프리미엄급 스펙의 중저가폰 출시에 힘입어 5G 가입자 증가세는 유지될 것으로 보입니다. 지난달 25일 갤럭시S22 시리즈가 ‘게임 최적화 서비스(GOS)’ 논란으로 이어가지 못한 흥행을 중저가폰이 만회한다면 올 상반기 5G 가입자 수는 2400만명을 훌쩍 넘길 전망입니다. 이처럼 5G 가입자가 빠르게 증가하고 있지만 품질 논란은 여전합니다. 특히 체감 품질 대비 고가에 형성된 5G 요금제는 통신3사의 과제입니다. 시민단체를 중심으로 5G 중저가요금제가 마련돼야 한다는 지적은 꾸준히 제기돼 왔습니다. 현재 3사의 5G 요금제는 1만원 남짓한 차이로 데이터 제공량이 10GB대와 100GB 이상으로 양극화돼 있는 기형적 구조입니다. 특히 국내 5G 가입자의 월 평균 데이터 사용량인 25GB와 맞아떨어지는 요금제는 부재합니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>2022.03.18.</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>저축은행 '평균연봉 1억 시대' 임박</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004675557?sid=101</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>작년 상상인플러스 9800만원페퍼·SBI도 9000만원에 근접OK 등 순익 일부 지방銀 추월1·2금융권 보수 역전 가능성도사진=한경DB페퍼저축은행 임직원이 지난해 8800만원의 평균 보수를 기록하면서 대형 저축은행 가운데 최고 수준의 대우를 받은 것으로 나타났다. 이제 저축은행 업계에서도 ‘연봉 1억원 시대’가 머지않았다는 분석이 나온다.18일 2021년 보수체계 연차보고서를 공시한 저축은행 22곳의 임직원 평균보수를 조사한 결과 페퍼저축은행이 8800만원으로 총자산 기준 5대 저축은행 가운데 가장 많았다. 1년 전(8000만원) 대비 800만원 늘었다. 1위 SBI저축은행은 같은 기간 8200만원에서 8500만원으로 증가해 2위를 기록했다.중형 저축은행 중에선 상상인플러스저축은행이 작년 9800만원의 임직원 평균 보수를 공시해 눈길을 끌었다. 충청권을 영업 구역으로 두고 있는 상상인플러스저축은행의 지난해 9월 기준 총자산은 1조3560억원으로 업계 25위에 불과하다. 하지만 자산 총계가 1년 전(8926억원) 대비 4634억원(52%) 급증했을 만큼 성장세가 가파르다는 평가다.일각에서는 ‘통계의 착시’에 불과하다는 지적도 나온다. 가령 총자산 1위인 SBI저축은행은 전체 임직원 608명 중 임원은 5.3%(32명)에 그쳤다. 반면 상상인플러스저축은행은 전체 63명 중 임원이 14.3%(9명)에 달한 것으로 나타났다.저축은행 / 한경 DB한 저축은행 관계자는 “임원 비율이 높을수록 평균 보수가 올라가기 때문에 실제 대졸 신입사원 연봉은 대형사가 더 크다”며 “평균 보수를 산정하는 기준도 회사마다 조금씩 다르기 때문에 일률적인 비교가 어려울 것”이라고 설명했다. 상상인플러스 관계자도 “2020년엔 ‘지급 기준’으로 공시했다가 작년엔 ‘귀속 기준’으로 바꾼 게 순위 상승에 영향을 미쳤을 것”이라고 했다.하지만 중금리 대출 확대, 디지털 전환 가속화 등으로 저축은행들이 작년 한 해 역대 최고 실적을 거둔 것을 감안하면 급여 상승 기조가 뚜렷하다는 평가다. 주요 저축은행 평균보수는 이미 케이뱅크(8000만원), 토스뱅크(6100만원) 등 인터넷은행조차 넘어섰다. 업계 1·2위인 SBI·OK저축은행의 작년 3분기 기준 당기순이익도 전북은행과 광주은행 등 일부 지방은행을 앞서 조만간 은행보다 평균 급여가 높은 저축은행이 탄생할 수 있다는 관측이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2022.03.30.</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>‘모니모’로 뭉친 삼성 금융연합군, 온라인 돌격 앞으로</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003681879?sid=101</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>카드·생명·화재·증권 등 계열사 통합한 ‘원 앱’ 이르면 4월 출시가입자 2500만, 토스 제치고 1위삼성의 금융 계열사들이 시너지를 내기 위해 통합 앱 개발 및 브랜드 정체성(BI) 개편 작업에 착수했다. 이르면 4월 삼성생명, 삼성화재, 삼성카드, 삼성증권 등 삼성 계열사 서비스를 한꺼번에 쓸 수 있는 앱 '모니모'를 출시한다. 사진은 삼성생명 본사. /뉴스1 										삼성카드·생명·화재·증권 등 삼성 금융 계열사 통합 애플리케이션 ‘모니모’(가칭)가 이르면 4월 등장한다. 빅테크 기업의 거센 도전에 맞서 삼성그룹의 금융 회사들이 통합 앱으로 반격에 나서는 것이다.각 회사의 금융 서비스를 한 앱에서 이용할 수 있도록 해 시너지를 극대화한다는 것이 삼성 측의 전략이다. 통합 앱 개발과 동시에 로고 교체까지 검토하는 상황이다. 삼성그룹 관계자는 “디지털 금융의 확산으로 핀테크(금융과 디지털 기술의 결합) 회사의 도전이 거세지고 금융의 개념도 빠르게 변하는 중”이라며 “5대 금융지주, 핀테크 기업들과 경쟁하기 위해 변화가 필요한 시점”이라고 말했다.삼성 금융 계열사는 최근 BI를 업그레이드하기 위한 TF(태스크포스)를 만들고 회사 안팎의 의견을 수렴하고 있다고 알려졌다. 삼성 관계자는 “‘삼성○○’으로 이뤄진 계열사 이름부터 원점에서 검토하는 수준의 개편 작업을 진행 중”이라고 말했다. 경쟁력 강화를 위해 지난 수십년 동안 써온 회사 이름까지 바꿀 각오가 돼 있다는 뜻이다.그래픽=송윤혜 통합 앱 출범 맞춰 “로고·사명 교체도 검토”							삼성 금융 계열사와 거래하는 소비자는 총 2500만명(중복 제외)이다. 국내 금융 앱 1위인 ‘토스’(2000만명), 1등 인터넷은행 카카오뱅크(1800만명), 최대 금융그룹인 KB금융(‘스타뱅킹’ 앱 기준 1700만명)보다 많다. 이렇게 많은 소비자를 토대로, 계열사 사이에 제대로 된 시너지를 낼 수 있다면 승산이 있다고 삼성 측은 보고 있다.이를 위한 초석은 통합 앱 ‘모니모’다. 돈을 뜻하는 ‘머니(money)’와 더한다는 뜻의 ‘모어(more)’를 합친 말이다. 삼성카드가 주도해 만들고 있다. 앱 하나에서 보험·카드·증권 서비스를 한꺼번에 쓰면서 그 과정에 사용자가 쌓은 포인트(가칭 ‘젤리’)를 사용할 수 있게 해 삼성만의 금융 생태계를 만들겠다는 계획이다.이와 동시에 삼성 금융 계열사들은 회사 이름·로고를 포함한 BI 교체를 검토하는 작업을 TF를 만들어 진행 중이다. 그동안 삼성의 금융사들은 삼성전자 등 다른 삼성 계열사와 마찬가지로 타원 안에 삼성의 영문 표기(‘SAMSUNG’)를 쓴 로고를 써 왔는데 ‘금융 계열사’라는 팀워크를 강조하기 위한 별도의 로고를 만드는 방안도 검토되는 것으로 알려졌다.한 삼성 금융 계열사 관계자는 “삼성이라는 이름에 생명⋅증권 등 업종을 붙인 회사 이름이 시대에 뒤처진다는 내부 의견이 있어 다양하게 검토하고 있다”고 했다. 모니모 앱의 로고엔 아예 ‘삼성’ 자체를 표시하지 않는 방안을 유력하게 검토 중이다.‘삼성 연합군’ 시너지 폭발할까?							삼성의 ‘금융 연합군’과 모니모가 성공할지에 대해선 의견이 엇갈린다. 한 핀테크 회사 CEO는 “삼성이 만들면 뭐가 달라도 다르지 않겠는가”라며 “특히 결제 서비스인 삼성페이와 연결된다면 시장에서 큰 시너지를 낼 수 있을 것 같다”고 했다. 한 금융지주 고위 관계자는 “삼성생명·삼성증권 등의 두꺼운 자산가 고객층과 디지털에 강한 삼성화재·카드 등의 노하우가 결합하면 폭발력 있는 서비스가 나올 가능성도 있다고 본다. 긴장할 수밖에 없다”고 말했다.회의적인 시각도 있다. 여러 금융 계열사 앱을 하나로 합치고 회사 이름만 바꾼다고 해서 이미 ‘디지털 눈높이’가 높아진 소비자의 수요를 만족시킬 수 있겠느냐는 것이다. 금융지주 계열사 간에도 데이터 공유가 쉽지 않은 현행 규제 탓에 예상만큼 시너지를 내기 어려우리라는 관측도 나온다. 여러 회사에 흩어진 금융 정보를 한데 모아 다양한 서비스를 제공하는 ‘마이데이터’ 서비스가 올해 시작됐지만, 삼성 금융 계열사들은 그마저도 자유롭지 않은 상황이다. 삼성카드 등의 대주주인 삼성생명이 지난 1월 요양병원 암 입원비 미지급 건으로 금융 당국에 기관 경고를 받아 마이데이터를 포함한 신규 사업 허가를 1년 동안 받을 수 없는 상황이기 때문이다.무엇보다 ‘공룡’ 수준으로 거대한 조직과 보수적인 문화를 바꿔야 빅테크와의 경쟁에서 살아남을 수 있다는 의견이 많이 나온다. 삼성 금융 계열사 임직원은 보험 설계사를 제외하고도 약 1만6000명이다. KB금융그룹(약 2만6600명)보다는 적지만 카카오뱅크·토스(각각 약 1000명, 1500명)의 10배가 넘는 인원이다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
